--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3488854ec43ae20/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{492CD53A-62E0-48BA-B039-FCF558545C0E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{8F97E434-6C30-459D-BEB9-B46E9D478FA8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1571" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="618">
   <si>
     <t>ID</t>
   </si>
@@ -834,9 +835,6 @@
     <t>Adolescent alcohol use</t>
   </si>
   <si>
-    <t>Alcohol use by an adolescent.</t>
-  </si>
-  <si>
     <t>Alcohol use</t>
   </si>
   <si>
@@ -1852,12 +1850,45 @@
   </si>
   <si>
     <t>BCIO:042000</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Alcohol use pattern; adolescent</t>
+  </si>
+  <si>
+    <t>Pattern of use of a substance containing alcohol by an adolescent</t>
+  </si>
+  <si>
+    <t>Proccess (or state?)</t>
+  </si>
+  <si>
+    <t>Alcohol use that exhibits the attribute of abstinence</t>
+  </si>
+  <si>
+    <t>A consumption behaviour pattern that involves drinking products containing alcohol by an adolescent</t>
+  </si>
+  <si>
+    <t>Consumption behaviour pattern, Alcohol use; adolescent</t>
+  </si>
+  <si>
+    <t>A consumption behaviour pattern that involves use of a psychoactive substance by an adolescent that has not been legally sanctioned in the jurisdiction in which the user resides.</t>
+  </si>
+  <si>
+    <t>Consumption behaviour pattern, Substance use, adolescent</t>
+  </si>
+  <si>
+    <t>A consumption behaviour patterns involving use of a substance containing alcohol concurrently with use of a psychoactice substance that has not been legally sanctioned in the jusridiction in which the user resides</t>
+  </si>
+  <si>
+    <t>Consumption behaviour pattern, Alcohol use; substance use</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2332,38 +2363,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="16" style="11" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="11"/>
-    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="11"/>
-    <col min="16" max="16" width="13.42578125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="11" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="11"/>
+    <col min="7" max="7" width="35.453125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="11"/>
+    <col min="13" max="13" width="18.453125" style="11" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="11"/>
+    <col min="16" max="16" width="13.453125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="11" customWidth="1"/>
+    <col min="18" max="18" width="48.7265625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2416,10 +2447,10 @@
         <v>117</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2448,7 +2479,7 @@
       <c r="R2" s="13"/>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2474,12 +2505,12 @@
       <c r="R3" s="13"/>
       <c r="S3" s="11"/>
     </row>
-    <row r="4" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>129</v>
@@ -2500,15 +2531,15 @@
       <c r="R4" s="13"/>
       <c r="S4" s="11"/>
     </row>
-    <row r="5" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="D5" s="13" t="s">
         <v>581</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>582</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>62</v>
@@ -2526,7 +2557,7 @@
       <c r="R5" s="13"/>
       <c r="S5" s="11"/>
     </row>
-    <row r="6" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B6" s="12" t="s">
         <v>132</v>
       </c>
@@ -2552,7 +2583,7 @@
       <c r="R6" s="13"/>
       <c r="S6" s="11"/>
     </row>
-    <row r="7" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>263</v>
@@ -2585,12 +2616,12 @@
       <c r="R7" s="10"/>
       <c r="S7" s="11"/>
     </row>
-    <row r="8" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>129</v>
@@ -2611,16 +2642,16 @@
       <c r="R8" s="13"/>
       <c r="S8" s="11"/>
     </row>
-    <row r="9" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>265</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>61</v>
@@ -2644,12 +2675,12 @@
       <c r="R9" s="10"/>
       <c r="S9" s="11"/>
     </row>
-    <row r="10" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
         <v>136</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>256</v>
@@ -2670,7 +2701,7 @@
       <c r="R10" s="13"/>
       <c r="S10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
         <v>138</v>
       </c>
@@ -2699,25 +2730,29 @@
       <c r="R11" s="13"/>
       <c r="S11" s="11"/>
     </row>
-    <row r="12" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
+    <row r="12" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B12" s="10" t="s">
         <v>267</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>268</v>
+        <v>612</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="E12" s="10"/>
+        <v>613</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F12" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
       <c r="I12" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J12" s="10"/>
       <c r="K12" s="10"/>
@@ -2734,14 +2769,22 @@
       <c r="R12" s="10"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
+    <row r="13" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B13" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+        <v>270</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>614</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>615</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F13" s="10" t="s">
         <v>4</v>
       </c>
@@ -2763,14 +2806,22 @@
       <c r="R13" s="10"/>
       <c r="S13" s="11"/>
     </row>
-    <row r="14" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
+    <row r="14" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B14" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+        <v>271</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>609</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>608</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F14" s="10" t="s">
         <v>4</v>
       </c>
@@ -2792,14 +2843,22 @@
       <c r="R14" s="10"/>
       <c r="S14" s="11"/>
     </row>
-    <row r="15" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
+    <row r="15" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B15" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+        <v>272</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>611</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>610</v>
+      </c>
       <c r="F15" s="10" t="s">
         <v>4</v>
       </c>
@@ -2818,14 +2877,22 @@
       <c r="Q15" s="10"/>
       <c r="R15" s="10"/>
     </row>
-    <row r="16" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
+    <row r="16" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B16" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+        <v>273</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>616</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F16" s="10" t="s">
         <v>4</v>
       </c>
@@ -2844,21 +2911,29 @@
       <c r="Q16" s="10"/>
       <c r="R16" s="10"/>
     </row>
-    <row r="17" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
+    <row r="17" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+        <v>274</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F17" s="10" t="s">
         <v>4</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J17" s="10"/>
       <c r="K17" s="10"/>
@@ -2872,10 +2947,10 @@
       <c r="Q17" s="10"/>
       <c r="R17" s="10"/>
     </row>
-    <row r="18" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -2898,10 +2973,10 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="10"/>
     </row>
-    <row r="19" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -2924,10 +2999,10 @@
       <c r="Q19" s="10"/>
       <c r="R19" s="10"/>
     </row>
-    <row r="20" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -2950,10 +3025,10 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="10"/>
     </row>
-    <row r="21" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -2976,10 +3051,10 @@
       <c r="Q21" s="10"/>
       <c r="R21" s="10"/>
     </row>
-    <row r="22" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -3002,10 +3077,10 @@
       <c r="Q22" s="10"/>
       <c r="R22" s="10"/>
     </row>
-    <row r="23" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -3028,10 +3103,10 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="10"/>
     </row>
-    <row r="24" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -3054,18 +3129,22 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="10"/>
     </row>
-    <row r="25" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
+    <row r="25" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>607</v>
+      </c>
       <c r="B25" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="10" t="s">
         <v>284</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="E25" s="10"/>
+      <c r="E25" s="10" t="s">
+        <v>61</v>
+      </c>
       <c r="F25" s="10" t="s">
         <v>4</v>
       </c>
@@ -3084,14 +3163,14 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="10"/>
     </row>
-    <row r="26" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10" t="s">
@@ -3112,10 +3191,10 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
     </row>
-    <row r="27" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3138,10 +3217,10 @@
       <c r="Q27" s="10"/>
       <c r="R27" s="10"/>
     </row>
-    <row r="28" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -3164,13 +3243,13 @@
       <c r="Q28" s="10"/>
       <c r="R28" s="10"/>
     </row>
-    <row r="29" spans="1:18" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="C29" s="10" t="s">
         <v>291</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>292</v>
       </c>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
@@ -3178,7 +3257,7 @@
         <v>4</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="10"/>
@@ -3194,10 +3273,10 @@
       <c r="Q29" s="10"/>
       <c r="R29" s="10"/>
     </row>
-    <row r="30" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3220,10 +3299,10 @@
       <c r="Q30" s="10"/>
       <c r="R30" s="10"/>
     </row>
-    <row r="31" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -3246,10 +3325,10 @@
       <c r="Q31" s="10"/>
       <c r="R31" s="10"/>
     </row>
-    <row r="32" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3272,10 +3351,10 @@
       <c r="Q32" s="10"/>
       <c r="R32" s="10"/>
     </row>
-    <row r="33" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3298,10 +3377,10 @@
       <c r="Q33" s="10"/>
       <c r="R33" s="10"/>
     </row>
-    <row r="34" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3324,10 +3403,10 @@
       <c r="Q34" s="10"/>
       <c r="R34" s="10"/>
     </row>
-    <row r="35" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -3350,18 +3429,18 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="10"/>
     </row>
-    <row r="36" spans="1:18" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B36" s="16" t="s">
+        <v>596</v>
+      </c>
+      <c r="C36" s="16" t="s">
         <v>597</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="D36" s="16" t="s">
         <v>598</v>
-      </c>
-      <c r="D36" s="16" t="s">
-        <v>599</v>
       </c>
       <c r="E36" s="16" t="s">
         <v>61</v>
@@ -3379,20 +3458,20 @@
       <c r="N36" s="16"/>
       <c r="O36" s="16"/>
       <c r="P36" s="16" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
+        <v>601</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>602</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>603</v>
       </c>
       <c r="D37" s="15" t="s">
         <v>61</v>
@@ -3405,15 +3484,15 @@
       </c>
       <c r="M37" s="18"/>
     </row>
-    <row r="38" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="B38" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>605</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>606</v>
       </c>
       <c r="D38" s="15" t="s">
         <v>61</v>
@@ -3426,9 +3505,9 @@
       </c>
       <c r="M38" s="18"/>
     </row>
-    <row r="39" spans="1:18" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B39" s="15" t="s">
         <v>4</v>
@@ -3447,13 +3526,13 @@
       </c>
       <c r="M39" s="18"/>
     </row>
-    <row r="40" spans="1:18" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="C40" s="10" t="s">
         <v>300</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>301</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3475,13 +3554,13 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>140</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3490,7 +3569,7 @@
       </c>
       <c r="G41" s="10"/>
       <c r="H41" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -3505,13 +3584,13 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
@@ -3533,13 +3612,13 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>61</v>
@@ -3563,10 +3642,10 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -3589,19 +3668,19 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>545</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="D45" s="10" t="s">
         <v>546</v>
       </c>
-      <c r="D45" s="10" t="s">
-        <v>547</v>
-      </c>
       <c r="E45" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>4</v>
@@ -3621,13 +3700,13 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>250</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D46" s="10" t="s">
         <v>242</v>
@@ -3653,10 +3732,10 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -3679,10 +3758,10 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -3705,10 +3784,10 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -3731,10 +3810,10 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -3757,10 +3836,10 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -3783,10 +3862,10 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -3809,10 +3888,10 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -3835,10 +3914,10 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="10"/>
     </row>
-    <row r="54" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -3861,10 +3940,10 @@
       <c r="Q54" s="10"/>
       <c r="R54" s="10"/>
     </row>
-    <row r="55" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -3887,10 +3966,10 @@
       <c r="Q55" s="10"/>
       <c r="R55" s="10"/>
     </row>
-    <row r="56" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -3913,10 +3992,10 @@
       <c r="Q56" s="10"/>
       <c r="R56" s="10"/>
     </row>
-    <row r="57" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -3939,10 +4018,10 @@
       <c r="Q57" s="10"/>
       <c r="R57" s="10"/>
     </row>
-    <row r="58" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -3965,10 +4044,10 @@
       <c r="Q58" s="10"/>
       <c r="R58" s="10"/>
     </row>
-    <row r="59" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -3991,10 +4070,10 @@
       <c r="Q59" s="10"/>
       <c r="R59" s="10"/>
     </row>
-    <row r="60" spans="1:18" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -4004,7 +4083,7 @@
       </c>
       <c r="G60" s="10"/>
       <c r="H60" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -4019,10 +4098,10 @@
       <c r="Q60" s="10"/>
       <c r="R60" s="10"/>
     </row>
-    <row r="61" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -4045,10 +4124,10 @@
       <c r="Q61" s="10"/>
       <c r="R61" s="10"/>
     </row>
-    <row r="62" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -4071,10 +4150,10 @@
       <c r="Q62" s="10"/>
       <c r="R62" s="10"/>
     </row>
-    <row r="63" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4097,10 +4176,10 @@
       <c r="Q63" s="10"/>
       <c r="R63" s="10"/>
     </row>
-    <row r="64" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -4123,10 +4202,10 @@
       <c r="Q64" s="10"/>
       <c r="R64" s="10"/>
     </row>
-    <row r="65" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -4149,10 +4228,10 @@
       <c r="Q65" s="10"/>
       <c r="R65" s="10"/>
     </row>
-    <row r="66" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -4175,10 +4254,10 @@
       <c r="Q66" s="10"/>
       <c r="R66" s="10"/>
     </row>
-    <row r="67" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10"/>
       <c r="B67" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C67" s="10"/>
       <c r="D67" s="10"/>
@@ -4201,7 +4280,7 @@
       <c r="Q67" s="10"/>
       <c r="R67" s="10"/>
     </row>
-    <row r="68" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4217,7 +4296,7 @@
       </c>
       <c r="R68" s="13"/>
     </row>
-    <row r="69" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B69" s="12" t="s">
         <v>142</v>
       </c>
@@ -4233,10 +4312,10 @@
       </c>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
@@ -4259,7 +4338,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="10"/>
     </row>
-    <row r="71" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B71" s="12" t="s">
         <v>143</v>
       </c>
@@ -4275,10 +4354,10 @@
       </c>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -4301,10 +4380,10 @@
       <c r="Q72" s="10"/>
       <c r="R72" s="10"/>
     </row>
-    <row r="73" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -4327,10 +4406,10 @@
       <c r="Q73" s="10"/>
       <c r="R73" s="10"/>
     </row>
-    <row r="74" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -4353,10 +4432,10 @@
       <c r="Q74" s="10"/>
       <c r="R74" s="10"/>
     </row>
-    <row r="75" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10"/>
       <c r="B75" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C75" s="10"/>
       <c r="D75" s="10"/>
@@ -4379,7 +4458,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="10"/>
     </row>
-    <row r="76" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>63</v>
@@ -4409,7 +4488,7 @@
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
     </row>
-    <row r="77" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="11" t="s">
         <v>64</v>
@@ -4439,10 +4518,10 @@
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10"/>
       <c r="B78" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="10"/>
@@ -4465,7 +4544,7 @@
       <c r="Q78" s="10"/>
       <c r="R78" s="10"/>
     </row>
-    <row r="79" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="12" t="s">
         <v>144</v>
       </c>
@@ -4481,10 +4560,10 @@
       </c>
       <c r="R79" s="13"/>
     </row>
-    <row r="80" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="10"/>
@@ -4507,10 +4586,10 @@
       <c r="Q80" s="10"/>
       <c r="R80" s="10"/>
     </row>
-    <row r="81" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10"/>
       <c r="B81" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="10"/>
@@ -4533,13 +4612,13 @@
       <c r="Q81" s="10"/>
       <c r="R81" s="10"/>
     </row>
-    <row r="82" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
       <c r="B82" s="11" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D82" s="11" t="s">
         <v>4</v>
@@ -4563,13 +4642,13 @@
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
     </row>
-    <row r="83" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="10" t="s">
         <v>285</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>286</v>
       </c>
       <c r="D83" s="10"/>
       <c r="E83" s="10"/>
@@ -4577,10 +4656,10 @@
         <v>4</v>
       </c>
       <c r="G83" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="H83" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>339</v>
       </c>
       <c r="I83" s="10"/>
       <c r="J83" s="10"/>
@@ -4595,13 +4674,13 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="10"/>
     </row>
-    <row r="84" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10" t="s">
@@ -4620,10 +4699,10 @@
       <c r="Q84" s="10"/>
       <c r="R84" s="10"/>
     </row>
-    <row r="85" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -4646,10 +4725,10 @@
       <c r="Q85" s="10"/>
       <c r="R85" s="10"/>
     </row>
-    <row r="86" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -4672,10 +4751,10 @@
       <c r="Q86" s="10"/>
       <c r="R86" s="10"/>
     </row>
-    <row r="87" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
@@ -4698,14 +4777,14 @@
       <c r="Q87" s="10"/>
       <c r="R87" s="10"/>
     </row>
-    <row r="88" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>145</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
@@ -4726,10 +4805,10 @@
       <c r="Q88" s="10"/>
       <c r="R88" s="10"/>
     </row>
-    <row r="89" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -4750,10 +4829,10 @@
       <c r="Q89" s="10"/>
       <c r="R89" s="10"/>
     </row>
-    <row r="90" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A90" s="10"/>
       <c r="B90" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
@@ -4776,7 +4855,7 @@
       <c r="Q90" s="10"/>
       <c r="R90" s="10"/>
     </row>
-    <row r="91" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A91" s="10"/>
       <c r="B91" s="12" t="s">
         <v>120</v>
@@ -4801,7 +4880,7 @@
       <c r="Q91" s="10"/>
       <c r="R91" s="10"/>
     </row>
-    <row r="92" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="12" t="s">
         <v>146</v>
       </c>
@@ -4818,9 +4897,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="93" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F93" s="12" t="s">
         <v>4</v>
@@ -4834,10 +4913,10 @@
       </c>
       <c r="R93" s="13"/>
     </row>
-    <row r="94" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10"/>
       <c r="B94" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
@@ -4860,7 +4939,7 @@
       <c r="Q94" s="10"/>
       <c r="R94" s="10"/>
     </row>
-    <row r="95" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A95" s="10"/>
       <c r="B95" s="12" t="s">
         <v>147</v>
@@ -4886,7 +4965,7 @@
       </c>
       <c r="R95" s="10"/>
     </row>
-    <row r="96" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B96" s="12" t="s">
         <v>150</v>
       </c>
@@ -4908,10 +4987,10 @@
       </c>
       <c r="R96" s="13"/>
     </row>
-    <row r="97" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -4934,10 +5013,10 @@
       <c r="Q97" s="10"/>
       <c r="R97" s="10"/>
     </row>
-    <row r="98" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -4960,10 +5039,10 @@
       <c r="Q98" s="10"/>
       <c r="R98" s="10"/>
     </row>
-    <row r="99" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -4986,10 +5065,10 @@
       <c r="Q99" s="10"/>
       <c r="R99" s="10"/>
     </row>
-    <row r="100" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -5012,10 +5091,10 @@
       <c r="Q100" s="10"/>
       <c r="R100" s="10"/>
     </row>
-    <row r="101" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -5038,10 +5117,10 @@
       <c r="Q101" s="10"/>
       <c r="R101" s="10"/>
     </row>
-    <row r="102" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -5064,10 +5143,10 @@
       <c r="Q102" s="10"/>
       <c r="R102" s="10"/>
     </row>
-    <row r="103" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -5090,10 +5169,10 @@
       <c r="Q103" s="10"/>
       <c r="R103" s="10"/>
     </row>
-    <row r="104" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -5116,10 +5195,10 @@
       <c r="Q104" s="10"/>
       <c r="R104" s="10"/>
     </row>
-    <row r="105" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -5142,10 +5221,10 @@
       <c r="Q105" s="10"/>
       <c r="R105" s="10"/>
     </row>
-    <row r="106" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -5168,10 +5247,10 @@
       <c r="Q106" s="10"/>
       <c r="R106" s="10"/>
     </row>
-    <row r="107" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C107" s="10"/>
       <c r="D107" s="10"/>
@@ -5194,13 +5273,13 @@
       <c r="Q107" s="10"/>
       <c r="R107" s="10"/>
     </row>
-    <row r="108" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="C108" s="10" t="s">
         <v>360</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>361</v>
       </c>
       <c r="D108" s="10"/>
       <c r="E108" s="10"/>
@@ -5222,10 +5301,10 @@
       <c r="Q108" s="10"/>
       <c r="R108" s="10"/>
     </row>
-    <row r="109" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
@@ -5247,10 +5326,10 @@
       <c r="Q109" s="10"/>
       <c r="R109" s="10"/>
     </row>
-    <row r="110" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -5261,7 +5340,7 @@
       <c r="G110" s="10"/>
       <c r="H110" s="10"/>
       <c r="I110" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J110" s="10"/>
       <c r="K110" s="10"/>
@@ -5275,10 +5354,10 @@
       <c r="Q110" s="10"/>
       <c r="R110" s="10"/>
     </row>
-    <row r="111" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -5300,10 +5379,10 @@
       <c r="Q111" s="10"/>
       <c r="R111" s="10"/>
     </row>
-    <row r="112" spans="1:18" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -5326,10 +5405,10 @@
       <c r="Q112" s="10"/>
       <c r="R112" s="10"/>
     </row>
-    <row r="113" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -5353,10 +5432,10 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -5380,7 +5459,7 @@
       <c r="R114" s="10"/>
       <c r="S114" s="10"/>
     </row>
-    <row r="115" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>266</v>
@@ -5407,16 +5486,16 @@
       <c r="R115" s="10"/>
       <c r="S115" s="10"/>
     </row>
-    <row r="116" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E116" s="10"/>
       <c r="F116" s="10" t="s">
@@ -5438,10 +5517,10 @@
       <c r="R116" s="10"/>
       <c r="S116" s="10"/>
     </row>
-    <row r="117" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -5465,10 +5544,10 @@
       <c r="R117" s="10"/>
       <c r="S117" s="10"/>
     </row>
-    <row r="118" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -5492,10 +5571,10 @@
       <c r="R118" s="10"/>
       <c r="S118" s="10"/>
     </row>
-    <row r="119" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -5519,10 +5598,10 @@
       <c r="R119" s="10"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -5546,7 +5625,7 @@
       <c r="R120" s="10"/>
       <c r="S120" s="10"/>
     </row>
-    <row r="121" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A121" s="10"/>
       <c r="B121" s="12" t="s">
         <v>152</v>
@@ -5573,7 +5652,7 @@
       <c r="R121" s="10"/>
       <c r="S121" s="10"/>
     </row>
-    <row r="122" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="12" t="s">
         <v>153</v>
       </c>
@@ -5593,7 +5672,7 @@
       <c r="R122" s="13"/>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B123" s="12" t="s">
         <v>155</v>
       </c>
@@ -5613,12 +5692,12 @@
       <c r="R123" s="13"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F124" s="12" t="s">
         <v>4</v>
@@ -5636,10 +5715,10 @@
       <c r="R124" s="13"/>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D125" s="10"/>
       <c r="E125" s="10"/>
@@ -5648,7 +5727,7 @@
       </c>
       <c r="G125" s="10"/>
       <c r="H125" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I125" s="10"/>
       <c r="J125" s="10"/>
@@ -5664,10 +5743,10 @@
       <c r="R125" s="10"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -5691,7 +5770,7 @@
       <c r="R126" s="10"/>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10"/>
       <c r="B127" s="12" t="s">
         <v>158</v>
@@ -5718,7 +5797,7 @@
       <c r="R127" s="10"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12" t="s">
         <v>159</v>
       </c>
@@ -5735,7 +5814,7 @@
       <c r="R128" s="13"/>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12" t="s">
         <v>161</v>
       </c>
@@ -5755,7 +5834,7 @@
       <c r="R129" s="13"/>
       <c r="S129" s="10"/>
     </row>
-    <row r="130" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12" t="s">
         <v>162</v>
       </c>
@@ -5772,7 +5851,7 @@
       <c r="R130" s="13"/>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12" t="s">
         <v>163</v>
       </c>
@@ -5789,7 +5868,7 @@
       <c r="R131" s="13"/>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12" t="s">
         <v>164</v>
       </c>
@@ -5806,7 +5885,7 @@
       <c r="R132" s="13"/>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12" t="s">
         <v>165</v>
       </c>
@@ -5823,7 +5902,7 @@
       <c r="R133" s="13"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12" t="s">
         <v>166</v>
       </c>
@@ -5840,7 +5919,7 @@
       <c r="R134" s="13"/>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="12" t="s">
         <v>167</v>
       </c>
@@ -5857,7 +5936,7 @@
       <c r="R135" s="13"/>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="12" t="s">
         <v>168</v>
       </c>
@@ -5874,7 +5953,7 @@
       <c r="R136" s="13"/>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B137" s="12" t="s">
         <v>169</v>
       </c>
@@ -5891,7 +5970,7 @@
       <c r="R137" s="13"/>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12" t="s">
         <v>170</v>
       </c>
@@ -5908,7 +5987,7 @@
       <c r="R138" s="13"/>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12" t="s">
         <v>171</v>
       </c>
@@ -5925,7 +6004,7 @@
       <c r="R139" s="13"/>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="12" t="s">
         <v>172</v>
       </c>
@@ -5942,9 +6021,9 @@
       <c r="R140" s="13"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F141" s="12" t="s">
         <v>4</v>
@@ -5959,10 +6038,10 @@
       <c r="R141" s="13"/>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -5986,10 +6065,10 @@
       <c r="R142" s="10"/>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -6013,7 +6092,7 @@
       <c r="R143" s="10"/>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10"/>
       <c r="B144" s="12" t="s">
         <v>173</v>
@@ -6040,9 +6119,9 @@
       <c r="R144" s="10"/>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B145" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F145" s="12" t="s">
         <v>4</v>
@@ -6057,10 +6136,10 @@
       <c r="R145" s="13"/>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -6084,10 +6163,10 @@
       <c r="R146" s="10"/>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C147" s="10"/>
       <c r="D147" s="10"/>
@@ -6111,13 +6190,13 @@
       <c r="R147" s="10"/>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="1:19" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
+        <v>384</v>
+      </c>
+      <c r="C148" s="10" t="s">
         <v>385</v>
-      </c>
-      <c r="C148" s="10" t="s">
-        <v>386</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="10"/>
@@ -6125,7 +6204,7 @@
         <v>4</v>
       </c>
       <c r="G148" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H148" s="10"/>
       <c r="I148" s="10"/>
@@ -6142,10 +6221,10 @@
       <c r="R148" s="10"/>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
@@ -6168,10 +6247,10 @@
       <c r="R149" s="10"/>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -6195,10 +6274,10 @@
       <c r="R150" s="10"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -6222,10 +6301,10 @@
       <c r="R151" s="10"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6249,10 +6328,10 @@
       <c r="R152" s="10"/>
       <c r="S152" s="10"/>
     </row>
-    <row r="153" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6276,10 +6355,10 @@
       <c r="R153" s="10"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6303,7 +6382,7 @@
       <c r="R154" s="10"/>
       <c r="S154" s="10"/>
     </row>
-    <row r="155" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A155" s="10"/>
       <c r="B155" s="12" t="s">
         <v>174</v>
@@ -6330,9 +6409,9 @@
       <c r="R155" s="10"/>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B156" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="F156" s="12" t="s">
         <v>4</v>
@@ -6347,16 +6426,16 @@
       <c r="R156" s="13"/>
       <c r="S156" s="10"/>
     </row>
-    <row r="157" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10"/>
       <c r="B157" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="C157" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="D157" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10" t="s">
@@ -6380,7 +6459,7 @@
       <c r="R157" s="10"/>
       <c r="S157" s="10"/>
     </row>
-    <row r="158" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A158" s="10"/>
       <c r="B158" s="12" t="s">
         <v>175</v>
@@ -6406,9 +6485,9 @@
       <c r="R158" s="10"/>
       <c r="S158" s="10"/>
     </row>
-    <row r="159" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B159" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F159" s="12" t="s">
         <v>4</v>
@@ -6426,10 +6505,10 @@
       <c r="R159" s="13"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6453,10 +6532,10 @@
       <c r="R160" s="10"/>
       <c r="S160" s="10"/>
     </row>
-    <row r="161" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6467,7 +6546,7 @@
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
       <c r="I161" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J161" s="10"/>
       <c r="K161" s="10"/>
@@ -6482,10 +6561,10 @@
       <c r="R161" s="10"/>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6509,10 +6588,10 @@
       <c r="R162" s="10"/>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6536,10 +6615,10 @@
       <c r="R163" s="10"/>
       <c r="S163" s="10"/>
     </row>
-    <row r="164" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6563,10 +6642,10 @@
       <c r="R164" s="10"/>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6590,10 +6669,10 @@
       <c r="R165" s="10"/>
       <c r="S165" s="10"/>
     </row>
-    <row r="166" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6617,10 +6696,10 @@
       <c r="R166" s="10"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6644,10 +6723,10 @@
       <c r="R167" s="10"/>
       <c r="S167" s="10"/>
     </row>
-    <row r="168" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6671,10 +6750,10 @@
       <c r="R168" s="10"/>
       <c r="S168" s="10"/>
     </row>
-    <row r="169" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -6698,10 +6777,10 @@
       <c r="R169" s="10"/>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -6725,10 +6804,10 @@
       <c r="R170" s="10"/>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -6752,10 +6831,10 @@
       <c r="R171" s="10"/>
       <c r="S171" s="10"/>
     </row>
-    <row r="172" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -6779,10 +6858,10 @@
       <c r="R172" s="10"/>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -6806,7 +6885,7 @@
       <c r="R173" s="10"/>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
       <c r="B174" s="12" t="s">
         <v>176</v>
@@ -6835,13 +6914,13 @@
       <c r="R174" s="10"/>
       <c r="S174" s="10"/>
     </row>
-    <row r="175" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C175" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
@@ -6850,7 +6929,7 @@
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I175" s="10"/>
       <c r="J175" s="10"/>
@@ -6866,10 +6945,10 @@
       <c r="R175" s="10"/>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -6893,10 +6972,10 @@
       <c r="R176" s="10"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C177" s="10"/>
       <c r="D177" s="10"/>
@@ -6920,13 +6999,13 @@
       <c r="R177" s="10"/>
       <c r="S177" s="10"/>
     </row>
-    <row r="178" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A178" s="10"/>
       <c r="B178" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C178" s="10" t="s">
         <v>418</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>419</v>
       </c>
       <c r="D178" s="10" t="s">
         <v>68</v>
@@ -6953,7 +7032,7 @@
       <c r="R178" s="10"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A179" s="11"/>
       <c r="B179" s="11" t="s">
         <v>66</v>
@@ -6984,7 +7063,7 @@
       <c r="R179" s="11"/>
       <c r="S179" s="10"/>
     </row>
-    <row r="180" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="12" t="s">
         <v>177</v>
       </c>
@@ -7001,7 +7080,7 @@
       <c r="R180" s="13"/>
       <c r="S180" s="10"/>
     </row>
-    <row r="181" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="12" t="s">
         <v>178</v>
       </c>
@@ -7018,10 +7097,10 @@
       <c r="R181" s="13"/>
       <c r="S181" s="10"/>
     </row>
-    <row r="182" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="10"/>
       <c r="B182" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C182" s="10"/>
       <c r="D182" s="10"/>
@@ -7045,7 +7124,7 @@
       <c r="R182" s="10"/>
       <c r="S182" s="10"/>
     </row>
-    <row r="183" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B183" s="12" t="s">
         <v>179</v>
       </c>
@@ -7062,10 +7141,10 @@
       <c r="R183" s="13"/>
       <c r="S183" s="10"/>
     </row>
-    <row r="184" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7089,10 +7168,10 @@
       <c r="R184" s="10"/>
       <c r="S184" s="10"/>
     </row>
-    <row r="185" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7116,10 +7195,10 @@
       <c r="R185" s="10"/>
       <c r="S185" s="10"/>
     </row>
-    <row r="186" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7143,10 +7222,10 @@
       <c r="R186" s="10"/>
       <c r="S186" s="10"/>
     </row>
-    <row r="187" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -7170,7 +7249,7 @@
       <c r="R187" s="10"/>
       <c r="S187" s="10"/>
     </row>
-    <row r="188" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B188" s="12" t="s">
         <v>180</v>
       </c>
@@ -7187,10 +7266,10 @@
       <c r="R188" s="13"/>
       <c r="S188" s="10"/>
     </row>
-    <row r="189" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7214,10 +7293,10 @@
       <c r="R189" s="10"/>
       <c r="S189" s="10"/>
     </row>
-    <row r="190" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7241,10 +7320,10 @@
       <c r="R190" s="10"/>
       <c r="S190" s="10"/>
     </row>
-    <row r="191" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7268,10 +7347,10 @@
       <c r="R191" s="10"/>
       <c r="S191" s="10"/>
     </row>
-    <row r="192" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7295,10 +7374,10 @@
       <c r="R192" s="10"/>
       <c r="S192" s="10"/>
     </row>
-    <row r="193" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7322,10 +7401,10 @@
       <c r="R193" s="10"/>
       <c r="S193" s="10"/>
     </row>
-    <row r="194" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -7349,7 +7428,7 @@
       <c r="R194" s="10"/>
       <c r="S194" s="10"/>
     </row>
-    <row r="195" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="12" t="s">
         <v>181</v>
       </c>
@@ -7366,10 +7445,10 @@
       <c r="R195" s="13"/>
       <c r="S195" s="10"/>
     </row>
-    <row r="196" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -7393,7 +7472,7 @@
       <c r="R196" s="10"/>
       <c r="S196" s="10"/>
     </row>
-    <row r="197" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="12" t="s">
         <v>182</v>
       </c>
@@ -7410,7 +7489,7 @@
       <c r="R197" s="13"/>
       <c r="S197" s="10"/>
     </row>
-    <row r="198" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="12" t="s">
         <v>183</v>
       </c>
@@ -7427,7 +7506,7 @@
       <c r="R198" s="13"/>
       <c r="S198" s="10"/>
     </row>
-    <row r="199" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="12" t="s">
         <v>184</v>
       </c>
@@ -7444,7 +7523,7 @@
       <c r="R199" s="13"/>
       <c r="S199" s="10"/>
     </row>
-    <row r="200" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12" t="s">
         <v>185</v>
       </c>
@@ -7461,7 +7540,7 @@
       <c r="R200" s="13"/>
       <c r="S200" s="10"/>
     </row>
-    <row r="201" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="12" t="s">
         <v>186</v>
       </c>
@@ -7478,7 +7557,7 @@
       <c r="R201" s="13"/>
       <c r="S201" s="10"/>
     </row>
-    <row r="202" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B202" s="12" t="s">
         <v>187</v>
       </c>
@@ -7495,10 +7574,10 @@
       <c r="R202" s="13"/>
       <c r="S202" s="10"/>
     </row>
-    <row r="203" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="10"/>
       <c r="B203" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
@@ -7522,7 +7601,7 @@
       <c r="R203" s="10"/>
       <c r="S203" s="10"/>
     </row>
-    <row r="204" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B204" s="12" t="s">
         <v>188</v>
       </c>
@@ -7539,10 +7618,10 @@
       <c r="R204" s="13"/>
       <c r="S204" s="10"/>
     </row>
-    <row r="205" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7566,10 +7645,10 @@
       <c r="R205" s="10"/>
       <c r="S205" s="10"/>
     </row>
-    <row r="206" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7593,10 +7672,10 @@
       <c r="R206" s="10"/>
       <c r="S206" s="10"/>
     </row>
-    <row r="207" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7620,10 +7699,10 @@
       <c r="R207" s="10"/>
       <c r="S207" s="10"/>
     </row>
-    <row r="208" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -7647,7 +7726,7 @@
       <c r="R208" s="10"/>
       <c r="S208" s="10"/>
     </row>
-    <row r="209" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B209" s="12" t="s">
         <v>189</v>
       </c>
@@ -7664,7 +7743,7 @@
       <c r="R209" s="13"/>
       <c r="S209" s="10"/>
     </row>
-    <row r="210" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B210" s="12" t="s">
         <v>190</v>
       </c>
@@ -7684,10 +7763,10 @@
       <c r="R210" s="13"/>
       <c r="S210" s="10"/>
     </row>
-    <row r="211" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -7711,10 +7790,10 @@
       <c r="R211" s="10"/>
       <c r="S211" s="10"/>
     </row>
-    <row r="212" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -7738,10 +7817,10 @@
       <c r="R212" s="10"/>
       <c r="S212" s="10"/>
     </row>
-    <row r="213" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -7765,10 +7844,10 @@
       <c r="R213" s="10"/>
       <c r="S213" s="10"/>
     </row>
-    <row r="214" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -7792,10 +7871,10 @@
       <c r="R214" s="10"/>
       <c r="S214" s="10"/>
     </row>
-    <row r="215" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -7819,10 +7898,10 @@
       <c r="R215" s="10"/>
       <c r="S215" s="10"/>
     </row>
-    <row r="216" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -7846,7 +7925,7 @@
       <c r="R216" s="10"/>
       <c r="S216" s="10"/>
     </row>
-    <row r="217" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B217" s="12" t="s">
         <v>192</v>
       </c>
@@ -7863,10 +7942,10 @@
       <c r="R217" s="13"/>
       <c r="S217" s="10"/>
     </row>
-    <row r="218" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -7890,10 +7969,10 @@
       <c r="R218" s="10"/>
       <c r="S218" s="10"/>
     </row>
-    <row r="219" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -7917,10 +7996,10 @@
       <c r="R219" s="10"/>
       <c r="S219" s="10"/>
     </row>
-    <row r="220" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -7931,7 +8010,7 @@
       <c r="G220" s="10"/>
       <c r="H220" s="10"/>
       <c r="I220" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J220" s="10"/>
       <c r="K220" s="10"/>
@@ -7946,10 +8025,10 @@
       <c r="R220" s="10"/>
       <c r="S220" s="10"/>
     </row>
-    <row r="221" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
@@ -7973,7 +8052,7 @@
       <c r="R221" s="10"/>
       <c r="S221" s="10"/>
     </row>
-    <row r="222" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B222" s="12" t="s">
         <v>193</v>
       </c>
@@ -7990,10 +8069,10 @@
       <c r="R222" s="13"/>
       <c r="S222" s="10"/>
     </row>
-    <row r="223" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8017,10 +8096,10 @@
       <c r="R223" s="10"/>
       <c r="S223" s="10"/>
     </row>
-    <row r="224" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8044,10 +8123,10 @@
       <c r="R224" s="10"/>
       <c r="S224" s="10"/>
     </row>
-    <row r="225" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8071,10 +8150,10 @@
       <c r="R225" s="10"/>
       <c r="S225" s="10"/>
     </row>
-    <row r="226" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -8098,7 +8177,7 @@
       <c r="R226" s="10"/>
       <c r="S226" s="10"/>
     </row>
-    <row r="227" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>113</v>
@@ -8125,10 +8204,10 @@
       <c r="R227" s="10"/>
       <c r="S227" s="10"/>
     </row>
-    <row r="228" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8152,10 +8231,10 @@
       <c r="R228" s="10"/>
       <c r="S228" s="10"/>
     </row>
-    <row r="229" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8179,10 +8258,10 @@
       <c r="R229" s="10"/>
       <c r="S229" s="10"/>
     </row>
-    <row r="230" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8206,10 +8285,10 @@
       <c r="R230" s="10"/>
       <c r="S230" s="10"/>
     </row>
-    <row r="231" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8233,10 +8312,10 @@
       <c r="R231" s="10"/>
       <c r="S231" s="10"/>
     </row>
-    <row r="232" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8260,10 +8339,10 @@
       <c r="R232" s="10"/>
       <c r="S232" s="10"/>
     </row>
-    <row r="233" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
@@ -8287,7 +8366,7 @@
       <c r="R233" s="10"/>
       <c r="S233" s="10"/>
     </row>
-    <row r="234" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B234" s="12" t="s">
         <v>194</v>
       </c>
@@ -8304,7 +8383,7 @@
       <c r="R234" s="13"/>
       <c r="S234" s="10"/>
     </row>
-    <row r="235" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B235" s="12" t="s">
         <v>195</v>
       </c>
@@ -8321,7 +8400,7 @@
       <c r="R235" s="13"/>
       <c r="S235" s="10"/>
     </row>
-    <row r="236" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B236" s="12" t="s">
         <v>196</v>
       </c>
@@ -8341,7 +8420,7 @@
       <c r="R236" s="13"/>
       <c r="S236" s="10"/>
     </row>
-    <row r="237" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B237" s="12" t="s">
         <v>198</v>
       </c>
@@ -8358,10 +8437,10 @@
       <c r="R237" s="13"/>
       <c r="S237" s="10"/>
     </row>
-    <row r="238" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8385,10 +8464,10 @@
       <c r="R238" s="10"/>
       <c r="S238" s="10"/>
     </row>
-    <row r="239" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8412,10 +8491,10 @@
       <c r="R239" s="10"/>
       <c r="S239" s="10"/>
     </row>
-    <row r="240" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8439,10 +8518,10 @@
       <c r="R240" s="10"/>
       <c r="S240" s="10"/>
     </row>
-    <row r="241" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8466,10 +8545,10 @@
       <c r="R241" s="10"/>
       <c r="S241" s="10"/>
     </row>
-    <row r="242" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8493,10 +8572,10 @@
       <c r="R242" s="10"/>
       <c r="S242" s="10"/>
     </row>
-    <row r="243" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8520,10 +8599,10 @@
       <c r="R243" s="10"/>
       <c r="S243" s="10"/>
     </row>
-    <row r="244" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8547,10 +8626,10 @@
       <c r="R244" s="10"/>
       <c r="S244" s="10"/>
     </row>
-    <row r="245" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8574,10 +8653,10 @@
       <c r="R245" s="10"/>
       <c r="S245" s="10"/>
     </row>
-    <row r="246" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8601,10 +8680,10 @@
       <c r="R246" s="10"/>
       <c r="S246" s="10"/>
     </row>
-    <row r="247" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -8615,7 +8694,7 @@
       <c r="G247" s="10"/>
       <c r="H247" s="10"/>
       <c r="I247" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J247" s="10"/>
       <c r="K247" s="10"/>
@@ -8630,10 +8709,10 @@
       <c r="R247" s="10"/>
       <c r="S247" s="10"/>
     </row>
-    <row r="248" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -8657,10 +8736,10 @@
       <c r="R248" s="10"/>
       <c r="S248" s="10"/>
     </row>
-    <row r="249" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -8684,10 +8763,10 @@
       <c r="R249" s="10"/>
       <c r="S249" s="10"/>
     </row>
-    <row r="250" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -8711,10 +8790,10 @@
       <c r="R250" s="10"/>
       <c r="S250" s="10"/>
     </row>
-    <row r="251" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
@@ -8738,13 +8817,13 @@
       <c r="R251" s="10"/>
       <c r="S251" s="10"/>
     </row>
-    <row r="252" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
+        <v>472</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>473</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>474</v>
       </c>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
@@ -8767,10 +8846,10 @@
       <c r="R252" s="10"/>
       <c r="S252" s="10"/>
     </row>
-    <row r="253" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -8794,10 +8873,10 @@
       <c r="R253" s="10"/>
       <c r="S253" s="10"/>
     </row>
-    <row r="254" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -8821,10 +8900,10 @@
       <c r="R254" s="10"/>
       <c r="S254" s="10"/>
     </row>
-    <row r="255" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -8848,10 +8927,10 @@
       <c r="R255" s="10"/>
       <c r="S255" s="10"/>
     </row>
-    <row r="256" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -8875,10 +8954,10 @@
       <c r="R256" s="10"/>
       <c r="S256" s="10"/>
     </row>
-    <row r="257" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
@@ -8902,13 +8981,13 @@
       <c r="R257" s="10"/>
       <c r="S257" s="10"/>
     </row>
-    <row r="258" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>246</v>
       </c>
       <c r="C258" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D258" s="10" t="s">
         <v>69</v>
@@ -8931,7 +9010,7 @@
       <c r="R258" s="10"/>
       <c r="S258" s="10"/>
     </row>
-    <row r="259" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B259" s="12" t="s">
         <v>126</v>
       </c>
@@ -8951,7 +9030,7 @@
       <c r="R259" s="13"/>
       <c r="S259" s="10"/>
     </row>
-    <row r="260" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B260" s="12" t="s">
         <v>200</v>
       </c>
@@ -8968,10 +9047,10 @@
       <c r="R260" s="13"/>
       <c r="S260" s="10"/>
     </row>
-    <row r="261" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="10"/>
       <c r="B261" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -8995,10 +9074,10 @@
       <c r="R261" s="10"/>
       <c r="S261" s="10"/>
     </row>
-    <row r="262" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9022,10 +9101,10 @@
       <c r="R262" s="10"/>
       <c r="S262" s="10"/>
     </row>
-    <row r="263" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9049,10 +9128,10 @@
       <c r="R263" s="10"/>
       <c r="S263" s="10"/>
     </row>
-    <row r="264" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9076,10 +9155,10 @@
       <c r="R264" s="10"/>
       <c r="S264" s="10"/>
     </row>
-    <row r="265" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
@@ -9103,7 +9182,7 @@
       <c r="R265" s="10"/>
       <c r="S265" s="10"/>
     </row>
-    <row r="266" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11"/>
       <c r="B266" s="11" t="s">
         <v>65</v>
@@ -9128,10 +9207,10 @@
       <c r="R266" s="11"/>
       <c r="S266" s="10"/>
     </row>
-    <row r="267" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -9155,10 +9234,10 @@
       <c r="R267" s="10"/>
       <c r="S267" s="10"/>
     </row>
-    <row r="268" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9182,10 +9261,10 @@
       <c r="R268" s="10"/>
       <c r="S268" s="10"/>
     </row>
-    <row r="269" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9209,10 +9288,10 @@
       <c r="R269" s="10"/>
       <c r="S269" s="10"/>
     </row>
-    <row r="270" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9236,10 +9315,10 @@
       <c r="R270" s="10"/>
       <c r="S270" s="10"/>
     </row>
-    <row r="271" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
@@ -9263,7 +9342,7 @@
       <c r="R271" s="10"/>
       <c r="S271" s="10"/>
     </row>
-    <row r="272" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A272" s="10"/>
       <c r="B272" s="13" t="s">
         <v>6</v>
@@ -9298,13 +9377,13 @@
       <c r="R272" s="10"/>
       <c r="S272" s="10"/>
     </row>
-    <row r="273" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C273" s="10" t="s">
         <v>490</v>
-      </c>
-      <c r="C273" s="10" t="s">
-        <v>491</v>
       </c>
       <c r="D273" s="10"/>
       <c r="E273" s="10"/>
@@ -9313,7 +9392,7 @@
       </c>
       <c r="G273" s="10"/>
       <c r="H273" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I273" s="10"/>
       <c r="J273" s="10"/>
@@ -9329,10 +9408,10 @@
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
     </row>
-    <row r="274" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="10"/>
       <c r="B274" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C274" s="10"/>
       <c r="D274" s="10"/>
@@ -9356,7 +9435,7 @@
       <c r="R274" s="10"/>
       <c r="S274" s="10"/>
     </row>
-    <row r="275" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="12" t="s">
         <v>201</v>
       </c>
@@ -9373,7 +9452,7 @@
       <c r="R275" s="13"/>
       <c r="S275" s="10"/>
     </row>
-    <row r="276" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B276" s="12" t="s">
         <v>202</v>
       </c>
@@ -9390,7 +9469,7 @@
       <c r="R276" s="13"/>
       <c r="S276" s="10"/>
     </row>
-    <row r="277" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B277" s="12" t="s">
         <v>203</v>
       </c>
@@ -9410,7 +9489,7 @@
       <c r="R277" s="13"/>
       <c r="S277" s="10"/>
     </row>
-    <row r="278" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="12" t="s">
         <v>205</v>
       </c>
@@ -9427,7 +9506,7 @@
       <c r="R278" s="13"/>
       <c r="S278" s="10"/>
     </row>
-    <row r="279" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B279" s="12" t="s">
         <v>206</v>
       </c>
@@ -9444,7 +9523,7 @@
       <c r="R279" s="13"/>
       <c r="S279" s="10"/>
     </row>
-    <row r="280" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="12" t="s">
         <v>207</v>
       </c>
@@ -9461,7 +9540,7 @@
       <c r="R280" s="13"/>
       <c r="S280" s="10"/>
     </row>
-    <row r="281" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B281" s="12" t="s">
         <v>208</v>
       </c>
@@ -9478,7 +9557,7 @@
       <c r="R281" s="13"/>
       <c r="S281" s="10"/>
     </row>
-    <row r="282" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B282" s="12" t="s">
         <v>209</v>
       </c>
@@ -9495,7 +9574,7 @@
       <c r="R282" s="13"/>
       <c r="S282" s="10"/>
     </row>
-    <row r="283" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B283" s="12" t="s">
         <v>210</v>
       </c>
@@ -9512,7 +9591,7 @@
       <c r="R283" s="13"/>
       <c r="S283" s="10"/>
     </row>
-    <row r="284" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="12" t="s">
         <v>211</v>
       </c>
@@ -9529,7 +9608,7 @@
       <c r="R284" s="13"/>
       <c r="S284" s="10"/>
     </row>
-    <row r="285" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="12" t="s">
         <v>212</v>
       </c>
@@ -9546,7 +9625,7 @@
       <c r="R285" s="13"/>
       <c r="S285" s="10"/>
     </row>
-    <row r="286" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B286" s="12" t="s">
         <v>213</v>
       </c>
@@ -9563,7 +9642,7 @@
       <c r="R286" s="13"/>
       <c r="S286" s="10"/>
     </row>
-    <row r="287" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="12" t="s">
         <v>214</v>
       </c>
@@ -9580,7 +9659,7 @@
       <c r="R287" s="13"/>
       <c r="S287" s="10"/>
     </row>
-    <row r="288" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="12" t="s">
         <v>215</v>
       </c>
@@ -9597,7 +9676,7 @@
       <c r="R288" s="13"/>
       <c r="S288" s="10"/>
     </row>
-    <row r="289" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="12" t="s">
         <v>216</v>
       </c>
@@ -9614,7 +9693,7 @@
       <c r="R289" s="13"/>
       <c r="S289" s="10"/>
     </row>
-    <row r="290" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B290" s="12" t="s">
         <v>217</v>
       </c>
@@ -9631,7 +9710,7 @@
       <c r="R290" s="13"/>
       <c r="S290" s="10"/>
     </row>
-    <row r="291" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B291" s="12" t="s">
         <v>218</v>
       </c>
@@ -9648,10 +9727,10 @@
       <c r="R291" s="13"/>
       <c r="S291" s="10"/>
     </row>
-    <row r="292" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="10"/>
       <c r="B292" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
@@ -9675,10 +9754,10 @@
       <c r="R292" s="10"/>
       <c r="S292" s="10"/>
     </row>
-    <row r="293" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -9702,10 +9781,10 @@
       <c r="R293" s="10"/>
       <c r="S293" s="10"/>
     </row>
-    <row r="294" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="10"/>
       <c r="B294" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C294" s="10"/>
       <c r="D294" s="10"/>
@@ -9729,7 +9808,7 @@
       <c r="R294" s="10"/>
       <c r="S294" s="10"/>
     </row>
-    <row r="295" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B295" s="12" t="s">
         <v>219</v>
       </c>
@@ -9746,10 +9825,10 @@
       <c r="R295" s="13"/>
       <c r="S295" s="10"/>
     </row>
-    <row r="296" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -9773,10 +9852,10 @@
       <c r="R296" s="10"/>
       <c r="S296" s="10"/>
     </row>
-    <row r="297" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -9787,7 +9866,7 @@
       <c r="G297" s="10"/>
       <c r="H297" s="10"/>
       <c r="I297" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J297" s="10"/>
       <c r="K297" s="10"/>
@@ -9802,10 +9881,10 @@
       <c r="R297" s="10"/>
       <c r="S297" s="10"/>
     </row>
-    <row r="298" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -9829,10 +9908,10 @@
       <c r="R298" s="10"/>
       <c r="S298" s="10"/>
     </row>
-    <row r="299" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
@@ -9856,7 +9935,7 @@
       <c r="R299" s="10"/>
       <c r="S299" s="10"/>
     </row>
-    <row r="300" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B300" s="12" t="s">
         <v>220</v>
       </c>
@@ -9873,7 +9952,7 @@
       <c r="R300" s="13"/>
       <c r="S300" s="10"/>
     </row>
-    <row r="301" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B301" s="12" t="s">
         <v>221</v>
       </c>
@@ -9890,10 +9969,10 @@
       <c r="R301" s="13"/>
       <c r="S301" s="10"/>
     </row>
-    <row r="302" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
@@ -9917,10 +9996,10 @@
       <c r="R302" s="10"/>
       <c r="S302" s="10"/>
     </row>
-    <row r="303" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -9944,10 +10023,10 @@
       <c r="R303" s="10"/>
       <c r="S303" s="10"/>
     </row>
-    <row r="304" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -9971,10 +10050,10 @@
       <c r="R304" s="10"/>
       <c r="S304" s="10"/>
     </row>
-    <row r="305" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -9998,10 +10077,10 @@
       <c r="R305" s="10"/>
       <c r="S305" s="10"/>
     </row>
-    <row r="306" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10025,10 +10104,10 @@
       <c r="R306" s="10"/>
       <c r="S306" s="10"/>
     </row>
-    <row r="307" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10052,10 +10131,10 @@
       <c r="R307" s="10"/>
       <c r="S307" s="10"/>
     </row>
-    <row r="308" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10079,10 +10158,10 @@
       <c r="R308" s="10"/>
       <c r="S308" s="10"/>
     </row>
-    <row r="309" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10106,10 +10185,10 @@
       <c r="R309" s="10"/>
       <c r="S309" s="10"/>
     </row>
-    <row r="310" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10133,10 +10212,10 @@
       <c r="R310" s="10"/>
       <c r="S310" s="10"/>
     </row>
-    <row r="311" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C311" s="10"/>
       <c r="D311" s="10"/>
@@ -10160,7 +10239,7 @@
       <c r="R311" s="10"/>
       <c r="S311" s="10"/>
     </row>
-    <row r="312" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="12" t="s">
         <v>222</v>
       </c>
@@ -10177,10 +10256,10 @@
       <c r="R312" s="13"/>
       <c r="S312" s="10"/>
     </row>
-    <row r="313" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A313" s="10"/>
       <c r="B313" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C313" s="10"/>
       <c r="D313" s="10"/>
@@ -10204,7 +10283,7 @@
       <c r="R313" s="10"/>
       <c r="S313" s="10"/>
     </row>
-    <row r="314" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="12" t="s">
         <v>223</v>
       </c>
@@ -10221,10 +10300,10 @@
       <c r="R314" s="13"/>
       <c r="S314" s="10"/>
     </row>
-    <row r="315" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -10248,10 +10327,10 @@
       <c r="R315" s="10"/>
       <c r="S315" s="10"/>
     </row>
-    <row r="316" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10275,10 +10354,10 @@
       <c r="R316" s="10"/>
       <c r="S316" s="10"/>
     </row>
-    <row r="317" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10302,10 +10381,10 @@
       <c r="R317" s="10"/>
       <c r="S317" s="10"/>
     </row>
-    <row r="318" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10329,10 +10408,10 @@
       <c r="R318" s="10"/>
       <c r="S318" s="10"/>
     </row>
-    <row r="319" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10356,10 +10435,10 @@
       <c r="R319" s="10"/>
       <c r="S319" s="10"/>
     </row>
-    <row r="320" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10383,10 +10462,10 @@
       <c r="R320" s="10"/>
       <c r="S320" s="10"/>
     </row>
-    <row r="321" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10410,10 +10489,10 @@
       <c r="R321" s="10"/>
       <c r="S321" s="10"/>
     </row>
-    <row r="322" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10437,10 +10516,10 @@
       <c r="R322" s="10"/>
       <c r="S322" s="10"/>
     </row>
-    <row r="323" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10464,10 +10543,10 @@
       <c r="R323" s="10"/>
       <c r="S323" s="10"/>
     </row>
-    <row r="324" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A324" s="10"/>
       <c r="B324" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
@@ -10491,7 +10570,7 @@
       <c r="R324" s="10"/>
       <c r="S324" s="10"/>
     </row>
-    <row r="325" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="12" t="s">
         <v>224</v>
       </c>
@@ -10508,7 +10587,7 @@
       <c r="R325" s="13"/>
       <c r="S325" s="10"/>
     </row>
-    <row r="326" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="12" t="s">
         <v>225</v>
       </c>
@@ -10525,10 +10604,10 @@
       <c r="R326" s="13"/>
       <c r="S326" s="10"/>
     </row>
-    <row r="327" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
@@ -10552,10 +10631,10 @@
       <c r="R327" s="10"/>
       <c r="S327" s="10"/>
     </row>
-    <row r="328" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A328" s="10"/>
       <c r="B328" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C328" s="10"/>
       <c r="D328" s="10"/>
@@ -10579,7 +10658,7 @@
       <c r="R328" s="10"/>
       <c r="S328" s="10"/>
     </row>
-    <row r="329" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="12" t="s">
         <v>129</v>
       </c>
@@ -10599,7 +10678,7 @@
       <c r="R329" s="13"/>
       <c r="S329" s="10"/>
     </row>
-    <row r="330" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="12" t="s">
         <v>227</v>
       </c>
@@ -10619,7 +10698,7 @@
       <c r="R330" s="13"/>
       <c r="S330" s="10"/>
     </row>
-    <row r="331" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="12" t="s">
         <v>228</v>
       </c>
@@ -10636,7 +10715,7 @@
       <c r="R331" s="13"/>
       <c r="S331" s="10"/>
     </row>
-    <row r="332" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="12" t="s">
         <v>229</v>
       </c>
@@ -10656,7 +10735,7 @@
       <c r="R332" s="13"/>
       <c r="S332" s="10"/>
     </row>
-    <row r="333" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="12" t="s">
         <v>230</v>
       </c>
@@ -10673,7 +10752,7 @@
       <c r="R333" s="13"/>
       <c r="S333" s="10"/>
     </row>
-    <row r="334" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="12" t="s">
         <v>231</v>
       </c>
@@ -10690,7 +10769,7 @@
       <c r="R334" s="13"/>
       <c r="S334" s="10"/>
     </row>
-    <row r="335" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="12" t="s">
         <v>232</v>
       </c>
@@ -10707,7 +10786,7 @@
       <c r="R335" s="13"/>
       <c r="S335" s="10"/>
     </row>
-    <row r="336" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="12" t="s">
         <v>131</v>
       </c>
@@ -10724,7 +10803,7 @@
       <c r="R336" s="13"/>
       <c r="S336" s="10"/>
     </row>
-    <row r="337" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="12" t="s">
         <v>233</v>
       </c>
@@ -10741,7 +10820,7 @@
       <c r="R337" s="13"/>
       <c r="S337" s="10"/>
     </row>
-    <row r="338" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="12" t="s">
         <v>234</v>
       </c>
@@ -10758,10 +10837,10 @@
       <c r="R338" s="13"/>
       <c r="S338" s="10"/>
     </row>
-    <row r="339" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="10"/>
       <c r="B339" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C339" s="10"/>
       <c r="D339" s="10"/>
@@ -10785,10 +10864,10 @@
       <c r="R339" s="10"/>
       <c r="S339" s="10"/>
     </row>
-    <row r="340" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -10812,10 +10891,10 @@
       <c r="R340" s="10"/>
       <c r="S340" s="10"/>
     </row>
-    <row r="341" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -10839,10 +10918,10 @@
       <c r="R341" s="10"/>
       <c r="S341" s="10"/>
     </row>
-    <row r="342" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -10866,10 +10945,10 @@
       <c r="R342" s="10"/>
       <c r="S342" s="10"/>
     </row>
-    <row r="343" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -10893,10 +10972,10 @@
       <c r="R343" s="10"/>
       <c r="S343" s="10"/>
     </row>
-    <row r="344" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A344" s="10"/>
       <c r="B344" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C344" s="10"/>
       <c r="D344" s="10"/>
@@ -10920,13 +10999,13 @@
       <c r="R344" s="10"/>
       <c r="S344" s="10"/>
     </row>
-    <row r="345" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A345" s="10"/>
       <c r="B345" s="10" t="s">
         <v>71</v>
       </c>
       <c r="C345" s="11" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D345" s="10"/>
       <c r="E345" s="10"/>
@@ -10949,10 +11028,10 @@
       <c r="R345" s="10"/>
       <c r="S345" s="10"/>
     </row>
-    <row r="346" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -10976,10 +11055,10 @@
       <c r="R346" s="10"/>
       <c r="S346" s="10"/>
     </row>
-    <row r="347" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C347" s="10"/>
       <c r="D347" s="10"/>
@@ -11003,10 +11082,10 @@
       <c r="R347" s="10"/>
       <c r="S347" s="10"/>
     </row>
-    <row r="348" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -11017,7 +11096,7 @@
       <c r="G348" s="10"/>
       <c r="H348" s="10"/>
       <c r="I348" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J348" s="10"/>
       <c r="K348" s="10"/>
@@ -11032,10 +11111,10 @@
       <c r="R348" s="10"/>
       <c r="S348" s="10"/>
     </row>
-    <row r="349" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11059,10 +11138,10 @@
       <c r="R349" s="10"/>
       <c r="S349" s="10"/>
     </row>
-    <row r="350" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
@@ -11086,13 +11165,13 @@
       <c r="R350" s="10"/>
       <c r="S350" s="10"/>
     </row>
-    <row r="351" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C351" s="10" t="s">
         <v>536</v>
-      </c>
-      <c r="C351" s="10" t="s">
-        <v>537</v>
       </c>
       <c r="D351" s="10"/>
       <c r="E351" s="10"/>
@@ -11115,10 +11194,10 @@
       <c r="R351" s="10"/>
       <c r="S351" s="10"/>
     </row>
-    <row r="352" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C352" s="10"/>
       <c r="D352" s="10"/>
@@ -11142,13 +11221,13 @@
       <c r="R352" s="10"/>
       <c r="S352" s="10"/>
     </row>
-    <row r="353" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C353" s="10" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D353" s="10"/>
       <c r="E353" s="10"/>
@@ -11171,10 +11250,10 @@
       <c r="R353" s="10"/>
       <c r="S353" s="10"/>
     </row>
-    <row r="354" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A354" s="10"/>
       <c r="B354" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C354" s="10"/>
       <c r="D354" s="10"/>
@@ -11198,7 +11277,7 @@
       <c r="R354" s="10"/>
       <c r="S354" s="10"/>
     </row>
-    <row r="355" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B355" s="12" t="s">
         <v>235</v>
       </c>
@@ -11215,7 +11294,7 @@
       <c r="R355" s="13"/>
       <c r="S355" s="10"/>
     </row>
-    <row r="356" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B356" s="12" t="s">
         <v>236</v>
       </c>
@@ -11232,7 +11311,7 @@
       <c r="R356" s="13"/>
       <c r="S356" s="10"/>
     </row>
-    <row r="357" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B357" s="12" t="s">
         <v>237</v>
       </c>
@@ -11249,10 +11328,10 @@
       <c r="R357" s="13"/>
       <c r="S357" s="10"/>
     </row>
-    <row r="358" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A358" s="10"/>
       <c r="B358" s="10" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C358" s="10"/>
       <c r="D358" s="10"/>
@@ -11276,7 +11355,7 @@
       <c r="R358" s="10"/>
       <c r="S358" s="10"/>
     </row>
-    <row r="359" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B359" s="12" t="s">
         <v>238</v>
       </c>
@@ -11293,7 +11372,7 @@
       <c r="R359" s="13"/>
       <c r="S359" s="10"/>
     </row>
-    <row r="360" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B360" s="12" t="s">
         <v>239</v>
       </c>
@@ -11310,7 +11389,7 @@
       <c r="R360" s="13"/>
       <c r="S360" s="10"/>
     </row>
-    <row r="361" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B361" s="12" t="s">
         <v>240</v>
       </c>
@@ -11336,10 +11415,10 @@
       <c r="R361" s="13"/>
       <c r="S361" s="10"/>
     </row>
-    <row r="362" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A362" s="10"/>
       <c r="B362" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C362" s="10"/>
       <c r="D362" s="10"/>
@@ -11363,7 +11442,7 @@
       <c r="R362" s="10"/>
       <c r="S362" s="10"/>
     </row>
-    <row r="363" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B363" s="12" t="s">
         <v>243</v>
       </c>
@@ -11380,7 +11459,7 @@
       <c r="R363" s="13"/>
       <c r="S363" s="10"/>
     </row>
-    <row r="364" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B364" s="12" t="s">
         <v>244</v>
       </c>
@@ -11406,7 +11485,7 @@
       <c r="R364" s="13"/>
       <c r="S364" s="10"/>
     </row>
-    <row r="365" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="12" t="s">
         <v>247</v>
       </c>
@@ -11423,7 +11502,7 @@
       <c r="R365" s="13"/>
       <c r="S365" s="10"/>
     </row>
-    <row r="366" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B366" s="12" t="s">
         <v>248</v>
       </c>
@@ -11446,7 +11525,7 @@
       <c r="R366" s="13"/>
       <c r="S366" s="10"/>
     </row>
-    <row r="367" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B367" s="12" t="s">
         <v>251</v>
       </c>
@@ -11463,10 +11542,10 @@
       <c r="R367" s="13"/>
       <c r="S367" s="10"/>
     </row>
-    <row r="368" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A368" s="10"/>
       <c r="B368" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
@@ -11490,7 +11569,7 @@
       <c r="R368" s="10"/>
       <c r="S368" s="10"/>
     </row>
-    <row r="369" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B369" s="12" t="s">
         <v>252</v>
       </c>
@@ -11507,10 +11586,10 @@
       <c r="R369" s="13"/>
       <c r="S369" s="10"/>
     </row>
-    <row r="370" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11521,7 +11600,7 @@
       <c r="G370" s="10"/>
       <c r="H370" s="10"/>
       <c r="I370" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="J370" s="10"/>
       <c r="K370" s="10"/>
@@ -11536,10 +11615,10 @@
       <c r="R370" s="10"/>
       <c r="S370" s="10"/>
     </row>
-    <row r="371" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -11563,10 +11642,10 @@
       <c r="R371" s="10"/>
       <c r="S371" s="10"/>
     </row>
-    <row r="372" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -11590,10 +11669,10 @@
       <c r="R372" s="10"/>
       <c r="S372" s="10"/>
     </row>
-    <row r="373" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -11617,10 +11696,10 @@
       <c r="R373" s="10"/>
       <c r="S373" s="10"/>
     </row>
-    <row r="374" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -11644,10 +11723,10 @@
       <c r="R374" s="10"/>
       <c r="S374" s="10"/>
     </row>
-    <row r="375" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -11671,10 +11750,10 @@
       <c r="R375" s="10"/>
       <c r="S375" s="10"/>
     </row>
-    <row r="376" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -11698,10 +11777,10 @@
       <c r="R376" s="10"/>
       <c r="S376" s="10"/>
     </row>
-    <row r="377" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -11725,10 +11804,10 @@
       <c r="R377" s="10"/>
       <c r="S377" s="10"/>
     </row>
-    <row r="378" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -11752,10 +11831,10 @@
       <c r="R378" s="10"/>
       <c r="S378" s="10"/>
     </row>
-    <row r="379" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -11779,10 +11858,10 @@
       <c r="R379" s="10"/>
       <c r="S379" s="10"/>
     </row>
-    <row r="380" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -11806,10 +11885,10 @@
       <c r="R380" s="10"/>
       <c r="S380" s="10"/>
     </row>
-    <row r="381" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -11833,10 +11912,10 @@
       <c r="R381" s="10"/>
       <c r="S381" s="10"/>
     </row>
-    <row r="382" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -11860,7 +11939,7 @@
       <c r="R382" s="10"/>
       <c r="S382" s="10"/>
     </row>
-    <row r="383" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="12" t="s">
         <v>137</v>
       </c>
@@ -11880,7 +11959,7 @@
       <c r="R383" s="13"/>
       <c r="S383" s="10"/>
     </row>
-    <row r="384" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="12" t="s">
         <v>254</v>
       </c>
@@ -11897,7 +11976,7 @@
       <c r="R384" s="13"/>
       <c r="S384" s="10"/>
     </row>
-    <row r="385" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="12" t="s">
         <v>255</v>
       </c>
@@ -11914,7 +11993,7 @@
       <c r="R385" s="13"/>
       <c r="S385" s="10"/>
     </row>
-    <row r="386" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="12" t="s">
         <v>256</v>
       </c>
@@ -11931,7 +12010,7 @@
       <c r="R386" s="13"/>
       <c r="S386" s="10"/>
     </row>
-    <row r="387" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="12" t="s">
         <v>257</v>
       </c>
@@ -11948,7 +12027,7 @@
       <c r="R387" s="13"/>
       <c r="S387" s="10"/>
     </row>
-    <row r="388" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B388" s="12" t="s">
         <v>258</v>
       </c>
@@ -11965,10 +12044,10 @@
       <c r="R388" s="13"/>
       <c r="S388" s="10"/>
     </row>
-    <row r="389" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
       <c r="B389" s="10" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -11992,10 +12071,10 @@
       <c r="R389" s="10"/>
       <c r="S389" s="10"/>
     </row>
-    <row r="390" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
       <c r="B390" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -12019,10 +12098,10 @@
       <c r="R390" s="10"/>
       <c r="S390" s="10"/>
     </row>
-    <row r="391" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12046,10 +12125,10 @@
       <c r="R391" s="10"/>
       <c r="S391" s="10"/>
     </row>
-    <row r="392" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -12073,7 +12152,7 @@
       <c r="R392" s="10"/>
       <c r="S392" s="10"/>
     </row>
-    <row r="393" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B393" s="12" t="s">
         <v>259</v>
       </c>
@@ -12090,7 +12169,7 @@
       <c r="R393" s="13"/>
       <c r="S393" s="10"/>
     </row>
-    <row r="394" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B394" s="12" t="s">
         <v>260</v>
       </c>
@@ -12107,13 +12186,13 @@
       <c r="R394" s="13"/>
       <c r="S394" s="10"/>
     </row>
-    <row r="395" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
+        <v>566</v>
+      </c>
+      <c r="C395" s="10" t="s">
         <v>567</v>
-      </c>
-      <c r="C395" s="10" t="s">
-        <v>568</v>
       </c>
       <c r="D395" s="10" t="s">
         <v>68</v>
@@ -12140,10 +12219,10 @@
       <c r="R395" s="10"/>
       <c r="S395" s="10"/>
     </row>
-    <row r="396" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A396" s="10"/>
       <c r="B396" s="10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C396" s="10"/>
       <c r="D396" s="10"/>
@@ -12167,7 +12246,7 @@
       <c r="R396" s="10"/>
       <c r="S396" s="10"/>
     </row>
-    <row r="397" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B397" s="12" t="s">
         <v>261</v>
       </c>
@@ -12184,7 +12263,7 @@
       <c r="R397" s="13"/>
       <c r="S397" s="10"/>
     </row>
-    <row r="398" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B398" s="12" t="s">
         <v>262</v>
       </c>
@@ -12201,13 +12280,13 @@
       <c r="R398" s="13"/>
       <c r="S398" s="10"/>
     </row>
-    <row r="399" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B399" s="13"/>
       <c r="P399" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="400" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B400" s="13"/>
       <c r="F400" s="11"/>
       <c r="G400" s="11"/>
@@ -12223,25 +12302,25 @@
       <c r="O400" s="11"/>
       <c r="P400" s="11"/>
     </row>
-    <row r="401" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B401" s="13"/>
       <c r="P401" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B402" s="13"/>
       <c r="P402" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B403" s="13"/>
       <c r="P403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B404" s="13"/>
       <c r="D404" s="11"/>
       <c r="E404" s="11"/>
@@ -12257,13 +12336,13 @@
       <c r="O404" s="11"/>
       <c r="P404" s="11"/>
     </row>
-    <row r="405" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B405" s="13"/>
       <c r="P405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B406" s="13"/>
       <c r="C406" s="11"/>
       <c r="D406" s="11"/>
@@ -12280,7 +12359,7 @@
       <c r="O406" s="11"/>
       <c r="P406" s="11"/>
     </row>
-    <row r="407" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B407" s="13"/>
       <c r="C407" s="11"/>
       <c r="D407" s="11"/>
@@ -12297,44 +12376,44 @@
       <c r="O407" s="11"/>
       <c r="P407" s="11"/>
     </row>
-    <row r="408" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B408" s="13"/>
       <c r="Q408" s="11"/>
     </row>
-    <row r="409" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B409" s="13"/>
     </row>
-    <row r="410" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B410" s="13"/>
     </row>
-    <row r="411" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B411" s="13"/>
     </row>
-    <row r="412" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:17" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="R417" s="11"/>
     </row>
-    <row r="418" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B418" s="13"/>
       <c r="Q418" s="11"/>
     </row>
-    <row r="419" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B419" s="13"/>
       <c r="C419" s="11"/>
       <c r="D419" s="11"/>
@@ -12351,7 +12430,7 @@
       <c r="O419" s="11"/>
       <c r="P419" s="11"/>
     </row>
-    <row r="420" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B420" s="13"/>
       <c r="C420" s="11"/>
       <c r="D420" s="11"/>
@@ -12369,7 +12448,7 @@
       <c r="P420" s="11"/>
       <c r="Q420" s="11"/>
     </row>
-    <row r="421" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A421" s="11"/>
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
@@ -12389,7 +12468,7 @@
       <c r="Q421" s="11"/>
       <c r="R421" s="11"/>
     </row>
-    <row r="422" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
       <c r="D422" s="11"/>
@@ -12407,11 +12486,11 @@
       <c r="P422" s="11"/>
       <c r="Q422" s="11"/>
     </row>
-    <row r="423" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B423" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S421">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S421">
     <sortCondition ref="B2:B421"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12420,23 +12499,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -12450,7 +12529,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12458,10 +12537,10 @@
         <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -12472,7 +12551,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -12480,13 +12559,13 @@
         <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -12497,7 +12576,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -12511,7 +12590,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -12522,7 +12601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -12530,10 +12609,10 @@
         <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -12544,7 +12623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -12555,7 +12634,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -12563,10 +12642,10 @@
         <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -12574,10 +12653,10 @@
         <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -12588,7 +12667,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -12599,59 +12678,59 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>574</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>575</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>592</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -12661,29 +12740,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -12721,7 +12800,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -12729,13 +12808,13 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -12749,7 +12828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -12766,7 +12845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -12777,7 +12856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -12791,7 +12870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -12808,7 +12887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -12822,7 +12901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -12839,7 +12918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -12859,14 +12938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -12874,19 +12953,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -12921,7 +13000,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -12932,7 +13011,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -12949,7 +13028,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -12966,7 +13045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -12983,7 +13062,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13000,7 +13079,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13017,7 +13096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13034,7 +13113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13051,7 +13130,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13068,7 +13147,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13085,7 +13164,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13111,7 +13190,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13137,7 +13216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13163,7 +13242,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13189,7 +13268,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13215,7 +13294,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13241,7 +13320,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13267,7 +13346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13293,7 +13372,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13319,7 +13398,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13345,7 +13424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13371,7 +13450,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13397,7 +13476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13423,7 +13502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13449,7 +13528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13475,7 +13554,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13501,7 +13580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13527,7 +13606,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -13553,7 +13632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3488854ec43ae20/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5970F768-F6A1-4DDB-B9CB-B6FA4471898F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{16CC20F6-0111-43A1-8709-BB826C1517B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D5B214AE-B110-474D-B4F2-B2D35E5F49FB}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="624">
   <si>
     <t>ID</t>
   </si>
@@ -1843,36 +1843,21 @@
     <t>BCIO:042000</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>Alcohol use pattern; adolescent</t>
   </si>
   <si>
-    <t>Pattern of use of a substance containing alcohol by an adolescent</t>
-  </si>
-  <si>
     <t>Proccess (or state?)</t>
   </si>
   <si>
-    <t>Alcohol use that exhibits the attribute of abstinence</t>
-  </si>
-  <si>
     <t>A consumption behaviour pattern that involves use of a psychoactive substance by an adolescent that has not been legally sanctioned in the jurisdiction in which the user resides.</t>
   </si>
   <si>
     <t>Consumption behaviour pattern, Substance use, adolescent</t>
   </si>
   <si>
-    <t>A consumption behaviour patterns involving use of a substance containing alcohol concurrently with use of a psychoactice substance that has not been legally sanctioned in the jusridiction in which the user resides</t>
-  </si>
-  <si>
     <t>Consumption behaviour pattern, Alcohol use; substance use</t>
   </si>
   <si>
-    <t>A consumption behaviour that involves drinking alcohol-containing product.</t>
-  </si>
-  <si>
     <t>Adolescent alcohol consumption</t>
   </si>
   <si>
@@ -1886,13 +1871,43 @@
   </si>
   <si>
     <t>Fully defined class because it is made up of the intersection of two classes.</t>
+  </si>
+  <si>
+    <t>A consumption behaviour that involves drinking an alcohol-containing product.</t>
+  </si>
+  <si>
+    <t>Pattern of use of a substance containing alcohol by an adolescent.</t>
+  </si>
+  <si>
+    <t>Alcohol use that exhibits the attribute of abstinence.</t>
+  </si>
+  <si>
+    <t>A consumption behaviour patterns involving use of a substance containing alcohol concurrently with use of a psychoactice substance that has not been legally sanctioned in the jusridiction in which the user resides.</t>
+  </si>
+  <si>
+    <t>A change quantity or pattern of alcohol consumption.</t>
+  </si>
+  <si>
+    <t>The first instance of alcohol consumption.</t>
+  </si>
+  <si>
+    <t>A reduction in alcohol consumption.</t>
+  </si>
+  <si>
+    <t>A population level pattern of alcohol consumption.</t>
+  </si>
+  <si>
+    <t>Consumption of alcohol in a manner that is deemed unacceptable in the jurisdiction in which the user resides.</t>
+  </si>
+  <si>
+    <t>Consumption of alcohol in a manner that is deemed to cause harm to the individual, others or society.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1957,6 +1972,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1978,7 +1999,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2043,6 +2064,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2383,7 +2407,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
+      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2421,7 +2445,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
@@ -2754,13 +2778,13 @@
     <row r="12" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>273</v>
@@ -2773,7 +2797,7 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>268</v>
@@ -2794,18 +2818,16 @@
       <c r="T12" s="15"/>
     </row>
     <row r="13" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>604</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="C13" s="10" t="s">
-        <v>609</v>
+      <c r="C13" s="23" t="s">
+        <v>606</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>61</v>
@@ -2832,18 +2854,16 @@
       <c r="T13" s="11"/>
     </row>
     <row r="14" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="10" t="s">
-        <v>604</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C14" s="10" t="s">
-        <v>606</v>
+      <c r="C14" s="23" t="s">
+        <v>615</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>61</v>
@@ -2870,21 +2890,19 @@
       <c r="T14" s="11"/>
     </row>
     <row r="15" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
-        <v>604</v>
-      </c>
+      <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="C15" s="10" t="s">
-        <v>608</v>
+      <c r="C15" s="23" t="s">
+        <v>616</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
         <v>267</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>4</v>
@@ -2905,18 +2923,16 @@
       <c r="S15" s="10"/>
     </row>
     <row r="16" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="10" t="s">
-        <v>604</v>
-      </c>
+      <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>611</v>
+      <c r="C16" s="23" t="s">
+        <v>617</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>61</v>
@@ -2944,9 +2960,13 @@
       <c r="B17" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="10"/>
+      <c r="C17" s="23" t="s">
+        <v>618</v>
+      </c>
       <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+      <c r="E17" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
         <v>4</v>
@@ -2971,9 +2991,13 @@
       <c r="B18" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="C18" s="10"/>
+      <c r="C18" s="23" t="s">
+        <v>620</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+      <c r="E18" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
         <v>4</v>
@@ -2998,9 +3022,13 @@
       <c r="B19" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="C19" s="10"/>
+      <c r="C19" s="23" t="s">
+        <v>621</v>
+      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+      <c r="E19" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="10" t="s">
         <v>4</v>
@@ -3025,9 +3053,13 @@
       <c r="B20" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="C20" s="10"/>
+      <c r="C20" s="23" t="s">
+        <v>619</v>
+      </c>
       <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+      <c r="E20" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="F20" s="10"/>
       <c r="G20" s="10" t="s">
         <v>4</v>
@@ -3047,14 +3079,18 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="C21" s="10"/>
+      <c r="C21" s="23" t="s">
+        <v>622</v>
+      </c>
       <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+      <c r="E21" s="23" t="s">
+        <v>111</v>
+      </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10" t="s">
         <v>4</v>
@@ -3074,14 +3110,18 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C22" s="10"/>
+      <c r="C22" s="23" t="s">
+        <v>623</v>
+      </c>
       <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+      <c r="E22" s="23" t="s">
+        <v>140</v>
+      </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
         <v>4</v>
@@ -3134,7 +3174,7 @@
         <v>273</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3488854ec43ae20/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{16CC20F6-0111-43A1-8709-BB826C1517B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{D5B214AE-B110-474D-B4F2-B2D35E5F49FB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5732E45-81D5-4C3F-86FE-CB90DC2CE02D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1597" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="630">
   <si>
     <t>ID</t>
   </si>
@@ -430,9 +430,6 @@
     <t>Abstinence</t>
   </si>
   <si>
-    <t>The behaviour of not performing an action that has previously been habitual.</t>
-  </si>
-  <si>
     <t>Dependent continuant</t>
   </si>
   <si>
@@ -1777,9 +1774,6 @@
     <t>A representation of a behaviour of a person in which that person is believed to have committed suicide.</t>
   </si>
   <si>
-    <t>Product use behaviour in which the product is a psychoactive substance and the purpose is not consistent with legal or medical guidelines.</t>
-  </si>
-  <si>
     <t>Cross reference</t>
   </si>
   <si>
@@ -1849,9 +1843,6 @@
     <t>Proccess (or state?)</t>
   </si>
   <si>
-    <t>A consumption behaviour pattern that involves use of a psychoactive substance by an adolescent that has not been legally sanctioned in the jurisdiction in which the user resides.</t>
-  </si>
-  <si>
     <t>Consumption behaviour pattern, Substance use, adolescent</t>
   </si>
   <si>
@@ -1876,12 +1867,6 @@
     <t>A consumption behaviour that involves drinking an alcohol-containing product.</t>
   </si>
   <si>
-    <t>Pattern of use of a substance containing alcohol by an adolescent.</t>
-  </si>
-  <si>
-    <t>Alcohol use that exhibits the attribute of abstinence.</t>
-  </si>
-  <si>
     <t>A consumption behaviour patterns involving use of a substance containing alcohol concurrently with use of a psychoactice substance that has not been legally sanctioned in the jusridiction in which the user resides.</t>
   </si>
   <si>
@@ -1901,13 +1886,46 @@
   </si>
   <si>
     <t>Consumption of alcohol in a manner that is deemed to cause harm to the individual, others or society.</t>
+  </si>
+  <si>
+    <t>A consumption behaviour that involves ingesting a psychoactive substance.</t>
+  </si>
+  <si>
+    <t>Substance use that is judged to be problematic by a social group.</t>
+  </si>
+  <si>
+    <t>The judgement of misuse is realtive to a social group. This does not mean something is substance misuse if it is judged to be problematic by any social group.</t>
+  </si>
+  <si>
+    <t>'Substance use' and 'has agent' some adolescent</t>
+  </si>
+  <si>
+    <t>Drinking pattern' and 'has agent' some adolescent</t>
+  </si>
+  <si>
+    <t>A drinking pattern by an adolescent.</t>
+  </si>
+  <si>
+    <t>Substance use by an adolescent.</t>
+  </si>
+  <si>
+    <t>A process attribute of alcohol consumption that involves its temporal organisation.</t>
+  </si>
+  <si>
+    <t>Abstinence in alcohol consumption.</t>
+  </si>
+  <si>
+    <t>The behaviour of not performing a behaviour of a particular type.</t>
+  </si>
+  <si>
+    <t>Abstinence only has any meaning when specifying what the behaviour is that the person is not doing.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1978,6 +1996,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1999,7 +2024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2067,6 +2092,21 @@
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2406,8 +2446,8 @@
   <dimension ref="A1:T422"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2445,7 +2485,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
@@ -2490,7 +2530,7 @@
         <v>117</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
@@ -2553,7 +2593,7 @@
         <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>129</v>
@@ -2579,10 +2619,10 @@
         <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>577</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>578</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>62</v>
@@ -2600,46 +2640,48 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="25" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="25" t="s">
         <v>133</v>
       </c>
-      <c r="E6" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="13"/>
-      <c r="O6" s="12" t="s">
+      <c r="G6" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>629</v>
+      </c>
+      <c r="O6" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="Q6" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S6" s="13"/>
-      <c r="T6" s="11"/>
+      <c r="Q6" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="S6" s="28"/>
+      <c r="T6" s="26"/>
     </row>
     <row r="7" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>263</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>264</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
         <v>76</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>4</v>
@@ -2662,10 +2704,10 @@
     </row>
     <row r="8" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>129</v>
@@ -2689,14 +2731,14 @@
     <row r="9" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>61</v>
@@ -2722,13 +2764,13 @@
     </row>
     <row r="10" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>61</v>
@@ -2748,13 +2790,13 @@
     </row>
     <row r="11" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C11" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="E11" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>140</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>77</v>
@@ -2778,16 +2820,16 @@
     <row r="12" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>607</v>
+      </c>
+      <c r="D12" s="19" t="s">
         <v>609</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>610</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>612</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>61</v>
@@ -2797,10 +2839,10 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -2820,14 +2862,16 @@
     <row r="13" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>606</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>625</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>622</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>61</v>
@@ -2856,14 +2900,16 @@
     <row r="14" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>615</v>
-      </c>
-      <c r="D14" s="10"/>
+        <v>624</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>623</v>
+      </c>
       <c r="E14" s="10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>61</v>
@@ -2892,17 +2938,17 @@
     <row r="15" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>616</v>
+        <v>627</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>4</v>
@@ -2925,14 +2971,14 @@
     <row r="16" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>61</v>
@@ -2958,10 +3004,10 @@
     <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="23" t="s">
@@ -2989,10 +3035,10 @@
     <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="23" t="s">
@@ -3020,10 +3066,10 @@
     <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="23" t="s">
@@ -3051,10 +3097,10 @@
     <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="23" t="s">
@@ -3082,10 +3128,10 @@
     <row r="21" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="23" t="s">
@@ -3113,14 +3159,14 @@
     <row r="22" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="23" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10" t="s">
@@ -3144,7 +3190,7 @@
     <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -3171,10 +3217,10 @@
     <row r="24" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
@@ -3189,7 +3235,7 @@
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
       <c r="J24" s="16" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
@@ -3198,7 +3244,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -3206,12 +3252,12 @@
     <row r="25" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="F25" s="10"/>
       <c r="G25" s="10" t="s">
@@ -3235,7 +3281,7 @@
     <row r="26" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -3262,7 +3308,7 @@
     <row r="27" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -3289,10 +3335,10 @@
     <row r="28" spans="1:19" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>287</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>288</v>
       </c>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
@@ -3301,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -3320,7 +3366,7 @@
     <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -3347,7 +3393,7 @@
     <row r="30" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -3374,7 +3420,7 @@
     <row r="31" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -3401,7 +3447,7 @@
     <row r="32" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -3428,7 +3474,7 @@
     <row r="33" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -3455,7 +3501,7 @@
     <row r="34" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -3481,17 +3527,17 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="15" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B35" s="16" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>61</v>
@@ -3509,20 +3555,20 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="15" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="15" t="s">
@@ -3538,13 +3584,13 @@
     </row>
     <row r="37" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
+        <v>598</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>599</v>
+      </c>
+      <c r="C37" s="15" t="s">
         <v>600</v>
-      </c>
-      <c r="B37" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>602</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="15" t="s">
@@ -3560,7 +3606,7 @@
     </row>
     <row r="38" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>4</v>
@@ -3583,10 +3629,10 @@
     <row r="39" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="C39" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>297</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -3612,10 +3658,10 @@
     <row r="40" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
@@ -3625,7 +3671,7 @@
       </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
@@ -3643,10 +3689,10 @@
     <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
@@ -3672,10 +3718,10 @@
     <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D42" s="10"/>
       <c r="E42" s="10" t="s">
@@ -3703,7 +3749,7 @@
     <row r="43" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -3730,17 +3776,17 @@
     <row r="44" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>541</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>542</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>4</v>
@@ -3763,17 +3809,17 @@
     <row r="45" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G45" s="10" t="s">
         <v>4</v>
@@ -3796,7 +3842,7 @@
     <row r="46" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -3823,7 +3869,7 @@
     <row r="47" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -3850,7 +3896,7 @@
     <row r="48" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -3877,7 +3923,7 @@
     <row r="49" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -3904,7 +3950,7 @@
     <row r="50" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -3931,7 +3977,7 @@
     <row r="51" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -3958,7 +4004,7 @@
     <row r="52" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -3985,7 +4031,7 @@
     <row r="53" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -4012,7 +4058,7 @@
     <row r="54" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -4039,7 +4085,7 @@
     <row r="55" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -4066,7 +4112,7 @@
     <row r="56" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -4093,7 +4139,7 @@
     <row r="57" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -4120,7 +4166,7 @@
     <row r="58" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -4147,7 +4193,7 @@
     <row r="59" spans="1:19" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C59" s="10"/>
       <c r="D59" s="10"/>
@@ -4158,7 +4204,7 @@
       </c>
       <c r="H59" s="10"/>
       <c r="I59" s="10" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J59" s="10"/>
       <c r="K59" s="10"/>
@@ -4176,7 +4222,7 @@
     <row r="60" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C60" s="10"/>
       <c r="D60" s="10"/>
@@ -4203,7 +4249,7 @@
     <row r="61" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C61" s="10"/>
       <c r="D61" s="10"/>
@@ -4230,7 +4276,7 @@
     <row r="62" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="10"/>
@@ -4257,7 +4303,7 @@
     <row r="63" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C63" s="10"/>
       <c r="D63" s="10"/>
@@ -4284,7 +4330,7 @@
     <row r="64" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C64" s="10"/>
       <c r="D64" s="10"/>
@@ -4311,7 +4357,7 @@
     <row r="65" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="10"/>
@@ -4338,7 +4384,7 @@
     <row r="66" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
@@ -4364,7 +4410,7 @@
     </row>
     <row r="67" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B67" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G67" s="12" t="s">
         <v>4</v>
@@ -4380,7 +4426,7 @@
     </row>
     <row r="68" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B68" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G68" s="12" t="s">
         <v>4</v>
@@ -4397,7 +4443,7 @@
     <row r="69" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C69" s="10"/>
       <c r="D69" s="10"/>
@@ -4423,7 +4469,7 @@
     </row>
     <row r="70" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B70" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G70" s="12" t="s">
         <v>4</v>
@@ -4440,7 +4486,7 @@
     <row r="71" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="10"/>
@@ -4467,7 +4513,7 @@
     <row r="72" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C72" s="10"/>
       <c r="D72" s="10"/>
@@ -4494,7 +4540,7 @@
     <row r="73" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C73" s="10"/>
       <c r="D73" s="10"/>
@@ -4521,7 +4567,7 @@
     <row r="74" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="10"/>
@@ -4610,7 +4656,7 @@
     <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="10"/>
@@ -4636,7 +4682,7 @@
     </row>
     <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>4</v>
@@ -4653,7 +4699,7 @@
     <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="10"/>
@@ -4680,7 +4726,7 @@
     <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="21"/>
@@ -4710,7 +4756,7 @@
         <v>111</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D81" s="10"/>
       <c r="E81" s="11" t="s">
@@ -4738,10 +4784,10 @@
     <row r="82" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="C82" s="10" t="s">
         <v>281</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>282</v>
       </c>
       <c r="D82" s="10"/>
       <c r="E82" s="10"/>
@@ -4750,10 +4796,10 @@
         <v>4</v>
       </c>
       <c r="H82" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="I82" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -4771,10 +4817,10 @@
     <row r="83" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F83" s="10"/>
       <c r="G83" s="10" t="s">
@@ -4796,7 +4842,7 @@
     <row r="84" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -4823,7 +4869,7 @@
     <row r="85" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -4850,7 +4896,7 @@
     <row r="86" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -4877,12 +4923,12 @@
     <row r="87" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
@@ -4906,7 +4952,7 @@
     <row r="88" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -4931,7 +4977,7 @@
     <row r="89" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -4982,10 +5028,10 @@
     </row>
     <row r="91" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G91" s="12" t="s">
         <v>4</v>
@@ -4999,7 +5045,7 @@
     </row>
     <row r="92" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>4</v>
@@ -5016,7 +5062,7 @@
     <row r="93" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -5043,19 +5089,19 @@
     <row r="94" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="F94" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="K94" s="13"/>
       <c r="O94" s="12">
@@ -5068,13 +5114,13 @@
     </row>
     <row r="95" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B95" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="C95" s="12" t="s">
-        <v>151</v>
-      </c>
       <c r="F95" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G95" s="12" t="s">
         <v>4</v>
@@ -5091,7 +5137,7 @@
     <row r="96" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -5118,7 +5164,7 @@
     <row r="97" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -5145,7 +5191,7 @@
     <row r="98" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -5172,7 +5218,7 @@
     <row r="99" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -5199,7 +5245,7 @@
     <row r="100" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -5226,7 +5272,7 @@
     <row r="101" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -5253,7 +5299,7 @@
     <row r="102" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -5280,7 +5326,7 @@
     <row r="103" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -5307,7 +5353,7 @@
     <row r="104" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -5334,7 +5380,7 @@
     <row r="105" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -5361,7 +5407,7 @@
     <row r="106" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -5388,10 +5434,10 @@
     <row r="107" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>357</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -5414,35 +5460,38 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="10"/>
-      <c r="B108" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10"/>
-      <c r="G108" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="10"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="10"/>
-      <c r="K108" s="10"/>
-      <c r="L108" s="10"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="10"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R108" s="10"/>
-      <c r="S108" s="10"/>
+    <row r="108" spans="1:20" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A108" s="23"/>
+      <c r="B108" s="23" t="s">
+        <v>357</v>
+      </c>
+      <c r="C108" s="25" t="s">
+        <v>626</v>
+      </c>
+      <c r="E108" s="23"/>
+      <c r="F108" s="23"/>
+      <c r="G108" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="23"/>
+      <c r="I108" s="23"/>
+      <c r="J108" s="23"/>
+      <c r="K108" s="23"/>
+      <c r="L108" s="23"/>
+      <c r="M108" s="23"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="23"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R108" s="23"/>
+      <c r="S108" s="23"/>
     </row>
     <row r="109" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -5454,7 +5503,7 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
@@ -5471,7 +5520,7 @@
     <row r="110" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -5497,7 +5546,7 @@
     <row r="111" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -5524,7 +5573,7 @@
     <row r="112" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -5552,7 +5601,7 @@
     <row r="113" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -5580,7 +5629,7 @@
     <row r="114" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -5608,14 +5657,14 @@
     <row r="115" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
@@ -5640,7 +5689,7 @@
     <row r="116" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -5668,7 +5717,7 @@
     <row r="117" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -5696,7 +5745,7 @@
     <row r="118" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -5724,7 +5773,7 @@
     <row r="119" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -5752,7 +5801,7 @@
     <row r="120" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A120" s="10"/>
       <c r="B120" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -5779,10 +5828,10 @@
     </row>
     <row r="121" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B121" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C121" s="12" t="s">
         <v>153</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="G121" s="12" t="s">
         <v>4</v>
@@ -5799,10 +5848,10 @@
     </row>
     <row r="122" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B122" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C122" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="G122" s="12" t="s">
         <v>4</v>
@@ -5819,17 +5868,17 @@
     </row>
     <row r="123" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B123" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D123" s="10"/>
       <c r="G123" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K123" s="13"/>
       <c r="O123" s="12">
@@ -5844,7 +5893,7 @@
     <row r="124" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -5853,7 +5902,7 @@
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -5872,7 +5921,7 @@
     <row r="125" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -5900,7 +5949,7 @@
     <row r="126" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10"/>
       <c r="B126" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
@@ -5927,7 +5976,7 @@
     </row>
     <row r="127" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G127" s="12" t="s">
         <v>4</v>
@@ -5944,13 +5993,13 @@
     </row>
     <row r="128" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B128" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G128" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J128" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K128" s="13"/>
       <c r="O128" s="12">
@@ -5964,7 +6013,7 @@
     </row>
     <row r="129" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>4</v>
@@ -5981,7 +6030,7 @@
     </row>
     <row r="130" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>4</v>
@@ -5998,7 +6047,7 @@
     </row>
     <row r="131" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B131" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>4</v>
@@ -6015,7 +6064,7 @@
     </row>
     <row r="132" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>4</v>
@@ -6032,7 +6081,7 @@
     </row>
     <row r="133" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>4</v>
@@ -6049,7 +6098,7 @@
     </row>
     <row r="134" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>4</v>
@@ -6066,7 +6115,7 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>4</v>
@@ -6083,7 +6132,7 @@
     </row>
     <row r="136" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B136" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>4</v>
@@ -6100,7 +6149,7 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B137" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>4</v>
@@ -6117,7 +6166,7 @@
     </row>
     <row r="138" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B138" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>4</v>
@@ -6134,7 +6183,7 @@
     </row>
     <row r="139" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>4</v>
@@ -6151,7 +6200,7 @@
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>4</v>
@@ -6169,7 +6218,7 @@
     <row r="141" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -6197,7 +6246,7 @@
     <row r="142" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -6225,7 +6274,7 @@
     <row r="143" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10"/>
       <c r="B143" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -6252,7 +6301,7 @@
     </row>
     <row r="144" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B144" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>4</v>
@@ -6270,7 +6319,7 @@
     <row r="145" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -6298,7 +6347,7 @@
     <row r="146" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -6326,10 +6375,10 @@
     <row r="147" spans="1:20" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>381</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>382</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -6338,7 +6387,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -6358,7 +6407,7 @@
     <row r="148" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -6384,7 +6433,7 @@
     <row r="149" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -6412,7 +6461,7 @@
     <row r="150" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -6440,7 +6489,7 @@
     <row r="151" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -6468,7 +6517,7 @@
     <row r="152" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6496,7 +6545,7 @@
     <row r="153" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6524,7 +6573,7 @@
     <row r="154" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="10"/>
       <c r="B154" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6551,7 +6600,7 @@
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B155" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>4</v>
@@ -6569,14 +6618,14 @@
     <row r="156" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>391</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>392</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F156" s="10"/>
       <c r="G156" s="10" t="s">
@@ -6603,7 +6652,7 @@
     <row r="157" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10"/>
       <c r="B157" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E157" s="10"/>
       <c r="F157" s="10"/>
@@ -6628,7 +6677,7 @@
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B158" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>4</v>
@@ -6649,7 +6698,7 @@
     <row r="159" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -6677,7 +6726,7 @@
     <row r="160" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6689,7 +6738,7 @@
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
@@ -6707,7 +6756,7 @@
     <row r="161" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6735,7 +6784,7 @@
     <row r="162" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6763,7 +6812,7 @@
     <row r="163" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6791,7 +6840,7 @@
     <row r="164" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6819,7 +6868,7 @@
     <row r="165" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6847,7 +6896,7 @@
     <row r="166" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6875,7 +6924,7 @@
     <row r="167" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6903,7 +6952,7 @@
     <row r="168" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6931,7 +6980,7 @@
     <row r="169" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -6959,7 +7008,7 @@
     <row r="170" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -6987,7 +7036,7 @@
     <row r="171" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7015,7 +7064,7 @@
     <row r="172" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7043,7 +7092,7 @@
     <row r="173" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A173" s="10"/>
       <c r="B173" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -7055,7 +7104,7 @@
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
       <c r="J173" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
@@ -7073,10 +7122,10 @@
     <row r="174" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>409</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
@@ -7086,7 +7135,7 @@
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
@@ -7105,7 +7154,7 @@
     <row r="175" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -7133,7 +7182,7 @@
     <row r="176" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7161,10 +7210,10 @@
     <row r="177" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="10" t="s">
@@ -7226,7 +7275,7 @@
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B179" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G179" s="12" t="s">
         <v>4</v>
@@ -7243,7 +7292,7 @@
     </row>
     <row r="180" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G180" s="12" t="s">
         <v>4</v>
@@ -7261,7 +7310,7 @@
     <row r="181" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -7288,7 +7337,7 @@
     </row>
     <row r="182" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B182" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G182" s="12" t="s">
         <v>4</v>
@@ -7306,7 +7355,7 @@
     <row r="183" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A183" s="10"/>
       <c r="B183" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -7334,7 +7383,7 @@
     <row r="184" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7362,7 +7411,7 @@
     <row r="185" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7390,7 +7439,7 @@
     <row r="186" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7417,7 +7466,7 @@
     </row>
     <row r="187" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B187" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G187" s="12" t="s">
         <v>4</v>
@@ -7435,7 +7484,7 @@
     <row r="188" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -7463,7 +7512,7 @@
     <row r="189" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7491,7 +7540,7 @@
     <row r="190" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7519,7 +7568,7 @@
     <row r="191" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7547,7 +7596,7 @@
     <row r="192" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7575,7 +7624,7 @@
     <row r="193" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7602,7 +7651,7 @@
     </row>
     <row r="194" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B194" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G194" s="12" t="s">
         <v>4</v>
@@ -7620,7 +7669,7 @@
     <row r="195" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -7647,7 +7696,7 @@
     </row>
     <row r="196" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B196" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G196" s="12" t="s">
         <v>4</v>
@@ -7664,7 +7713,7 @@
     </row>
     <row r="197" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B197" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G197" s="12" t="s">
         <v>4</v>
@@ -7681,7 +7730,7 @@
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B198" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G198" s="12" t="s">
         <v>4</v>
@@ -7698,7 +7747,7 @@
     </row>
     <row r="199" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B199" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>4</v>
@@ -7715,7 +7764,7 @@
     </row>
     <row r="200" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>4</v>
@@ -7732,7 +7781,7 @@
     </row>
     <row r="201" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G201" s="12" t="s">
         <v>4</v>
@@ -7750,7 +7799,7 @@
     <row r="202" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -7777,7 +7826,7 @@
     </row>
     <row r="203" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B203" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G203" s="12" t="s">
         <v>4</v>
@@ -7795,7 +7844,7 @@
     <row r="204" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
@@ -7823,7 +7872,7 @@
     <row r="205" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7851,7 +7900,7 @@
     <row r="206" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7879,7 +7928,7 @@
     <row r="207" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7906,7 +7955,7 @@
     </row>
     <row r="208" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B208" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G208" s="12" t="s">
         <v>4</v>
@@ -7923,13 +7972,13 @@
     </row>
     <row r="209" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B209" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G209" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J209" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="G209" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J209" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="K209" s="13"/>
       <c r="O209" s="12">
@@ -7944,7 +7993,7 @@
     <row r="210" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
@@ -7972,7 +8021,7 @@
     <row r="211" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -8000,7 +8049,7 @@
     <row r="212" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -8028,7 +8077,7 @@
     <row r="213" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8056,7 +8105,7 @@
     <row r="214" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8084,7 +8133,7 @@
     <row r="215" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8111,7 +8160,7 @@
     </row>
     <row r="216" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B216" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G216" s="12" t="s">
         <v>4</v>
@@ -8129,7 +8178,7 @@
     <row r="217" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
@@ -8157,7 +8206,7 @@
     <row r="218" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8185,7 +8234,7 @@
     <row r="219" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -8197,7 +8246,7 @@
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
@@ -8215,7 +8264,7 @@
     <row r="220" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8242,7 +8291,7 @@
     </row>
     <row r="221" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B221" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G221" s="12" t="s">
         <v>4</v>
@@ -8260,7 +8309,7 @@
     <row r="222" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -8288,7 +8337,7 @@
     <row r="223" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8316,7 +8365,7 @@
     <row r="224" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8344,7 +8393,7 @@
     <row r="225" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8400,7 +8449,7 @@
     <row r="227" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8428,7 +8477,7 @@
     <row r="228" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8456,7 +8505,7 @@
     <row r="229" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8484,7 +8533,7 @@
     <row r="230" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8512,7 +8561,7 @@
     <row r="231" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8540,7 +8589,7 @@
     <row r="232" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8567,7 +8616,7 @@
     </row>
     <row r="233" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B233" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G233" s="12" t="s">
         <v>4</v>
@@ -8584,7 +8633,7 @@
     </row>
     <row r="234" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B234" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G234" s="12" t="s">
         <v>4</v>
@@ -8601,10 +8650,10 @@
     </row>
     <row r="235" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B235" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C235" s="12" t="s">
         <v>196</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>197</v>
       </c>
       <c r="G235" s="12" t="s">
         <v>4</v>
@@ -8621,7 +8670,7 @@
     </row>
     <row r="236" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G236" s="12" t="s">
         <v>4</v>
@@ -8639,7 +8688,7 @@
     <row r="237" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -8667,7 +8716,7 @@
     <row r="238" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8695,7 +8744,7 @@
     <row r="239" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8723,7 +8772,7 @@
     <row r="240" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8751,7 +8800,7 @@
     <row r="241" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8779,7 +8828,7 @@
     <row r="242" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8807,7 +8856,7 @@
     <row r="243" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8835,7 +8884,7 @@
     <row r="244" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8863,7 +8912,7 @@
     <row r="245" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8891,7 +8940,7 @@
     <row r="246" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8903,7 +8952,7 @@
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
@@ -8921,7 +8970,7 @@
     <row r="247" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -8949,7 +8998,7 @@
     <row r="248" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -8977,7 +9026,7 @@
     <row r="249" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9005,7 +9054,7 @@
     <row r="250" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9033,10 +9082,10 @@
     <row r="251" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="C251" s="10" t="s">
         <v>469</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>470</v>
       </c>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
@@ -9063,7 +9112,7 @@
     <row r="252" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -9091,7 +9140,7 @@
     <row r="253" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9119,7 +9168,7 @@
     <row r="254" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -9147,7 +9196,7 @@
     <row r="255" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9175,7 +9224,7 @@
     <row r="256" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9203,10 +9252,10 @@
     <row r="257" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D257" s="10"/>
       <c r="E257" s="10" t="s">
@@ -9235,7 +9284,7 @@
         <v>126</v>
       </c>
       <c r="C258" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G258" s="12" t="s">
         <v>4</v>
@@ -9252,7 +9301,7 @@
     </row>
     <row r="259" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B259" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>4</v>
@@ -9270,7 +9319,7 @@
     <row r="260" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -9298,7 +9347,7 @@
     <row r="261" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A261" s="10"/>
       <c r="B261" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -9326,7 +9375,7 @@
     <row r="262" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9354,7 +9403,7 @@
     <row r="263" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9382,7 +9431,7 @@
     <row r="264" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9436,7 +9485,7 @@
     <row r="266" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9464,7 +9513,7 @@
     <row r="267" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -9492,7 +9541,7 @@
     <row r="268" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9520,7 +9569,7 @@
     <row r="269" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9548,7 +9597,7 @@
     <row r="270" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9612,10 +9661,10 @@
     <row r="272" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C272" s="10" t="s">
         <v>486</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>487</v>
       </c>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
@@ -9625,7 +9674,7 @@
       </c>
       <c r="H272" s="10"/>
       <c r="I272" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
@@ -9644,7 +9693,7 @@
     <row r="273" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
@@ -9671,7 +9720,7 @@
     </row>
     <row r="274" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B274" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G274" s="12" t="s">
         <v>4</v>
@@ -9688,7 +9737,7 @@
     </row>
     <row r="275" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B275" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G275" s="12" t="s">
         <v>4</v>
@@ -9705,10 +9754,10 @@
     </row>
     <row r="276" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B276" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C276" s="12" t="s">
         <v>203</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>204</v>
       </c>
       <c r="G276" s="12" t="s">
         <v>4</v>
@@ -9725,7 +9774,7 @@
     </row>
     <row r="277" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B277" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>4</v>
@@ -9742,7 +9791,7 @@
     </row>
     <row r="278" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B278" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G278" s="12" t="s">
         <v>4</v>
@@ -9759,7 +9808,7 @@
     </row>
     <row r="279" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B279" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G279" s="12" t="s">
         <v>4</v>
@@ -9776,7 +9825,7 @@
     </row>
     <row r="280" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B280" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>4</v>
@@ -9793,7 +9842,7 @@
     </row>
     <row r="281" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B281" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>4</v>
@@ -9810,7 +9859,7 @@
     </row>
     <row r="282" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B282" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>4</v>
@@ -9827,7 +9876,7 @@
     </row>
     <row r="283" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B283" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>4</v>
@@ -9844,7 +9893,7 @@
     </row>
     <row r="284" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>4</v>
@@ -9861,7 +9910,7 @@
     </row>
     <row r="285" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>4</v>
@@ -9878,7 +9927,7 @@
     </row>
     <row r="286" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B286" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>4</v>
@@ -9895,7 +9944,7 @@
     </row>
     <row r="287" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>4</v>
@@ -9912,7 +9961,7 @@
     </row>
     <row r="288" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>4</v>
@@ -9929,7 +9978,7 @@
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>4</v>
@@ -9946,7 +9995,7 @@
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B290" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>4</v>
@@ -9964,7 +10013,7 @@
     <row r="291" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
@@ -9992,7 +10041,7 @@
     <row r="292" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A292" s="10"/>
       <c r="B292" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
@@ -10020,7 +10069,7 @@
     <row r="293" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -10047,7 +10096,7 @@
     </row>
     <row r="294" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B294" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G294" s="12" t="s">
         <v>4</v>
@@ -10065,7 +10114,7 @@
     <row r="295" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -10093,7 +10142,7 @@
     <row r="296" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -10105,7 +10154,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
@@ -10123,7 +10172,7 @@
     <row r="297" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -10151,7 +10200,7 @@
     <row r="298" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -10178,7 +10227,7 @@
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B299" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G299" s="12" t="s">
         <v>4</v>
@@ -10195,7 +10244,7 @@
     </row>
     <row r="300" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B300" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G300" s="12" t="s">
         <v>4</v>
@@ -10213,7 +10262,7 @@
     <row r="301" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C301" s="10"/>
       <c r="D301" s="10"/>
@@ -10241,7 +10290,7 @@
     <row r="302" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
@@ -10269,7 +10318,7 @@
     <row r="303" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -10297,7 +10346,7 @@
     <row r="304" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -10325,7 +10374,7 @@
     <row r="305" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10353,7 +10402,7 @@
     <row r="306" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10381,7 +10430,7 @@
     <row r="307" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10409,7 +10458,7 @@
     <row r="308" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10437,7 +10486,7 @@
     <row r="309" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10465,7 +10514,7 @@
     <row r="310" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10492,7 +10541,7 @@
     </row>
     <row r="311" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B311" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G311" s="12" t="s">
         <v>4</v>
@@ -10510,7 +10559,7 @@
     <row r="312" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10537,7 +10586,7 @@
     </row>
     <row r="313" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>4</v>
@@ -10555,7 +10604,7 @@
     <row r="314" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -10583,7 +10632,7 @@
     <row r="315" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -10611,7 +10660,7 @@
     <row r="316" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10639,7 +10688,7 @@
     <row r="317" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10667,7 +10716,7 @@
     <row r="318" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10695,7 +10744,7 @@
     <row r="319" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10723,7 +10772,7 @@
     <row r="320" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10751,7 +10800,7 @@
     <row r="321" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10779,7 +10828,7 @@
     <row r="322" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10807,7 +10856,7 @@
     <row r="323" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10834,7 +10883,7 @@
     </row>
     <row r="324" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G324" s="12" t="s">
         <v>4</v>
@@ -10851,7 +10900,7 @@
     </row>
     <row r="325" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G325" s="12" t="s">
         <v>4</v>
@@ -10869,7 +10918,7 @@
     <row r="326" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -10897,7 +10946,7 @@
     <row r="327" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
@@ -10930,7 +10979,7 @@
         <v>4</v>
       </c>
       <c r="J328" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K328" s="13"/>
       <c r="O328" s="12">
@@ -10944,13 +10993,13 @@
     </row>
     <row r="329" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G329" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J329" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K329" s="13"/>
       <c r="O329" s="12">
@@ -10964,7 +11013,7 @@
     </row>
     <row r="330" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G330" s="12" t="s">
         <v>4</v>
@@ -10981,13 +11030,13 @@
     </row>
     <row r="331" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J331" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="K331" s="13"/>
       <c r="O331" s="12">
@@ -11001,7 +11050,7 @@
     </row>
     <row r="332" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>4</v>
@@ -11018,7 +11067,7 @@
     </row>
     <row r="333" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>4</v>
@@ -11035,7 +11084,7 @@
     </row>
     <row r="334" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>4</v>
@@ -11069,7 +11118,7 @@
     </row>
     <row r="336" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>4</v>
@@ -11086,7 +11135,7 @@
     </row>
     <row r="337" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>4</v>
@@ -11104,7 +11153,7 @@
     <row r="338" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="10"/>
       <c r="B338" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C338" s="10"/>
       <c r="D338" s="10"/>
@@ -11132,7 +11181,7 @@
     <row r="339" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A339" s="10"/>
       <c r="B339" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C339" s="10"/>
       <c r="D339" s="10"/>
@@ -11160,7 +11209,7 @@
     <row r="340" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -11188,7 +11237,7 @@
     <row r="341" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -11216,7 +11265,7 @@
     <row r="342" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11244,7 +11293,7 @@
     <row r="343" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11269,68 +11318,71 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A344" s="10"/>
-      <c r="B344" s="10" t="s">
+    <row r="344" spans="1:20" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+      <c r="A344" s="23"/>
+      <c r="B344" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C344" s="11" t="s">
-        <v>582</v>
-      </c>
-      <c r="D344" s="21"/>
-      <c r="E344" s="10"/>
-      <c r="F344" s="10"/>
-      <c r="G344" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H344" s="10"/>
-      <c r="I344" s="10"/>
-      <c r="J344" s="10"/>
-      <c r="K344" s="10"/>
-      <c r="L344" s="10"/>
-      <c r="M344" s="10"/>
-      <c r="N344" s="10"/>
-      <c r="O344" s="10"/>
-      <c r="P344" s="10"/>
-      <c r="Q344" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R344" s="10"/>
-      <c r="S344" s="10"/>
-      <c r="T344" s="10"/>
-    </row>
-    <row r="345" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="10"/>
-      <c r="B345" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C345" s="10"/>
-      <c r="D345" s="10"/>
-      <c r="E345" s="10"/>
-      <c r="F345" s="10"/>
-      <c r="G345" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H345" s="10"/>
-      <c r="I345" s="10"/>
-      <c r="J345" s="10"/>
-      <c r="K345" s="10"/>
-      <c r="L345" s="10"/>
-      <c r="M345" s="10"/>
-      <c r="N345" s="10"/>
-      <c r="O345" s="10"/>
-      <c r="P345" s="10"/>
-      <c r="Q345" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R345" s="10"/>
-      <c r="S345" s="10"/>
-      <c r="T345" s="10"/>
+      <c r="C344" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="D344" s="27"/>
+      <c r="E344" s="23"/>
+      <c r="F344" s="23"/>
+      <c r="G344" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H344" s="23"/>
+      <c r="I344" s="23"/>
+      <c r="K344" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="L344" s="23"/>
+      <c r="M344" s="23"/>
+      <c r="N344" s="23"/>
+      <c r="O344" s="23"/>
+      <c r="P344" s="23"/>
+      <c r="Q344" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R344" s="23"/>
+      <c r="S344" s="23"/>
+      <c r="T344" s="23"/>
+    </row>
+    <row r="345" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A345" s="23"/>
+      <c r="B345" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C345" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D345" s="23"/>
+      <c r="E345" s="23"/>
+      <c r="F345" s="23"/>
+      <c r="G345" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H345" s="23"/>
+      <c r="I345" s="23"/>
+      <c r="J345" s="23"/>
+      <c r="K345" s="23"/>
+      <c r="L345" s="23"/>
+      <c r="M345" s="23"/>
+      <c r="N345" s="23"/>
+      <c r="O345" s="23"/>
+      <c r="P345" s="23"/>
+      <c r="Q345" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R345" s="23"/>
+      <c r="S345" s="23"/>
+      <c r="T345" s="23"/>
     </row>
     <row r="346" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -11358,7 +11410,7 @@
     <row r="347" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C347" s="10"/>
       <c r="D347" s="10"/>
@@ -11370,7 +11422,7 @@
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
@@ -11388,7 +11440,7 @@
     <row r="348" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -11416,7 +11468,7 @@
     <row r="349" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11444,10 +11496,10 @@
     <row r="350" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C350" s="10" t="s">
         <v>532</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>533</v>
       </c>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
@@ -11474,7 +11526,7 @@
     <row r="351" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11502,10 +11554,10 @@
     <row r="352" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
@@ -11532,7 +11584,7 @@
     <row r="353" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -11559,7 +11611,7 @@
     </row>
     <row r="354" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B354" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G354" s="12" t="s">
         <v>4</v>
@@ -11576,7 +11628,7 @@
     </row>
     <row r="355" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B355" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G355" s="12" t="s">
         <v>4</v>
@@ -11593,7 +11645,7 @@
     </row>
     <row r="356" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B356" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G356" s="12" t="s">
         <v>4</v>
@@ -11611,7 +11663,7 @@
     <row r="357" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A357" s="10"/>
       <c r="B357" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
@@ -11638,7 +11690,7 @@
     </row>
     <row r="358" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B358" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G358" s="12" t="s">
         <v>4</v>
@@ -11655,7 +11707,7 @@
     </row>
     <row r="359" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B359" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G359" s="12" t="s">
         <v>4</v>
@@ -11672,16 +11724,16 @@
     </row>
     <row r="360" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B360" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="C360" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C360" s="12" t="s">
+      <c r="E360" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="E360" s="12" t="s">
-        <v>242</v>
-      </c>
       <c r="F360" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G360" s="12" t="s">
         <v>4</v>
@@ -11699,7 +11751,7 @@
     <row r="361" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A361" s="10"/>
       <c r="B361" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C361" s="10"/>
       <c r="D361" s="10"/>
@@ -11726,7 +11778,7 @@
     </row>
     <row r="362" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B362" s="12" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G362" s="12" t="s">
         <v>4</v>
@@ -11743,13 +11795,13 @@
     </row>
     <row r="363" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B363" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C363" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="C363" s="12" t="s">
+      <c r="E363" s="12" t="s">
         <v>245</v>
-      </c>
-      <c r="E363" s="12" t="s">
-        <v>246</v>
       </c>
       <c r="F363" s="12" t="s">
         <v>69</v>
@@ -11769,7 +11821,7 @@
     </row>
     <row r="364" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B364" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>4</v>
@@ -11786,13 +11838,13 @@
     </row>
     <row r="365" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C365" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="C365" s="12" t="s">
+      <c r="E365" s="12" t="s">
         <v>249</v>
-      </c>
-      <c r="E365" s="12" t="s">
-        <v>250</v>
       </c>
       <c r="G365" s="12" t="s">
         <v>4</v>
@@ -11809,7 +11861,7 @@
     </row>
     <row r="366" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B366" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G366" s="12" t="s">
         <v>4</v>
@@ -11827,7 +11879,7 @@
     <row r="367" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A367" s="10"/>
       <c r="B367" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C367" s="10"/>
       <c r="D367" s="10"/>
@@ -11854,7 +11906,7 @@
     </row>
     <row r="368" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B368" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G368" s="12" t="s">
         <v>4</v>
@@ -11872,7 +11924,7 @@
     <row r="369" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A369" s="10"/>
       <c r="B369" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C369" s="10"/>
       <c r="D369" s="10"/>
@@ -11884,7 +11936,7 @@
       <c r="H369" s="10"/>
       <c r="I369" s="10"/>
       <c r="J369" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="K369" s="10"/>
       <c r="L369" s="10"/>
@@ -11902,7 +11954,7 @@
     <row r="370" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11930,7 +11982,7 @@
     <row r="371" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -11958,7 +12010,7 @@
     <row r="372" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -11986,7 +12038,7 @@
     <row r="373" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12014,7 +12066,7 @@
     <row r="374" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12042,7 +12094,7 @@
     <row r="375" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12070,7 +12122,7 @@
     <row r="376" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12098,7 +12150,7 @@
     <row r="377" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12126,7 +12178,7 @@
     <row r="378" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12154,7 +12206,7 @@
     <row r="379" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12182,7 +12234,7 @@
     <row r="380" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12210,7 +12262,7 @@
     <row r="381" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12237,13 +12289,13 @@
     </row>
     <row r="382" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B382" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G382" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J382" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="K382" s="13"/>
       <c r="O382" s="12">
@@ -12257,7 +12309,7 @@
     </row>
     <row r="383" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G383" s="12" t="s">
         <v>4</v>
@@ -12274,7 +12326,7 @@
     </row>
     <row r="384" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G384" s="12" t="s">
         <v>4</v>
@@ -12291,7 +12343,7 @@
     </row>
     <row r="385" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G385" s="12" t="s">
         <v>4</v>
@@ -12308,7 +12360,7 @@
     </row>
     <row r="386" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G386" s="12" t="s">
         <v>4</v>
@@ -12325,7 +12377,7 @@
     </row>
     <row r="387" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
@@ -12343,7 +12395,7 @@
     <row r="388" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A388" s="10"/>
       <c r="B388" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C388" s="10"/>
       <c r="D388" s="10"/>
@@ -12371,7 +12423,7 @@
     <row r="389" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
       <c r="B389" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -12399,7 +12451,7 @@
     <row r="390" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
       <c r="B390" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -12427,7 +12479,7 @@
     <row r="391" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12454,7 +12506,7 @@
     </row>
     <row r="392" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B392" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G392" s="12" t="s">
         <v>4</v>
@@ -12471,7 +12523,7 @@
     </row>
     <row r="393" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B393" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G393" s="12" t="s">
         <v>4</v>
@@ -12489,10 +12541,10 @@
     <row r="394" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A394" s="10"/>
       <c r="B394" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C394" s="10" t="s">
         <v>563</v>
-      </c>
-      <c r="C394" s="10" t="s">
-        <v>564</v>
       </c>
       <c r="D394" s="10"/>
       <c r="E394" s="10" t="s">
@@ -12523,7 +12575,7 @@
     <row r="395" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C395" s="10"/>
       <c r="D395" s="10"/>
@@ -12550,7 +12602,7 @@
     </row>
     <row r="396" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B396" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G396" s="12" t="s">
         <v>4</v>
@@ -12567,7 +12619,7 @@
     </row>
     <row r="397" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B397" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G397" s="12" t="s">
         <v>4</v>
@@ -12845,7 +12897,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -12867,7 +12919,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>88</v>
@@ -12917,7 +12969,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -12950,7 +13002,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
@@ -12961,7 +13013,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -12991,10 +13043,10 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -13002,10 +13054,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>571</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
@@ -13013,10 +13065,10 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
@@ -13024,21 +13076,21 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>574</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -13116,7 +13168,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5732E45-81D5-4C3F-86FE-CB90DC2CE02D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603793D-35AF-4AA3-A1BF-5816199D70F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -1919,6 +1919,15 @@
   </si>
   <si>
     <t>Abstinence only has any meaning when specifying what the behaviour is that the person is not doing.</t>
+  </si>
+  <si>
+    <t>Substance use that involves using a combustible product to inhale smoke.</t>
+  </si>
+  <si>
+    <t>Tobacco smoking</t>
+  </si>
+  <si>
+    <t>Smoking in which the combustion product is a tobacco containing product.</t>
   </si>
 </sst>
 </file>
@@ -2443,11 +2452,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T422"/>
+  <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10885,6 +10894,9 @@
       <c r="B324" s="12" t="s">
         <v>223</v>
       </c>
+      <c r="C324" s="12" t="s">
+        <v>630</v>
+      </c>
       <c r="G324" s="12" t="s">
         <v>4</v>
       </c>
@@ -11793,35 +11805,29 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B363" s="12" t="s">
-        <v>243</v>
+        <v>631</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E363" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F363" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G363" s="12" t="s">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="K363" s="13"/>
-      <c r="O363" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q363" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B364" s="12" t="s">
-        <v>246</v>
+        <v>243</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>4</v>
@@ -11838,13 +11844,7 @@
     </row>
     <row r="365" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B365" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E365" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G365" s="12" t="s">
         <v>4</v>
@@ -11861,7 +11861,13 @@
     </row>
     <row r="366" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B366" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="G366" s="12" t="s">
         <v>4</v>
@@ -11877,84 +11883,71 @@
       <c r="T366" s="10"/>
     </row>
     <row r="367" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A367" s="10"/>
-      <c r="B367" s="10" t="s">
+      <c r="B367" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G367" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K367" s="13"/>
+      <c r="O367" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q367" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S367" s="13"/>
+      <c r="T367" s="10"/>
+    </row>
+    <row r="368" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A368" s="10"/>
+      <c r="B368" s="10" t="s">
         <v>543</v>
       </c>
-      <c r="C367" s="10"/>
-      <c r="D367" s="10"/>
-      <c r="E367" s="10"/>
-      <c r="F367" s="10"/>
-      <c r="G367" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H367" s="10"/>
-      <c r="I367" s="10"/>
-      <c r="J367" s="10"/>
-      <c r="K367" s="10"/>
-      <c r="L367" s="10"/>
-      <c r="M367" s="10"/>
-      <c r="N367" s="10"/>
-      <c r="O367" s="10"/>
-      <c r="P367" s="10"/>
-      <c r="Q367" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R367" s="10"/>
-      <c r="S367" s="10"/>
-      <c r="T367" s="10"/>
-    </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="12" t="s">
+      <c r="C368" s="10"/>
+      <c r="D368" s="10"/>
+      <c r="E368" s="10"/>
+      <c r="F368" s="10"/>
+      <c r="G368" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H368" s="10"/>
+      <c r="I368" s="10"/>
+      <c r="J368" s="10"/>
+      <c r="K368" s="10"/>
+      <c r="L368" s="10"/>
+      <c r="M368" s="10"/>
+      <c r="N368" s="10"/>
+      <c r="O368" s="10"/>
+      <c r="P368" s="10"/>
+      <c r="Q368" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R368" s="10"/>
+      <c r="S368" s="10"/>
+      <c r="T368" s="10"/>
+    </row>
+    <row r="369" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B369" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="G368" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K368" s="13"/>
-      <c r="O368" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q368" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S368" s="13"/>
-      <c r="T368" s="10"/>
-    </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A369" s="10"/>
-      <c r="B369" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C369" s="10"/>
-      <c r="D369" s="10"/>
-      <c r="E369" s="10"/>
-      <c r="F369" s="10"/>
-      <c r="G369" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H369" s="10"/>
-      <c r="I369" s="10"/>
-      <c r="J369" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="K369" s="10"/>
-      <c r="L369" s="10"/>
-      <c r="M369" s="10"/>
-      <c r="N369" s="10"/>
-      <c r="O369" s="10"/>
-      <c r="P369" s="10"/>
-      <c r="Q369" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R369" s="10"/>
-      <c r="S369" s="10"/>
+      <c r="G369" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K369" s="13"/>
+      <c r="O369" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q369" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11965,7 +11958,9 @@
       </c>
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
-      <c r="J370" s="10"/>
+      <c r="J370" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
       <c r="M370" s="10"/>
@@ -11979,10 +11974,10 @@
       <c r="S370" s="10"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -12007,10 +12002,10 @@
       <c r="S371" s="10"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -12035,10 +12030,10 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12063,10 +12058,10 @@
       <c r="S373" s="10"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12094,7 +12089,7 @@
     <row r="375" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12122,7 +12117,7 @@
     <row r="376" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12147,10 +12142,10 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12178,7 +12173,7 @@
     <row r="378" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12203,10 +12198,10 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12234,7 +12229,7 @@
     <row r="380" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12262,7 +12257,7 @@
     <row r="381" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12288,31 +12283,42 @@
       <c r="T381" s="10"/>
     </row>
     <row r="382" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G382" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J382" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K382" s="13"/>
-      <c r="O382" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q382" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S382" s="13"/>
+      <c r="A382" s="10"/>
+      <c r="B382" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C382" s="10"/>
+      <c r="D382" s="10"/>
+      <c r="E382" s="10"/>
+      <c r="F382" s="10"/>
+      <c r="G382" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H382" s="10"/>
+      <c r="I382" s="10"/>
+      <c r="J382" s="10"/>
+      <c r="K382" s="10"/>
+      <c r="L382" s="10"/>
+      <c r="M382" s="10"/>
+      <c r="N382" s="10"/>
+      <c r="O382" s="10"/>
+      <c r="P382" s="10"/>
+      <c r="Q382" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R382" s="10"/>
+      <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
     <row r="383" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B383" s="12" t="s">
-        <v>253</v>
+        <v>136</v>
       </c>
       <c r="G383" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J383" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="K383" s="13"/>
       <c r="O383" s="12">
@@ -12326,7 +12332,7 @@
     </row>
     <row r="384" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B384" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G384" s="12" t="s">
         <v>4</v>
@@ -12343,7 +12349,7 @@
     </row>
     <row r="385" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B385" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G385" s="12" t="s">
         <v>4</v>
@@ -12360,7 +12366,7 @@
     </row>
     <row r="386" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B386" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G386" s="12" t="s">
         <v>4</v>
@@ -12377,7 +12383,7 @@
     </row>
     <row r="387" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B387" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
@@ -12393,37 +12399,26 @@
       <c r="T387" s="10"/>
     </row>
     <row r="388" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A388" s="10"/>
-      <c r="B388" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C388" s="10"/>
-      <c r="D388" s="10"/>
-      <c r="E388" s="10"/>
-      <c r="F388" s="10"/>
-      <c r="G388" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H388" s="10"/>
-      <c r="I388" s="10"/>
-      <c r="J388" s="10"/>
-      <c r="K388" s="10"/>
-      <c r="L388" s="10"/>
-      <c r="M388" s="10"/>
-      <c r="N388" s="10"/>
-      <c r="O388" s="10"/>
-      <c r="P388" s="10"/>
-      <c r="Q388" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R388" s="10"/>
-      <c r="S388" s="10"/>
+      <c r="B388" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K388" s="13"/>
+      <c r="O388" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q388" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
     <row r="389" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A389" s="10"/>
       <c r="B389" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -12451,7 +12446,7 @@
     <row r="390" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A390" s="10"/>
       <c r="B390" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -12479,7 +12474,7 @@
     <row r="391" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12505,25 +12500,36 @@
       <c r="T391" s="10"/>
     </row>
     <row r="392" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G392" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K392" s="13"/>
-      <c r="O392" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q392" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S392" s="13"/>
+      <c r="A392" s="10"/>
+      <c r="B392" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C392" s="10"/>
+      <c r="D392" s="10"/>
+      <c r="E392" s="10"/>
+      <c r="F392" s="10"/>
+      <c r="G392" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H392" s="10"/>
+      <c r="I392" s="10"/>
+      <c r="J392" s="10"/>
+      <c r="K392" s="10"/>
+      <c r="L392" s="10"/>
+      <c r="M392" s="10"/>
+      <c r="N392" s="10"/>
+      <c r="O392" s="10"/>
+      <c r="P392" s="10"/>
+      <c r="Q392" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R392" s="10"/>
+      <c r="S392" s="10"/>
       <c r="T392" s="10"/>
     </row>
     <row r="393" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B393" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G393" s="12" t="s">
         <v>4</v>
@@ -12539,48 +12545,37 @@
       <c r="T393" s="10"/>
     </row>
     <row r="394" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A394" s="10"/>
-      <c r="B394" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C394" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="D394" s="10"/>
-      <c r="E394" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F394" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="G394" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H394" s="10"/>
-      <c r="I394" s="10"/>
-      <c r="J394" s="10"/>
-      <c r="K394" s="10"/>
-      <c r="L394" s="10"/>
-      <c r="M394" s="10"/>
-      <c r="N394" s="10"/>
-      <c r="O394" s="10"/>
-      <c r="P394" s="10"/>
-      <c r="Q394" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R394" s="10"/>
-      <c r="S394" s="10"/>
+      <c r="B394" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K394" s="13"/>
+      <c r="O394" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q394" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S394" s="13"/>
       <c r="T394" s="10"/>
     </row>
     <row r="395" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C395" s="10"/>
+        <v>562</v>
+      </c>
+      <c r="C395" s="10" t="s">
+        <v>563</v>
+      </c>
       <c r="D395" s="10"/>
-      <c r="E395" s="10"/>
-      <c r="F395" s="10"/>
+      <c r="E395" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F395" s="10" t="s">
+        <v>127</v>
+      </c>
       <c r="G395" s="10" t="s">
         <v>4</v>
       </c>
@@ -12601,25 +12596,36 @@
       <c r="T395" s="10"/>
     </row>
     <row r="396" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="G396" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K396" s="13"/>
-      <c r="O396" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q396" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S396" s="13"/>
+      <c r="A396" s="10"/>
+      <c r="B396" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C396" s="10"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H396" s="10"/>
+      <c r="I396" s="10"/>
+      <c r="J396" s="10"/>
+      <c r="K396" s="10"/>
+      <c r="L396" s="10"/>
+      <c r="M396" s="10"/>
+      <c r="N396" s="10"/>
+      <c r="O396" s="10"/>
+      <c r="P396" s="10"/>
+      <c r="Q396" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R396" s="10"/>
+      <c r="S396" s="10"/>
       <c r="T396" s="10"/>
     </row>
     <row r="397" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B397" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G397" s="12" t="s">
         <v>4</v>
@@ -12634,87 +12640,86 @@
       <c r="S397" s="13"/>
       <c r="T397" s="10"/>
     </row>
-    <row r="398" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="13"/>
-      <c r="Q398" s="10" t="s">
-        <v>123</v>
-      </c>
+    <row r="398" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B398" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K398" s="13"/>
+      <c r="O398" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q398" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S398" s="13"/>
+      <c r="T398" s="10"/>
     </row>
     <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B399" s="13"/>
-      <c r="G399" s="11"/>
-      <c r="H399" s="11"/>
-      <c r="I399" s="13"/>
-      <c r="J399" s="11"/>
-      <c r="K399" s="11"/>
-      <c r="L399" s="11"/>
-      <c r="M399" s="11">
-        <v>1</v>
-      </c>
-      <c r="N399" s="11"/>
-      <c r="O399" s="11"/>
-      <c r="P399" s="11"/>
-      <c r="Q399" s="11"/>
+      <c r="Q399" s="10" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B400" s="13"/>
-      <c r="Q400" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="401" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G400" s="11"/>
+      <c r="H400" s="11"/>
+      <c r="I400" s="13"/>
+      <c r="J400" s="11"/>
+      <c r="K400" s="11"/>
+      <c r="L400" s="11"/>
+      <c r="M400" s="11">
+        <v>1</v>
+      </c>
+      <c r="N400" s="11"/>
+      <c r="O400" s="11"/>
+      <c r="P400" s="11"/>
+      <c r="Q400" s="11"/>
+    </row>
+    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B401" s="13"/>
       <c r="Q401" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B402" s="13"/>
       <c r="Q402" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B403" s="13"/>
-      <c r="E403" s="11"/>
-      <c r="F403" s="11"/>
-      <c r="G403" s="11"/>
-      <c r="H403" s="11"/>
-      <c r="I403" s="11"/>
-      <c r="J403" s="11"/>
-      <c r="K403" s="11"/>
-      <c r="L403" s="11"/>
-      <c r="M403" s="11"/>
-      <c r="N403" s="11"/>
-      <c r="O403" s="11"/>
-      <c r="P403" s="11"/>
-      <c r="Q403" s="11"/>
-    </row>
-    <row r="404" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q403" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B404" s="13"/>
-      <c r="Q404" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="405" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="11"/>
+      <c r="I404" s="11"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="11"/>
+      <c r="L404" s="11"/>
+      <c r="M404" s="11"/>
+      <c r="N404" s="11"/>
+      <c r="O404" s="11"/>
+      <c r="P404" s="11"/>
+      <c r="Q404" s="11"/>
+    </row>
+    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B405" s="13"/>
-      <c r="C405" s="11"/>
-      <c r="D405" s="21"/>
-      <c r="E405" s="11"/>
-      <c r="F405" s="11"/>
-      <c r="G405" s="11"/>
-      <c r="H405" s="11"/>
-      <c r="I405" s="11"/>
-      <c r="J405" s="11"/>
-      <c r="K405" s="11"/>
-      <c r="L405" s="11"/>
-      <c r="M405" s="11"/>
-      <c r="N405" s="11"/>
-      <c r="O405" s="11"/>
-      <c r="P405" s="11"/>
-      <c r="Q405" s="11"/>
-    </row>
-    <row r="406" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q405" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B406" s="13"/>
       <c r="C406" s="11"/>
       <c r="D406" s="21"/>
@@ -12732,60 +12737,60 @@
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
     </row>
-    <row r="407" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B407" s="13"/>
-      <c r="R407" s="11"/>
-    </row>
-    <row r="408" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C407" s="11"/>
+      <c r="D407" s="21"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="11"/>
+      <c r="I407" s="11"/>
+      <c r="J407" s="11"/>
+      <c r="K407" s="11"/>
+      <c r="L407" s="11"/>
+      <c r="M407" s="11"/>
+      <c r="N407" s="11"/>
+      <c r="O407" s="11"/>
+      <c r="P407" s="11"/>
+      <c r="Q407" s="11"/>
+    </row>
+    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B408" s="13"/>
-    </row>
-    <row r="409" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R408" s="11"/>
+    </row>
+    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B409" s="13"/>
     </row>
-    <row r="410" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B410" s="13"/>
     </row>
-    <row r="411" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B411" s="13"/>
     </row>
-    <row r="412" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A416" s="13"/>
+    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B416" s="13"/>
-      <c r="S416" s="11"/>
     </row>
     <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A417" s="13"/>
       <c r="B417" s="13"/>
-      <c r="R417" s="11"/>
+      <c r="S417" s="11"/>
     </row>
     <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B418" s="13"/>
-      <c r="C418" s="11"/>
-      <c r="D418" s="21"/>
-      <c r="E418" s="11"/>
-      <c r="F418" s="11"/>
-      <c r="G418" s="11"/>
-      <c r="H418" s="11"/>
-      <c r="I418" s="11"/>
-      <c r="J418" s="11"/>
-      <c r="K418" s="11"/>
-      <c r="L418" s="11"/>
-      <c r="M418" s="11"/>
-      <c r="N418" s="11"/>
-      <c r="O418" s="11"/>
-      <c r="P418" s="11"/>
-      <c r="Q418" s="11"/>
+      <c r="R418" s="11"/>
     </row>
     <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B419" s="13"/>
@@ -12804,10 +12809,8 @@
       <c r="O419" s="11"/>
       <c r="P419" s="11"/>
       <c r="Q419" s="11"/>
-      <c r="R419" s="11"/>
     </row>
     <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A420" s="11"/>
       <c r="B420" s="13"/>
       <c r="C420" s="11"/>
       <c r="D420" s="21"/>
@@ -12825,9 +12828,9 @@
       <c r="P420" s="11"/>
       <c r="Q420" s="11"/>
       <c r="R420" s="11"/>
-      <c r="S420" s="11"/>
     </row>
     <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A421" s="11"/>
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
       <c r="D421" s="21"/>
@@ -12845,13 +12848,33 @@
       <c r="P421" s="11"/>
       <c r="Q421" s="11"/>
       <c r="R421" s="11"/>
-    </row>
-    <row r="422" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S421" s="11"/>
+    </row>
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B422" s="13"/>
+      <c r="C422" s="11"/>
+      <c r="D422" s="21"/>
+      <c r="E422" s="11"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="11"/>
+      <c r="I422" s="11"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="11"/>
+      <c r="L422" s="11"/>
+      <c r="M422" s="11"/>
+      <c r="N422" s="11"/>
+      <c r="O422" s="11"/>
+      <c r="P422" s="11"/>
+      <c r="Q422" s="11"/>
+      <c r="R422" s="11"/>
+    </row>
+    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B423" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T420">
-    <sortCondition ref="B2:B420"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T421">
+    <sortCondition ref="B2:B421"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603793D-35AF-4AA3-A1BF-5816199D70F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862C310-BF6C-4703-804E-454373932D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B363" sqref="B363"/>
     </sheetView>
   </sheetViews>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8862C310-BF6C-4703-804E-454373932D8A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F466D5-FF85-6341-958E-7581ECF4CEA0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="638">
   <si>
     <t>ID</t>
   </si>
@@ -1928,6 +1928,21 @@
   </si>
   <si>
     <t>Smoking in which the combustion product is a tobacco containing product.</t>
+  </si>
+  <si>
+    <t>Gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which use of a product delivering a psychoactive substance increases the likelihood of use of another product delivering a psychoactive substance.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Population gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which an increase in prevalence of use of a product delivering a psychoactive substance leads to an increase in the prevalence of use of another product delivering a psychoactive substance.</t>
   </si>
 </sst>
 </file>
@@ -2033,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2115,6 +2130,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2452,38 +2470,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T423"/>
+  <dimension ref="A1:T425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B363" sqref="B363"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A252" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.453125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.26953125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.7265625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.1796875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="11"/>
-    <col min="14" max="14" width="18.453125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.1796875" style="11"/>
-    <col min="17" max="17" width="13.453125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.1796875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.7265625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.7265625" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="11"/>
+    <col min="8" max="8" width="35.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11"/>
+    <col min="14" max="14" width="18.5" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="11"/>
+    <col min="17" max="17" width="13.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2571,7 +2589,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2597,7 +2615,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2623,7 +2641,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2649,7 +2667,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2677,7 +2695,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2711,7 +2729,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2737,7 +2755,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2771,7 +2789,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2797,7 +2815,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2826,7 +2844,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>606</v>
@@ -2868,7 +2886,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2906,7 +2924,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2944,7 +2962,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -2977,7 +2995,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3010,7 +3028,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3041,7 +3059,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3072,7 +3090,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3103,7 +3121,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3134,7 +3152,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3165,7 +3183,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3196,7 +3214,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3223,7 +3241,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3258,7 +3276,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3287,7 +3305,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3314,7 +3332,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3341,7 +3359,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3372,7 +3390,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3399,7 +3417,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3426,7 +3444,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3453,7 +3471,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3480,7 +3498,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3507,7 +3525,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3534,7 +3552,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>594</v>
       </c>
@@ -3569,7 +3587,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>596</v>
       </c>
@@ -3591,7 +3609,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>598</v>
       </c>
@@ -3613,7 +3631,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>601</v>
       </c>
@@ -3635,7 +3653,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3664,7 +3682,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3695,7 +3713,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3724,7 +3742,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3755,7 +3773,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3782,7 +3800,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>540</v>
@@ -3815,7 +3833,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3848,7 +3866,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3875,7 +3893,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3902,7 +3920,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3929,7 +3947,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -3956,7 +3974,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -3983,7 +4001,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4010,7 +4028,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4037,7 +4055,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4064,7 +4082,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4091,7 +4109,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4118,7 +4136,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4145,7 +4163,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4172,7 +4190,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4199,7 +4217,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4228,7 +4246,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4255,7 +4273,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4282,7 +4300,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4309,7 +4327,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4336,7 +4354,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4363,7 +4381,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4390,7 +4408,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4417,7 +4435,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4433,7 +4451,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4449,7 +4467,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4476,7 +4494,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4492,7 +4510,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4519,7 +4537,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4546,7 +4564,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4573,7 +4591,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4600,7 +4618,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4631,7 +4649,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4662,7 +4680,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4689,7 +4707,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4705,7 +4723,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4732,7 +4750,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4759,7 +4777,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4790,7 +4808,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4823,7 +4841,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>335</v>
@@ -4848,7 +4866,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>336</v>
@@ -4875,7 +4893,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>337</v>
@@ -4902,7 +4920,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>338</v>
@@ -4929,7 +4947,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
@@ -4958,7 +4976,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>340</v>
@@ -4983,7 +5001,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>341</v>
@@ -5010,7 +5028,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5035,7 +5053,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5052,7 +5070,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>342</v>
       </c>
@@ -5068,7 +5086,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>343</v>
@@ -5095,7 +5113,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5121,7 +5139,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5143,7 +5161,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>344</v>
@@ -5170,7 +5188,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>345</v>
@@ -5197,7 +5215,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>346</v>
@@ -5224,7 +5242,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>347</v>
@@ -5251,7 +5269,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>348</v>
@@ -5278,7 +5296,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>349</v>
@@ -5305,7 +5323,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>350</v>
@@ -5332,7 +5350,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>351</v>
@@ -5359,7 +5377,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>352</v>
@@ -5386,7 +5404,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>353</v>
@@ -5413,7 +5431,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>354</v>
@@ -5440,7 +5458,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>355</v>
@@ -5469,7 +5487,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
         <v>357</v>
@@ -5497,7 +5515,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>358</v>
@@ -5526,7 +5544,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>360</v>
@@ -5552,7 +5570,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>361</v>
@@ -5579,7 +5597,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>362</v>
@@ -5607,7 +5625,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>363</v>
@@ -5635,7 +5653,7 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>265</v>
@@ -5663,7 +5681,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>365</v>
@@ -5695,7 +5713,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>366</v>
@@ -5723,7 +5741,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>367</v>
@@ -5751,7 +5769,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>368</v>
@@ -5779,7 +5797,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>369</v>
@@ -5807,7 +5825,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="12" t="s">
         <v>151</v>
@@ -5835,7 +5853,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="12" t="s">
         <v>152</v>
       </c>
@@ -5855,7 +5873,7 @@
       <c r="S121" s="13"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="12" t="s">
         <v>154</v>
       </c>
@@ -5875,7 +5893,7 @@
       <c r="S122" s="13"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
         <v>370</v>
       </c>
@@ -5899,7 +5917,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>372</v>
@@ -5927,7 +5945,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>373</v>
@@ -5955,7 +5973,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="12" t="s">
         <v>157</v>
@@ -5983,7 +6001,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="12" t="s">
         <v>158</v>
       </c>
@@ -6000,7 +6018,7 @@
       <c r="S127" s="13"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="12" t="s">
         <v>160</v>
       </c>
@@ -6020,7 +6038,7 @@
       <c r="S128" s="13"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
         <v>161</v>
       </c>
@@ -6037,7 +6055,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="12" t="s">
         <v>162</v>
       </c>
@@ -6054,7 +6072,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
         <v>163</v>
       </c>
@@ -6071,7 +6089,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
         <v>164</v>
       </c>
@@ -6088,7 +6106,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
         <v>165</v>
       </c>
@@ -6105,7 +6123,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
         <v>166</v>
       </c>
@@ -6122,7 +6140,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
         <v>167</v>
       </c>
@@ -6139,7 +6157,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
         <v>168</v>
       </c>
@@ -6156,7 +6174,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
         <v>169</v>
       </c>
@@ -6173,7 +6191,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
         <v>170</v>
       </c>
@@ -6190,7 +6208,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
         <v>171</v>
       </c>
@@ -6207,7 +6225,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>374</v>
       </c>
@@ -6224,7 +6242,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>375</v>
@@ -6252,7 +6270,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>376</v>
@@ -6280,7 +6298,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="12" t="s">
         <v>172</v>
@@ -6308,7 +6326,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>377</v>
       </c>
@@ -6325,7 +6343,7 @@
       <c r="S144" s="13"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>378</v>
@@ -6353,7 +6371,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>379</v>
@@ -6381,7 +6399,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>380</v>
@@ -6413,7 +6431,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>383</v>
@@ -6439,7 +6457,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>384</v>
@@ -6467,7 +6485,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>385</v>
@@ -6495,38 +6513,33 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B151" s="29" t="s">
+        <v>633</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O151" s="29">
+        <v>1</v>
+      </c>
+      <c r="P151" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q151" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6551,10 +6564,10 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6579,10 +6592,10 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
-      <c r="B154" s="12" t="s">
-        <v>173</v>
+      <c r="B154" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6607,63 +6620,63 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B155" s="10" t="s">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+    </row>
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="G155" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K155" s="13"/>
-      <c r="O155" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S155" s="13"/>
-      <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10" t="s">
+      <c r="G156" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K156" s="13"/>
+      <c r="O156" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S156" s="13"/>
+      <c r="T156" s="10"/>
+    </row>
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10">
-        <v>1</v>
-      </c>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="10"/>
-      <c r="B157" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
         <v>4</v>
@@ -6674,7 +6687,9 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
+      <c r="N157" s="10">
+        <v>1</v>
+      </c>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10" t="s">
@@ -6684,58 +6699,56 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="10" t="s">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+      <c r="B158" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+    </row>
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G158" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K158" s="13"/>
-      <c r="N158" s="12" t="s">
+      <c r="G159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="13"/>
+      <c r="N159" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O158" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S158" s="13"/>
-      <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
+      <c r="O159" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S159" s="13"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6746,9 +6759,7 @@
       </c>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
-      <c r="J160" s="10" t="s">
-        <v>394</v>
-      </c>
+      <c r="J160" s="10"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
@@ -6762,10 +6773,10 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6776,7 +6787,9 @@
       </c>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
+      <c r="J161" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
@@ -6790,10 +6803,10 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6818,10 +6831,10 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6846,10 +6859,10 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6874,10 +6887,10 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6902,10 +6915,10 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6930,10 +6943,10 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6958,10 +6971,10 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6986,10 +6999,10 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -7014,10 +7027,10 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -7042,10 +7055,10 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7070,10 +7083,10 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7098,10 +7111,10 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
-      <c r="B173" s="12" t="s">
-        <v>175</v>
+      <c r="B173" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -7112,9 +7125,7 @@
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
-      <c r="J173" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -7128,14 +7139,12 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
-      <c r="B174" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>409</v>
-      </c>
+      <c r="B174" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -7143,10 +7152,10 @@
         <v>4</v>
       </c>
       <c r="H174" s="10"/>
-      <c r="I174" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="J174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
@@ -7160,12 +7169,14 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="10"/>
+        <v>408</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -7173,7 +7184,9 @@
         <v>4</v>
       </c>
       <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
+      <c r="I175" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
@@ -7188,10 +7201,10 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7216,21 +7229,15 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>414</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C177" s="10"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
         <v>4</v>
       </c>
@@ -7250,58 +7257,75 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11" t="s">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+    </row>
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="11" t="s">
+      <c r="D179" s="21"/>
+      <c r="E179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
-      <c r="T178" s="10"/>
-    </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B179" s="12" t="s">
+      <c r="G179" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="10"/>
+    </row>
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K179" s="13"/>
-      <c r="O179" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q179" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S179" s="13"/>
-      <c r="T179" s="10"/>
-    </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G180" s="12" t="s">
         <v>4</v>
@@ -7316,83 +7340,72 @@
       <c r="S180" s="13"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10" t="s">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K181" s="13"/>
+      <c r="O181" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S181" s="13"/>
+      <c r="T181" s="10"/>
+    </row>
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R181" s="10"/>
-      <c r="S181" s="10"/>
-      <c r="T181" s="10"/>
-    </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+    </row>
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G182" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K182" s="13"/>
-      <c r="O182" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q182" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S182" s="13"/>
-      <c r="T182" s="10"/>
-    </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="10"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R183" s="10"/>
-      <c r="S183" s="10"/>
+      <c r="G183" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K183" s="13"/>
+      <c r="O183" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S183" s="13"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7417,10 +7430,10 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7445,10 +7458,10 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7473,55 +7486,55 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B187" s="12" t="s">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+    </row>
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G187" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K187" s="13"/>
-      <c r="O187" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q187" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S187" s="13"/>
-      <c r="T187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
-      <c r="M188" s="10"/>
-      <c r="N188" s="10"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10"/>
-      <c r="Q188" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R188" s="10"/>
-      <c r="S188" s="10"/>
+      <c r="G188" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K188" s="13"/>
+      <c r="O188" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S188" s="13"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7546,10 +7559,10 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7574,10 +7587,10 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7602,10 +7615,10 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7630,10 +7643,10 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7658,71 +7671,82 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B194" s="12" t="s">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+    </row>
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G194" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K194" s="13"/>
-      <c r="O194" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q194" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S194" s="13"/>
-      <c r="T194" s="10"/>
-    </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10" t="s">
+      <c r="G195" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K195" s="13"/>
+      <c r="O195" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S195" s="13"/>
+      <c r="T195" s="10"/>
+    </row>
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="10"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R195" s="10"/>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-    </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B196" s="12" t="s">
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+    </row>
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="G196" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K196" s="13"/>
-      <c r="O196" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q196" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S196" s="13"/>
-      <c r="T196" s="10"/>
-    </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B197" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="G197" s="12" t="s">
         <v>4</v>
@@ -7737,9 +7761,9 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G198" s="12" t="s">
         <v>4</v>
@@ -7754,9 +7778,9 @@
       <c r="S198" s="13"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>4</v>
@@ -7771,9 +7795,9 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>4</v>
@@ -7788,9 +7812,9 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G201" s="12" t="s">
         <v>4</v>
@@ -7805,83 +7829,72 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10" t="s">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K202" s="13"/>
+      <c r="O202" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S202" s="13"/>
+      <c r="T202" s="10"/>
+    </row>
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
-      <c r="L202" s="10"/>
-      <c r="M202" s="10"/>
-      <c r="N202" s="10"/>
-      <c r="O202" s="10"/>
-      <c r="P202" s="10"/>
-      <c r="Q202" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R202" s="10"/>
-      <c r="S202" s="10"/>
-      <c r="T202" s="10"/>
-    </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="12" t="s">
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+    </row>
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G203" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K203" s="13"/>
-      <c r="O203" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S203" s="13"/>
-      <c r="T203" s="10"/>
-    </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
-      <c r="L204" s="10"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R204" s="10"/>
-      <c r="S204" s="10"/>
+      <c r="G204" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K204" s="13"/>
+      <c r="O204" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S204" s="13"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7906,10 +7919,10 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7934,10 +7947,10 @@
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7962,32 +7975,40 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B208" s="12" t="s">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B209" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G208" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K208" s="13"/>
-      <c r="O208" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S208" s="13"/>
-      <c r="T208" s="10"/>
-    </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B209" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="G209" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J209" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="K209" s="13"/>
       <c r="O209" s="12">
@@ -7999,38 +8020,30 @@
       <c r="S209" s="13"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
-      <c r="P210" s="10"/>
-      <c r="Q210" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R210" s="10"/>
-      <c r="S210" s="10"/>
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B210" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K210" s="13"/>
+      <c r="O210" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S210" s="13"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -8055,10 +8068,10 @@
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -8083,10 +8096,10 @@
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8111,10 +8124,10 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8139,10 +8152,10 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8167,55 +8180,55 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B216" s="12" t="s">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+    </row>
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B217" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G216" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K216" s="13"/>
-      <c r="O216" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q216" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S216" s="13"/>
-      <c r="T216" s="10"/>
-    </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R217" s="10"/>
-      <c r="S217" s="10"/>
+      <c r="G217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K217" s="13"/>
+      <c r="O217" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S217" s="13"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8240,10 +8253,10 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -8254,9 +8267,7 @@
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
-      <c r="J219" s="10" t="s">
-        <v>441</v>
-      </c>
+      <c r="J219" s="10"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
       <c r="M219" s="10"/>
@@ -8270,10 +8281,10 @@
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8284,7 +8295,9 @@
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
+      <c r="J220" s="10" t="s">
+        <v>441</v>
+      </c>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
@@ -8298,55 +8311,55 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B221" s="12" t="s">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+    </row>
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B222" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G221" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K221" s="13"/>
-      <c r="O221" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S221" s="13"/>
-      <c r="T221" s="10"/>
-    </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="10"/>
-      <c r="L222" s="10"/>
-      <c r="M222" s="10"/>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-      <c r="P222" s="10"/>
-      <c r="Q222" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R222" s="10"/>
-      <c r="S222" s="10"/>
+      <c r="G222" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K222" s="13"/>
+      <c r="O222" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S222" s="13"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8371,10 +8384,10 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8399,10 +8412,10 @@
       <c r="S224" s="10"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8427,10 +8440,10 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
-        <v>113</v>
+        <v>446</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -8455,10 +8468,10 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8483,10 +8496,10 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8511,10 +8524,10 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8539,10 +8552,10 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8567,10 +8580,10 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8595,10 +8608,10 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8623,26 +8636,37 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="12" t="s">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+    </row>
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K233" s="13"/>
-      <c r="O233" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q233" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S233" s="13"/>
-      <c r="T233" s="10"/>
-    </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="G234" s="12" t="s">
         <v>4</v>
@@ -8657,12 +8681,9 @@
       <c r="S234" s="13"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B235" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G235" s="12" t="s">
         <v>4</v>
@@ -8677,9 +8698,12 @@
       <c r="S235" s="13"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B236" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="G236" s="12" t="s">
         <v>4</v>
@@ -8694,38 +8718,27 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="10"/>
-      <c r="P237" s="10"/>
-      <c r="Q237" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R237" s="10"/>
-      <c r="S237" s="10"/>
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B237" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K237" s="13"/>
+      <c r="O237" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8750,10 +8763,10 @@
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8778,10 +8791,10 @@
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8806,10 +8819,10 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8834,10 +8847,10 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8862,10 +8875,10 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8890,10 +8903,10 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8918,10 +8931,10 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8946,10 +8959,10 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8960,9 +8973,7 @@
       </c>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
-      <c r="J246" s="10" t="s">
-        <v>463</v>
-      </c>
+      <c r="J246" s="10"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
@@ -8976,10 +8987,10 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -8990,7 +9001,9 @@
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
+      <c r="J247" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
@@ -9004,10 +9017,10 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9032,10 +9045,10 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9060,10 +9073,10 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9088,14 +9101,12 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>469</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C251" s="10"/>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
@@ -9118,12 +9129,14 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C252" s="10"/>
+        <v>468</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
@@ -9146,10 +9159,10 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9174,10 +9187,10 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -9202,10 +9215,10 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9230,10 +9243,10 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9258,18 +9271,14 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>537</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C257" s="10"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10" t="s">
         <v>4</v>
@@ -9283,34 +9292,49 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="10"/>
+      <c r="Q257" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R257" s="10"/>
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B258" s="12" t="s">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+    </row>
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B259" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C259" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K258" s="13"/>
-      <c r="O258" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q258" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S258" s="13"/>
-      <c r="T258" s="10"/>
-    </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>4</v>
@@ -9325,66 +9349,50 @@
       <c r="S259" s="13"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
-      <c r="L260" s="10"/>
-      <c r="M260" s="10"/>
-      <c r="N260" s="10"/>
-      <c r="O260" s="10"/>
-      <c r="P260" s="10"/>
-      <c r="Q260" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R260" s="10"/>
-      <c r="S260" s="10"/>
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K260" s="13"/>
+      <c r="O260" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S260" s="13"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
-      <c r="L261" s="10"/>
-      <c r="M261" s="10"/>
-      <c r="N261" s="10"/>
-      <c r="O261" s="10"/>
-      <c r="P261" s="10"/>
-      <c r="Q261" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R261" s="10"/>
-      <c r="S261" s="10"/>
-      <c r="T261" s="10"/>
-    </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" s="29" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B261" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="E261" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G261" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O261" s="29">
+        <v>1</v>
+      </c>
+      <c r="P261" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q261" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9409,10 +9417,10 @@
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9437,10 +9445,10 @@
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9465,36 +9473,38 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C265" s="11"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
-      <c r="L265" s="11"/>
-      <c r="M265" s="11"/>
-      <c r="N265" s="11"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="11"/>
-      <c r="Q265" s="11"/>
-      <c r="R265" s="11"/>
-      <c r="S265" s="11"/>
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9519,38 +9529,36 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
-      <c r="P267" s="10"/>
-      <c r="Q267" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R267" s="10"/>
-      <c r="S267" s="10"/>
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9575,10 +9583,10 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9603,10 +9611,10 @@
       <c r="S269" s="10"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9631,50 +9639,40 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
-      <c r="B271" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" s="22"/>
-      <c r="E271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H271" s="11"/>
-      <c r="I271" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="11">
-        <v>1</v>
-      </c>
-      <c r="N271" s="11"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="11"/>
-      <c r="Q271" s="11"/>
+      <c r="B271" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R271" s="10"/>
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>486</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
@@ -9682,9 +9680,7 @@
         <v>4</v>
       </c>
       <c r="H272" s="10"/>
-      <c r="I272" s="10" t="s">
-        <v>487</v>
-      </c>
+      <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
@@ -9699,74 +9695,105 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
-      <c r="B273" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
-      <c r="L273" s="10"/>
-      <c r="M273" s="10"/>
-      <c r="N273" s="10"/>
-      <c r="O273" s="10"/>
-      <c r="P273" s="10"/>
-      <c r="Q273" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B273" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="22"/>
+      <c r="E273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H273" s="11"/>
+      <c r="I273" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11">
+        <v>1</v>
+      </c>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="12" t="s">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="10"/>
+      <c r="P274" s="10"/>
+      <c r="Q274" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R274" s="10"/>
+      <c r="S274" s="10"/>
+      <c r="T274" s="10"/>
+    </row>
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+      <c r="Q275" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R275" s="10"/>
+      <c r="S275" s="10"/>
+      <c r="T275" s="10"/>
+    </row>
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K274" s="13"/>
-      <c r="O274" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S274" s="13"/>
-      <c r="T274" s="10"/>
-    </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G275" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K275" s="13"/>
-      <c r="O275" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q275" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S275" s="13"/>
-      <c r="T275" s="10"/>
-    </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B276" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G276" s="12" t="s">
         <v>4</v>
@@ -9781,9 +9808,9 @@
       <c r="S276" s="13"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>4</v>
@@ -9798,9 +9825,12 @@
       <c r="S277" s="13"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B278" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="G278" s="12" t="s">
         <v>4</v>
@@ -9815,9 +9845,9 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G279" s="12" t="s">
         <v>4</v>
@@ -9832,9 +9862,9 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>4</v>
@@ -9849,9 +9879,9 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>4</v>
@@ -9866,9 +9896,9 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>4</v>
@@ -9883,9 +9913,9 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>4</v>
@@ -9900,9 +9930,9 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>4</v>
@@ -9917,9 +9947,9 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>4</v>
@@ -9934,9 +9964,9 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>4</v>
@@ -9951,9 +9981,9 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>4</v>
@@ -9968,9 +9998,9 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>4</v>
@@ -9985,9 +10015,9 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>4</v>
@@ -10002,9 +10032,9 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>4</v>
@@ -10019,66 +10049,44 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
-      <c r="L291" s="10"/>
-      <c r="M291" s="10"/>
-      <c r="N291" s="10"/>
-      <c r="O291" s="10"/>
-      <c r="P291" s="10"/>
-      <c r="Q291" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R291" s="10"/>
-      <c r="S291" s="10"/>
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K291" s="13"/>
+      <c r="O291" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S291" s="13"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-      <c r="K292" s="10"/>
-      <c r="L292" s="10"/>
-      <c r="M292" s="10"/>
-      <c r="N292" s="10"/>
-      <c r="O292" s="10"/>
-      <c r="P292" s="10"/>
-      <c r="Q292" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R292" s="10"/>
-      <c r="S292" s="10"/>
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K292" s="13"/>
+      <c r="O292" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S292" s="13"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -10103,27 +10111,38 @@
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K294" s="13"/>
-      <c r="O294" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q294" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S294" s="13"/>
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="10"/>
+      <c r="B294" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="10"/>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="10"/>
+      <c r="Q294" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R294" s="10"/>
+      <c r="S294" s="10"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -10148,40 +10167,27 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H296" s="10"/>
-      <c r="I296" s="10"/>
-      <c r="J296" s="10" t="s">
-        <v>494</v>
-      </c>
-      <c r="K296" s="10"/>
-      <c r="L296" s="10"/>
-      <c r="M296" s="10"/>
-      <c r="N296" s="10"/>
-      <c r="O296" s="10"/>
-      <c r="P296" s="10"/>
-      <c r="Q296" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R296" s="10"/>
-      <c r="S296" s="10"/>
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G296" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K296" s="13"/>
+      <c r="O296" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S296" s="13"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -10206,10 +10212,10 @@
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>339</v>
+        <v>493</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -10220,7 +10226,9 @@
       </c>
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
-      <c r="J298" s="10"/>
+      <c r="J298" s="10" t="s">
+        <v>494</v>
+      </c>
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
       <c r="M298" s="10"/>
@@ -10234,100 +10242,100 @@
       <c r="S298" s="10"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="12" t="s">
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C299" s="10"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10"/>
+      <c r="K299" s="10"/>
+      <c r="L299" s="10"/>
+      <c r="M299" s="10"/>
+      <c r="N299" s="10"/>
+      <c r="O299" s="10"/>
+      <c r="P299" s="10"/>
+      <c r="Q299" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R299" s="10"/>
+      <c r="S299" s="10"/>
+      <c r="T299" s="10"/>
+    </row>
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="10"/>
+      <c r="K300" s="10"/>
+      <c r="L300" s="10"/>
+      <c r="M300" s="10"/>
+      <c r="N300" s="10"/>
+      <c r="O300" s="10"/>
+      <c r="P300" s="10"/>
+      <c r="Q300" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R300" s="10"/>
+      <c r="S300" s="10"/>
+      <c r="T300" s="10"/>
+    </row>
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B301" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G299" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K299" s="13"/>
-      <c r="O299" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q299" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S299" s="13"/>
-      <c r="T299" s="10"/>
-    </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B300" s="12" t="s">
+      <c r="G301" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K301" s="13"/>
+      <c r="O301" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S301" s="13"/>
+      <c r="T301" s="10"/>
+    </row>
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B302" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G300" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K300" s="13"/>
-      <c r="O300" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q300" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S300" s="13"/>
-      <c r="T300" s="10"/>
-    </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="10"/>
-      <c r="L301" s="10"/>
-      <c r="M301" s="10"/>
-      <c r="N301" s="10"/>
-      <c r="O301" s="10"/>
-      <c r="P301" s="10"/>
-      <c r="Q301" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R301" s="10"/>
-      <c r="S301" s="10"/>
-      <c r="T301" s="10"/>
-    </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-      <c r="K302" s="10"/>
-      <c r="L302" s="10"/>
-      <c r="M302" s="10"/>
-      <c r="N302" s="10"/>
-      <c r="O302" s="10"/>
-      <c r="P302" s="10"/>
-      <c r="Q302" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R302" s="10"/>
-      <c r="S302" s="10"/>
+      <c r="G302" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K302" s="13"/>
+      <c r="O302" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S302" s="13"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -10352,10 +10360,10 @@
       <c r="S303" s="10"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -10380,10 +10388,10 @@
       <c r="S304" s="10"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10408,10 +10416,10 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10436,10 +10444,10 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10464,10 +10472,10 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10492,10 +10500,10 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10520,10 +10528,10 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10548,27 +10556,38 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K311" s="13"/>
-      <c r="O311" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q311" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S311" s="13"/>
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10" t="s">
+        <v>504</v>
+      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H311" s="10"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="10"/>
+      <c r="K311" s="10"/>
+      <c r="L311" s="10"/>
+      <c r="M311" s="10"/>
+      <c r="N311" s="10"/>
+      <c r="O311" s="10"/>
+      <c r="P311" s="10"/>
+      <c r="Q311" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R311" s="10"/>
+      <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10593,9 +10612,9 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>4</v>
@@ -10610,10 +10629,10 @@
       <c r="S313" s="13"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -10638,38 +10657,27 @@
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10" t="s">
-        <v>508</v>
-      </c>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H315" s="10"/>
-      <c r="I315" s="10"/>
-      <c r="J315" s="10"/>
-      <c r="K315" s="10"/>
-      <c r="L315" s="10"/>
-      <c r="M315" s="10"/>
-      <c r="N315" s="10"/>
-      <c r="O315" s="10"/>
-      <c r="P315" s="10"/>
-      <c r="Q315" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R315" s="10"/>
-      <c r="S315" s="10"/>
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B315" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K315" s="13"/>
+      <c r="O315" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S315" s="13"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10694,10 +10702,10 @@
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10722,10 +10730,10 @@
       <c r="S317" s="10"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10750,10 +10758,10 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10778,10 +10786,10 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10806,10 +10814,10 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10834,10 +10842,10 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10862,10 +10870,10 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10890,145 +10898,164 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="12" t="s">
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="10"/>
+      <c r="B324" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C324" s="10"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+      <c r="K324" s="10"/>
+      <c r="L324" s="10"/>
+      <c r="M324" s="10"/>
+      <c r="N324" s="10"/>
+      <c r="O324" s="10"/>
+      <c r="P324" s="10"/>
+      <c r="Q324" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R324" s="10"/>
+      <c r="S324" s="10"/>
+      <c r="T324" s="10"/>
+    </row>
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="10"/>
+      <c r="B325" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="C325" s="10"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="10"/>
+      <c r="K325" s="10"/>
+      <c r="L325" s="10"/>
+      <c r="M325" s="10"/>
+      <c r="N325" s="10"/>
+      <c r="O325" s="10"/>
+      <c r="P325" s="10"/>
+      <c r="Q325" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R325" s="10"/>
+      <c r="S325" s="10"/>
+      <c r="T325" s="10"/>
+    </row>
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B326" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C326" s="12" t="s">
         <v>630</v>
       </c>
-      <c r="G324" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K324" s="13"/>
-      <c r="O324" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q324" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S324" s="13"/>
-      <c r="T324" s="10"/>
-    </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="12" t="s">
+      <c r="G326" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K326" s="13"/>
+      <c r="O326" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S326" s="13"/>
+      <c r="T326" s="10"/>
+    </row>
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B327" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G325" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K325" s="13"/>
-      <c r="O325" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q325" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S325" s="13"/>
-      <c r="T325" s="10"/>
-    </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10" t="s">
+      <c r="G327" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K327" s="13"/>
+      <c r="O327" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S327" s="13"/>
+      <c r="T327" s="10"/>
+    </row>
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="10"/>
+      <c r="B328" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H326" s="10"/>
-      <c r="I326" s="10"/>
-      <c r="J326" s="10"/>
-      <c r="K326" s="10"/>
-      <c r="L326" s="10"/>
-      <c r="M326" s="10"/>
-      <c r="N326" s="10"/>
-      <c r="O326" s="10"/>
-      <c r="P326" s="10"/>
-      <c r="Q326" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R326" s="10"/>
-      <c r="S326" s="10"/>
-      <c r="T326" s="10"/>
-    </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10" t="s">
+      <c r="C328" s="10"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H328" s="10"/>
+      <c r="I328" s="10"/>
+      <c r="J328" s="10"/>
+      <c r="K328" s="10"/>
+      <c r="L328" s="10"/>
+      <c r="M328" s="10"/>
+      <c r="N328" s="10"/>
+      <c r="O328" s="10"/>
+      <c r="P328" s="10"/>
+      <c r="Q328" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R328" s="10"/>
+      <c r="S328" s="10"/>
+      <c r="T328" s="10"/>
+    </row>
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="10"/>
+      <c r="B329" s="10" t="s">
         <v>518</v>
       </c>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H327" s="10"/>
-      <c r="I327" s="10"/>
-      <c r="J327" s="10"/>
-      <c r="K327" s="10"/>
-      <c r="L327" s="10"/>
-      <c r="M327" s="10"/>
-      <c r="N327" s="10"/>
-      <c r="O327" s="10"/>
-      <c r="P327" s="10"/>
-      <c r="Q327" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R327" s="10"/>
-      <c r="S327" s="10"/>
-      <c r="T327" s="10"/>
-    </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="12" t="s">
+      <c r="C329" s="10"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="10"/>
+      <c r="K329" s="10"/>
+      <c r="L329" s="10"/>
+      <c r="M329" s="10"/>
+      <c r="N329" s="10"/>
+      <c r="O329" s="10"/>
+      <c r="P329" s="10"/>
+      <c r="Q329" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R329" s="10"/>
+      <c r="S329" s="10"/>
+      <c r="T329" s="10"/>
+    </row>
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B330" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G328" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J328" s="12" t="s">
+      <c r="G330" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J330" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="K328" s="13"/>
-      <c r="O328" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S328" s="13"/>
-      <c r="T328" s="10"/>
-    </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G329" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J329" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K329" s="13"/>
-      <c r="O329" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S329" s="13"/>
-      <c r="T329" s="10"/>
-    </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="K330" s="13"/>
       <c r="O330" s="12">
@@ -11040,15 +11067,15 @@
       <c r="S330" s="13"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B331" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J331" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K331" s="13"/>
       <c r="O331" s="12">
@@ -11060,9 +11087,9 @@
       <c r="S331" s="13"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>4</v>
@@ -11077,12 +11104,15 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J333" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="K333" s="13"/>
       <c r="O333" s="12">
@@ -11094,9 +11124,9 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>4</v>
@@ -11111,9 +11141,9 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="12" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="G335" s="12" t="s">
         <v>4</v>
@@ -11128,9 +11158,9 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>4</v>
@@ -11145,9 +11175,9 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="12" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>4</v>
@@ -11162,66 +11192,44 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H338" s="10"/>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10"/>
-      <c r="K338" s="10"/>
-      <c r="L338" s="10"/>
-      <c r="M338" s="10"/>
-      <c r="N338" s="10"/>
-      <c r="O338" s="10"/>
-      <c r="P338" s="10"/>
-      <c r="Q338" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R338" s="10"/>
-      <c r="S338" s="10"/>
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B338" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K338" s="13"/>
+      <c r="O338" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S338" s="13"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
-      <c r="L339" s="10"/>
-      <c r="M339" s="10"/>
-      <c r="N339" s="10"/>
-      <c r="O339" s="10"/>
-      <c r="P339" s="10"/>
-      <c r="Q339" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R339" s="10"/>
-      <c r="S339" s="10"/>
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B339" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G339" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K339" s="13"/>
+      <c r="O339" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S339" s="13"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -11246,10 +11254,10 @@
       <c r="S340" s="10"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -11274,10 +11282,10 @@
       <c r="S341" s="10"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11302,10 +11310,10 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11330,129 +11338,127 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
-      <c r="A344" s="23"/>
-      <c r="B344" s="23" t="s">
+    <row r="344" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="10"/>
+      <c r="B344" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="10"/>
+      <c r="K344" s="10"/>
+      <c r="L344" s="10"/>
+      <c r="M344" s="10"/>
+      <c r="N344" s="10"/>
+      <c r="O344" s="10"/>
+      <c r="P344" s="10"/>
+      <c r="Q344" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R344" s="10"/>
+      <c r="S344" s="10"/>
+      <c r="T344" s="10"/>
+    </row>
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="10"/>
+      <c r="B345" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="10"/>
+      <c r="K345" s="10"/>
+      <c r="L345" s="10"/>
+      <c r="M345" s="10"/>
+      <c r="N345" s="10"/>
+      <c r="O345" s="10"/>
+      <c r="P345" s="10"/>
+      <c r="Q345" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R345" s="10"/>
+      <c r="S345" s="10"/>
+      <c r="T345" s="10"/>
+    </row>
+    <row r="346" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A346" s="23"/>
+      <c r="B346" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C344" s="26" t="s">
+      <c r="C346" s="26" t="s">
         <v>620</v>
       </c>
-      <c r="D344" s="27"/>
-      <c r="E344" s="23"/>
-      <c r="F344" s="23"/>
-      <c r="G344" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H344" s="23"/>
-      <c r="I344" s="23"/>
-      <c r="K344" s="23" t="s">
+      <c r="D346" s="27"/>
+      <c r="E346" s="23"/>
+      <c r="F346" s="23"/>
+      <c r="G346" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H346" s="23"/>
+      <c r="I346" s="23"/>
+      <c r="K346" s="23" t="s">
         <v>621</v>
       </c>
-      <c r="L344" s="23"/>
-      <c r="M344" s="23"/>
-      <c r="N344" s="23"/>
-      <c r="O344" s="23"/>
-      <c r="P344" s="23"/>
-      <c r="Q344" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R344" s="23"/>
-      <c r="S344" s="23"/>
-      <c r="T344" s="23"/>
-    </row>
-    <row r="345" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A345" s="23"/>
-      <c r="B345" s="23" t="s">
+      <c r="L346" s="23"/>
+      <c r="M346" s="23"/>
+      <c r="N346" s="23"/>
+      <c r="O346" s="23"/>
+      <c r="P346" s="23"/>
+      <c r="Q346" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R346" s="23"/>
+      <c r="S346" s="23"/>
+      <c r="T346" s="23"/>
+    </row>
+    <row r="347" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="23"/>
+      <c r="B347" s="23" t="s">
         <v>525</v>
       </c>
-      <c r="C345" s="23" t="s">
+      <c r="C347" s="23" t="s">
         <v>619</v>
       </c>
-      <c r="D345" s="23"/>
-      <c r="E345" s="23"/>
-      <c r="F345" s="23"/>
-      <c r="G345" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H345" s="23"/>
-      <c r="I345" s="23"/>
-      <c r="J345" s="23"/>
-      <c r="K345" s="23"/>
-      <c r="L345" s="23"/>
-      <c r="M345" s="23"/>
-      <c r="N345" s="23"/>
-      <c r="O345" s="23"/>
-      <c r="P345" s="23"/>
-      <c r="Q345" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R345" s="23"/>
-      <c r="S345" s="23"/>
-      <c r="T345" s="23"/>
-    </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C346" s="10"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H346" s="10"/>
-      <c r="I346" s="10"/>
-      <c r="J346" s="10"/>
-      <c r="K346" s="10"/>
-      <c r="L346" s="10"/>
-      <c r="M346" s="10"/>
-      <c r="N346" s="10"/>
-      <c r="O346" s="10"/>
-      <c r="P346" s="10"/>
-      <c r="Q346" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R346" s="10"/>
-      <c r="S346" s="10"/>
-      <c r="T346" s="10"/>
-    </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C347" s="10"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
-      <c r="M347" s="10"/>
-      <c r="N347" s="10"/>
-      <c r="O347" s="10"/>
-      <c r="P347" s="10"/>
-      <c r="Q347" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R347" s="10"/>
-      <c r="S347" s="10"/>
-      <c r="T347" s="10"/>
-    </row>
-    <row r="348" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D347" s="23"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="23"/>
+      <c r="G347" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H347" s="23"/>
+      <c r="I347" s="23"/>
+      <c r="J347" s="23"/>
+      <c r="K347" s="23"/>
+      <c r="L347" s="23"/>
+      <c r="M347" s="23"/>
+      <c r="N347" s="23"/>
+      <c r="O347" s="23"/>
+      <c r="P347" s="23"/>
+      <c r="Q347" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R347" s="23"/>
+      <c r="S347" s="23"/>
+      <c r="T347" s="23"/>
+    </row>
+    <row r="348" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -11477,10 +11483,10 @@
       <c r="S348" s="10"/>
       <c r="T348" s="10"/>
     </row>
-    <row r="349" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11491,7 +11497,9 @@
       </c>
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
-      <c r="J349" s="10"/>
+      <c r="J349" s="10" t="s">
+        <v>528</v>
+      </c>
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
       <c r="M349" s="10"/>
@@ -11505,14 +11513,12 @@
       <c r="S349" s="10"/>
       <c r="T349" s="10"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>532</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
@@ -11535,10 +11541,10 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11563,13 +11569,13 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>580</v>
+        <v>532</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
@@ -11593,10 +11599,10 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -11621,43 +11627,67 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="12" t="s">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A354" s="10"/>
+      <c r="B354" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H354" s="10"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="10"/>
+      <c r="K354" s="10"/>
+      <c r="L354" s="10"/>
+      <c r="M354" s="10"/>
+      <c r="N354" s="10"/>
+      <c r="O354" s="10"/>
+      <c r="P354" s="10"/>
+      <c r="Q354" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R354" s="10"/>
+      <c r="S354" s="10"/>
+      <c r="T354" s="10"/>
+    </row>
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="10"/>
+      <c r="B355" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H355" s="10"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="10"/>
+      <c r="K355" s="10"/>
+      <c r="L355" s="10"/>
+      <c r="M355" s="10"/>
+      <c r="N355" s="10"/>
+      <c r="O355" s="10"/>
+      <c r="P355" s="10"/>
+      <c r="Q355" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R355" s="10"/>
+      <c r="S355" s="10"/>
+      <c r="T355" s="10"/>
+    </row>
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B356" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="G354" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K354" s="13"/>
-      <c r="O354" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q354" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S354" s="13"/>
-      <c r="T354" s="10"/>
-    </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G355" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K355" s="13"/>
-      <c r="O355" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q355" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S355" s="13"/>
-      <c r="T355" s="10"/>
-    </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="G356" s="12" t="s">
         <v>4</v>
@@ -11672,37 +11702,26 @@
       <c r="S356" s="13"/>
       <c r="T356" s="10"/>
     </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A357" s="10"/>
-      <c r="B357" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H357" s="10"/>
-      <c r="I357" s="10"/>
-      <c r="J357" s="10"/>
-      <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
-      <c r="M357" s="10"/>
-      <c r="N357" s="10"/>
-      <c r="O357" s="10"/>
-      <c r="P357" s="10"/>
-      <c r="Q357" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R357" s="10"/>
-      <c r="S357" s="10"/>
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B357" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K357" s="13"/>
+      <c r="O357" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S357" s="13"/>
       <c r="T357" s="10"/>
     </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B358" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G358" s="12" t="s">
         <v>4</v>
@@ -11717,35 +11736,37 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B359" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G359" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K359" s="13"/>
-      <c r="O359" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q359" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S359" s="13"/>
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="10"/>
+      <c r="B359" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H359" s="10"/>
+      <c r="I359" s="10"/>
+      <c r="J359" s="10"/>
+      <c r="K359" s="10"/>
+      <c r="L359" s="10"/>
+      <c r="M359" s="10"/>
+      <c r="N359" s="10"/>
+      <c r="O359" s="10"/>
+      <c r="P359" s="10"/>
+      <c r="Q359" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R359" s="10"/>
+      <c r="S359" s="10"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C360" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E360" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F360" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G360" s="12" t="s">
         <v>4</v>
@@ -11760,37 +11781,35 @@
       <c r="S360" s="13"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A361" s="10"/>
-      <c r="B361" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C361" s="10"/>
-      <c r="D361" s="10"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H361" s="10"/>
-      <c r="I361" s="10"/>
-      <c r="J361" s="10"/>
-      <c r="K361" s="10"/>
-      <c r="L361" s="10"/>
-      <c r="M361" s="10"/>
-      <c r="N361" s="10"/>
-      <c r="O361" s="10"/>
-      <c r="P361" s="10"/>
-      <c r="Q361" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R361" s="10"/>
-      <c r="S361" s="10"/>
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B361" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K361" s="13"/>
+      <c r="O361" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S361" s="13"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="G362" s="12" t="s">
         <v>4</v>
@@ -11805,29 +11824,37 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>632</v>
-      </c>
-      <c r="K363" s="13"/>
-      <c r="S363" s="13"/>
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="10"/>
+      <c r="B363" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C363" s="10"/>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="10"/>
+      <c r="G363" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="10"/>
+      <c r="K363" s="10"/>
+      <c r="L363" s="10"/>
+      <c r="M363" s="10"/>
+      <c r="N363" s="10"/>
+      <c r="O363" s="10"/>
+      <c r="P363" s="10"/>
+      <c r="Q363" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R363" s="10"/>
+      <c r="S363" s="10"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B364" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E364" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F364" s="12" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>4</v>
@@ -11842,32 +11869,29 @@
       <c r="S364" s="13"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B365" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G365" s="12" t="s">
-        <v>4</v>
+        <v>631</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>632</v>
       </c>
       <c r="K365" s="13"/>
-      <c r="O365" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q365" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="S365" s="13"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G366" s="12" t="s">
         <v>4</v>
@@ -11882,9 +11906,9 @@
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G367" s="12" t="s">
         <v>4</v>
@@ -11899,37 +11923,32 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A368" s="10"/>
-      <c r="B368" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-      <c r="K368" s="10"/>
-      <c r="L368" s="10"/>
-      <c r="M368" s="10"/>
-      <c r="N368" s="10"/>
-      <c r="O368" s="10"/>
-      <c r="P368" s="10"/>
-      <c r="Q368" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R368" s="10"/>
-      <c r="S368" s="10"/>
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B368" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K368" s="13"/>
+      <c r="O368" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S368" s="13"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G369" s="12" t="s">
         <v>4</v>
@@ -11944,10 +11963,10 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11958,9 +11977,7 @@
       </c>
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
-      <c r="J370" s="10" t="s">
-        <v>545</v>
-      </c>
+      <c r="J370" s="10"/>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
       <c r="M370" s="10"/>
@@ -11974,38 +11991,27 @@
       <c r="S370" s="10"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A371" s="10"/>
-      <c r="B371" s="10" t="s">
-        <v>546</v>
-      </c>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
-      <c r="G371" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H371" s="10"/>
-      <c r="I371" s="10"/>
-      <c r="J371" s="10"/>
-      <c r="K371" s="10"/>
-      <c r="L371" s="10"/>
-      <c r="M371" s="10"/>
-      <c r="N371" s="10"/>
-      <c r="O371" s="10"/>
-      <c r="P371" s="10"/>
-      <c r="Q371" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R371" s="10"/>
-      <c r="S371" s="10"/>
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B371" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K371" s="13"/>
+      <c r="O371" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S371" s="13"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -12016,7 +12022,9 @@
       </c>
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
-      <c r="J372" s="10"/>
+      <c r="J372" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
       <c r="M372" s="10"/>
@@ -12030,10 +12038,10 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12058,10 +12066,10 @@
       <c r="S373" s="10"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12086,10 +12094,10 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12114,10 +12122,10 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12142,10 +12150,10 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12170,10 +12178,10 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12198,10 +12206,10 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12226,10 +12234,10 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12254,10 +12262,10 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12282,10 +12290,10 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -12310,49 +12318,71 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="12" t="s">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="10"/>
+      <c r="B383" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H383" s="10"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="10"/>
+      <c r="K383" s="10"/>
+      <c r="L383" s="10"/>
+      <c r="M383" s="10"/>
+      <c r="N383" s="10"/>
+      <c r="O383" s="10"/>
+      <c r="P383" s="10"/>
+      <c r="Q383" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R383" s="10"/>
+      <c r="S383" s="10"/>
+      <c r="T383" s="10"/>
+    </row>
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="10"/>
+      <c r="B384" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H384" s="10"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="10"/>
+      <c r="K384" s="10"/>
+      <c r="L384" s="10"/>
+      <c r="M384" s="10"/>
+      <c r="N384" s="10"/>
+      <c r="O384" s="10"/>
+      <c r="P384" s="10"/>
+      <c r="Q384" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R384" s="10"/>
+      <c r="S384" s="10"/>
+      <c r="T384" s="10"/>
+    </row>
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B385" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G383" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J383" s="12" t="s">
+      <c r="G385" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J385" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="K383" s="13"/>
-      <c r="O383" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q383" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S383" s="13"/>
-      <c r="T383" s="10"/>
-    </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G384" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K384" s="13"/>
-      <c r="O384" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q384" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S384" s="13"/>
-      <c r="T384" s="10"/>
-    </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G385" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="K385" s="13"/>
       <c r="O385" s="12">
@@ -12364,9 +12394,9 @@
       <c r="S385" s="13"/>
       <c r="T385" s="10"/>
     </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B386" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G386" s="12" t="s">
         <v>4</v>
@@ -12381,9 +12411,9 @@
       <c r="S386" s="13"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
@@ -12398,9 +12428,9 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B388" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G388" s="12" t="s">
         <v>4</v>
@@ -12415,66 +12445,44 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A389" s="10"/>
-      <c r="B389" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H389" s="10"/>
-      <c r="I389" s="10"/>
-      <c r="J389" s="10"/>
-      <c r="K389" s="10"/>
-      <c r="L389" s="10"/>
-      <c r="M389" s="10"/>
-      <c r="N389" s="10"/>
-      <c r="O389" s="10"/>
-      <c r="P389" s="10"/>
-      <c r="Q389" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R389" s="10"/>
-      <c r="S389" s="10"/>
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B389" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K389" s="13"/>
+      <c r="O389" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S389" s="13"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A390" s="10"/>
-      <c r="B390" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C390" s="10"/>
-      <c r="D390" s="10"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H390" s="10"/>
-      <c r="I390" s="10"/>
-      <c r="J390" s="10"/>
-      <c r="K390" s="10"/>
-      <c r="L390" s="10"/>
-      <c r="M390" s="10"/>
-      <c r="N390" s="10"/>
-      <c r="O390" s="10"/>
-      <c r="P390" s="10"/>
-      <c r="Q390" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R390" s="10"/>
-      <c r="S390" s="10"/>
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B390" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K390" s="13"/>
+      <c r="O390" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S390" s="13"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12499,10 +12507,10 @@
       <c r="S391" s="10"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -12527,202 +12535,234 @@
       <c r="S392" s="10"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B393" s="12" t="s">
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="10"/>
+      <c r="B393" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C393" s="10"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
+      <c r="N393" s="10"/>
+      <c r="O393" s="10"/>
+      <c r="P393" s="10"/>
+      <c r="Q393" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R393" s="10"/>
+      <c r="S393" s="10"/>
+      <c r="T393" s="10"/>
+    </row>
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="10"/>
+      <c r="B394" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C394" s="10"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H394" s="10"/>
+      <c r="I394" s="10"/>
+      <c r="J394" s="10"/>
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="10"/>
+      <c r="N394" s="10"/>
+      <c r="O394" s="10"/>
+      <c r="P394" s="10"/>
+      <c r="Q394" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R394" s="10"/>
+      <c r="S394" s="10"/>
+      <c r="T394" s="10"/>
+    </row>
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B395" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G393" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K393" s="13"/>
-      <c r="O393" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q393" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S393" s="13"/>
-      <c r="T393" s="10"/>
-    </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B394" s="12" t="s">
+      <c r="G395" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K395" s="13"/>
+      <c r="O395" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S395" s="13"/>
+      <c r="T395" s="10"/>
+    </row>
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B396" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G394" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K394" s="13"/>
-      <c r="O394" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q394" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S394" s="13"/>
-      <c r="T394" s="10"/>
-    </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A395" s="10"/>
-      <c r="B395" s="10" t="s">
+      <c r="G396" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K396" s="13"/>
+      <c r="O396" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q396" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S396" s="13"/>
+      <c r="T396" s="10"/>
+    </row>
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="10"/>
+      <c r="B397" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="C395" s="10" t="s">
+      <c r="C397" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="D395" s="10"/>
-      <c r="E395" s="10" t="s">
+      <c r="D397" s="10"/>
+      <c r="E397" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F395" s="10" t="s">
+      <c r="F397" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G395" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H395" s="10"/>
-      <c r="I395" s="10"/>
-      <c r="J395" s="10"/>
-      <c r="K395" s="10"/>
-      <c r="L395" s="10"/>
-      <c r="M395" s="10"/>
-      <c r="N395" s="10"/>
-      <c r="O395" s="10"/>
-      <c r="P395" s="10"/>
-      <c r="Q395" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R395" s="10"/>
-      <c r="S395" s="10"/>
-      <c r="T395" s="10"/>
-    </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A396" s="10"/>
-      <c r="B396" s="10" t="s">
+      <c r="G397" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H397" s="10"/>
+      <c r="I397" s="10"/>
+      <c r="J397" s="10"/>
+      <c r="K397" s="10"/>
+      <c r="L397" s="10"/>
+      <c r="M397" s="10"/>
+      <c r="N397" s="10"/>
+      <c r="O397" s="10"/>
+      <c r="P397" s="10"/>
+      <c r="Q397" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R397" s="10"/>
+      <c r="S397" s="10"/>
+      <c r="T397" s="10"/>
+    </row>
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="10"/>
+      <c r="B398" s="10" t="s">
         <v>564</v>
       </c>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H396" s="10"/>
-      <c r="I396" s="10"/>
-      <c r="J396" s="10"/>
-      <c r="K396" s="10"/>
-      <c r="L396" s="10"/>
-      <c r="M396" s="10"/>
-      <c r="N396" s="10"/>
-      <c r="O396" s="10"/>
-      <c r="P396" s="10"/>
-      <c r="Q396" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R396" s="10"/>
-      <c r="S396" s="10"/>
-      <c r="T396" s="10"/>
-    </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="12" t="s">
+      <c r="C398" s="10"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H398" s="10"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="10"/>
+      <c r="K398" s="10"/>
+      <c r="L398" s="10"/>
+      <c r="M398" s="10"/>
+      <c r="N398" s="10"/>
+      <c r="O398" s="10"/>
+      <c r="P398" s="10"/>
+      <c r="Q398" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R398" s="10"/>
+      <c r="S398" s="10"/>
+      <c r="T398" s="10"/>
+    </row>
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B399" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G397" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K397" s="13"/>
-      <c r="O397" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q397" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S397" s="13"/>
-      <c r="T397" s="10"/>
-    </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="12" t="s">
+      <c r="G399" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K399" s="13"/>
+      <c r="O399" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S399" s="13"/>
+      <c r="T399" s="10"/>
+    </row>
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B400" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G398" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K398" s="13"/>
-      <c r="O398" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q398" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S398" s="13"/>
-      <c r="T398" s="10"/>
-    </row>
-    <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="13"/>
-      <c r="Q399" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="13"/>
-      <c r="G400" s="11"/>
-      <c r="H400" s="11"/>
-      <c r="I400" s="13"/>
-      <c r="J400" s="11"/>
-      <c r="K400" s="11"/>
-      <c r="L400" s="11"/>
-      <c r="M400" s="11">
-        <v>1</v>
-      </c>
-      <c r="N400" s="11"/>
-      <c r="O400" s="11"/>
-      <c r="P400" s="11"/>
-      <c r="Q400" s="11"/>
-    </row>
-    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G400" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K400" s="13"/>
+      <c r="O400" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S400" s="13"/>
+      <c r="T400" s="10"/>
+    </row>
+    <row r="401" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B401" s="13"/>
       <c r="Q401" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="13"/>
-      <c r="Q402" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="G402" s="11"/>
+      <c r="H402" s="11"/>
+      <c r="I402" s="13"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
+      <c r="M402" s="11">
+        <v>1</v>
+      </c>
+      <c r="N402" s="11"/>
+      <c r="O402" s="11"/>
+      <c r="P402" s="11"/>
+      <c r="Q402" s="11"/>
+    </row>
+    <row r="403" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B404" s="13"/>
-      <c r="E404" s="11"/>
-      <c r="F404" s="11"/>
-      <c r="G404" s="11"/>
-      <c r="H404" s="11"/>
-      <c r="I404" s="11"/>
-      <c r="J404" s="11"/>
-      <c r="K404" s="11"/>
-      <c r="L404" s="11"/>
-      <c r="M404" s="11"/>
-      <c r="N404" s="11"/>
-      <c r="O404" s="11"/>
-      <c r="P404" s="11"/>
-      <c r="Q404" s="11"/>
-    </row>
-    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q404" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="405" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="13"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="21"/>
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
@@ -12737,100 +12777,86 @@
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
     </row>
-    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B407" s="13"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="21"/>
-      <c r="E407" s="11"/>
-      <c r="F407" s="11"/>
-      <c r="G407" s="11"/>
-      <c r="H407" s="11"/>
-      <c r="I407" s="11"/>
-      <c r="J407" s="11"/>
-      <c r="K407" s="11"/>
-      <c r="L407" s="11"/>
-      <c r="M407" s="11"/>
-      <c r="N407" s="11"/>
-      <c r="O407" s="11"/>
-      <c r="P407" s="11"/>
-      <c r="Q407" s="11"/>
-    </row>
-    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q407" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
-      <c r="R408" s="11"/>
-    </row>
-    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C408" s="11"/>
+      <c r="D408" s="21"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="11"/>
+      <c r="I408" s="11"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="11"/>
+      <c r="L408" s="11"/>
+      <c r="M408" s="11"/>
+      <c r="N408" s="11"/>
+      <c r="O408" s="11"/>
+      <c r="P408" s="11"/>
+      <c r="Q408" s="11"/>
+    </row>
+    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="13"/>
-    </row>
-    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C409" s="11"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
+      <c r="M409" s="11"/>
+      <c r="N409" s="11"/>
+      <c r="O409" s="11"/>
+      <c r="P409" s="11"/>
+      <c r="Q409" s="11"/>
+    </row>
+    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="13"/>
-    </row>
-    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R410" s="11"/>
+    </row>
+    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="13"/>
     </row>
-    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A417" s="13"/>
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="13"/>
-      <c r="S417" s="11"/>
-    </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="13"/>
-      <c r="R418" s="11"/>
-    </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="13"/>
       <c r="B419" s="13"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="21"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
-      <c r="M419" s="11"/>
-      <c r="N419" s="11"/>
-      <c r="O419" s="11"/>
-      <c r="P419" s="11"/>
-      <c r="Q419" s="11"/>
-    </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="S419" s="11"/>
+    </row>
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="13"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="21"/>
-      <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="11"/>
-      <c r="L420" s="11"/>
-      <c r="M420" s="11"/>
-      <c r="N420" s="11"/>
-      <c r="O420" s="11"/>
-      <c r="P420" s="11"/>
-      <c r="Q420" s="11"/>
       <c r="R420" s="11"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A421" s="11"/>
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
       <c r="D421" s="21"/>
@@ -12847,10 +12873,8 @@
       <c r="O421" s="11"/>
       <c r="P421" s="11"/>
       <c r="Q421" s="11"/>
-      <c r="R421" s="11"/>
-      <c r="S421" s="11"/>
-    </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
       <c r="D422" s="21"/>
@@ -12869,12 +12893,52 @@
       <c r="Q422" s="11"/>
       <c r="R422" s="11"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="11"/>
       <c r="B423" s="13"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="21"/>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="11"/>
+      <c r="I423" s="11"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="11"/>
+      <c r="L423" s="11"/>
+      <c r="M423" s="11"/>
+      <c r="N423" s="11"/>
+      <c r="O423" s="11"/>
+      <c r="P423" s="11"/>
+      <c r="Q423" s="11"/>
+      <c r="R423" s="11"/>
+      <c r="S423" s="11"/>
+    </row>
+    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="13"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="21"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="11"/>
+      <c r="I424" s="11"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="11"/>
+      <c r="L424" s="11"/>
+      <c r="M424" s="11"/>
+      <c r="N424" s="11"/>
+      <c r="O424" s="11"/>
+      <c r="P424" s="11"/>
+      <c r="Q424" s="11"/>
+      <c r="R424" s="11"/>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B425" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T421">
-    <sortCondition ref="B2:B421"/>
+  <sortState ref="A2:T423">
+    <sortCondition ref="B2:B423"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12889,16 +12953,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -12912,7 +12976,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12987,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -12934,7 +12998,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -12948,7 +13012,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -12959,7 +13023,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -12973,7 +13037,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -12984,7 +13048,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -12995,7 +13059,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13006,7 +13070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13017,7 +13081,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13028,7 +13092,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13039,7 +13103,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13050,7 +13114,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13061,7 +13125,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13072,7 +13136,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13083,7 +13147,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13094,7 +13158,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13105,7 +13169,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>581</v>
       </c>
@@ -13130,22 +13194,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13183,7 +13247,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13197,7 +13261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13211,7 +13275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13228,7 +13292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13239,7 +13303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13253,7 +13317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13270,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13284,7 +13348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13301,7 +13365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13328,7 +13392,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13343,12 +13407,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13383,7 +13447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13394,7 +13458,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13411,7 +13475,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13428,7 +13492,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13445,7 +13509,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13462,7 +13526,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13479,7 +13543,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13496,7 +13560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13513,7 +13577,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13530,7 +13594,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13547,7 +13611,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13573,7 +13637,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13599,7 +13663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13625,7 +13689,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13651,7 +13715,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13677,7 +13741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13703,7 +13767,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13729,7 +13793,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13755,7 +13819,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13781,7 +13845,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13807,7 +13871,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13833,7 +13897,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13859,7 +13923,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13885,7 +13949,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13911,7 +13975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13937,7 +14001,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13963,7 +14027,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13989,7 +14053,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14015,7 +14079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7603793D-35AF-4AA3-A1BF-5816199D70F1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -1933,7 +1932,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2154,7 +2153,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,39 +2450,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B363" sqref="B363"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.453125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.81640625" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.453125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.26953125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.7265625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.1796875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.1796875" style="11"/>
-    <col min="14" max="14" width="18.453125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.1796875" style="11"/>
-    <col min="17" max="17" width="13.453125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.1796875" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.7265625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.7265625" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.1796875" style="11"/>
+    <col min="8" max="8" width="35.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="18.42578125" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="13.42578125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2541,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2571,7 +2570,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2597,7 +2596,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2623,7 +2622,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2649,7 +2648,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2677,7 +2676,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2711,7 +2710,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2737,7 +2736,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2771,7 +2770,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2797,7 +2796,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2826,7 +2825,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>606</v>
@@ -2868,7 +2867,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2906,7 +2905,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2944,7 +2943,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -2977,7 +2976,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3010,7 +3009,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3041,7 +3040,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3072,7 +3071,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3103,7 +3102,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3134,7 +3133,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3165,7 +3164,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3196,7 +3195,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3223,7 +3222,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3258,7 +3257,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3287,7 +3286,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3314,7 +3313,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3341,7 +3340,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="116" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3372,7 +3371,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3399,7 +3398,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3426,7 +3425,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3453,7 +3452,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3480,7 +3479,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3507,7 +3506,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3534,7 +3533,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>594</v>
       </c>
@@ -3569,7 +3568,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>596</v>
       </c>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>598</v>
       </c>
@@ -3613,7 +3612,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>601</v>
       </c>
@@ -3635,7 +3634,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3664,7 +3663,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3695,7 +3694,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3724,7 +3723,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3755,7 +3754,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3782,7 +3781,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>540</v>
@@ -3815,7 +3814,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3848,7 +3847,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3875,7 +3874,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3902,7 +3901,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3929,7 +3928,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -3956,7 +3955,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -3983,7 +3982,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4010,7 +4009,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4037,7 +4036,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4064,7 +4063,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4091,7 +4090,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4118,7 +4117,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4145,7 +4144,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4172,7 +4171,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4199,7 +4198,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4228,7 +4227,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4255,7 +4254,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4282,7 +4281,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4309,7 +4308,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4336,7 +4335,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4363,7 +4362,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4390,7 +4389,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4417,7 +4416,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4433,7 +4432,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4449,7 +4448,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4476,7 +4475,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4492,7 +4491,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4519,7 +4518,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4546,7 +4545,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4573,7 +4572,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4600,7 +4599,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4631,7 +4630,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4662,7 +4661,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4689,7 +4688,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4705,7 +4704,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4732,7 +4731,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4759,7 +4758,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4790,7 +4789,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4823,7 +4822,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>335</v>
@@ -4848,7 +4847,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>336</v>
@@ -4875,7 +4874,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>337</v>
@@ -4902,7 +4901,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>338</v>
@@ -4929,7 +4928,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
@@ -4958,7 +4957,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>340</v>
@@ -4983,7 +4982,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>341</v>
@@ -5010,7 +5009,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5035,7 +5034,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5052,7 +5051,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>342</v>
       </c>
@@ -5068,7 +5067,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>343</v>
@@ -5095,7 +5094,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5121,7 +5120,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5143,7 +5142,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>344</v>
@@ -5170,7 +5169,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>345</v>
@@ -5197,7 +5196,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>346</v>
@@ -5224,7 +5223,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>347</v>
@@ -5251,7 +5250,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>348</v>
@@ -5278,7 +5277,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>349</v>
@@ -5305,7 +5304,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>350</v>
@@ -5332,7 +5331,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>351</v>
@@ -5359,7 +5358,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>352</v>
@@ -5386,7 +5385,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>353</v>
@@ -5413,7 +5412,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>354</v>
@@ -5440,7 +5439,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>355</v>
@@ -5469,7 +5468,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="25" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
         <v>357</v>
@@ -5497,7 +5496,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>358</v>
@@ -5526,7 +5525,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>360</v>
@@ -5552,7 +5551,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>361</v>
@@ -5579,7 +5578,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>362</v>
@@ -5607,7 +5606,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>363</v>
@@ -5635,7 +5634,7 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>265</v>
@@ -5663,7 +5662,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>365</v>
@@ -5695,7 +5694,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>366</v>
@@ -5723,7 +5722,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>367</v>
@@ -5751,7 +5750,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>368</v>
@@ -5779,7 +5778,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>369</v>
@@ -5807,7 +5806,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="12" t="s">
         <v>151</v>
@@ -5835,7 +5834,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>152</v>
       </c>
@@ -5855,7 +5854,7 @@
       <c r="S121" s="13"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>154</v>
       </c>
@@ -5875,7 +5874,7 @@
       <c r="S122" s="13"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>370</v>
       </c>
@@ -5899,7 +5898,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>372</v>
@@ -5927,7 +5926,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>373</v>
@@ -5955,7 +5954,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="12" t="s">
         <v>157</v>
@@ -5983,7 +5982,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>158</v>
       </c>
@@ -6000,7 +5999,7 @@
       <c r="S127" s="13"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="12" t="s">
         <v>160</v>
       </c>
@@ -6020,7 +6019,7 @@
       <c r="S128" s="13"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>161</v>
       </c>
@@ -6037,7 +6036,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>162</v>
       </c>
@@ -6054,7 +6053,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>163</v>
       </c>
@@ -6071,7 +6070,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>164</v>
       </c>
@@ -6088,7 +6087,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>165</v>
       </c>
@@ -6105,7 +6104,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>166</v>
       </c>
@@ -6122,7 +6121,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
         <v>167</v>
       </c>
@@ -6139,7 +6138,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>168</v>
       </c>
@@ -6156,7 +6155,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>169</v>
       </c>
@@ -6173,7 +6172,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>170</v>
       </c>
@@ -6190,7 +6189,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>171</v>
       </c>
@@ -6207,7 +6206,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
         <v>374</v>
       </c>
@@ -6224,7 +6223,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>375</v>
@@ -6252,7 +6251,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>376</v>
@@ -6280,7 +6279,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="12" t="s">
         <v>172</v>
@@ -6308,7 +6307,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
         <v>377</v>
       </c>
@@ -6325,7 +6324,7 @@
       <c r="S144" s="13"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>378</v>
@@ -6353,7 +6352,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>379</v>
@@ -6381,7 +6380,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>380</v>
@@ -6413,7 +6412,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>383</v>
@@ -6439,7 +6438,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>384</v>
@@ -6467,7 +6466,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>385</v>
@@ -6495,7 +6494,7 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
         <v>386</v>
@@ -6523,7 +6522,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
     </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>387</v>
@@ -6551,7 +6550,7 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
         <v>388</v>
@@ -6579,7 +6578,7 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="12" t="s">
         <v>173</v>
@@ -6607,7 +6606,7 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
         <v>389</v>
       </c>
@@ -6624,7 +6623,7 @@
       <c r="S155" s="13"/>
       <c r="T155" s="10"/>
     </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
         <v>390</v>
@@ -6658,7 +6657,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="12" t="s">
         <v>174</v>
@@ -6684,7 +6683,7 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>392</v>
       </c>
@@ -6704,7 +6703,7 @@
       <c r="S158" s="13"/>
       <c r="T158" s="10"/>
     </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>393</v>
@@ -6732,7 +6731,7 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
         <v>395</v>
@@ -6762,7 +6761,7 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
         <v>396</v>
@@ -6790,7 +6789,7 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>397</v>
@@ -6818,7 +6817,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>398</v>
@@ -6846,7 +6845,7 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>399</v>
@@ -6874,7 +6873,7 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>400</v>
@@ -6902,7 +6901,7 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>401</v>
@@ -6930,7 +6929,7 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
         <v>402</v>
@@ -6958,7 +6957,7 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>403</v>
@@ -6986,7 +6985,7 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>404</v>
@@ -7014,7 +7013,7 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>405</v>
@@ -7042,7 +7041,7 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>406</v>
@@ -7070,7 +7069,7 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>407</v>
@@ -7098,7 +7097,7 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="12" t="s">
         <v>175</v>
@@ -7128,7 +7127,7 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>408</v>
@@ -7160,7 +7159,7 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>411</v>
@@ -7188,7 +7187,7 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
         <v>412</v>
@@ -7216,7 +7215,7 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>413</v>
@@ -7250,7 +7249,7 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="11"/>
       <c r="B178" s="11" t="s">
         <v>66</v>
@@ -7282,7 +7281,7 @@
       <c r="S178" s="11"/>
       <c r="T178" s="10"/>
     </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>176</v>
       </c>
@@ -7299,7 +7298,7 @@
       <c r="S179" s="13"/>
       <c r="T179" s="10"/>
     </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>177</v>
       </c>
@@ -7316,7 +7315,7 @@
       <c r="S180" s="13"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
         <v>415</v>
@@ -7344,7 +7343,7 @@
       <c r="S181" s="10"/>
       <c r="T181" s="10"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>178</v>
       </c>
@@ -7361,7 +7360,7 @@
       <c r="S182" s="13"/>
       <c r="T182" s="10"/>
     </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10" t="s">
         <v>416</v>
@@ -7389,7 +7388,7 @@
       <c r="S183" s="10"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>417</v>
@@ -7417,7 +7416,7 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
         <v>418</v>
@@ -7445,7 +7444,7 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>419</v>
@@ -7473,7 +7472,7 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
         <v>179</v>
       </c>
@@ -7490,7 +7489,7 @@
       <c r="S187" s="13"/>
       <c r="T187" s="10"/>
     </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="s">
         <v>420</v>
@@ -7518,7 +7517,7 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>421</v>
@@ -7546,7 +7545,7 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
         <v>422</v>
@@ -7574,7 +7573,7 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
         <v>423</v>
@@ -7602,7 +7601,7 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>424</v>
@@ -7630,7 +7629,7 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>425</v>
@@ -7658,7 +7657,7 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B194" s="12" t="s">
         <v>180</v>
       </c>
@@ -7675,7 +7674,7 @@
       <c r="S194" s="13"/>
       <c r="T194" s="10"/>
     </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>426</v>
@@ -7703,7 +7702,7 @@
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B196" s="12" t="s">
         <v>181</v>
       </c>
@@ -7720,7 +7719,7 @@
       <c r="S196" s="13"/>
       <c r="T196" s="10"/>
     </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
         <v>182</v>
       </c>
@@ -7737,7 +7736,7 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B198" s="12" t="s">
         <v>183</v>
       </c>
@@ -7754,7 +7753,7 @@
       <c r="S198" s="13"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="12" t="s">
         <v>184</v>
       </c>
@@ -7771,7 +7770,7 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
         <v>185</v>
       </c>
@@ -7788,7 +7787,7 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
         <v>186</v>
       </c>
@@ -7805,7 +7804,7 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
         <v>427</v>
@@ -7833,7 +7832,7 @@
       <c r="S202" s="10"/>
       <c r="T202" s="10"/>
     </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="12" t="s">
         <v>187</v>
       </c>
@@ -7850,7 +7849,7 @@
       <c r="S203" s="13"/>
       <c r="T203" s="10"/>
     </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
         <v>428</v>
@@ -7878,7 +7877,7 @@
       <c r="S204" s="10"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>429</v>
@@ -7906,7 +7905,7 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
         <v>430</v>
@@ -7934,7 +7933,7 @@
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
         <v>431</v>
@@ -7962,7 +7961,7 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B208" s="12" t="s">
         <v>188</v>
       </c>
@@ -7979,7 +7978,7 @@
       <c r="S208" s="13"/>
       <c r="T208" s="10"/>
     </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B209" s="12" t="s">
         <v>189</v>
       </c>
@@ -7999,7 +7998,7 @@
       <c r="S209" s="13"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>432</v>
@@ -8027,7 +8026,7 @@
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
         <v>433</v>
@@ -8055,7 +8054,7 @@
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
         <v>434</v>
@@ -8083,7 +8082,7 @@
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>435</v>
@@ -8111,7 +8110,7 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>436</v>
@@ -8139,7 +8138,7 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>437</v>
@@ -8167,7 +8166,7 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B216" s="12" t="s">
         <v>191</v>
       </c>
@@ -8184,7 +8183,7 @@
       <c r="S216" s="13"/>
       <c r="T216" s="10"/>
     </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="s">
         <v>438</v>
@@ -8212,7 +8211,7 @@
       <c r="S217" s="10"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>439</v>
@@ -8240,7 +8239,7 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
         <v>440</v>
@@ -8270,7 +8269,7 @@
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>442</v>
@@ -8298,7 +8297,7 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="12" t="s">
         <v>192</v>
       </c>
@@ -8315,7 +8314,7 @@
       <c r="S221" s="13"/>
       <c r="T221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>443</v>
@@ -8343,7 +8342,7 @@
       <c r="S222" s="10"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>444</v>
@@ -8371,7 +8370,7 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
         <v>445</v>
@@ -8399,7 +8398,7 @@
       <c r="S224" s="10"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>446</v>
@@ -8427,7 +8426,7 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>113</v>
@@ -8455,7 +8454,7 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>447</v>
@@ -8483,7 +8482,7 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>448</v>
@@ -8511,7 +8510,7 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>449</v>
@@ -8539,7 +8538,7 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>450</v>
@@ -8567,7 +8566,7 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>451</v>
@@ -8595,7 +8594,7 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>452</v>
@@ -8623,7 +8622,7 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B233" s="12" t="s">
         <v>193</v>
       </c>
@@ -8640,7 +8639,7 @@
       <c r="S233" s="13"/>
       <c r="T233" s="10"/>
     </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B234" s="12" t="s">
         <v>194</v>
       </c>
@@ -8657,7 +8656,7 @@
       <c r="S234" s="13"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B235" s="12" t="s">
         <v>195</v>
       </c>
@@ -8677,7 +8676,7 @@
       <c r="S235" s="13"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="12" t="s">
         <v>197</v>
       </c>
@@ -8694,7 +8693,7 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
         <v>453</v>
@@ -8722,7 +8721,7 @@
       <c r="S237" s="10"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
         <v>454</v>
@@ -8750,7 +8749,7 @@
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
         <v>455</v>
@@ -8778,7 +8777,7 @@
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>456</v>
@@ -8806,7 +8805,7 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>457</v>
@@ -8834,7 +8833,7 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>458</v>
@@ -8862,7 +8861,7 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>459</v>
@@ -8890,7 +8889,7 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>460</v>
@@ -8918,7 +8917,7 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>461</v>
@@ -8946,7 +8945,7 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>462</v>
@@ -8976,7 +8975,7 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>464</v>
@@ -9004,7 +9003,7 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>465</v>
@@ -9032,7 +9031,7 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>466</v>
@@ -9060,7 +9059,7 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>467</v>
@@ -9088,7 +9087,7 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
         <v>468</v>
@@ -9118,7 +9117,7 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>470</v>
@@ -9146,7 +9145,7 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>471</v>
@@ -9174,7 +9173,7 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>472</v>
@@ -9202,7 +9201,7 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>473</v>
@@ -9230,7 +9229,7 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>474</v>
@@ -9258,7 +9257,7 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
         <v>245</v>
@@ -9288,7 +9287,7 @@
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="12" t="s">
         <v>126</v>
       </c>
@@ -9308,7 +9307,7 @@
       <c r="S258" s="13"/>
       <c r="T258" s="10"/>
     </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B259" s="12" t="s">
         <v>199</v>
       </c>
@@ -9325,7 +9324,7 @@
       <c r="S259" s="13"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="s">
         <v>475</v>
@@ -9353,7 +9352,7 @@
       <c r="S260" s="10"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10" t="s">
         <v>476</v>
@@ -9381,7 +9380,7 @@
       <c r="S261" s="10"/>
       <c r="T261" s="10"/>
     </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
         <v>477</v>
@@ -9409,7 +9408,7 @@
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
         <v>478</v>
@@ -9437,7 +9436,7 @@
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>479</v>
@@ -9465,7 +9464,7 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="11"/>
       <c r="B265" s="11" t="s">
         <v>65</v>
@@ -9491,7 +9490,7 @@
       <c r="S265" s="11"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>480</v>
@@ -9519,7 +9518,7 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>481</v>
@@ -9547,7 +9546,7 @@
       <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>482</v>
@@ -9575,7 +9574,7 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
         <v>483</v>
@@ -9603,7 +9602,7 @@
       <c r="S269" s="10"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>484</v>
@@ -9631,7 +9630,7 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="13" t="s">
         <v>6</v>
@@ -9667,7 +9666,7 @@
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>485</v>
@@ -9699,7 +9698,7 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>488</v>
@@ -9727,7 +9726,7 @@
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B274" s="12" t="s">
         <v>200</v>
       </c>
@@ -9744,7 +9743,7 @@
       <c r="S274" s="13"/>
       <c r="T274" s="10"/>
     </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B275" s="12" t="s">
         <v>201</v>
       </c>
@@ -9761,7 +9760,7 @@
       <c r="S275" s="13"/>
       <c r="T275" s="10"/>
     </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B276" s="12" t="s">
         <v>202</v>
       </c>
@@ -9781,7 +9780,7 @@
       <c r="S276" s="13"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B277" s="12" t="s">
         <v>204</v>
       </c>
@@ -9798,7 +9797,7 @@
       <c r="S277" s="13"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B278" s="12" t="s">
         <v>205</v>
       </c>
@@ -9815,7 +9814,7 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B279" s="12" t="s">
         <v>206</v>
       </c>
@@ -9832,7 +9831,7 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B280" s="12" t="s">
         <v>207</v>
       </c>
@@ -9849,7 +9848,7 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="12" t="s">
         <v>208</v>
       </c>
@@ -9866,7 +9865,7 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="12" t="s">
         <v>209</v>
       </c>
@@ -9883,7 +9882,7 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="12" t="s">
         <v>210</v>
       </c>
@@ -9900,7 +9899,7 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B284" s="12" t="s">
         <v>211</v>
       </c>
@@ -9917,7 +9916,7 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B285" s="12" t="s">
         <v>212</v>
       </c>
@@ -9934,7 +9933,7 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B286" s="12" t="s">
         <v>213</v>
       </c>
@@ -9951,7 +9950,7 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B287" s="12" t="s">
         <v>214</v>
       </c>
@@ -9968,7 +9967,7 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="12" t="s">
         <v>215</v>
       </c>
@@ -9985,7 +9984,7 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B289" s="12" t="s">
         <v>216</v>
       </c>
@@ -10002,7 +10001,7 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="12" t="s">
         <v>217</v>
       </c>
@@ -10019,7 +10018,7 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
         <v>489</v>
@@ -10047,7 +10046,7 @@
       <c r="S291" s="10"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10" t="s">
         <v>490</v>
@@ -10075,7 +10074,7 @@
       <c r="S292" s="10"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
         <v>491</v>
@@ -10103,7 +10102,7 @@
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="12" t="s">
         <v>218</v>
       </c>
@@ -10120,7 +10119,7 @@
       <c r="S294" s="13"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>492</v>
@@ -10148,7 +10147,7 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
         <v>493</v>
@@ -10178,7 +10177,7 @@
       <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>495</v>
@@ -10206,7 +10205,7 @@
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
         <v>339</v>
@@ -10234,7 +10233,7 @@
       <c r="S298" s="10"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B299" s="12" t="s">
         <v>219</v>
       </c>
@@ -10251,7 +10250,7 @@
       <c r="S299" s="13"/>
       <c r="T299" s="10"/>
     </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B300" s="12" t="s">
         <v>220</v>
       </c>
@@ -10268,7 +10267,7 @@
       <c r="S300" s="13"/>
       <c r="T300" s="10"/>
     </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>496</v>
@@ -10296,7 +10295,7 @@
       <c r="S301" s="10"/>
       <c r="T301" s="10"/>
     </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>497</v>
@@ -10324,7 +10323,7 @@
       <c r="S302" s="10"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
         <v>498</v>
@@ -10352,7 +10351,7 @@
       <c r="S303" s="10"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
         <v>499</v>
@@ -10380,7 +10379,7 @@
       <c r="S304" s="10"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>500</v>
@@ -10408,7 +10407,7 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>501</v>
@@ -10436,7 +10435,7 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>502</v>
@@ -10464,7 +10463,7 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
         <v>503</v>
@@ -10492,7 +10491,7 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>504</v>
@@ -10520,7 +10519,7 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>505</v>
@@ -10548,7 +10547,7 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B311" s="12" t="s">
         <v>221</v>
       </c>
@@ -10565,7 +10564,7 @@
       <c r="S311" s="13"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>506</v>
@@ -10593,7 +10592,7 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B313" s="12" t="s">
         <v>222</v>
       </c>
@@ -10610,7 +10609,7 @@
       <c r="S313" s="13"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>507</v>
@@ -10638,7 +10637,7 @@
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
         <v>508</v>
@@ -10666,7 +10665,7 @@
       <c r="S315" s="10"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>509</v>
@@ -10694,7 +10693,7 @@
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
         <v>510</v>
@@ -10722,7 +10721,7 @@
       <c r="S317" s="10"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>511</v>
@@ -10750,7 +10749,7 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>512</v>
@@ -10778,7 +10777,7 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
         <v>513</v>
@@ -10806,7 +10805,7 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>514</v>
@@ -10834,7 +10833,7 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>515</v>
@@ -10862,7 +10861,7 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>516</v>
@@ -10890,7 +10889,7 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B324" s="12" t="s">
         <v>223</v>
       </c>
@@ -10910,7 +10909,7 @@
       <c r="S324" s="13"/>
       <c r="T324" s="10"/>
     </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B325" s="12" t="s">
         <v>224</v>
       </c>
@@ -10927,7 +10926,7 @@
       <c r="S325" s="13"/>
       <c r="T325" s="10"/>
     </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>517</v>
@@ -10955,7 +10954,7 @@
       <c r="S326" s="10"/>
       <c r="T326" s="10"/>
     </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>518</v>
@@ -10983,7 +10982,7 @@
       <c r="S327" s="10"/>
       <c r="T327" s="10"/>
     </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="12" t="s">
         <v>129</v>
       </c>
@@ -11003,7 +11002,7 @@
       <c r="S328" s="13"/>
       <c r="T328" s="10"/>
     </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="12" t="s">
         <v>226</v>
       </c>
@@ -11023,7 +11022,7 @@
       <c r="S329" s="13"/>
       <c r="T329" s="10"/>
     </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B330" s="12" t="s">
         <v>227</v>
       </c>
@@ -11040,7 +11039,7 @@
       <c r="S330" s="13"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B331" s="12" t="s">
         <v>228</v>
       </c>
@@ -11060,7 +11059,7 @@
       <c r="S331" s="13"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B332" s="12" t="s">
         <v>229</v>
       </c>
@@ -11077,7 +11076,7 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B333" s="12" t="s">
         <v>230</v>
       </c>
@@ -11094,7 +11093,7 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B334" s="12" t="s">
         <v>231</v>
       </c>
@@ -11111,7 +11110,7 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B335" s="12" t="s">
         <v>131</v>
       </c>
@@ -11128,7 +11127,7 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B336" s="12" t="s">
         <v>232</v>
       </c>
@@ -11145,7 +11144,7 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="12" t="s">
         <v>233</v>
       </c>
@@ -11162,7 +11161,7 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="10" t="s">
         <v>519</v>
@@ -11190,7 +11189,7 @@
       <c r="S338" s="10"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="10" t="s">
         <v>520</v>
@@ -11218,7 +11217,7 @@
       <c r="S339" s="10"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
         <v>521</v>
@@ -11246,7 +11245,7 @@
       <c r="S340" s="10"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
         <v>522</v>
@@ -11274,7 +11273,7 @@
       <c r="S341" s="10"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
         <v>523</v>
@@ -11302,7 +11301,7 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
         <v>524</v>
@@ -11330,7 +11329,7 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="25" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:20" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="23" t="s">
         <v>71</v>
@@ -11361,7 +11360,7 @@
       <c r="S344" s="23"/>
       <c r="T344" s="23"/>
     </row>
-    <row r="345" spans="1:20" s="25" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="23" t="s">
         <v>525</v>
@@ -11391,7 +11390,7 @@
       <c r="S345" s="23"/>
       <c r="T345" s="23"/>
     </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
         <v>526</v>
@@ -11419,7 +11418,7 @@
       <c r="S346" s="10"/>
       <c r="T346" s="10"/>
     </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
         <v>527</v>
@@ -11449,7 +11448,7 @@
       <c r="S347" s="10"/>
       <c r="T347" s="10"/>
     </row>
-    <row r="348" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
         <v>529</v>
@@ -11477,7 +11476,7 @@
       <c r="S348" s="10"/>
       <c r="T348" s="10"/>
     </row>
-    <row r="349" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
         <v>530</v>
@@ -11505,7 +11504,7 @@
       <c r="S349" s="10"/>
       <c r="T349" s="10"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
         <v>531</v>
@@ -11535,7 +11534,7 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
         <v>533</v>
@@ -11563,7 +11562,7 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
         <v>534</v>
@@ -11593,7 +11592,7 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
         <v>535</v>
@@ -11621,7 +11620,7 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B354" s="12" t="s">
         <v>234</v>
       </c>
@@ -11638,7 +11637,7 @@
       <c r="S354" s="13"/>
       <c r="T354" s="10"/>
     </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B355" s="12" t="s">
         <v>235</v>
       </c>
@@ -11655,7 +11654,7 @@
       <c r="S355" s="13"/>
       <c r="T355" s="10"/>
     </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B356" s="12" t="s">
         <v>236</v>
       </c>
@@ -11672,7 +11671,7 @@
       <c r="S356" s="13"/>
       <c r="T356" s="10"/>
     </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="10" t="s">
         <v>536</v>
@@ -11700,7 +11699,7 @@
       <c r="S357" s="10"/>
       <c r="T357" s="10"/>
     </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B358" s="12" t="s">
         <v>237</v>
       </c>
@@ -11717,7 +11716,7 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B359" s="12" t="s">
         <v>238</v>
       </c>
@@ -11734,7 +11733,7 @@
       <c r="S359" s="13"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="12" t="s">
         <v>239</v>
       </c>
@@ -11760,7 +11759,7 @@
       <c r="S360" s="13"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="10" t="s">
         <v>538</v>
@@ -11788,7 +11787,7 @@
       <c r="S361" s="10"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="12" t="s">
         <v>242</v>
       </c>
@@ -11805,7 +11804,7 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="12" t="s">
         <v>631</v>
       </c>
@@ -11816,7 +11815,7 @@
       <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B364" s="12" t="s">
         <v>243</v>
       </c>
@@ -11842,7 +11841,7 @@
       <c r="S364" s="13"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B365" s="12" t="s">
         <v>246</v>
       </c>
@@ -11859,7 +11858,7 @@
       <c r="S365" s="13"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="12" t="s">
         <v>247</v>
       </c>
@@ -11882,7 +11881,7 @@
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="12" t="s">
         <v>250</v>
       </c>
@@ -11899,7 +11898,7 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="10" t="s">
         <v>543</v>
@@ -11927,7 +11926,7 @@
       <c r="S368" s="10"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="12" t="s">
         <v>251</v>
       </c>
@@ -11944,7 +11943,7 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
         <v>544</v>
@@ -11974,7 +11973,7 @@
       <c r="S370" s="10"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
         <v>546</v>
@@ -12002,7 +12001,7 @@
       <c r="S371" s="10"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
         <v>547</v>
@@ -12030,7 +12029,7 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
         <v>548</v>
@@ -12058,7 +12057,7 @@
       <c r="S373" s="10"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
         <v>549</v>
@@ -12086,7 +12085,7 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
         <v>550</v>
@@ -12114,7 +12113,7 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
         <v>551</v>
@@ -12142,7 +12141,7 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
         <v>552</v>
@@ -12170,7 +12169,7 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
         <v>553</v>
@@ -12198,7 +12197,7 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
         <v>554</v>
@@ -12226,7 +12225,7 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
         <v>555</v>
@@ -12254,7 +12253,7 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
         <v>556</v>
@@ -12282,7 +12281,7 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
         <v>557</v>
@@ -12310,7 +12309,7 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B383" s="12" t="s">
         <v>136</v>
       </c>
@@ -12330,7 +12329,7 @@
       <c r="S383" s="13"/>
       <c r="T383" s="10"/>
     </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B384" s="12" t="s">
         <v>253</v>
       </c>
@@ -12347,7 +12346,7 @@
       <c r="S384" s="13"/>
       <c r="T384" s="10"/>
     </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B385" s="12" t="s">
         <v>254</v>
       </c>
@@ -12364,7 +12363,7 @@
       <c r="S385" s="13"/>
       <c r="T385" s="10"/>
     </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B386" s="12" t="s">
         <v>255</v>
       </c>
@@ -12381,7 +12380,7 @@
       <c r="S386" s="13"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B387" s="12" t="s">
         <v>256</v>
       </c>
@@ -12398,7 +12397,7 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="12" t="s">
         <v>257</v>
       </c>
@@ -12415,7 +12414,7 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="B389" s="10" t="s">
         <v>558</v>
@@ -12443,7 +12442,7 @@
       <c r="S389" s="10"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" s="10" t="s">
         <v>559</v>
@@ -12471,7 +12470,7 @@
       <c r="S390" s="10"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
         <v>560</v>
@@ -12499,7 +12498,7 @@
       <c r="S391" s="10"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
         <v>561</v>
@@ -12527,7 +12526,7 @@
       <c r="S392" s="10"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B393" s="12" t="s">
         <v>258</v>
       </c>
@@ -12544,7 +12543,7 @@
       <c r="S393" s="13"/>
       <c r="T393" s="10"/>
     </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B394" s="12" t="s">
         <v>259</v>
       </c>
@@ -12561,7 +12560,7 @@
       <c r="S394" s="13"/>
       <c r="T394" s="10"/>
     </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
         <v>562</v>
@@ -12595,7 +12594,7 @@
       <c r="S395" s="10"/>
       <c r="T395" s="10"/>
     </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="10" t="s">
         <v>564</v>
@@ -12623,7 +12622,7 @@
       <c r="S396" s="10"/>
       <c r="T396" s="10"/>
     </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="12" t="s">
         <v>260</v>
       </c>
@@ -12640,7 +12639,7 @@
       <c r="S397" s="13"/>
       <c r="T397" s="10"/>
     </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="12" t="s">
         <v>261</v>
       </c>
@@ -12657,13 +12656,13 @@
       <c r="S398" s="13"/>
       <c r="T398" s="10"/>
     </row>
-    <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B399" s="13"/>
       <c r="Q399" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B400" s="13"/>
       <c r="G400" s="11"/>
       <c r="H400" s="11"/>
@@ -12679,25 +12678,25 @@
       <c r="P400" s="11"/>
       <c r="Q400" s="11"/>
     </row>
-    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B401" s="13"/>
       <c r="Q401" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B402" s="13"/>
       <c r="Q402" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="13"/>
       <c r="E404" s="11"/>
       <c r="F404" s="11"/>
@@ -12713,13 +12712,13 @@
       <c r="P404" s="11"/>
       <c r="Q404" s="11"/>
     </row>
-    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="13"/>
       <c r="C406" s="11"/>
       <c r="D406" s="21"/>
@@ -12737,7 +12736,7 @@
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
     </row>
-    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="13"/>
       <c r="C407" s="11"/>
       <c r="D407" s="21"/>
@@ -12755,44 +12754,44 @@
       <c r="P407" s="11"/>
       <c r="Q407" s="11"/>
     </row>
-    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="13"/>
       <c r="R408" s="11"/>
     </row>
-    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="13"/>
     </row>
-    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="13"/>
     </row>
-    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="13"/>
     </row>
-    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A417" s="13"/>
       <c r="B417" s="13"/>
       <c r="S417" s="11"/>
     </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="13"/>
       <c r="R418" s="11"/>
     </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="13"/>
       <c r="C419" s="11"/>
       <c r="D419" s="21"/>
@@ -12810,7 +12809,7 @@
       <c r="P419" s="11"/>
       <c r="Q419" s="11"/>
     </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="13"/>
       <c r="C420" s="11"/>
       <c r="D420" s="21"/>
@@ -12829,7 +12828,7 @@
       <c r="Q420" s="11"/>
       <c r="R420" s="11"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="11"/>
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
@@ -12850,7 +12849,7 @@
       <c r="R421" s="11"/>
       <c r="S421" s="11"/>
     </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
       <c r="D422" s="21"/>
@@ -12869,11 +12868,11 @@
       <c r="Q422" s="11"/>
       <c r="R422" s="11"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B423" s="13"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T421">
+  <sortState ref="A2:T421">
     <sortCondition ref="B2:B421"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12882,23 +12881,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -12912,7 +12911,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12923,7 +12922,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -12934,7 +12933,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -12948,7 +12947,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -12959,7 +12958,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -12973,7 +12972,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -12984,7 +12983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -12995,7 +12994,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13006,7 +13005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13017,7 +13016,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13028,7 +13027,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13039,7 +13038,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13061,7 +13060,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13072,7 +13071,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13083,7 +13082,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13094,7 +13093,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13105,7 +13104,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>581</v>
       </c>
@@ -13123,29 +13122,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13183,7 +13182,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13211,7 +13210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13228,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13239,7 +13238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13253,7 +13252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13270,7 +13269,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13284,7 +13283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13301,7 +13300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13321,14 +13320,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13336,19 +13335,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13383,7 +13382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13411,7 +13410,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13428,7 +13427,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13445,7 +13444,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13462,7 +13461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13479,7 +13478,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13496,7 +13495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13513,7 +13512,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13547,7 +13546,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13573,7 +13572,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13599,7 +13598,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13625,7 +13624,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13651,7 +13650,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13677,7 +13676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13703,7 +13702,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13729,7 +13728,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13755,7 +13754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13807,7 +13806,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13833,7 +13832,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13859,7 +13858,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13885,7 +13884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13911,7 +13910,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13937,7 +13936,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13963,7 +13962,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13989,7 +13988,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14015,7 +14014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="634">
   <si>
     <t>ID</t>
   </si>
@@ -1927,6 +1927,9 @@
   </si>
   <si>
     <t>Smoking in which the combustion product is a tobacco containing product.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A consumption behaviour in which a person ingests tobacco constituents. </t>
   </si>
 </sst>
 </file>
@@ -2153,7 +2156,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,8 +2457,8 @@
   <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11764,7 +11767,9 @@
       <c r="B361" s="10" t="s">
         <v>538</v>
       </c>
-      <c r="C361" s="10"/>
+      <c r="C361" s="10" t="s">
+        <v>633</v>
+      </c>
       <c r="D361" s="10"/>
       <c r="E361" s="10"/>
       <c r="F361" s="10"/>
@@ -11773,7 +11778,9 @@
       </c>
       <c r="H361" s="10"/>
       <c r="I361" s="10"/>
-      <c r="J361" s="10"/>
+      <c r="J361" s="10" t="s">
+        <v>250</v>
+      </c>
       <c r="K361" s="10"/>
       <c r="L361" s="10"/>
       <c r="M361" s="10"/>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD43425-2718-2346-B3EE-5933BC21CFC7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="642">
   <si>
     <t>ID</t>
   </si>
@@ -1930,12 +1931,36 @@
   </si>
   <si>
     <t xml:space="preserve">A consumption behaviour in which a person ingests tobacco constituents. </t>
+  </si>
+  <si>
+    <t>Gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which use of a product delivering a psychoactive substance increases the likelihood of use of another product delivering a psychoactive substance.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Population gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which an increase in prevalence of use of a product delivering a psychoactive substance leads to an increase in the prevalence of use of another product delivering a psychoactive substance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Real-world e-cigarette use </t>
+  </si>
+  <si>
+    <t>E-cigarette use that occurs in the person usual environment.</t>
+  </si>
+  <si>
+    <t>This is distinct from in a laboratory setting.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2035,7 +2060,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2119,6 +2144,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2156,7 +2184,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2453,39 +2481,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T426"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+      <pane ySplit="1" topLeftCell="A289" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N303" sqref="N303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="11"/>
-    <col min="14" max="14" width="18.42578125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="11"/>
-    <col min="17" max="17" width="13.42578125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="11"/>
+    <col min="8" max="8" width="35.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11"/>
+    <col min="14" max="14" width="18.5" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="11"/>
+    <col min="17" max="17" width="13.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2544,7 +2572,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2573,7 +2601,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2599,7 +2627,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2625,7 +2653,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2651,7 +2679,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2679,7 +2707,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2713,7 +2741,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2739,7 +2767,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2773,7 +2801,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2799,7 +2827,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2828,7 +2856,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>606</v>
@@ -2870,7 +2898,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2908,7 +2936,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2946,7 +2974,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -2979,7 +3007,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3012,7 +3040,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3043,7 +3071,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3074,7 +3102,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3105,7 +3133,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3136,7 +3164,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3167,7 +3195,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3198,7 +3226,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3225,7 +3253,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3260,7 +3288,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3289,7 +3317,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3316,7 +3344,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3343,7 +3371,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3374,7 +3402,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3401,7 +3429,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3428,7 +3456,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3455,7 +3483,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3482,7 +3510,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3509,7 +3537,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3536,7 +3564,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>594</v>
       </c>
@@ -3571,7 +3599,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>596</v>
       </c>
@@ -3593,7 +3621,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>598</v>
       </c>
@@ -3615,7 +3643,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>601</v>
       </c>
@@ -3637,7 +3665,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3666,7 +3694,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3697,7 +3725,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3726,7 +3754,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3757,7 +3785,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3784,7 +3812,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>540</v>
@@ -3817,7 +3845,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3850,7 +3878,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3877,7 +3905,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3904,7 +3932,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3931,7 +3959,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -3958,7 +3986,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -3985,7 +4013,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4012,7 +4040,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4039,7 +4067,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4066,7 +4094,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4093,7 +4121,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4120,7 +4148,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4147,7 +4175,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4174,7 +4202,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4201,7 +4229,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4230,7 +4258,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4257,7 +4285,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4284,7 +4312,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4311,7 +4339,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4338,7 +4366,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4365,7 +4393,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4392,7 +4420,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4419,7 +4447,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4435,7 +4463,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4451,7 +4479,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4478,7 +4506,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4494,7 +4522,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4521,7 +4549,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4548,7 +4576,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4575,7 +4603,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4602,7 +4630,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4633,7 +4661,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4664,7 +4692,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4691,7 +4719,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4707,7 +4735,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4734,7 +4762,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4761,7 +4789,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4792,7 +4820,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4825,7 +4853,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>335</v>
@@ -4850,7 +4878,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>336</v>
@@ -4877,7 +4905,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>337</v>
@@ -4904,7 +4932,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>338</v>
@@ -4931,7 +4959,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
@@ -4960,7 +4988,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>340</v>
@@ -4985,7 +5013,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>341</v>
@@ -5012,7 +5040,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5037,7 +5065,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5054,7 +5082,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>342</v>
       </c>
@@ -5070,7 +5098,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>343</v>
@@ -5097,7 +5125,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5123,7 +5151,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5145,7 +5173,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>344</v>
@@ -5172,7 +5200,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>345</v>
@@ -5199,7 +5227,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>346</v>
@@ -5226,7 +5254,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>347</v>
@@ -5253,7 +5281,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>348</v>
@@ -5280,7 +5308,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>349</v>
@@ -5307,7 +5335,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>350</v>
@@ -5334,7 +5362,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>351</v>
@@ -5361,7 +5389,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>352</v>
@@ -5388,7 +5416,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>353</v>
@@ -5415,7 +5443,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>354</v>
@@ -5442,7 +5470,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>355</v>
@@ -5471,7 +5499,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
         <v>357</v>
@@ -5499,7 +5527,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>358</v>
@@ -5528,7 +5556,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>360</v>
@@ -5554,7 +5582,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>361</v>
@@ -5581,7 +5609,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>362</v>
@@ -5609,7 +5637,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>363</v>
@@ -5637,7 +5665,7 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>265</v>
@@ -5665,7 +5693,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>365</v>
@@ -5697,7 +5725,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>366</v>
@@ -5725,7 +5753,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>367</v>
@@ -5753,7 +5781,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>368</v>
@@ -5781,7 +5809,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>369</v>
@@ -5809,7 +5837,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="12" t="s">
         <v>151</v>
@@ -5837,7 +5865,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="12" t="s">
         <v>152</v>
       </c>
@@ -5857,7 +5885,7 @@
       <c r="S121" s="13"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="12" t="s">
         <v>154</v>
       </c>
@@ -5877,7 +5905,7 @@
       <c r="S122" s="13"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
         <v>370</v>
       </c>
@@ -5901,7 +5929,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>372</v>
@@ -5929,7 +5957,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>373</v>
@@ -5957,7 +5985,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="12" t="s">
         <v>157</v>
@@ -5985,7 +6013,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="12" t="s">
         <v>158</v>
       </c>
@@ -6002,7 +6030,7 @@
       <c r="S127" s="13"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="12" t="s">
         <v>160</v>
       </c>
@@ -6022,7 +6050,7 @@
       <c r="S128" s="13"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
         <v>161</v>
       </c>
@@ -6039,7 +6067,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="12" t="s">
         <v>162</v>
       </c>
@@ -6056,7 +6084,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
         <v>163</v>
       </c>
@@ -6073,7 +6101,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
         <v>164</v>
       </c>
@@ -6090,7 +6118,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
         <v>165</v>
       </c>
@@ -6107,7 +6135,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
         <v>166</v>
       </c>
@@ -6124,7 +6152,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
         <v>167</v>
       </c>
@@ -6141,7 +6169,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
         <v>168</v>
       </c>
@@ -6158,7 +6186,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
         <v>169</v>
       </c>
@@ -6175,7 +6203,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
         <v>170</v>
       </c>
@@ -6192,7 +6220,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
         <v>171</v>
       </c>
@@ -6209,7 +6237,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>374</v>
       </c>
@@ -6226,7 +6254,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>375</v>
@@ -6254,7 +6282,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>376</v>
@@ -6282,7 +6310,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="12" t="s">
         <v>172</v>
@@ -6310,7 +6338,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>377</v>
       </c>
@@ -6327,7 +6355,7 @@
       <c r="S144" s="13"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>378</v>
@@ -6355,7 +6383,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>379</v>
@@ -6383,7 +6411,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>380</v>
@@ -6415,7 +6443,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>383</v>
@@ -6441,7 +6469,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>384</v>
@@ -6469,7 +6497,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>385</v>
@@ -6497,38 +6525,33 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B151" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="E151" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G151" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O151" s="15">
+        <v>1</v>
+      </c>
+      <c r="P151" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q151" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6553,10 +6576,10 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6581,10 +6604,10 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
-      <c r="B154" s="12" t="s">
-        <v>173</v>
+      <c r="B154" s="10" t="s">
+        <v>388</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6609,63 +6632,63 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+    </row>
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="G155" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K155" s="13"/>
-      <c r="O155" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S155" s="13"/>
-      <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10" t="s">
+      <c r="G156" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K156" s="13"/>
+      <c r="O156" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S156" s="13"/>
+      <c r="T156" s="10"/>
+    </row>
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10">
-        <v>1</v>
-      </c>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
         <v>4</v>
@@ -6676,7 +6699,9 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
+      <c r="N157" s="10">
+        <v>1</v>
+      </c>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10" t="s">
@@ -6686,58 +6711,56 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="10" t="s">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+      <c r="B158" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+    </row>
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="G158" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K158" s="13"/>
-      <c r="N158" s="12" t="s">
+      <c r="G159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="13"/>
+      <c r="N159" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O158" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S158" s="13"/>
-      <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
+      <c r="O159" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S159" s="13"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6748,9 +6771,7 @@
       </c>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
-      <c r="J160" s="10" t="s">
-        <v>394</v>
-      </c>
+      <c r="J160" s="10"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
@@ -6764,10 +6785,10 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6778,7 +6799,9 @@
       </c>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
+      <c r="J161" s="10" t="s">
+        <v>394</v>
+      </c>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
@@ -6792,10 +6815,10 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6820,10 +6843,10 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6848,10 +6871,10 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6876,10 +6899,10 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6904,10 +6927,10 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6932,10 +6955,10 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6960,10 +6983,10 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6988,10 +7011,10 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -7016,10 +7039,10 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -7044,10 +7067,10 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7072,10 +7095,10 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7100,10 +7123,10 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
-      <c r="B173" s="12" t="s">
-        <v>175</v>
+      <c r="B173" s="10" t="s">
+        <v>407</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -7114,9 +7137,7 @@
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
-      <c r="J173" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -7130,14 +7151,12 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
-      <c r="B174" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>409</v>
-      </c>
+      <c r="B174" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -7145,10 +7164,10 @@
         <v>4</v>
       </c>
       <c r="H174" s="10"/>
-      <c r="I174" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="J174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
@@ -7162,12 +7181,14 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C175" s="10"/>
+        <v>408</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -7175,7 +7196,9 @@
         <v>4</v>
       </c>
       <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
+      <c r="I175" s="10" t="s">
+        <v>410</v>
+      </c>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
@@ -7190,10 +7213,10 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7218,21 +7241,15 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
-        <v>413</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>414</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="C177" s="10"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
         <v>4</v>
       </c>
@@ -7252,58 +7269,75 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11" t="s">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+    </row>
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="11" t="s">
+      <c r="D179" s="21"/>
+      <c r="E179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
-      <c r="T178" s="10"/>
-    </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B179" s="12" t="s">
+      <c r="G179" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="10"/>
+    </row>
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K179" s="13"/>
-      <c r="O179" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q179" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S179" s="13"/>
-      <c r="T179" s="10"/>
-    </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B180" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G180" s="12" t="s">
         <v>4</v>
@@ -7318,83 +7352,72 @@
       <c r="S180" s="13"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10" t="s">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K181" s="13"/>
+      <c r="O181" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S181" s="13"/>
+      <c r="T181" s="10"/>
+    </row>
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10" t="s">
         <v>415</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R181" s="10"/>
-      <c r="S181" s="10"/>
-      <c r="T181" s="10"/>
-    </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+    </row>
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G182" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K182" s="13"/>
-      <c r="O182" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q182" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S182" s="13"/>
-      <c r="T182" s="10"/>
-    </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="10"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R183" s="10"/>
-      <c r="S183" s="10"/>
+      <c r="G183" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K183" s="13"/>
+      <c r="O183" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S183" s="13"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7419,10 +7442,10 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7447,10 +7470,10 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7475,55 +7498,55 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B187" s="12" t="s">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+    </row>
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G187" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K187" s="13"/>
-      <c r="O187" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q187" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S187" s="13"/>
-      <c r="T187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
-      <c r="M188" s="10"/>
-      <c r="N188" s="10"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10"/>
-      <c r="Q188" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R188" s="10"/>
-      <c r="S188" s="10"/>
+      <c r="G188" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K188" s="13"/>
+      <c r="O188" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S188" s="13"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7548,10 +7571,10 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7576,10 +7599,10 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7604,10 +7627,10 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7632,10 +7655,10 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7660,71 +7683,82 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B194" s="12" t="s">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+    </row>
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G194" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K194" s="13"/>
-      <c r="O194" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q194" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S194" s="13"/>
-      <c r="T194" s="10"/>
-    </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10" t="s">
+      <c r="G195" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K195" s="13"/>
+      <c r="O195" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S195" s="13"/>
+      <c r="T195" s="10"/>
+    </row>
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="10"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R195" s="10"/>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-    </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B196" s="12" t="s">
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+    </row>
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="G196" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K196" s="13"/>
-      <c r="O196" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q196" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S196" s="13"/>
-      <c r="T196" s="10"/>
-    </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="G197" s="12" t="s">
         <v>4</v>
@@ -7739,9 +7773,9 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G198" s="12" t="s">
         <v>4</v>
@@ -7756,9 +7790,9 @@
       <c r="S198" s="13"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>4</v>
@@ -7773,9 +7807,9 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>4</v>
@@ -7790,9 +7824,9 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G201" s="12" t="s">
         <v>4</v>
@@ -7807,83 +7841,72 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10" t="s">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K202" s="13"/>
+      <c r="O202" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S202" s="13"/>
+      <c r="T202" s="10"/>
+    </row>
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10" t="s">
         <v>427</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
-      <c r="L202" s="10"/>
-      <c r="M202" s="10"/>
-      <c r="N202" s="10"/>
-      <c r="O202" s="10"/>
-      <c r="P202" s="10"/>
-      <c r="Q202" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R202" s="10"/>
-      <c r="S202" s="10"/>
-      <c r="T202" s="10"/>
-    </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="12" t="s">
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+    </row>
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G203" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K203" s="13"/>
-      <c r="O203" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S203" s="13"/>
-      <c r="T203" s="10"/>
-    </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
-      <c r="L204" s="10"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R204" s="10"/>
-      <c r="S204" s="10"/>
+      <c r="G204" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K204" s="13"/>
+      <c r="O204" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S204" s="13"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7908,10 +7931,10 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7936,10 +7959,10 @@
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7964,32 +7987,40 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="12" t="s">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B209" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G208" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K208" s="13"/>
-      <c r="O208" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S208" s="13"/>
-      <c r="T208" s="10"/>
-    </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B209" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="G209" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J209" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="K209" s="13"/>
       <c r="O209" s="12">
@@ -8001,38 +8032,30 @@
       <c r="S209" s="13"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
-      <c r="P210" s="10"/>
-      <c r="Q210" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R210" s="10"/>
-      <c r="S210" s="10"/>
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B210" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K210" s="13"/>
+      <c r="O210" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S210" s="13"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -8057,10 +8080,10 @@
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -8085,10 +8108,10 @@
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8113,10 +8136,10 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8141,10 +8164,10 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8169,55 +8192,55 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B216" s="12" t="s">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+    </row>
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B217" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G216" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K216" s="13"/>
-      <c r="O216" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q216" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S216" s="13"/>
-      <c r="T216" s="10"/>
-    </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R217" s="10"/>
-      <c r="S217" s="10"/>
+      <c r="G217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K217" s="13"/>
+      <c r="O217" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S217" s="13"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8242,10 +8265,10 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -8256,9 +8279,7 @@
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
-      <c r="J219" s="10" t="s">
-        <v>441</v>
-      </c>
+      <c r="J219" s="10"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
       <c r="M219" s="10"/>
@@ -8272,10 +8293,10 @@
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8286,7 +8307,9 @@
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
+      <c r="J220" s="10" t="s">
+        <v>441</v>
+      </c>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
@@ -8300,55 +8323,55 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B221" s="12" t="s">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+    </row>
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B222" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G221" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K221" s="13"/>
-      <c r="O221" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S221" s="13"/>
-      <c r="T221" s="10"/>
-    </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="10"/>
-      <c r="L222" s="10"/>
-      <c r="M222" s="10"/>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-      <c r="P222" s="10"/>
-      <c r="Q222" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R222" s="10"/>
-      <c r="S222" s="10"/>
+      <c r="G222" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K222" s="13"/>
+      <c r="O222" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S222" s="13"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8373,10 +8396,10 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8401,10 +8424,10 @@
       <c r="S224" s="10"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8429,10 +8452,10 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
-        <v>113</v>
+        <v>446</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -8457,10 +8480,10 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8485,10 +8508,10 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8513,10 +8536,10 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8541,10 +8564,10 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8569,10 +8592,10 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8597,10 +8620,10 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8625,26 +8648,37 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B233" s="12" t="s">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+    </row>
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K233" s="13"/>
-      <c r="O233" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q233" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S233" s="13"/>
-      <c r="T233" s="10"/>
-    </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B234" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="G234" s="12" t="s">
         <v>4</v>
@@ -8659,12 +8693,9 @@
       <c r="S234" s="13"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B235" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G235" s="12" t="s">
         <v>4</v>
@@ -8679,9 +8710,12 @@
       <c r="S235" s="13"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B236" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="G236" s="12" t="s">
         <v>4</v>
@@ -8696,38 +8730,27 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="10"/>
-      <c r="P237" s="10"/>
-      <c r="Q237" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R237" s="10"/>
-      <c r="S237" s="10"/>
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B237" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K237" s="13"/>
+      <c r="O237" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8752,10 +8775,10 @@
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8780,10 +8803,10 @@
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8808,10 +8831,10 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8836,10 +8859,10 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8864,10 +8887,10 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8892,10 +8915,10 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8920,10 +8943,10 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8948,10 +8971,10 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8962,9 +8985,7 @@
       </c>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
-      <c r="J246" s="10" t="s">
-        <v>463</v>
-      </c>
+      <c r="J246" s="10"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
@@ -8978,10 +8999,10 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -8992,7 +9013,9 @@
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
+      <c r="J247" s="10" t="s">
+        <v>463</v>
+      </c>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
@@ -9006,10 +9029,10 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9034,10 +9057,10 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9062,10 +9085,10 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9090,14 +9113,12 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>469</v>
-      </c>
+        <v>467</v>
+      </c>
+      <c r="C251" s="10"/>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
@@ -9120,12 +9141,14 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C252" s="10"/>
+        <v>468</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>469</v>
+      </c>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
@@ -9148,10 +9171,10 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9176,10 +9199,10 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -9204,10 +9227,10 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9232,10 +9255,10 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9260,18 +9283,14 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>537</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="C257" s="10"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10" t="s">
         <v>4</v>
@@ -9285,34 +9304,49 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="10"/>
+      <c r="Q257" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R257" s="10"/>
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B258" s="12" t="s">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+    </row>
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B259" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C259" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K258" s="13"/>
-      <c r="O258" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q258" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S258" s="13"/>
-      <c r="T258" s="10"/>
-    </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B259" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>4</v>
@@ -9327,66 +9361,50 @@
       <c r="S259" s="13"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
-      <c r="L260" s="10"/>
-      <c r="M260" s="10"/>
-      <c r="N260" s="10"/>
-      <c r="O260" s="10"/>
-      <c r="P260" s="10"/>
-      <c r="Q260" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R260" s="10"/>
-      <c r="S260" s="10"/>
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K260" s="13"/>
+      <c r="O260" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S260" s="13"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
-      <c r="L261" s="10"/>
-      <c r="M261" s="10"/>
-      <c r="N261" s="10"/>
-      <c r="O261" s="10"/>
-      <c r="P261" s="10"/>
-      <c r="Q261" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R261" s="10"/>
-      <c r="S261" s="10"/>
-      <c r="T261" s="10"/>
-    </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" s="29" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B261" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="E261" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="G261" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O261" s="15">
+        <v>1</v>
+      </c>
+      <c r="P261" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q261" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9411,10 +9429,10 @@
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9439,10 +9457,10 @@
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9467,36 +9485,38 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C265" s="11"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
-      <c r="L265" s="11"/>
-      <c r="M265" s="11"/>
-      <c r="N265" s="11"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="11"/>
-      <c r="Q265" s="11"/>
-      <c r="R265" s="11"/>
-      <c r="S265" s="11"/>
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9521,38 +9541,36 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10" t="s">
-        <v>481</v>
-      </c>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
-      <c r="P267" s="10"/>
-      <c r="Q267" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R267" s="10"/>
-      <c r="S267" s="10"/>
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9577,10 +9595,10 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9605,10 +9623,10 @@
       <c r="S269" s="10"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9633,50 +9651,40 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
-      <c r="B271" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" s="22"/>
-      <c r="E271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H271" s="11"/>
-      <c r="I271" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="11">
-        <v>1</v>
-      </c>
-      <c r="N271" s="11"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="11"/>
-      <c r="Q271" s="11"/>
+      <c r="B271" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R271" s="10"/>
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>486</v>
-      </c>
+        <v>484</v>
+      </c>
+      <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
@@ -9684,9 +9692,7 @@
         <v>4</v>
       </c>
       <c r="H272" s="10"/>
-      <c r="I272" s="10" t="s">
-        <v>487</v>
-      </c>
+      <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
@@ -9701,74 +9707,105 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
-      <c r="B273" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
-      <c r="L273" s="10"/>
-      <c r="M273" s="10"/>
-      <c r="N273" s="10"/>
-      <c r="O273" s="10"/>
-      <c r="P273" s="10"/>
-      <c r="Q273" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B273" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="22"/>
+      <c r="E273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H273" s="11"/>
+      <c r="I273" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11">
+        <v>1</v>
+      </c>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B274" s="12" t="s">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="10"/>
+      <c r="P274" s="10"/>
+      <c r="Q274" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R274" s="10"/>
+      <c r="S274" s="10"/>
+      <c r="T274" s="10"/>
+    </row>
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+      <c r="Q275" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R275" s="10"/>
+      <c r="S275" s="10"/>
+      <c r="T275" s="10"/>
+    </row>
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K274" s="13"/>
-      <c r="O274" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S274" s="13"/>
-      <c r="T274" s="10"/>
-    </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B275" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G275" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K275" s="13"/>
-      <c r="O275" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q275" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S275" s="13"/>
-      <c r="T275" s="10"/>
-    </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B276" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G276" s="12" t="s">
         <v>4</v>
@@ -9783,9 +9820,9 @@
       <c r="S276" s="13"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>4</v>
@@ -9800,9 +9837,12 @@
       <c r="S277" s="13"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B278" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="G278" s="12" t="s">
         <v>4</v>
@@ -9817,9 +9857,9 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G279" s="12" t="s">
         <v>4</v>
@@ -9834,9 +9874,9 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>4</v>
@@ -9851,9 +9891,9 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>4</v>
@@ -9868,9 +9908,9 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>4</v>
@@ -9885,9 +9925,9 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>4</v>
@@ -9902,9 +9942,9 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>4</v>
@@ -9919,9 +9959,9 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>4</v>
@@ -9936,9 +9976,9 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>4</v>
@@ -9953,9 +9993,9 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>4</v>
@@ -9970,9 +10010,9 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>4</v>
@@ -9987,9 +10027,9 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>4</v>
@@ -10004,9 +10044,9 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>4</v>
@@ -10021,66 +10061,44 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
-      <c r="L291" s="10"/>
-      <c r="M291" s="10"/>
-      <c r="N291" s="10"/>
-      <c r="O291" s="10"/>
-      <c r="P291" s="10"/>
-      <c r="Q291" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R291" s="10"/>
-      <c r="S291" s="10"/>
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K291" s="13"/>
+      <c r="O291" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S291" s="13"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10" t="s">
-        <v>490</v>
-      </c>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-      <c r="K292" s="10"/>
-      <c r="L292" s="10"/>
-      <c r="M292" s="10"/>
-      <c r="N292" s="10"/>
-      <c r="O292" s="10"/>
-      <c r="P292" s="10"/>
-      <c r="Q292" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R292" s="10"/>
-      <c r="S292" s="10"/>
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K292" s="13"/>
+      <c r="O292" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S292" s="13"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -10105,55 +10123,64 @@
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B294" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K294" s="13"/>
-      <c r="O294" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q294" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S294" s="13"/>
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="10"/>
+      <c r="B294" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="10"/>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="10"/>
+      <c r="Q294" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R294" s="10"/>
+      <c r="S294" s="10"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A295" s="10"/>
-      <c r="B295" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C295" s="10"/>
-      <c r="D295" s="10"/>
-      <c r="E295" s="10"/>
-      <c r="F295" s="10"/>
-      <c r="G295" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H295" s="10"/>
-      <c r="I295" s="10"/>
-      <c r="J295" s="10"/>
-      <c r="K295" s="10"/>
-      <c r="L295" s="10"/>
-      <c r="M295" s="10"/>
-      <c r="N295" s="10"/>
-      <c r="O295" s="10"/>
-      <c r="P295" s="10"/>
-      <c r="Q295" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R295" s="10"/>
-      <c r="S295" s="10"/>
-      <c r="T295" s="10"/>
-    </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" s="29" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B295" s="29" t="s">
+        <v>639</v>
+      </c>
+      <c r="C295" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="E295" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="G295" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="K295" s="29" t="s">
+        <v>641</v>
+      </c>
+      <c r="O295" s="15">
+        <v>1</v>
+      </c>
+      <c r="P295" s="29" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q295" s="29" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -10164,9 +10191,7 @@
       </c>
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
-      <c r="J296" s="10" t="s">
-        <v>494</v>
-      </c>
+      <c r="J296" s="10"/>
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
       <c r="M296" s="10"/>
@@ -10180,38 +10205,27 @@
       <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A297" s="10"/>
-      <c r="B297" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C297" s="10"/>
-      <c r="D297" s="10"/>
-      <c r="E297" s="10"/>
-      <c r="F297" s="10"/>
-      <c r="G297" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H297" s="10"/>
-      <c r="I297" s="10"/>
-      <c r="J297" s="10"/>
-      <c r="K297" s="10"/>
-      <c r="L297" s="10"/>
-      <c r="M297" s="10"/>
-      <c r="N297" s="10"/>
-      <c r="O297" s="10"/>
-      <c r="P297" s="10"/>
-      <c r="Q297" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R297" s="10"/>
-      <c r="S297" s="10"/>
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B297" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G297" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K297" s="13"/>
+      <c r="O297" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q297" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S297" s="13"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>339</v>
+        <v>492</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -10236,44 +10250,68 @@
       <c r="S298" s="10"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B299" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="G299" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K299" s="13"/>
-      <c r="O299" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q299" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S299" s="13"/>
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="C299" s="10"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="K299" s="10"/>
+      <c r="L299" s="10"/>
+      <c r="M299" s="10"/>
+      <c r="N299" s="10"/>
+      <c r="O299" s="10"/>
+      <c r="P299" s="10"/>
+      <c r="Q299" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R299" s="10"/>
+      <c r="S299" s="10"/>
       <c r="T299" s="10"/>
     </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B300" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="G300" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K300" s="13"/>
-      <c r="O300" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q300" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S300" s="13"/>
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="10"/>
+      <c r="K300" s="10"/>
+      <c r="L300" s="10"/>
+      <c r="M300" s="10"/>
+      <c r="N300" s="10"/>
+      <c r="O300" s="10"/>
+      <c r="P300" s="10"/>
+      <c r="Q300" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R300" s="10"/>
+      <c r="S300" s="10"/>
       <c r="T300" s="10"/>
     </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
-        <v>496</v>
+        <v>339</v>
       </c>
       <c r="C301" s="10"/>
       <c r="D301" s="10"/>
@@ -10298,66 +10336,44 @@
       <c r="S301" s="10"/>
       <c r="T301" s="10"/>
     </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10" t="s">
-        <v>497</v>
-      </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-      <c r="K302" s="10"/>
-      <c r="L302" s="10"/>
-      <c r="M302" s="10"/>
-      <c r="N302" s="10"/>
-      <c r="O302" s="10"/>
-      <c r="P302" s="10"/>
-      <c r="Q302" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R302" s="10"/>
-      <c r="S302" s="10"/>
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B302" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="G302" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K302" s="13"/>
+      <c r="O302" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S302" s="13"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H303" s="10"/>
-      <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-      <c r="K303" s="10"/>
-      <c r="L303" s="10"/>
-      <c r="M303" s="10"/>
-      <c r="N303" s="10"/>
-      <c r="O303" s="10"/>
-      <c r="P303" s="10"/>
-      <c r="Q303" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R303" s="10"/>
-      <c r="S303" s="10"/>
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B303" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="G303" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K303" s="13"/>
+      <c r="O303" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S303" s="13"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -10382,10 +10398,10 @@
       <c r="S304" s="10"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10410,10 +10426,10 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10438,10 +10454,10 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10466,10 +10482,10 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10494,10 +10510,10 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10522,10 +10538,10 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10550,27 +10566,38 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B311" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K311" s="13"/>
-      <c r="O311" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q311" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S311" s="13"/>
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H311" s="10"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="10"/>
+      <c r="K311" s="10"/>
+      <c r="L311" s="10"/>
+      <c r="M311" s="10"/>
+      <c r="N311" s="10"/>
+      <c r="O311" s="10"/>
+      <c r="P311" s="10"/>
+      <c r="Q311" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R311" s="10"/>
+      <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10595,55 +10622,55 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B313" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K313" s="13"/>
-      <c r="O313" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q313" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S313" s="13"/>
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A313" s="10"/>
+      <c r="B313" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="C313" s="10"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H313" s="10"/>
+      <c r="I313" s="10"/>
+      <c r="J313" s="10"/>
+      <c r="K313" s="10"/>
+      <c r="L313" s="10"/>
+      <c r="M313" s="10"/>
+      <c r="N313" s="10"/>
+      <c r="O313" s="10"/>
+      <c r="P313" s="10"/>
+      <c r="Q313" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R313" s="10"/>
+      <c r="S313" s="10"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A314" s="10"/>
-      <c r="B314" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C314" s="10"/>
-      <c r="D314" s="10"/>
-      <c r="E314" s="10"/>
-      <c r="F314" s="10"/>
-      <c r="G314" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H314" s="10"/>
-      <c r="I314" s="10"/>
-      <c r="J314" s="10"/>
-      <c r="K314" s="10"/>
-      <c r="L314" s="10"/>
-      <c r="M314" s="10"/>
-      <c r="N314" s="10"/>
-      <c r="O314" s="10"/>
-      <c r="P314" s="10"/>
-      <c r="Q314" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R314" s="10"/>
-      <c r="S314" s="10"/>
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B314" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="G314" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K314" s="13"/>
+      <c r="O314" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q314" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S314" s="13"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -10668,38 +10695,27 @@
       <c r="S315" s="10"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A316" s="10"/>
-      <c r="B316" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="C316" s="10"/>
-      <c r="D316" s="10"/>
-      <c r="E316" s="10"/>
-      <c r="F316" s="10"/>
-      <c r="G316" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H316" s="10"/>
-      <c r="I316" s="10"/>
-      <c r="J316" s="10"/>
-      <c r="K316" s="10"/>
-      <c r="L316" s="10"/>
-      <c r="M316" s="10"/>
-      <c r="N316" s="10"/>
-      <c r="O316" s="10"/>
-      <c r="P316" s="10"/>
-      <c r="Q316" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R316" s="10"/>
-      <c r="S316" s="10"/>
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B316" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G316" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K316" s="13"/>
+      <c r="O316" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q316" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S316" s="13"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10724,10 +10740,10 @@
       <c r="S317" s="10"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10752,10 +10768,10 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10780,10 +10796,10 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10808,10 +10824,10 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10836,10 +10852,10 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10864,10 +10880,10 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10892,47 +10908,66 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B324" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="C324" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="G324" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K324" s="13"/>
-      <c r="O324" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q324" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S324" s="13"/>
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="10"/>
+      <c r="B324" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C324" s="10"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+      <c r="K324" s="10"/>
+      <c r="L324" s="10"/>
+      <c r="M324" s="10"/>
+      <c r="N324" s="10"/>
+      <c r="O324" s="10"/>
+      <c r="P324" s="10"/>
+      <c r="Q324" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R324" s="10"/>
+      <c r="S324" s="10"/>
       <c r="T324" s="10"/>
     </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B325" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G325" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K325" s="13"/>
-      <c r="O325" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q325" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S325" s="13"/>
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="10"/>
+      <c r="B325" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C325" s="10"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="10"/>
+      <c r="K325" s="10"/>
+      <c r="L325" s="10"/>
+      <c r="M325" s="10"/>
+      <c r="N325" s="10"/>
+      <c r="O325" s="10"/>
+      <c r="P325" s="10"/>
+      <c r="Q325" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R325" s="10"/>
+      <c r="S325" s="10"/>
       <c r="T325" s="10"/>
     </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -10957,43 +10992,32 @@
       <c r="S326" s="10"/>
       <c r="T326" s="10"/>
     </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H327" s="10"/>
-      <c r="I327" s="10"/>
-      <c r="J327" s="10"/>
-      <c r="K327" s="10"/>
-      <c r="L327" s="10"/>
-      <c r="M327" s="10"/>
-      <c r="N327" s="10"/>
-      <c r="O327" s="10"/>
-      <c r="P327" s="10"/>
-      <c r="Q327" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R327" s="10"/>
-      <c r="S327" s="10"/>
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B327" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C327" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="G327" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K327" s="13"/>
+      <c r="O327" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S327" s="13"/>
       <c r="T327" s="10"/>
     </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B328" s="12" t="s">
-        <v>129</v>
+        <v>224</v>
       </c>
       <c r="G328" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J328" s="12" t="s">
-        <v>225</v>
       </c>
       <c r="K328" s="13"/>
       <c r="O328" s="12">
@@ -11005,52 +11029,71 @@
       <c r="S328" s="13"/>
       <c r="T328" s="10"/>
     </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B329" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G329" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J329" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K329" s="13"/>
-      <c r="O329" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S329" s="13"/>
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="10"/>
+      <c r="B329" s="10" t="s">
+        <v>517</v>
+      </c>
+      <c r="C329" s="10"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="10"/>
+      <c r="K329" s="10"/>
+      <c r="L329" s="10"/>
+      <c r="M329" s="10"/>
+      <c r="N329" s="10"/>
+      <c r="O329" s="10"/>
+      <c r="P329" s="10"/>
+      <c r="Q329" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R329" s="10"/>
+      <c r="S329" s="10"/>
       <c r="T329" s="10"/>
     </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B330" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K330" s="13"/>
-      <c r="O330" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q330" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S330" s="13"/>
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="10"/>
+      <c r="B330" s="10" t="s">
+        <v>518</v>
+      </c>
+      <c r="C330" s="10"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H330" s="10"/>
+      <c r="I330" s="10"/>
+      <c r="J330" s="10"/>
+      <c r="K330" s="10"/>
+      <c r="L330" s="10"/>
+      <c r="M330" s="10"/>
+      <c r="N330" s="10"/>
+      <c r="O330" s="10"/>
+      <c r="P330" s="10"/>
+      <c r="Q330" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R330" s="10"/>
+      <c r="S330" s="10"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B331" s="12" t="s">
-        <v>228</v>
+        <v>129</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J331" s="12" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="K331" s="13"/>
       <c r="O331" s="12">
@@ -11062,12 +11105,15 @@
       <c r="S331" s="13"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="12" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J332" s="12" t="s">
+        <v>213</v>
       </c>
       <c r="K332" s="13"/>
       <c r="O332" s="12">
@@ -11079,9 +11125,9 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>4</v>
@@ -11096,12 +11142,15 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J334" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="K334" s="13"/>
       <c r="O334" s="12">
@@ -11113,9 +11162,9 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="12" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="G335" s="12" t="s">
         <v>4</v>
@@ -11130,9 +11179,9 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>4</v>
@@ -11147,9 +11196,9 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>4</v>
@@ -11164,94 +11213,61 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H338" s="10"/>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10"/>
-      <c r="K338" s="10"/>
-      <c r="L338" s="10"/>
-      <c r="M338" s="10"/>
-      <c r="N338" s="10"/>
-      <c r="O338" s="10"/>
-      <c r="P338" s="10"/>
-      <c r="Q338" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R338" s="10"/>
-      <c r="S338" s="10"/>
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B338" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K338" s="13"/>
+      <c r="O338" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S338" s="13"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
-      <c r="L339" s="10"/>
-      <c r="M339" s="10"/>
-      <c r="N339" s="10"/>
-      <c r="O339" s="10"/>
-      <c r="P339" s="10"/>
-      <c r="Q339" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R339" s="10"/>
-      <c r="S339" s="10"/>
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B339" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G339" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K339" s="13"/>
+      <c r="O339" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S339" s="13"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A340" s="10"/>
-      <c r="B340" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-      <c r="J340" s="10"/>
-      <c r="K340" s="10"/>
-      <c r="L340" s="10"/>
-      <c r="M340" s="10"/>
-      <c r="N340" s="10"/>
-      <c r="O340" s="10"/>
-      <c r="P340" s="10"/>
-      <c r="Q340" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R340" s="10"/>
-      <c r="S340" s="10"/>
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B340" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G340" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K340" s="13"/>
+      <c r="O340" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S340" s="13"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -11276,10 +11292,10 @@
       <c r="S341" s="10"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11304,10 +11320,10 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11332,71 +11348,66 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A344" s="23"/>
-      <c r="B344" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C344" s="26" t="s">
-        <v>620</v>
-      </c>
-      <c r="D344" s="27"/>
-      <c r="E344" s="23"/>
-      <c r="F344" s="23"/>
-      <c r="G344" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H344" s="23"/>
-      <c r="I344" s="23"/>
-      <c r="K344" s="23" t="s">
-        <v>621</v>
-      </c>
-      <c r="L344" s="23"/>
-      <c r="M344" s="23"/>
-      <c r="N344" s="23"/>
-      <c r="O344" s="23"/>
-      <c r="P344" s="23"/>
-      <c r="Q344" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R344" s="23"/>
-      <c r="S344" s="23"/>
-      <c r="T344" s="23"/>
-    </row>
-    <row r="345" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="23"/>
-      <c r="B345" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="C345" s="23" t="s">
-        <v>619</v>
-      </c>
-      <c r="D345" s="23"/>
-      <c r="E345" s="23"/>
-      <c r="F345" s="23"/>
-      <c r="G345" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H345" s="23"/>
-      <c r="I345" s="23"/>
-      <c r="J345" s="23"/>
-      <c r="K345" s="23"/>
-      <c r="L345" s="23"/>
-      <c r="M345" s="23"/>
-      <c r="N345" s="23"/>
-      <c r="O345" s="23"/>
-      <c r="P345" s="23"/>
-      <c r="Q345" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R345" s="23"/>
-      <c r="S345" s="23"/>
-      <c r="T345" s="23"/>
-    </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A344" s="10"/>
+      <c r="B344" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="10"/>
+      <c r="K344" s="10"/>
+      <c r="L344" s="10"/>
+      <c r="M344" s="10"/>
+      <c r="N344" s="10"/>
+      <c r="O344" s="10"/>
+      <c r="P344" s="10"/>
+      <c r="Q344" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R344" s="10"/>
+      <c r="S344" s="10"/>
+      <c r="T344" s="10"/>
+    </row>
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="10"/>
+      <c r="B345" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="10"/>
+      <c r="K345" s="10"/>
+      <c r="L345" s="10"/>
+      <c r="M345" s="10"/>
+      <c r="N345" s="10"/>
+      <c r="O345" s="10"/>
+      <c r="P345" s="10"/>
+      <c r="Q345" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R345" s="10"/>
+      <c r="S345" s="10"/>
+      <c r="T345" s="10"/>
+    </row>
+    <row r="346" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -11421,68 +11432,71 @@
       <c r="S346" s="10"/>
       <c r="T346" s="10"/>
     </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="C347" s="10"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
-      <c r="M347" s="10"/>
-      <c r="N347" s="10"/>
-      <c r="O347" s="10"/>
-      <c r="P347" s="10"/>
-      <c r="Q347" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R347" s="10"/>
-      <c r="S347" s="10"/>
-      <c r="T347" s="10"/>
-    </row>
-    <row r="348" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A348" s="10"/>
-      <c r="B348" s="10" t="s">
-        <v>529</v>
-      </c>
-      <c r="C348" s="10"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" s="10"/>
-      <c r="I348" s="10"/>
-      <c r="J348" s="10"/>
-      <c r="K348" s="10"/>
-      <c r="L348" s="10"/>
-      <c r="M348" s="10"/>
-      <c r="N348" s="10"/>
-      <c r="O348" s="10"/>
-      <c r="P348" s="10"/>
-      <c r="Q348" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R348" s="10"/>
-      <c r="S348" s="10"/>
-      <c r="T348" s="10"/>
-    </row>
-    <row r="349" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A347" s="23"/>
+      <c r="B347" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C347" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="D347" s="27"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="23"/>
+      <c r="G347" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H347" s="23"/>
+      <c r="I347" s="23"/>
+      <c r="K347" s="23" t="s">
+        <v>621</v>
+      </c>
+      <c r="L347" s="23"/>
+      <c r="M347" s="23"/>
+      <c r="N347" s="23"/>
+      <c r="O347" s="23"/>
+      <c r="P347" s="23"/>
+      <c r="Q347" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R347" s="23"/>
+      <c r="S347" s="23"/>
+      <c r="T347" s="23"/>
+    </row>
+    <row r="348" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A348" s="23"/>
+      <c r="B348" s="23" t="s">
+        <v>525</v>
+      </c>
+      <c r="C348" s="23" t="s">
+        <v>619</v>
+      </c>
+      <c r="D348" s="23"/>
+      <c r="E348" s="23"/>
+      <c r="F348" s="23"/>
+      <c r="G348" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" s="23"/>
+      <c r="I348" s="23"/>
+      <c r="J348" s="23"/>
+      <c r="K348" s="23"/>
+      <c r="L348" s="23"/>
+      <c r="M348" s="23"/>
+      <c r="N348" s="23"/>
+      <c r="O348" s="23"/>
+      <c r="P348" s="23"/>
+      <c r="Q348" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R348" s="23"/>
+      <c r="S348" s="23"/>
+      <c r="T348" s="23"/>
+    </row>
+    <row r="349" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11507,14 +11521,12 @@
       <c r="S349" s="10"/>
       <c r="T349" s="10"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>532</v>
-      </c>
+        <v>527</v>
+      </c>
+      <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
@@ -11523,7 +11535,9 @@
       </c>
       <c r="H350" s="10"/>
       <c r="I350" s="10"/>
-      <c r="J350" s="10"/>
+      <c r="J350" s="10" t="s">
+        <v>528</v>
+      </c>
       <c r="K350" s="10"/>
       <c r="L350" s="10"/>
       <c r="M350" s="10"/>
@@ -11537,10 +11551,10 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11565,14 +11579,12 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>534</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>580</v>
-      </c>
+        <v>530</v>
+      </c>
+      <c r="C352" s="10"/>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
@@ -11595,12 +11607,14 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C353" s="10"/>
+        <v>531</v>
+      </c>
+      <c r="C353" s="10" t="s">
+        <v>532</v>
+      </c>
       <c r="D353" s="10"/>
       <c r="E353" s="10"/>
       <c r="F353" s="10"/>
@@ -11623,88 +11637,112 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B354" s="12" t="s">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A354" s="10"/>
+      <c r="B354" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C354" s="10"/>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H354" s="10"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="10"/>
+      <c r="K354" s="10"/>
+      <c r="L354" s="10"/>
+      <c r="M354" s="10"/>
+      <c r="N354" s="10"/>
+      <c r="O354" s="10"/>
+      <c r="P354" s="10"/>
+      <c r="Q354" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R354" s="10"/>
+      <c r="S354" s="10"/>
+      <c r="T354" s="10"/>
+    </row>
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A355" s="10"/>
+      <c r="B355" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C355" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H355" s="10"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="10"/>
+      <c r="K355" s="10"/>
+      <c r="L355" s="10"/>
+      <c r="M355" s="10"/>
+      <c r="N355" s="10"/>
+      <c r="O355" s="10"/>
+      <c r="P355" s="10"/>
+      <c r="Q355" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R355" s="10"/>
+      <c r="S355" s="10"/>
+      <c r="T355" s="10"/>
+    </row>
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A356" s="10"/>
+      <c r="B356" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C356" s="10"/>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H356" s="10"/>
+      <c r="I356" s="10"/>
+      <c r="J356" s="10"/>
+      <c r="K356" s="10"/>
+      <c r="L356" s="10"/>
+      <c r="M356" s="10"/>
+      <c r="N356" s="10"/>
+      <c r="O356" s="10"/>
+      <c r="P356" s="10"/>
+      <c r="Q356" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R356" s="10"/>
+      <c r="S356" s="10"/>
+      <c r="T356" s="10"/>
+    </row>
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B357" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G354" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K354" s="13"/>
-      <c r="O354" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q354" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S354" s="13"/>
-      <c r="T354" s="10"/>
-    </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B355" s="12" t="s">
+      <c r="G357" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K357" s="13"/>
+      <c r="O357" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S357" s="13"/>
+      <c r="T357" s="10"/>
+    </row>
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B358" s="12" t="s">
         <v>235</v>
-      </c>
-      <c r="G355" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K355" s="13"/>
-      <c r="O355" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q355" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S355" s="13"/>
-      <c r="T355" s="10"/>
-    </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B356" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="G356" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K356" s="13"/>
-      <c r="O356" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q356" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S356" s="13"/>
-      <c r="T356" s="10"/>
-    </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="10"/>
-      <c r="B357" s="10" t="s">
-        <v>536</v>
-      </c>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H357" s="10"/>
-      <c r="I357" s="10"/>
-      <c r="J357" s="10"/>
-      <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
-      <c r="M357" s="10"/>
-      <c r="N357" s="10"/>
-      <c r="O357" s="10"/>
-      <c r="P357" s="10"/>
-      <c r="Q357" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R357" s="10"/>
-      <c r="S357" s="10"/>
-      <c r="T357" s="10"/>
-    </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B358" s="12" t="s">
-        <v>237</v>
       </c>
       <c r="G358" s="12" t="s">
         <v>4</v>
@@ -11719,9 +11757,9 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B359" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G359" s="12" t="s">
         <v>4</v>
@@ -11736,67 +11774,54 @@
       <c r="S359" s="13"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B360" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C360" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E360" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F360" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="G360" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K360" s="13"/>
-      <c r="O360" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q360" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S360" s="13"/>
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A360" s="10"/>
+      <c r="B360" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C360" s="10"/>
+      <c r="D360" s="10"/>
+      <c r="E360" s="10"/>
+      <c r="F360" s="10"/>
+      <c r="G360" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H360" s="10"/>
+      <c r="I360" s="10"/>
+      <c r="J360" s="10"/>
+      <c r="K360" s="10"/>
+      <c r="L360" s="10"/>
+      <c r="M360" s="10"/>
+      <c r="N360" s="10"/>
+      <c r="O360" s="10"/>
+      <c r="P360" s="10"/>
+      <c r="Q360" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R360" s="10"/>
+      <c r="S360" s="10"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A361" s="10"/>
-      <c r="B361" s="10" t="s">
-        <v>538</v>
-      </c>
-      <c r="C361" s="10" t="s">
-        <v>633</v>
-      </c>
-      <c r="D361" s="10"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H361" s="10"/>
-      <c r="I361" s="10"/>
-      <c r="J361" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K361" s="10"/>
-      <c r="L361" s="10"/>
-      <c r="M361" s="10"/>
-      <c r="N361" s="10"/>
-      <c r="O361" s="10"/>
-      <c r="P361" s="10"/>
-      <c r="Q361" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R361" s="10"/>
-      <c r="S361" s="10"/>
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B361" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K361" s="13"/>
+      <c r="O361" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S361" s="13"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="12" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G362" s="12" t="s">
         <v>4</v>
@@ -11811,46 +11836,67 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B363" s="12" t="s">
-        <v>631</v>
+        <v>239</v>
       </c>
       <c r="C363" s="12" t="s">
-        <v>632</v>
+        <v>240</v>
+      </c>
+      <c r="E363" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F363" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>4</v>
       </c>
       <c r="K363" s="13"/>
+      <c r="O363" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q363" s="12" t="s">
+        <v>123</v>
+      </c>
       <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B364" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E364" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F364" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="G364" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K364" s="13"/>
-      <c r="O364" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q364" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S364" s="13"/>
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A364" s="10"/>
+      <c r="B364" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C364" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="D364" s="10"/>
+      <c r="E364" s="10"/>
+      <c r="F364" s="10"/>
+      <c r="G364" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H364" s="10"/>
+      <c r="I364" s="10"/>
+      <c r="J364" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K364" s="10"/>
+      <c r="L364" s="10"/>
+      <c r="M364" s="10"/>
+      <c r="N364" s="10"/>
+      <c r="O364" s="10"/>
+      <c r="P364" s="10"/>
+      <c r="Q364" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R364" s="10"/>
+      <c r="S364" s="10"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B365" s="12" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G365" s="12" t="s">
         <v>4</v>
@@ -11865,32 +11911,29 @@
       <c r="S365" s="13"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
-        <v>247</v>
+        <v>631</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="G366" s="12" t="s">
-        <v>4</v>
+        <v>632</v>
       </c>
       <c r="K366" s="13"/>
-      <c r="O366" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q366" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
-        <v>250</v>
+        <v>243</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E367" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F367" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G367" s="12" t="s">
         <v>4</v>
@@ -11905,37 +11948,32 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A368" s="10"/>
-      <c r="B368" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-      <c r="K368" s="10"/>
-      <c r="L368" s="10"/>
-      <c r="M368" s="10"/>
-      <c r="N368" s="10"/>
-      <c r="O368" s="10"/>
-      <c r="P368" s="10"/>
-      <c r="Q368" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R368" s="10"/>
-      <c r="S368" s="10"/>
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B368" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K368" s="13"/>
+      <c r="O368" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S368" s="13"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="12" t="s">
-        <v>251</v>
+        <v>247</v>
+      </c>
+      <c r="C369" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E369" s="12" t="s">
+        <v>249</v>
       </c>
       <c r="G369" s="12" t="s">
         <v>4</v>
@@ -11950,40 +11988,27 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A370" s="10"/>
-      <c r="B370" s="10" t="s">
-        <v>544</v>
-      </c>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="10"/>
-      <c r="G370" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H370" s="10"/>
-      <c r="I370" s="10"/>
-      <c r="J370" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="K370" s="10"/>
-      <c r="L370" s="10"/>
-      <c r="M370" s="10"/>
-      <c r="N370" s="10"/>
-      <c r="O370" s="10"/>
-      <c r="P370" s="10"/>
-      <c r="Q370" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R370" s="10"/>
-      <c r="S370" s="10"/>
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B370" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K370" s="13"/>
+      <c r="O370" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S370" s="13"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -12008,38 +12033,27 @@
       <c r="S371" s="10"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A372" s="10"/>
-      <c r="B372" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="C372" s="10"/>
-      <c r="D372" s="10"/>
-      <c r="E372" s="10"/>
-      <c r="F372" s="10"/>
-      <c r="G372" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H372" s="10"/>
-      <c r="I372" s="10"/>
-      <c r="J372" s="10"/>
-      <c r="K372" s="10"/>
-      <c r="L372" s="10"/>
-      <c r="M372" s="10"/>
-      <c r="N372" s="10"/>
-      <c r="O372" s="10"/>
-      <c r="P372" s="10"/>
-      <c r="Q372" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R372" s="10"/>
-      <c r="S372" s="10"/>
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B372" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K372" s="13"/>
+      <c r="O372" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q372" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S372" s="13"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12050,7 +12064,9 @@
       </c>
       <c r="H373" s="10"/>
       <c r="I373" s="10"/>
-      <c r="J373" s="10"/>
+      <c r="J373" s="10" t="s">
+        <v>545</v>
+      </c>
       <c r="K373" s="10"/>
       <c r="L373" s="10"/>
       <c r="M373" s="10"/>
@@ -12064,10 +12080,10 @@
       <c r="S373" s="10"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12092,10 +12108,10 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12120,10 +12136,10 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12148,10 +12164,10 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12176,10 +12192,10 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12204,10 +12220,10 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12232,10 +12248,10 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12260,10 +12276,10 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12288,10 +12304,10 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -12316,66 +12332,99 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B383" s="12" t="s">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="10"/>
+      <c r="B383" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H383" s="10"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="10"/>
+      <c r="K383" s="10"/>
+      <c r="L383" s="10"/>
+      <c r="M383" s="10"/>
+      <c r="N383" s="10"/>
+      <c r="O383" s="10"/>
+      <c r="P383" s="10"/>
+      <c r="Q383" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R383" s="10"/>
+      <c r="S383" s="10"/>
+      <c r="T383" s="10"/>
+    </row>
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="10"/>
+      <c r="B384" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H384" s="10"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="10"/>
+      <c r="K384" s="10"/>
+      <c r="L384" s="10"/>
+      <c r="M384" s="10"/>
+      <c r="N384" s="10"/>
+      <c r="O384" s="10"/>
+      <c r="P384" s="10"/>
+      <c r="Q384" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R384" s="10"/>
+      <c r="S384" s="10"/>
+      <c r="T384" s="10"/>
+    </row>
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A385" s="10"/>
+      <c r="B385" s="10" t="s">
+        <v>557</v>
+      </c>
+      <c r="C385" s="10"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H385" s="10"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="10"/>
+      <c r="K385" s="10"/>
+      <c r="L385" s="10"/>
+      <c r="M385" s="10"/>
+      <c r="N385" s="10"/>
+      <c r="O385" s="10"/>
+      <c r="P385" s="10"/>
+      <c r="Q385" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R385" s="10"/>
+      <c r="S385" s="10"/>
+      <c r="T385" s="10"/>
+    </row>
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B386" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G383" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J383" s="12" t="s">
+      <c r="G386" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J386" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="K383" s="13"/>
-      <c r="O383" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q383" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S383" s="13"/>
-      <c r="T383" s="10"/>
-    </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B384" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G384" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K384" s="13"/>
-      <c r="O384" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q384" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S384" s="13"/>
-      <c r="T384" s="10"/>
-    </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B385" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G385" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K385" s="13"/>
-      <c r="O385" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q385" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S385" s="13"/>
-      <c r="T385" s="10"/>
-    </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B386" s="12" t="s">
-        <v>255</v>
-      </c>
-      <c r="G386" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="K386" s="13"/>
       <c r="O386" s="12">
@@ -12387,9 +12436,9 @@
       <c r="S386" s="13"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
@@ -12404,9 +12453,9 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B388" s="12" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G388" s="12" t="s">
         <v>4</v>
@@ -12421,94 +12470,61 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A389" s="10"/>
-      <c r="B389" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H389" s="10"/>
-      <c r="I389" s="10"/>
-      <c r="J389" s="10"/>
-      <c r="K389" s="10"/>
-      <c r="L389" s="10"/>
-      <c r="M389" s="10"/>
-      <c r="N389" s="10"/>
-      <c r="O389" s="10"/>
-      <c r="P389" s="10"/>
-      <c r="Q389" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R389" s="10"/>
-      <c r="S389" s="10"/>
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B389" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K389" s="13"/>
+      <c r="O389" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S389" s="13"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
-      <c r="B390" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="C390" s="10"/>
-      <c r="D390" s="10"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H390" s="10"/>
-      <c r="I390" s="10"/>
-      <c r="J390" s="10"/>
-      <c r="K390" s="10"/>
-      <c r="L390" s="10"/>
-      <c r="M390" s="10"/>
-      <c r="N390" s="10"/>
-      <c r="O390" s="10"/>
-      <c r="P390" s="10"/>
-      <c r="Q390" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R390" s="10"/>
-      <c r="S390" s="10"/>
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B390" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K390" s="13"/>
+      <c r="O390" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S390" s="13"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A391" s="10"/>
-      <c r="B391" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="C391" s="10"/>
-      <c r="D391" s="10"/>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
-      <c r="G391" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H391" s="10"/>
-      <c r="I391" s="10"/>
-      <c r="J391" s="10"/>
-      <c r="K391" s="10"/>
-      <c r="L391" s="10"/>
-      <c r="M391" s="10"/>
-      <c r="N391" s="10"/>
-      <c r="O391" s="10"/>
-      <c r="P391" s="10"/>
-      <c r="Q391" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R391" s="10"/>
-      <c r="S391" s="10"/>
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B391" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K391" s="13"/>
+      <c r="O391" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q391" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S391" s="13"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -12533,55 +12549,71 @@
       <c r="S392" s="10"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B393" s="12" t="s">
-        <v>258</v>
-      </c>
-      <c r="G393" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K393" s="13"/>
-      <c r="O393" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q393" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S393" s="13"/>
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="10"/>
+      <c r="B393" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C393" s="10"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
+      <c r="N393" s="10"/>
+      <c r="O393" s="10"/>
+      <c r="P393" s="10"/>
+      <c r="Q393" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R393" s="10"/>
+      <c r="S393" s="10"/>
       <c r="T393" s="10"/>
     </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B394" s="12" t="s">
-        <v>259</v>
-      </c>
-      <c r="G394" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K394" s="13"/>
-      <c r="O394" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q394" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S394" s="13"/>
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="10"/>
+      <c r="B394" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C394" s="10"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H394" s="10"/>
+      <c r="I394" s="10"/>
+      <c r="J394" s="10"/>
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="10"/>
+      <c r="N394" s="10"/>
+      <c r="O394" s="10"/>
+      <c r="P394" s="10"/>
+      <c r="Q394" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R394" s="10"/>
+      <c r="S394" s="10"/>
       <c r="T394" s="10"/>
     </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="C395" s="10" t="s">
-        <v>563</v>
-      </c>
+        <v>561</v>
+      </c>
+      <c r="C395" s="10"/>
       <c r="D395" s="10"/>
-      <c r="E395" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F395" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
       <c r="G395" s="10" t="s">
         <v>4</v>
       </c>
@@ -12601,37 +12633,26 @@
       <c r="S395" s="10"/>
       <c r="T395" s="10"/>
     </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A396" s="10"/>
-      <c r="B396" s="10" t="s">
-        <v>564</v>
-      </c>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H396" s="10"/>
-      <c r="I396" s="10"/>
-      <c r="J396" s="10"/>
-      <c r="K396" s="10"/>
-      <c r="L396" s="10"/>
-      <c r="M396" s="10"/>
-      <c r="N396" s="10"/>
-      <c r="O396" s="10"/>
-      <c r="P396" s="10"/>
-      <c r="Q396" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R396" s="10"/>
-      <c r="S396" s="10"/>
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B396" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K396" s="13"/>
+      <c r="O396" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q396" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S396" s="13"/>
       <c r="T396" s="10"/>
     </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B397" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G397" s="12" t="s">
         <v>4</v>
@@ -12646,107 +12667,144 @@
       <c r="S397" s="13"/>
       <c r="T397" s="10"/>
     </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B398" s="12" t="s">
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="10"/>
+      <c r="B398" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="C398" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="D398" s="10"/>
+      <c r="E398" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F398" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G398" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H398" s="10"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="10"/>
+      <c r="K398" s="10"/>
+      <c r="L398" s="10"/>
+      <c r="M398" s="10"/>
+      <c r="N398" s="10"/>
+      <c r="O398" s="10"/>
+      <c r="P398" s="10"/>
+      <c r="Q398" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R398" s="10"/>
+      <c r="S398" s="10"/>
+      <c r="T398" s="10"/>
+    </row>
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="10"/>
+      <c r="B399" s="10" t="s">
+        <v>564</v>
+      </c>
+      <c r="C399" s="10"/>
+      <c r="D399" s="10"/>
+      <c r="E399" s="10"/>
+      <c r="F399" s="10"/>
+      <c r="G399" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H399" s="10"/>
+      <c r="I399" s="10"/>
+      <c r="J399" s="10"/>
+      <c r="K399" s="10"/>
+      <c r="L399" s="10"/>
+      <c r="M399" s="10"/>
+      <c r="N399" s="10"/>
+      <c r="O399" s="10"/>
+      <c r="P399" s="10"/>
+      <c r="Q399" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R399" s="10"/>
+      <c r="S399" s="10"/>
+      <c r="T399" s="10"/>
+    </row>
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B400" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K400" s="13"/>
+      <c r="O400" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S400" s="13"/>
+      <c r="T400" s="10"/>
+    </row>
+    <row r="401" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B401" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G398" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K398" s="13"/>
-      <c r="O398" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q398" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S398" s="13"/>
-      <c r="T398" s="10"/>
-    </row>
-    <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="13"/>
-      <c r="Q399" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="13"/>
-      <c r="G400" s="11"/>
-      <c r="H400" s="11"/>
-      <c r="I400" s="13"/>
-      <c r="J400" s="11"/>
-      <c r="K400" s="11"/>
-      <c r="L400" s="11"/>
-      <c r="M400" s="11">
-        <v>1</v>
-      </c>
-      <c r="N400" s="11"/>
-      <c r="O400" s="11"/>
-      <c r="P400" s="11"/>
-      <c r="Q400" s="11"/>
-    </row>
-    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B401" s="13"/>
-      <c r="Q401" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G401" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K401" s="13"/>
+      <c r="O401" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q401" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S401" s="13"/>
+      <c r="T401" s="10"/>
+    </row>
+    <row r="402" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B402" s="13"/>
       <c r="Q402" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B403" s="13"/>
-      <c r="Q403" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G403" s="11"/>
+      <c r="H403" s="11"/>
+      <c r="I403" s="13"/>
+      <c r="J403" s="11"/>
+      <c r="K403" s="11"/>
+      <c r="L403" s="11"/>
+      <c r="M403" s="11">
+        <v>1</v>
+      </c>
+      <c r="N403" s="11"/>
+      <c r="O403" s="11"/>
+      <c r="P403" s="11"/>
+      <c r="Q403" s="11"/>
+    </row>
+    <row r="404" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B404" s="13"/>
-      <c r="E404" s="11"/>
-      <c r="F404" s="11"/>
-      <c r="G404" s="11"/>
-      <c r="H404" s="11"/>
-      <c r="I404" s="11"/>
-      <c r="J404" s="11"/>
-      <c r="K404" s="11"/>
-      <c r="L404" s="11"/>
-      <c r="M404" s="11"/>
-      <c r="N404" s="11"/>
-      <c r="O404" s="11"/>
-      <c r="P404" s="11"/>
-      <c r="Q404" s="11"/>
-    </row>
-    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q404" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="405" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B406" s="13"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="21"/>
-      <c r="E406" s="11"/>
-      <c r="F406" s="11"/>
-      <c r="G406" s="11"/>
-      <c r="H406" s="11"/>
-      <c r="I406" s="11"/>
-      <c r="J406" s="11"/>
-      <c r="K406" s="11"/>
-      <c r="L406" s="11"/>
-      <c r="M406" s="11"/>
-      <c r="N406" s="11"/>
-      <c r="O406" s="11"/>
-      <c r="P406" s="11"/>
-      <c r="Q406" s="11"/>
-    </row>
-    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q406" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="407" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B407" s="13"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="21"/>
       <c r="E407" s="11"/>
       <c r="F407" s="11"/>
       <c r="G407" s="11"/>
@@ -12761,102 +12819,86 @@
       <c r="P407" s="11"/>
       <c r="Q407" s="11"/>
     </row>
-    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
-      <c r="R408" s="11"/>
-    </row>
-    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q408" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="409" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="13"/>
-    </row>
-    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C409" s="11"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
+      <c r="M409" s="11"/>
+      <c r="N409" s="11"/>
+      <c r="O409" s="11"/>
+      <c r="P409" s="11"/>
+      <c r="Q409" s="11"/>
+    </row>
+    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="13"/>
-    </row>
-    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C410" s="11"/>
+      <c r="D410" s="21"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="11"/>
+      <c r="I410" s="11"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="11"/>
+      <c r="L410" s="11"/>
+      <c r="M410" s="11"/>
+      <c r="N410" s="11"/>
+      <c r="O410" s="11"/>
+      <c r="P410" s="11"/>
+      <c r="Q410" s="11"/>
+    </row>
+    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="13"/>
-    </row>
-    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R411" s="11"/>
+    </row>
+    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="13"/>
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="13"/>
-      <c r="S417" s="11"/>
-    </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="13"/>
-      <c r="R418" s="11"/>
-    </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="13"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="21"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
-      <c r="M419" s="11"/>
-      <c r="N419" s="11"/>
-      <c r="O419" s="11"/>
-      <c r="P419" s="11"/>
-      <c r="Q419" s="11"/>
-    </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A420" s="13"/>
       <c r="B420" s="13"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="21"/>
-      <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="11"/>
-      <c r="L420" s="11"/>
-      <c r="M420" s="11"/>
-      <c r="N420" s="11"/>
-      <c r="O420" s="11"/>
-      <c r="P420" s="11"/>
-      <c r="Q420" s="11"/>
-      <c r="R420" s="11"/>
-    </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="11"/>
+      <c r="S420" s="11"/>
+    </row>
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="13"/>
-      <c r="C421" s="11"/>
-      <c r="D421" s="21"/>
-      <c r="E421" s="11"/>
-      <c r="F421" s="11"/>
-      <c r="G421" s="11"/>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
-      <c r="J421" s="11"/>
-      <c r="K421" s="11"/>
-      <c r="L421" s="11"/>
-      <c r="M421" s="11"/>
-      <c r="N421" s="11"/>
-      <c r="O421" s="11"/>
-      <c r="P421" s="11"/>
-      <c r="Q421" s="11"/>
       <c r="R421" s="11"/>
-      <c r="S421" s="11"/>
-    </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
       <c r="D422" s="21"/>
@@ -12873,14 +12915,72 @@
       <c r="O422" s="11"/>
       <c r="P422" s="11"/>
       <c r="Q422" s="11"/>
-      <c r="R422" s="11"/>
-    </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="13"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="21"/>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="11"/>
+      <c r="I423" s="11"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="11"/>
+      <c r="L423" s="11"/>
+      <c r="M423" s="11"/>
+      <c r="N423" s="11"/>
+      <c r="O423" s="11"/>
+      <c r="P423" s="11"/>
+      <c r="Q423" s="11"/>
+      <c r="R423" s="11"/>
+    </row>
+    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A424" s="11"/>
+      <c r="B424" s="13"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="21"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="11"/>
+      <c r="I424" s="11"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="11"/>
+      <c r="L424" s="11"/>
+      <c r="M424" s="11"/>
+      <c r="N424" s="11"/>
+      <c r="O424" s="11"/>
+      <c r="P424" s="11"/>
+      <c r="Q424" s="11"/>
+      <c r="R424" s="11"/>
+      <c r="S424" s="11"/>
+    </row>
+    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B425" s="13"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="21"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="11"/>
+      <c r="I425" s="11"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="11"/>
+      <c r="L425" s="11"/>
+      <c r="M425" s="11"/>
+      <c r="N425" s="11"/>
+      <c r="O425" s="11"/>
+      <c r="P425" s="11"/>
+      <c r="Q425" s="11"/>
+      <c r="R425" s="11"/>
+    </row>
+    <row r="426" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B426" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T421">
-    <sortCondition ref="B2:B421"/>
+  <sortState ref="A2:T424">
+    <sortCondition ref="B2:B424"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12888,23 +12988,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -12918,7 +13018,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12929,7 +13029,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -12940,7 +13040,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -12954,7 +13054,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -12965,7 +13065,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -12979,7 +13079,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -12990,7 +13090,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -13001,7 +13101,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13012,7 +13112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13023,7 +13123,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13034,7 +13134,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13045,7 +13145,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13056,7 +13156,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13067,7 +13167,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13078,7 +13178,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13089,7 +13189,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13100,7 +13200,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13111,7 +13211,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>581</v>
       </c>
@@ -13129,29 +13229,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13189,7 +13289,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13203,7 +13303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13217,7 +13317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13234,7 +13334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13245,7 +13345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13259,7 +13359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13276,7 +13376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13290,7 +13390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13307,7 +13407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13327,14 +13427,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13342,19 +13442,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13389,7 +13489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13400,7 +13500,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13417,7 +13517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13434,7 +13534,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13451,7 +13551,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13468,7 +13568,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13485,7 +13585,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13502,7 +13602,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13519,7 +13619,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13536,7 +13636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13553,7 +13653,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13579,7 +13679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13605,7 +13705,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13631,7 +13731,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13657,7 +13757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13683,7 +13783,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13709,7 +13809,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13735,7 +13835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13761,7 +13861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13787,7 +13887,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13813,7 +13913,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13839,7 +13939,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13865,7 +13965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13891,7 +13991,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13917,7 +14017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13943,7 +14043,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13969,7 +14069,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13995,7 +14095,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14021,7 +14121,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -19,6 +19,7 @@
     <sheet name="Links" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1608" uniqueCount="634">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="633">
   <si>
     <t>ID</t>
   </si>
@@ -1027,9 +1028,6 @@
   </si>
   <si>
     <t>Behaviour in which the agent consumes, ingests or takes an entity into themselves.</t>
-  </si>
-  <si>
-    <t>Defined in NBO as "Behavior related to the intake of addictive substances"</t>
   </si>
   <si>
     <t>Should be defined in the Human Behaviour Ontology</t>
@@ -2156,7 +2154,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +2455,8 @@
   <dimension ref="A1:T423"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A359" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C363" sqref="C363"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2496,7 +2494,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>59</v>
@@ -2541,7 +2539,7 @@
         <v>117</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -2604,7 +2602,7 @@
         <v>128</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E4" s="12" t="s">
         <v>129</v>
@@ -2630,10 +2628,10 @@
         <v>130</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>576</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>577</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>62</v>
@@ -2656,7 +2654,7 @@
         <v>132</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="E6" s="25" t="s">
         <v>68</v>
@@ -2668,7 +2666,7 @@
         <v>4</v>
       </c>
       <c r="K6" s="28" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="O6" s="25" t="s">
         <v>122</v>
@@ -2718,7 +2716,7 @@
         <v>134</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>129</v>
@@ -2745,11 +2743,11 @@
         <v>264</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>61</v>
@@ -2778,7 +2776,7 @@
         <v>135</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>255</v>
@@ -2831,13 +2829,13 @@
     <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
+        <v>605</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>606</v>
       </c>
-      <c r="C12" s="16" t="s">
-        <v>607</v>
-      </c>
       <c r="D12" s="19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>272</v>
@@ -2850,7 +2848,7 @@
       </c>
       <c r="H12" s="16"/>
       <c r="I12" s="16" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="J12" s="16" t="s">
         <v>267</v>
@@ -2876,13 +2874,13 @@
         <v>268</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>61</v>
@@ -2914,13 +2912,13 @@
         <v>269</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>61</v>
@@ -2952,14 +2950,14 @@
         <v>270</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
         <v>266</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>4</v>
@@ -2985,11 +2983,11 @@
         <v>271</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>61</v>
@@ -3018,7 +3016,7 @@
         <v>273</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="23" t="s">
@@ -3049,7 +3047,7 @@
         <v>274</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="23" t="s">
@@ -3080,7 +3078,7 @@
         <v>275</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="23" t="s">
@@ -3111,7 +3109,7 @@
         <v>276</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="23" t="s">
@@ -3142,7 +3140,7 @@
         <v>277</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="23" t="s">
@@ -3173,7 +3171,7 @@
         <v>278</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D22" s="10"/>
       <c r="E22" s="23" t="s">
@@ -3231,7 +3229,7 @@
         <v>272</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D24" s="16"/>
       <c r="E24" s="16" t="s">
@@ -3255,7 +3253,7 @@
       <c r="O24" s="16"/>
       <c r="P24" s="16"/>
       <c r="Q24" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
@@ -3358,7 +3356,7 @@
         <v>4</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -3538,17 +3536,17 @@
     </row>
     <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>590</v>
+      </c>
+      <c r="C35" s="16" t="s">
         <v>591</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>592</v>
       </c>
       <c r="D35" s="16"/>
       <c r="E35" s="16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F35" s="16" t="s">
         <v>61</v>
@@ -3566,20 +3564,20 @@
       <c r="O35" s="16"/>
       <c r="P35" s="16"/>
       <c r="Q35" s="16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
     <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
+        <v>595</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="C36" s="15" t="s">
         <v>596</v>
-      </c>
-      <c r="B36" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>597</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="15" t="s">
@@ -3595,13 +3593,13 @@
     </row>
     <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
+        <v>597</v>
+      </c>
+      <c r="B37" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>599</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>600</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="15" t="s">
@@ -3617,7 +3615,7 @@
     </row>
     <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>4</v>
@@ -3787,17 +3785,17 @@
     <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="10" t="s">
         <v>540</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>541</v>
       </c>
       <c r="D44" s="10"/>
       <c r="E44" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>4</v>
@@ -3823,7 +3821,7 @@
         <v>249</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D45" s="10"/>
       <c r="E45" s="10" t="s">
@@ -4806,11 +4804,9 @@
       <c r="G82" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H82" s="10" t="s">
+      <c r="H82" s="10"/>
+      <c r="I82" s="10" t="s">
         <v>333</v>
-      </c>
-      <c r="I82" s="10" t="s">
-        <v>334</v>
       </c>
       <c r="J82" s="10"/>
       <c r="K82" s="10"/>
@@ -4828,7 +4824,7 @@
     <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>282</v>
@@ -4853,7 +4849,7 @@
     <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C84" s="10"/>
       <c r="D84" s="10"/>
@@ -4880,7 +4876,7 @@
     <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C85" s="10"/>
       <c r="D85" s="10"/>
@@ -4907,7 +4903,7 @@
     <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C86" s="10"/>
       <c r="D86" s="10"/>
@@ -4939,7 +4935,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
       <c r="E87" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
@@ -4963,7 +4959,7 @@
     <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C88" s="10"/>
       <c r="D88" s="10"/>
@@ -4988,7 +4984,7 @@
     <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C89" s="10"/>
       <c r="D89" s="10"/>
@@ -5056,7 +5052,7 @@
     </row>
     <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G92" s="12" t="s">
         <v>4</v>
@@ -5073,7 +5069,7 @@
     <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C93" s="10"/>
       <c r="D93" s="10"/>
@@ -5148,7 +5144,7 @@
     <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C96" s="10"/>
       <c r="D96" s="10"/>
@@ -5175,7 +5171,7 @@
     <row r="97" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C97" s="10"/>
       <c r="D97" s="10"/>
@@ -5202,7 +5198,7 @@
     <row r="98" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C98" s="10"/>
       <c r="D98" s="10"/>
@@ -5229,7 +5225,7 @@
     <row r="99" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C99" s="10"/>
       <c r="D99" s="10"/>
@@ -5256,7 +5252,7 @@
     <row r="100" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C100" s="10"/>
       <c r="D100" s="10"/>
@@ -5283,7 +5279,7 @@
     <row r="101" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C101" s="10"/>
       <c r="D101" s="10"/>
@@ -5310,7 +5306,7 @@
     <row r="102" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -5337,7 +5333,7 @@
     <row r="103" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -5364,7 +5360,7 @@
     <row r="104" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -5391,7 +5387,7 @@
     <row r="105" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -5418,7 +5414,7 @@
     <row r="106" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -5445,10 +5441,10 @@
     <row r="107" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="C107" s="10" t="s">
         <v>355</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>356</v>
       </c>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
@@ -5474,10 +5470,10 @@
     <row r="108" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C108" s="25" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E108" s="23"/>
       <c r="F108" s="23"/>
@@ -5502,7 +5498,7 @@
     <row r="109" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C109" s="10"/>
       <c r="D109" s="10"/>
@@ -5514,7 +5510,7 @@
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
       <c r="J109" s="10" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
@@ -5531,7 +5527,7 @@
     <row r="110" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
@@ -5557,7 +5553,7 @@
     <row r="111" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -5584,7 +5580,7 @@
     <row r="112" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -5612,7 +5608,7 @@
     <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -5668,10 +5664,10 @@
     <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D115" s="10"/>
       <c r="E115" s="10" t="s">
@@ -5700,7 +5696,7 @@
     <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -5728,7 +5724,7 @@
     <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C117" s="10"/>
       <c r="D117" s="10"/>
@@ -5756,7 +5752,7 @@
     <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -5784,7 +5780,7 @@
     <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -5879,10 +5875,10 @@
     </row>
     <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D123" s="10"/>
       <c r="G123" s="12" t="s">
@@ -5904,7 +5900,7 @@
     <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E124" s="10"/>
       <c r="F124" s="10"/>
@@ -5913,7 +5909,7 @@
       </c>
       <c r="H124" s="10"/>
       <c r="I124" s="10" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J124" s="10"/>
       <c r="K124" s="10"/>
@@ -5932,7 +5928,7 @@
     <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C125" s="10"/>
       <c r="D125" s="10"/>
@@ -6211,7 +6207,7 @@
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="10" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>4</v>
@@ -6229,7 +6225,7 @@
     <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C141" s="10"/>
       <c r="D141" s="10"/>
@@ -6257,7 +6253,7 @@
     <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C142" s="10"/>
       <c r="D142" s="10"/>
@@ -6312,7 +6308,7 @@
     </row>
     <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G144" s="12" t="s">
         <v>4</v>
@@ -6330,7 +6326,7 @@
     <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -6358,7 +6354,7 @@
     <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C146" s="10"/>
       <c r="D146" s="10"/>
@@ -6386,10 +6382,10 @@
     <row r="147" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="C147" s="10" t="s">
         <v>380</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>381</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
@@ -6398,7 +6394,7 @@
         <v>4</v>
       </c>
       <c r="H147" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
@@ -6418,7 +6414,7 @@
     <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
@@ -6444,7 +6440,7 @@
     <row r="149" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C149" s="10"/>
       <c r="D149" s="10"/>
@@ -6472,7 +6468,7 @@
     <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C150" s="10"/>
       <c r="D150" s="10"/>
@@ -6500,7 +6496,7 @@
     <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C151" s="10"/>
       <c r="D151" s="10"/>
@@ -6528,7 +6524,7 @@
     <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6556,7 +6552,7 @@
     <row r="153" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6611,7 +6607,7 @@
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B155" s="10" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G155" s="12" t="s">
         <v>4</v>
@@ -6629,10 +6625,10 @@
     <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="C156" s="10" t="s">
         <v>390</v>
-      </c>
-      <c r="C156" s="10" t="s">
-        <v>391</v>
       </c>
       <c r="D156" s="10"/>
       <c r="E156" s="10" t="s">
@@ -6688,7 +6684,7 @@
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G158" s="12" t="s">
         <v>4</v>
@@ -6709,7 +6705,7 @@
     <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10"/>
@@ -6737,7 +6733,7 @@
     <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6749,7 +6745,7 @@
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
       <c r="J160" s="10" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
@@ -6767,7 +6763,7 @@
     <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6795,7 +6791,7 @@
     <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6823,7 +6819,7 @@
     <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6851,7 +6847,7 @@
     <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6879,7 +6875,7 @@
     <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6907,7 +6903,7 @@
     <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6935,7 +6931,7 @@
     <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6963,7 +6959,7 @@
     <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6991,7 +6987,7 @@
     <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -7019,7 +7015,7 @@
     <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -7047,7 +7043,7 @@
     <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7075,7 +7071,7 @@
     <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7133,10 +7129,10 @@
     <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
+        <v>407</v>
+      </c>
+      <c r="C174" s="10" t="s">
         <v>408</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>409</v>
       </c>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
@@ -7146,7 +7142,7 @@
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="J174" s="10"/>
       <c r="K174" s="10"/>
@@ -7165,7 +7161,7 @@
     <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C175" s="10"/>
       <c r="D175" s="10"/>
@@ -7193,7 +7189,7 @@
     <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7221,10 +7217,10 @@
     <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C177" s="10" t="s">
         <v>413</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>414</v>
       </c>
       <c r="D177" s="10"/>
       <c r="E177" s="10" t="s">
@@ -7321,7 +7317,7 @@
     <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="10"/>
       <c r="B181" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C181" s="10"/>
       <c r="D181" s="10"/>
@@ -7366,7 +7362,7 @@
     <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="10"/>
       <c r="B183" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C183" s="10"/>
       <c r="D183" s="10"/>
@@ -7394,7 +7390,7 @@
     <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7422,7 +7418,7 @@
     <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7450,7 +7446,7 @@
     <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7495,7 +7491,7 @@
     <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C188" s="10"/>
       <c r="D188" s="10"/>
@@ -7523,7 +7519,7 @@
     <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7551,7 +7547,7 @@
     <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7579,7 +7575,7 @@
     <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7607,7 +7603,7 @@
     <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7635,7 +7631,7 @@
     <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7680,7 +7676,7 @@
     <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C195" s="10"/>
       <c r="D195" s="10"/>
@@ -7810,7 +7806,7 @@
     <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A202" s="10"/>
       <c r="B202" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -7855,7 +7851,7 @@
     <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="10"/>
       <c r="B204" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C204" s="10"/>
       <c r="D204" s="10"/>
@@ -7883,7 +7879,7 @@
     <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7911,7 +7907,7 @@
     <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7939,7 +7935,7 @@
     <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -8004,7 +8000,7 @@
     <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C210" s="10"/>
       <c r="D210" s="10"/>
@@ -8032,7 +8028,7 @@
     <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -8060,7 +8056,7 @@
     <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -8088,7 +8084,7 @@
     <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8116,7 +8112,7 @@
     <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8144,7 +8140,7 @@
     <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8189,7 +8185,7 @@
     <row r="217" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C217" s="10"/>
       <c r="D217" s="10"/>
@@ -8217,7 +8213,7 @@
     <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8245,7 +8241,7 @@
     <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -8257,7 +8253,7 @@
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
       <c r="J219" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
@@ -8275,7 +8271,7 @@
     <row r="220" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8320,7 +8316,7 @@
     <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C222" s="10"/>
       <c r="D222" s="10"/>
@@ -8348,7 +8344,7 @@
     <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8376,7 +8372,7 @@
     <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8404,7 +8400,7 @@
     <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8460,7 +8456,7 @@
     <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8488,7 +8484,7 @@
     <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8516,7 +8512,7 @@
     <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8544,7 +8540,7 @@
     <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8572,7 +8568,7 @@
     <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8600,7 +8596,7 @@
     <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8699,7 +8695,7 @@
     <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="10"/>
       <c r="B237" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C237" s="10"/>
       <c r="D237" s="10"/>
@@ -8727,7 +8723,7 @@
     <row r="238" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8755,7 +8751,7 @@
     <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8783,7 +8779,7 @@
     <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8811,7 +8807,7 @@
     <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8839,7 +8835,7 @@
     <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8867,7 +8863,7 @@
     <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8895,7 +8891,7 @@
     <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8923,7 +8919,7 @@
     <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8951,7 +8947,7 @@
     <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8963,7 +8959,7 @@
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
       <c r="J246" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
@@ -8981,7 +8977,7 @@
     <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -9009,7 +9005,7 @@
     <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9037,7 +9033,7 @@
     <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9065,7 +9061,7 @@
     <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9093,10 +9089,10 @@
     <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
+        <v>467</v>
+      </c>
+      <c r="C251" s="10" t="s">
         <v>468</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>469</v>
       </c>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
@@ -9123,7 +9119,7 @@
     <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C252" s="10"/>
       <c r="D252" s="10"/>
@@ -9151,7 +9147,7 @@
     <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9179,7 +9175,7 @@
     <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -9207,7 +9203,7 @@
     <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9235,7 +9231,7 @@
     <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9266,7 +9262,7 @@
         <v>245</v>
       </c>
       <c r="C257" s="10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D257" s="10"/>
       <c r="E257" s="10" t="s">
@@ -9330,7 +9326,7 @@
     <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C260" s="10"/>
       <c r="D260" s="10"/>
@@ -9358,7 +9354,7 @@
     <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A261" s="10"/>
       <c r="B261" s="10" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C261" s="10"/>
       <c r="D261" s="10"/>
@@ -9386,7 +9382,7 @@
     <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9414,7 +9410,7 @@
     <row r="263" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9442,7 +9438,7 @@
     <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9496,7 +9492,7 @@
     <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9524,7 +9520,7 @@
     <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C267" s="10"/>
       <c r="D267" s="10"/>
@@ -9552,7 +9548,7 @@
     <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9580,7 +9576,7 @@
     <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9608,7 +9604,7 @@
     <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9672,10 +9668,10 @@
     <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C272" s="10" t="s">
         <v>485</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>486</v>
       </c>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
@@ -9685,7 +9681,7 @@
       </c>
       <c r="H272" s="10"/>
       <c r="I272" s="10" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
@@ -9704,7 +9700,7 @@
     <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C273" s="10"/>
       <c r="D273" s="10"/>
@@ -10024,7 +10020,7 @@
     <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="10"/>
       <c r="B291" s="10" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C291" s="10"/>
       <c r="D291" s="10"/>
@@ -10052,7 +10048,7 @@
     <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A292" s="10"/>
       <c r="B292" s="10" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C292" s="10"/>
       <c r="D292" s="10"/>
@@ -10080,7 +10076,7 @@
     <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -10125,7 +10121,7 @@
     <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -10153,7 +10149,7 @@
     <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C296" s="10"/>
       <c r="D296" s="10"/>
@@ -10165,7 +10161,7 @@
       <c r="H296" s="10"/>
       <c r="I296" s="10"/>
       <c r="J296" s="10" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K296" s="10"/>
       <c r="L296" s="10"/>
@@ -10183,7 +10179,7 @@
     <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -10211,7 +10207,7 @@
     <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -10273,7 +10269,7 @@
     <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C301" s="10"/>
       <c r="D301" s="10"/>
@@ -10301,7 +10297,7 @@
     <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C302" s="10"/>
       <c r="D302" s="10"/>
@@ -10329,7 +10325,7 @@
     <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -10357,7 +10353,7 @@
     <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -10385,7 +10381,7 @@
     <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10413,7 +10409,7 @@
     <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10441,7 +10437,7 @@
     <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10469,7 +10465,7 @@
     <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10497,7 +10493,7 @@
     <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10525,7 +10521,7 @@
     <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10570,7 +10566,7 @@
     <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10615,7 +10611,7 @@
     <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -10643,7 +10639,7 @@
     <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="10"/>
       <c r="B315" s="10" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C315" s="10"/>
       <c r="D315" s="10"/>
@@ -10671,7 +10667,7 @@
     <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10699,7 +10695,7 @@
     <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10727,7 +10723,7 @@
     <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10755,7 +10751,7 @@
     <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10783,7 +10779,7 @@
     <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10811,7 +10807,7 @@
     <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10839,7 +10835,7 @@
     <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10867,7 +10863,7 @@
     <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10897,7 +10893,7 @@
         <v>223</v>
       </c>
       <c r="C324" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G324" s="12" t="s">
         <v>4</v>
@@ -10932,7 +10928,7 @@
     <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C326" s="10"/>
       <c r="D326" s="10"/>
@@ -10960,7 +10956,7 @@
     <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C327" s="10"/>
       <c r="D327" s="10"/>
@@ -11167,7 +11163,7 @@
     <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A338" s="10"/>
       <c r="B338" s="10" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C338" s="10"/>
       <c r="D338" s="10"/>
@@ -11195,7 +11191,7 @@
     <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="10"/>
       <c r="B339" s="10" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C339" s="10"/>
       <c r="D339" s="10"/>
@@ -11223,7 +11219,7 @@
     <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -11251,7 +11247,7 @@
     <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -11279,7 +11275,7 @@
     <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11307,7 +11303,7 @@
     <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11338,7 +11334,7 @@
         <v>71</v>
       </c>
       <c r="C344" s="26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D344" s="27"/>
       <c r="E344" s="23"/>
@@ -11349,7 +11345,7 @@
       <c r="H344" s="23"/>
       <c r="I344" s="23"/>
       <c r="K344" s="23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="L344" s="23"/>
       <c r="M344" s="23"/>
@@ -11366,10 +11362,10 @@
     <row r="345" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="23"/>
       <c r="B345" s="23" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C345" s="23" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D345" s="23"/>
       <c r="E345" s="23"/>
@@ -11396,7 +11392,7 @@
     <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C346" s="10"/>
       <c r="D346" s="10"/>
@@ -11424,7 +11420,7 @@
     <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C347" s="10"/>
       <c r="D347" s="10"/>
@@ -11436,7 +11432,7 @@
       <c r="H347" s="10"/>
       <c r="I347" s="10"/>
       <c r="J347" s="10" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="K347" s="10"/>
       <c r="L347" s="10"/>
@@ -11454,7 +11450,7 @@
     <row r="348" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -11482,7 +11478,7 @@
     <row r="349" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11510,10 +11506,10 @@
     <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C350" s="10" t="s">
         <v>531</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>532</v>
       </c>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
@@ -11540,7 +11536,7 @@
     <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11568,10 +11564,10 @@
     <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
@@ -11598,7 +11594,7 @@
     <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -11677,7 +11673,7 @@
     <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C357" s="10"/>
       <c r="D357" s="10"/>
@@ -11765,10 +11761,10 @@
     <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="10" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C361" s="10" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D361" s="10"/>
       <c r="E361" s="10"/>
@@ -11813,10 +11809,10 @@
     </row>
     <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="12" t="s">
+        <v>630</v>
+      </c>
+      <c r="C363" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>632</v>
       </c>
       <c r="K363" s="13"/>
       <c r="S363" s="13"/>
@@ -11908,7 +11904,7 @@
     <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A368" s="10"/>
       <c r="B368" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C368" s="10"/>
       <c r="D368" s="10"/>
@@ -11953,7 +11949,7 @@
     <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11965,7 +11961,7 @@
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
       <c r="J370" s="10" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
@@ -11983,7 +11979,7 @@
     <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A371" s="10"/>
       <c r="B371" s="10" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C371" s="10"/>
       <c r="D371" s="10"/>
@@ -12011,7 +12007,7 @@
     <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -12039,7 +12035,7 @@
     <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12067,7 +12063,7 @@
     <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12095,7 +12091,7 @@
     <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12123,7 +12119,7 @@
     <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12151,7 +12147,7 @@
     <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12179,7 +12175,7 @@
     <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12207,7 +12203,7 @@
     <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12235,7 +12231,7 @@
     <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12263,7 +12259,7 @@
     <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12291,7 +12287,7 @@
     <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -12424,7 +12420,7 @@
     <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A389" s="10"/>
       <c r="B389" s="10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C389" s="10"/>
       <c r="D389" s="10"/>
@@ -12452,7 +12448,7 @@
     <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A390" s="10"/>
       <c r="B390" s="10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C390" s="10"/>
       <c r="D390" s="10"/>
@@ -12480,7 +12476,7 @@
     <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12508,7 +12504,7 @@
     <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -12570,10 +12566,10 @@
     <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
+        <v>561</v>
+      </c>
+      <c r="C395" s="10" t="s">
         <v>562</v>
-      </c>
-      <c r="C395" s="10" t="s">
-        <v>563</v>
       </c>
       <c r="D395" s="10"/>
       <c r="E395" s="10" t="s">
@@ -12604,7 +12600,7 @@
     <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C396" s="10"/>
       <c r="D396" s="10"/>
@@ -12926,7 +12922,7 @@
         <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -12948,7 +12944,7 @@
         <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>88</v>
@@ -12998,7 +12994,7 @@
         <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -13031,7 +13027,7 @@
         <v>103</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -13042,7 +13038,7 @@
         <v>104</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -13072,10 +13068,10 @@
         <v>114</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -13083,10 +13079,10 @@
         <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>569</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>570</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -13094,10 +13090,10 @@
         <v>116</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13105,21 +13101,21 @@
         <v>117</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>573</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>586</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>587</v>
       </c>
     </row>
   </sheetData>
@@ -13197,7 +13193,7 @@
         <v>80</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A505BA-7244-2646-84AA-5C988F7449D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -19,7 +20,6 @@
     <sheet name="Links" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1607" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="638">
   <si>
     <t>ID</t>
   </si>
@@ -1928,12 +1928,27 @@
   </si>
   <si>
     <t xml:space="preserve">A consumption behaviour in which a person ingests tobacco constituents. </t>
+  </si>
+  <si>
+    <t>Gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which use of a product delivering a psychoactive substance increases the likelihood of use of another product delivering a psychoactive substance.</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Population gateway effect</t>
+  </si>
+  <si>
+    <t>A process in which an increase in prevalence of use of a product delivering a psychoactive substance leads to an increase in the prevalence of use of another product delivering a psychoactive substance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2033,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2117,6 +2132,15 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,7 +2178,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2451,39 +2475,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T423"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="11"/>
-    <col min="14" max="14" width="18.42578125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="11"/>
-    <col min="17" max="17" width="13.42578125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="11"/>
+    <col min="8" max="8" width="35.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11"/>
+    <col min="14" max="14" width="18.5" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="11"/>
+    <col min="17" max="17" width="13.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2542,7 +2566,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2571,7 +2595,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2597,7 +2621,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2623,7 +2647,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2649,7 +2673,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2677,7 +2701,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2711,7 +2735,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2737,7 +2761,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2771,7 +2795,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2797,7 +2821,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2826,7 +2850,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>605</v>
@@ -2868,7 +2892,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2906,7 +2930,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2944,7 +2968,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -2977,7 +3001,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3010,7 +3034,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3041,7 +3065,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3072,7 +3096,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3103,7 +3127,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3134,7 +3158,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3165,7 +3189,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3196,7 +3220,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3223,7 +3247,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3258,7 +3282,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3287,7 +3311,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3314,7 +3338,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3341,7 +3365,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3372,7 +3396,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3399,7 +3423,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3426,7 +3450,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3453,7 +3477,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3480,7 +3504,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3507,7 +3531,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3534,7 +3558,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>593</v>
       </c>
@@ -3569,7 +3593,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>595</v>
       </c>
@@ -3591,7 +3615,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>597</v>
       </c>
@@ -3613,7 +3637,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>600</v>
       </c>
@@ -3635,7 +3659,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3664,7 +3688,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3695,7 +3719,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3724,7 +3748,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3755,7 +3779,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3782,7 +3806,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>539</v>
@@ -3815,7 +3839,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3848,7 +3872,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3875,7 +3899,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3902,7 +3926,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3929,7 +3953,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -3956,7 +3980,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -3983,7 +4007,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4010,7 +4034,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4037,7 +4061,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4064,7 +4088,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4091,7 +4115,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4118,7 +4142,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4145,7 +4169,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4172,7 +4196,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4199,7 +4223,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4228,7 +4252,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4255,7 +4279,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4282,7 +4306,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4309,7 +4333,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4336,7 +4360,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4363,7 +4387,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4390,7 +4414,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4417,7 +4441,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4433,7 +4457,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4449,7 +4473,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4476,7 +4500,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4492,7 +4516,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4519,7 +4543,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4546,7 +4570,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4573,7 +4597,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4600,7 +4624,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4631,7 +4655,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4662,7 +4686,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4689,7 +4713,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4705,7 +4729,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4732,7 +4756,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4759,7 +4783,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4790,7 +4814,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4821,7 +4845,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>334</v>
@@ -4846,7 +4870,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>335</v>
@@ -4873,7 +4897,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>336</v>
@@ -4900,7 +4924,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>337</v>
@@ -4927,7 +4951,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
@@ -4956,7 +4980,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>339</v>
@@ -4981,7 +5005,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>340</v>
@@ -5008,7 +5032,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5033,7 +5057,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5050,7 +5074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>341</v>
       </c>
@@ -5066,7 +5090,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>342</v>
@@ -5093,7 +5117,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5119,7 +5143,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5141,7 +5165,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>343</v>
@@ -5168,7 +5192,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>344</v>
@@ -5195,7 +5219,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>345</v>
@@ -5222,7 +5246,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>346</v>
@@ -5249,7 +5273,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="10"/>
       <c r="B100" s="10" t="s">
         <v>347</v>
@@ -5276,7 +5300,7 @@
       <c r="R100" s="10"/>
       <c r="S100" s="10"/>
     </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>348</v>
@@ -5303,7 +5327,7 @@
       <c r="R101" s="10"/>
       <c r="S101" s="10"/>
     </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>349</v>
@@ -5330,7 +5354,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>350</v>
@@ -5357,7 +5381,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>351</v>
@@ -5384,7 +5408,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>352</v>
@@ -5411,7 +5435,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>353</v>
@@ -5438,7 +5462,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>354</v>
@@ -5467,7 +5491,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:20" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A108" s="23"/>
       <c r="B108" s="23" t="s">
         <v>356</v>
@@ -5495,7 +5519,7 @@
       <c r="R108" s="23"/>
       <c r="S108" s="23"/>
     </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>357</v>
@@ -5524,7 +5548,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
         <v>359</v>
@@ -5550,7 +5574,7 @@
       <c r="R110" s="10"/>
       <c r="S110" s="10"/>
     </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>360</v>
@@ -5577,7 +5601,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>361</v>
@@ -5605,7 +5629,7 @@
       <c r="S112" s="10"/>
       <c r="T112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>362</v>
@@ -5633,7 +5657,7 @@
       <c r="S113" s="10"/>
       <c r="T113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>265</v>
@@ -5661,7 +5685,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>364</v>
@@ -5693,7 +5717,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>365</v>
@@ -5721,7 +5745,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>366</v>
@@ -5749,7 +5773,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>367</v>
@@ -5777,7 +5801,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>368</v>
@@ -5805,7 +5829,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="12" t="s">
         <v>151</v>
@@ -5833,7 +5857,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B121" s="12" t="s">
         <v>152</v>
       </c>
@@ -5853,7 +5877,7 @@
       <c r="S121" s="13"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="12" t="s">
         <v>154</v>
       </c>
@@ -5873,7 +5897,7 @@
       <c r="S122" s="13"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="10" t="s">
         <v>369</v>
       </c>
@@ -5897,7 +5921,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
         <v>371</v>
@@ -5925,7 +5949,7 @@
       <c r="S124" s="10"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
         <v>372</v>
@@ -5953,7 +5977,7 @@
       <c r="S125" s="10"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="12" t="s">
         <v>157</v>
@@ -5981,7 +6005,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="12" t="s">
         <v>158</v>
       </c>
@@ -5998,7 +6022,7 @@
       <c r="S127" s="13"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B128" s="12" t="s">
         <v>160</v>
       </c>
@@ -6018,7 +6042,7 @@
       <c r="S128" s="13"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
         <v>161</v>
       </c>
@@ -6035,7 +6059,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="12" t="s">
         <v>162</v>
       </c>
@@ -6052,7 +6076,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
         <v>163</v>
       </c>
@@ -6069,7 +6093,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
         <v>164</v>
       </c>
@@ -6086,7 +6110,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
         <v>165</v>
       </c>
@@ -6103,7 +6127,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
         <v>166</v>
       </c>
@@ -6120,7 +6144,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
         <v>167</v>
       </c>
@@ -6137,7 +6161,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
         <v>168</v>
       </c>
@@ -6154,7 +6178,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
         <v>169</v>
       </c>
@@ -6171,7 +6195,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
         <v>170</v>
       </c>
@@ -6188,7 +6212,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
         <v>171</v>
       </c>
@@ -6205,7 +6229,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="10" t="s">
         <v>373</v>
       </c>
@@ -6222,7 +6246,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
         <v>374</v>
@@ -6250,7 +6274,7 @@
       <c r="S141" s="10"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
         <v>375</v>
@@ -6278,7 +6302,7 @@
       <c r="S142" s="10"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="12" t="s">
         <v>172</v>
@@ -6306,7 +6330,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="10" t="s">
         <v>376</v>
       </c>
@@ -6323,7 +6347,7 @@
       <c r="S144" s="13"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="10" t="s">
         <v>377</v>
@@ -6351,7 +6375,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
         <v>378</v>
@@ -6379,7 +6403,7 @@
       <c r="S146" s="10"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>379</v>
@@ -6411,7 +6435,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>382</v>
@@ -6437,7 +6461,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>383</v>
@@ -6465,7 +6489,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>384</v>
@@ -6493,38 +6517,46 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="10"/>
-      <c r="B151" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="C151" s="10"/>
-      <c r="D151" s="10"/>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10"/>
-      <c r="G151" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10"/>
-      <c r="K151" s="10"/>
-      <c r="L151" s="10"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-    </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C151" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="16"/>
+      <c r="L151" s="16"/>
+      <c r="M151" s="16"/>
+      <c r="N151" s="16"/>
+      <c r="O151" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P151" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q151" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="R151" s="16"/>
+      <c r="S151" s="16"/>
+      <c r="T151" s="16"/>
+    </row>
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6549,10 +6581,10 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="10"/>
       <c r="B153" s="10" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C153" s="10"/>
       <c r="D153" s="10"/>
@@ -6577,10 +6609,10 @@
       <c r="S153" s="10"/>
       <c r="T153" s="10"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
-      <c r="B154" s="12" t="s">
-        <v>173</v>
+      <c r="B154" s="10" t="s">
+        <v>387</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6605,63 +6637,63 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B155" s="10" t="s">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A155" s="10"/>
+      <c r="B155" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C155" s="10"/>
+      <c r="D155" s="10"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+    </row>
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B156" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="G155" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K155" s="13"/>
-      <c r="O155" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q155" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S155" s="13"/>
-      <c r="T155" s="10"/>
-    </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="10"/>
-      <c r="B156" s="10" t="s">
+      <c r="G156" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K156" s="13"/>
+      <c r="O156" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q156" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S156" s="13"/>
+      <c r="T156" s="10"/>
+    </row>
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="C157" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="D156" s="10"/>
-      <c r="E156" s="10" t="s">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10" t="s">
         <v>282</v>
       </c>
-      <c r="F156" s="10"/>
-      <c r="G156" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10"/>
-      <c r="K156" s="10"/>
-      <c r="L156" s="10"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="10">
-        <v>1</v>
-      </c>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-    </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A157" s="10"/>
-      <c r="B157" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
         <v>4</v>
@@ -6672,7 +6704,9 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="10"/>
+      <c r="N157" s="10">
+        <v>1</v>
+      </c>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10" t="s">
@@ -6682,58 +6716,56 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B158" s="10" t="s">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A158" s="10"/>
+      <c r="B158" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+    </row>
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B159" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="G158" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K158" s="13"/>
-      <c r="N158" s="12" t="s">
+      <c r="G159" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K159" s="13"/>
+      <c r="N159" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="O158" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q158" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S158" s="13"/>
-      <c r="T158" s="10"/>
-    </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A159" s="10"/>
-      <c r="B159" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C159" s="10"/>
-      <c r="D159" s="10"/>
-      <c r="E159" s="10"/>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="10"/>
-      <c r="K159" s="10"/>
-      <c r="L159" s="10"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
+      <c r="O159" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S159" s="13"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="10" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10"/>
@@ -6744,9 +6776,7 @@
       </c>
       <c r="H160" s="10"/>
       <c r="I160" s="10"/>
-      <c r="J160" s="10" t="s">
-        <v>393</v>
-      </c>
+      <c r="J160" s="10"/>
       <c r="K160" s="10"/>
       <c r="L160" s="10"/>
       <c r="M160" s="10"/>
@@ -6760,10 +6790,10 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10"/>
@@ -6774,7 +6804,9 @@
       </c>
       <c r="H161" s="10"/>
       <c r="I161" s="10"/>
-      <c r="J161" s="10"/>
+      <c r="J161" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="K161" s="10"/>
       <c r="L161" s="10"/>
       <c r="M161" s="10"/>
@@ -6788,10 +6820,10 @@
       <c r="S161" s="10"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6816,10 +6848,10 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6844,10 +6876,10 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6872,10 +6904,10 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6900,10 +6932,10 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6928,10 +6960,10 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6956,10 +6988,10 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -6984,10 +7016,10 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -7012,10 +7044,10 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -7040,10 +7072,10 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7068,10 +7100,10 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7096,10 +7128,10 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
-      <c r="B173" s="12" t="s">
-        <v>175</v>
+      <c r="B173" s="10" t="s">
+        <v>406</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -7110,9 +7142,7 @@
       </c>
       <c r="H173" s="10"/>
       <c r="I173" s="10"/>
-      <c r="J173" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="J173" s="10"/>
       <c r="K173" s="10"/>
       <c r="L173" s="10"/>
       <c r="M173" s="10"/>
@@ -7126,14 +7156,12 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
-      <c r="B174" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>408</v>
-      </c>
+      <c r="B174" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C174" s="10"/>
       <c r="D174" s="10"/>
       <c r="E174" s="10"/>
       <c r="F174" s="10"/>
@@ -7141,10 +7169,10 @@
         <v>4</v>
       </c>
       <c r="H174" s="10"/>
-      <c r="I174" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="J174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
@@ -7158,12 +7186,14 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="C175" s="10"/>
+        <v>407</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -7171,7 +7201,9 @@
         <v>4</v>
       </c>
       <c r="H175" s="10"/>
-      <c r="I175" s="10"/>
+      <c r="I175" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
@@ -7186,10 +7218,10 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7214,21 +7246,15 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>413</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="C177" s="10"/>
       <c r="D177" s="10"/>
-      <c r="E177" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E177" s="10"/>
+      <c r="F177" s="10"/>
       <c r="G177" s="10" t="s">
         <v>4</v>
       </c>
@@ -7248,58 +7274,75 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="11"/>
-      <c r="B178" s="11" t="s">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D178" s="10"/>
+      <c r="E178" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G178" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+    </row>
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C178" s="11" t="s">
+      <c r="C179" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D178" s="21"/>
-      <c r="E178" s="11" t="s">
+      <c r="D179" s="21"/>
+      <c r="E179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F178" s="11" t="s">
+      <c r="F179" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G178" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="11"/>
-      <c r="L178" s="11"/>
-      <c r="M178" s="11"/>
-      <c r="N178" s="11"/>
-      <c r="O178" s="11"/>
-      <c r="P178" s="11"/>
-      <c r="Q178" s="11"/>
-      <c r="R178" s="11"/>
-      <c r="S178" s="11"/>
-      <c r="T178" s="10"/>
-    </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B179" s="12" t="s">
+      <c r="G179" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="11"/>
+      <c r="L179" s="11"/>
+      <c r="M179" s="11"/>
+      <c r="N179" s="11"/>
+      <c r="O179" s="11"/>
+      <c r="P179" s="11"/>
+      <c r="Q179" s="11"/>
+      <c r="R179" s="11"/>
+      <c r="S179" s="11"/>
+      <c r="T179" s="10"/>
+    </row>
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B180" s="12" t="s">
         <v>176</v>
-      </c>
-      <c r="G179" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K179" s="13"/>
-      <c r="O179" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q179" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S179" s="13"/>
-      <c r="T179" s="10"/>
-    </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B180" s="12" t="s">
-        <v>177</v>
       </c>
       <c r="G180" s="12" t="s">
         <v>4</v>
@@ -7314,83 +7357,72 @@
       <c r="S180" s="13"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="10"/>
-      <c r="B181" s="10" t="s">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B181" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="G181" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K181" s="13"/>
+      <c r="O181" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q181" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S181" s="13"/>
+      <c r="T181" s="10"/>
+    </row>
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10" t="s">
         <v>414</v>
       </c>
-      <c r="C181" s="10"/>
-      <c r="D181" s="10"/>
-      <c r="E181" s="10"/>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="10"/>
-      <c r="K181" s="10"/>
-      <c r="L181" s="10"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="10"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R181" s="10"/>
-      <c r="S181" s="10"/>
-      <c r="T181" s="10"/>
-    </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B182" s="12" t="s">
+      <c r="C182" s="10"/>
+      <c r="D182" s="10"/>
+      <c r="E182" s="10"/>
+      <c r="F182" s="10"/>
+      <c r="G182" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+    </row>
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B183" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="G182" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K182" s="13"/>
-      <c r="O182" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q182" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S182" s="13"/>
-      <c r="T182" s="10"/>
-    </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A183" s="10"/>
-      <c r="B183" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="C183" s="10"/>
-      <c r="D183" s="10"/>
-      <c r="E183" s="10"/>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="10"/>
-      <c r="K183" s="10"/>
-      <c r="L183" s="10"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="10"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R183" s="10"/>
-      <c r="S183" s="10"/>
+      <c r="G183" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K183" s="13"/>
+      <c r="O183" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q183" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S183" s="13"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7415,10 +7447,10 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A185" s="10"/>
       <c r="B185" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C185" s="10"/>
       <c r="D185" s="10"/>
@@ -7443,10 +7475,10 @@
       <c r="S185" s="10"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7471,55 +7503,55 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B187" s="12" t="s">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="C187" s="10"/>
+      <c r="D187" s="10"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+    </row>
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B188" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="G187" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K187" s="13"/>
-      <c r="O187" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q187" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S187" s="13"/>
-      <c r="T187" s="10"/>
-    </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="10"/>
-      <c r="B188" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="C188" s="10"/>
-      <c r="D188" s="10"/>
-      <c r="E188" s="10"/>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="10"/>
-      <c r="K188" s="10"/>
-      <c r="L188" s="10"/>
-      <c r="M188" s="10"/>
-      <c r="N188" s="10"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10"/>
-      <c r="Q188" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R188" s="10"/>
-      <c r="S188" s="10"/>
+      <c r="G188" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K188" s="13"/>
+      <c r="O188" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q188" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S188" s="13"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7544,10 +7576,10 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="10"/>
       <c r="B190" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C190" s="10"/>
       <c r="D190" s="10"/>
@@ -7572,10 +7604,10 @@
       <c r="S190" s="10"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7600,10 +7632,10 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7628,10 +7660,10 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7656,71 +7688,82 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B194" s="12" t="s">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="C194" s="10"/>
+      <c r="D194" s="10"/>
+      <c r="E194" s="10"/>
+      <c r="F194" s="10"/>
+      <c r="G194" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+    </row>
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B195" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G194" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K194" s="13"/>
-      <c r="O194" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q194" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S194" s="13"/>
-      <c r="T194" s="10"/>
-    </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A195" s="10"/>
-      <c r="B195" s="10" t="s">
+      <c r="G195" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K195" s="13"/>
+      <c r="O195" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q195" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S195" s="13"/>
+      <c r="T195" s="10"/>
+    </row>
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10" t="s">
         <v>425</v>
       </c>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
-      <c r="G195" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H195" s="10"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="10"/>
-      <c r="K195" s="10"/>
-      <c r="L195" s="10"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="10"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R195" s="10"/>
-      <c r="S195" s="10"/>
-      <c r="T195" s="10"/>
-    </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B196" s="12" t="s">
+      <c r="C196" s="10"/>
+      <c r="D196" s="10"/>
+      <c r="E196" s="10"/>
+      <c r="F196" s="10"/>
+      <c r="G196" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+    </row>
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B197" s="12" t="s">
         <v>181</v>
-      </c>
-      <c r="G196" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K196" s="13"/>
-      <c r="O196" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q196" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S196" s="13"/>
-      <c r="T196" s="10"/>
-    </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B197" s="12" t="s">
-        <v>182</v>
       </c>
       <c r="G197" s="12" t="s">
         <v>4</v>
@@ -7735,9 +7778,9 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B198" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G198" s="12" t="s">
         <v>4</v>
@@ -7752,9 +7795,9 @@
       <c r="S198" s="13"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>4</v>
@@ -7769,9 +7812,9 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>4</v>
@@ -7786,9 +7829,9 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G201" s="12" t="s">
         <v>4</v>
@@ -7803,83 +7846,72 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="10"/>
-      <c r="B202" s="10" t="s">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B202" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="G202" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K202" s="13"/>
+      <c r="O202" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q202" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S202" s="13"/>
+      <c r="T202" s="10"/>
+    </row>
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A203" s="10"/>
+      <c r="B203" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="C202" s="10"/>
-      <c r="D202" s="10"/>
-      <c r="E202" s="10"/>
-      <c r="F202" s="10"/>
-      <c r="G202" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H202" s="10"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="10"/>
-      <c r="K202" s="10"/>
-      <c r="L202" s="10"/>
-      <c r="M202" s="10"/>
-      <c r="N202" s="10"/>
-      <c r="O202" s="10"/>
-      <c r="P202" s="10"/>
-      <c r="Q202" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R202" s="10"/>
-      <c r="S202" s="10"/>
-      <c r="T202" s="10"/>
-    </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B203" s="12" t="s">
+      <c r="C203" s="10"/>
+      <c r="D203" s="10"/>
+      <c r="E203" s="10"/>
+      <c r="F203" s="10"/>
+      <c r="G203" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+    </row>
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B204" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G203" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K203" s="13"/>
-      <c r="O203" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q203" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S203" s="13"/>
-      <c r="T203" s="10"/>
-    </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="10"/>
-      <c r="B204" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H204" s="10"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="10"/>
-      <c r="K204" s="10"/>
-      <c r="L204" s="10"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="10"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R204" s="10"/>
-      <c r="S204" s="10"/>
+      <c r="G204" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K204" s="13"/>
+      <c r="O204" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q204" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S204" s="13"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7904,10 +7936,10 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A206" s="10"/>
       <c r="B206" s="10" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C206" s="10"/>
       <c r="D206" s="10"/>
@@ -7932,10 +7964,10 @@
       <c r="S206" s="10"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7960,32 +7992,40 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B208" s="12" t="s">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A208" s="10"/>
+      <c r="B208" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C208" s="10"/>
+      <c r="D208" s="10"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="10"/>
+      <c r="G208" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+    </row>
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B209" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G208" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K208" s="13"/>
-      <c r="O208" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q208" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S208" s="13"/>
-      <c r="T208" s="10"/>
-    </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B209" s="12" t="s">
-        <v>189</v>
-      </c>
       <c r="G209" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J209" s="12" t="s">
-        <v>190</v>
       </c>
       <c r="K209" s="13"/>
       <c r="O209" s="12">
@@ -7997,38 +8037,30 @@
       <c r="S209" s="13"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="10"/>
-      <c r="B210" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H210" s="10"/>
-      <c r="I210" s="10"/>
-      <c r="J210" s="10"/>
-      <c r="K210" s="10"/>
-      <c r="L210" s="10"/>
-      <c r="M210" s="10"/>
-      <c r="N210" s="10"/>
-      <c r="O210" s="10"/>
-      <c r="P210" s="10"/>
-      <c r="Q210" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R210" s="10"/>
-      <c r="S210" s="10"/>
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B210" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="G210" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J210" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="K210" s="13"/>
+      <c r="O210" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q210" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S210" s="13"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A211" s="10"/>
       <c r="B211" s="10" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C211" s="10"/>
       <c r="D211" s="10"/>
@@ -8053,10 +8085,10 @@
       <c r="S211" s="10"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A212" s="10"/>
       <c r="B212" s="10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C212" s="10"/>
       <c r="D212" s="10"/>
@@ -8081,10 +8113,10 @@
       <c r="S212" s="10"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8109,10 +8141,10 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8137,10 +8169,10 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8165,55 +8197,55 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B216" s="12" t="s">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A216" s="10"/>
+      <c r="B216" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="C216" s="10"/>
+      <c r="D216" s="10"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="10"/>
+      <c r="G216" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+    </row>
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B217" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="G216" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K216" s="13"/>
-      <c r="O216" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q216" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S216" s="13"/>
-      <c r="T216" s="10"/>
-    </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A217" s="10"/>
-      <c r="B217" s="10" t="s">
-        <v>437</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10"/>
-      <c r="J217" s="10"/>
-      <c r="K217" s="10"/>
-      <c r="L217" s="10"/>
-      <c r="M217" s="10"/>
-      <c r="N217" s="10"/>
-      <c r="O217" s="10"/>
-      <c r="P217" s="10"/>
-      <c r="Q217" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R217" s="10"/>
-      <c r="S217" s="10"/>
+      <c r="G217" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K217" s="13"/>
+      <c r="O217" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q217" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S217" s="13"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8238,10 +8270,10 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A219" s="10"/>
       <c r="B219" s="10" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C219" s="10"/>
       <c r="D219" s="10"/>
@@ -8252,9 +8284,7 @@
       </c>
       <c r="H219" s="10"/>
       <c r="I219" s="10"/>
-      <c r="J219" s="10" t="s">
-        <v>440</v>
-      </c>
+      <c r="J219" s="10"/>
       <c r="K219" s="10"/>
       <c r="L219" s="10"/>
       <c r="M219" s="10"/>
@@ -8268,10 +8298,10 @@
       <c r="S219" s="10"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8282,7 +8312,9 @@
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="10"/>
+      <c r="J220" s="10" t="s">
+        <v>440</v>
+      </c>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
@@ -8296,55 +8328,55 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B221" s="12" t="s">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A221" s="10"/>
+      <c r="B221" s="10" t="s">
+        <v>441</v>
+      </c>
+      <c r="C221" s="10"/>
+      <c r="D221" s="10"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="10"/>
+      <c r="G221" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+    </row>
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B222" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="G221" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K221" s="13"/>
-      <c r="O221" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q221" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S221" s="13"/>
-      <c r="T221" s="10"/>
-    </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="10"/>
-      <c r="B222" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10"/>
-      <c r="K222" s="10"/>
-      <c r="L222" s="10"/>
-      <c r="M222" s="10"/>
-      <c r="N222" s="10"/>
-      <c r="O222" s="10"/>
-      <c r="P222" s="10"/>
-      <c r="Q222" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R222" s="10"/>
-      <c r="S222" s="10"/>
+      <c r="G222" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K222" s="13"/>
+      <c r="O222" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q222" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S222" s="13"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8369,10 +8401,10 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A224" s="10"/>
       <c r="B224" s="10" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C224" s="10"/>
       <c r="D224" s="10"/>
@@ -8397,10 +8429,10 @@
       <c r="S224" s="10"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8425,10 +8457,10 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
-        <v>113</v>
+        <v>445</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -8453,10 +8485,10 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>446</v>
+        <v>113</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8481,10 +8513,10 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8509,10 +8541,10 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8537,10 +8569,10 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8565,10 +8597,10 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8593,10 +8625,10 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8621,26 +8653,37 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B233" s="12" t="s">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A233" s="10"/>
+      <c r="B233" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C233" s="10"/>
+      <c r="D233" s="10"/>
+      <c r="E233" s="10"/>
+      <c r="F233" s="10"/>
+      <c r="G233" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+    </row>
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B234" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="G233" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K233" s="13"/>
-      <c r="O233" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q233" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S233" s="13"/>
-      <c r="T233" s="10"/>
-    </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B234" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="G234" s="12" t="s">
         <v>4</v>
@@ -8655,12 +8698,9 @@
       <c r="S234" s="13"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B235" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G235" s="12" t="s">
         <v>4</v>
@@ -8675,9 +8715,12 @@
       <c r="S235" s="13"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B236" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>196</v>
       </c>
       <c r="G236" s="12" t="s">
         <v>4</v>
@@ -8692,38 +8735,27 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A237" s="10"/>
-      <c r="B237" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C237" s="10"/>
-      <c r="D237" s="10"/>
-      <c r="E237" s="10"/>
-      <c r="F237" s="10"/>
-      <c r="G237" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H237" s="10"/>
-      <c r="I237" s="10"/>
-      <c r="J237" s="10"/>
-      <c r="K237" s="10"/>
-      <c r="L237" s="10"/>
-      <c r="M237" s="10"/>
-      <c r="N237" s="10"/>
-      <c r="O237" s="10"/>
-      <c r="P237" s="10"/>
-      <c r="Q237" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R237" s="10"/>
-      <c r="S237" s="10"/>
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B237" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G237" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K237" s="13"/>
+      <c r="O237" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q237" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A238" s="10"/>
       <c r="B238" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C238" s="10"/>
       <c r="D238" s="10"/>
@@ -8748,10 +8780,10 @@
       <c r="S238" s="10"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A239" s="10"/>
       <c r="B239" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C239" s="10"/>
       <c r="D239" s="10"/>
@@ -8776,10 +8808,10 @@
       <c r="S239" s="10"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8804,10 +8836,10 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8832,10 +8864,10 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8860,10 +8892,10 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8888,10 +8920,10 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8916,10 +8948,10 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8944,10 +8976,10 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -8958,9 +8990,7 @@
       </c>
       <c r="H246" s="10"/>
       <c r="I246" s="10"/>
-      <c r="J246" s="10" t="s">
-        <v>462</v>
-      </c>
+      <c r="J246" s="10"/>
       <c r="K246" s="10"/>
       <c r="L246" s="10"/>
       <c r="M246" s="10"/>
@@ -8974,10 +9004,10 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -8988,7 +9018,9 @@
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10"/>
+      <c r="J247" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
@@ -9002,10 +9034,10 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9030,10 +9062,10 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9058,10 +9090,10 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9086,14 +9118,12 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C251" s="10" t="s">
-        <v>468</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="C251" s="10"/>
       <c r="D251" s="10"/>
       <c r="E251" s="10"/>
       <c r="F251" s="10"/>
@@ -9116,12 +9146,14 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="C252" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="C252" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
@@ -9144,10 +9176,10 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9172,10 +9204,10 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C254" s="10"/>
       <c r="D254" s="10"/>
@@ -9200,10 +9232,10 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9228,10 +9260,10 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9256,18 +9288,14 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C257" s="10" t="s">
-        <v>536</v>
-      </c>
+        <v>473</v>
+      </c>
+      <c r="C257" s="10"/>
       <c r="D257" s="10"/>
-      <c r="E257" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E257" s="10"/>
       <c r="F257" s="10"/>
       <c r="G257" s="10" t="s">
         <v>4</v>
@@ -9281,34 +9309,49 @@
       <c r="N257" s="10"/>
       <c r="O257" s="10"/>
       <c r="P257" s="10"/>
-      <c r="Q257" s="10"/>
+      <c r="Q257" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R257" s="10"/>
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B258" s="12" t="s">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A258" s="10"/>
+      <c r="B258" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C258" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D258" s="10"/>
+      <c r="E258" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F258" s="10"/>
+      <c r="G258" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H258" s="10"/>
+      <c r="I258" s="10"/>
+      <c r="J258" s="10"/>
+      <c r="K258" s="10"/>
+      <c r="L258" s="10"/>
+      <c r="M258" s="10"/>
+      <c r="N258" s="10"/>
+      <c r="O258" s="10"/>
+      <c r="P258" s="10"/>
+      <c r="Q258" s="10"/>
+      <c r="R258" s="10"/>
+      <c r="S258" s="10"/>
+      <c r="T258" s="10"/>
+    </row>
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B259" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C258" s="12" t="s">
+      <c r="C259" s="12" t="s">
         <v>198</v>
-      </c>
-      <c r="G258" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K258" s="13"/>
-      <c r="O258" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q258" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S258" s="13"/>
-      <c r="T258" s="10"/>
-    </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B259" s="12" t="s">
-        <v>199</v>
       </c>
       <c r="G259" s="12" t="s">
         <v>4</v>
@@ -9323,66 +9366,53 @@
       <c r="S259" s="13"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A260" s="10"/>
-      <c r="B260" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C260" s="10"/>
-      <c r="D260" s="10"/>
-      <c r="E260" s="10"/>
-      <c r="F260" s="10"/>
-      <c r="G260" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H260" s="10"/>
-      <c r="I260" s="10"/>
-      <c r="J260" s="10"/>
-      <c r="K260" s="10"/>
-      <c r="L260" s="10"/>
-      <c r="M260" s="10"/>
-      <c r="N260" s="10"/>
-      <c r="O260" s="10"/>
-      <c r="P260" s="10"/>
-      <c r="Q260" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R260" s="10"/>
-      <c r="S260" s="10"/>
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B260" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K260" s="13"/>
+      <c r="O260" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q260" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S260" s="13"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="10"/>
-      <c r="B261" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
-      <c r="G261" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H261" s="10"/>
-      <c r="I261" s="10"/>
-      <c r="J261" s="10"/>
-      <c r="K261" s="10"/>
-      <c r="L261" s="10"/>
-      <c r="M261" s="10"/>
-      <c r="N261" s="10"/>
-      <c r="O261" s="10"/>
-      <c r="P261" s="10"/>
-      <c r="Q261" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R261" s="10"/>
-      <c r="S261" s="10"/>
-      <c r="T261" s="10"/>
-    </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B261" s="30" t="s">
+        <v>636</v>
+      </c>
+      <c r="C261" s="29" t="s">
+        <v>637</v>
+      </c>
+      <c r="E261" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="G261" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K261" s="29"/>
+      <c r="O261" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="P261" s="30" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q261" s="30" t="s">
+        <v>594</v>
+      </c>
+      <c r="S261" s="29"/>
+      <c r="T261" s="31"/>
+    </row>
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A262" s="10"/>
       <c r="B262" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C262" s="10"/>
       <c r="D262" s="10"/>
@@ -9407,10 +9437,10 @@
       <c r="S262" s="10"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A263" s="10"/>
       <c r="B263" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C263" s="10"/>
       <c r="D263" s="10"/>
@@ -9435,10 +9465,10 @@
       <c r="S263" s="10"/>
       <c r="T263" s="10"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9463,36 +9493,38 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="11"/>
-      <c r="B265" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C265" s="11"/>
-      <c r="D265" s="21"/>
-      <c r="E265" s="11"/>
-      <c r="F265" s="11"/>
-      <c r="G265" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H265" s="11"/>
-      <c r="I265" s="11"/>
-      <c r="J265" s="11"/>
-      <c r="K265" s="11"/>
-      <c r="L265" s="11"/>
-      <c r="M265" s="11"/>
-      <c r="N265" s="11"/>
-      <c r="O265" s="11"/>
-      <c r="P265" s="11"/>
-      <c r="Q265" s="11"/>
-      <c r="R265" s="11"/>
-      <c r="S265" s="11"/>
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A265" s="10"/>
+      <c r="B265" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" s="10"/>
+      <c r="D265" s="10"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="10"/>
+      <c r="G265" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H265" s="10"/>
+      <c r="I265" s="10"/>
+      <c r="J265" s="10"/>
+      <c r="K265" s="10"/>
+      <c r="L265" s="10"/>
+      <c r="M265" s="10"/>
+      <c r="N265" s="10"/>
+      <c r="O265" s="10"/>
+      <c r="P265" s="10"/>
+      <c r="Q265" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R265" s="10"/>
+      <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9517,38 +9549,36 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="10"/>
-      <c r="B267" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C267" s="10"/>
-      <c r="D267" s="10"/>
-      <c r="E267" s="10"/>
-      <c r="F267" s="10"/>
-      <c r="G267" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H267" s="10"/>
-      <c r="I267" s="10"/>
-      <c r="J267" s="10"/>
-      <c r="K267" s="10"/>
-      <c r="L267" s="10"/>
-      <c r="M267" s="10"/>
-      <c r="N267" s="10"/>
-      <c r="O267" s="10"/>
-      <c r="P267" s="10"/>
-      <c r="Q267" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R267" s="10"/>
-      <c r="S267" s="10"/>
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A267" s="11"/>
+      <c r="B267" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C267" s="11"/>
+      <c r="D267" s="21"/>
+      <c r="E267" s="11"/>
+      <c r="F267" s="11"/>
+      <c r="G267" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H267" s="11"/>
+      <c r="I267" s="11"/>
+      <c r="J267" s="11"/>
+      <c r="K267" s="11"/>
+      <c r="L267" s="11"/>
+      <c r="M267" s="11"/>
+      <c r="N267" s="11"/>
+      <c r="O267" s="11"/>
+      <c r="P267" s="11"/>
+      <c r="Q267" s="11"/>
+      <c r="R267" s="11"/>
+      <c r="S267" s="11"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9573,10 +9603,10 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="10"/>
       <c r="B269" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C269" s="10"/>
       <c r="D269" s="10"/>
@@ -9601,10 +9631,10 @@
       <c r="S269" s="10"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9629,50 +9659,40 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
-      <c r="B271" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D271" s="22"/>
-      <c r="E271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F271" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G271" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H271" s="11"/>
-      <c r="I271" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J271" s="11"/>
-      <c r="K271" s="11"/>
-      <c r="L271" s="11"/>
-      <c r="M271" s="11">
-        <v>1</v>
-      </c>
-      <c r="N271" s="11"/>
-      <c r="O271" s="11"/>
-      <c r="P271" s="11"/>
-      <c r="Q271" s="11"/>
+      <c r="B271" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C271" s="10"/>
+      <c r="D271" s="10"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="10"/>
+      <c r="G271" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H271" s="10"/>
+      <c r="I271" s="10"/>
+      <c r="J271" s="10"/>
+      <c r="K271" s="10"/>
+      <c r="L271" s="10"/>
+      <c r="M271" s="10"/>
+      <c r="N271" s="10"/>
+      <c r="O271" s="10"/>
+      <c r="P271" s="10"/>
+      <c r="Q271" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R271" s="10"/>
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C272" s="10" t="s">
-        <v>485</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C272" s="10"/>
       <c r="D272" s="10"/>
       <c r="E272" s="10"/>
       <c r="F272" s="10"/>
@@ -9680,9 +9700,7 @@
         <v>4</v>
       </c>
       <c r="H272" s="10"/>
-      <c r="I272" s="10" t="s">
-        <v>486</v>
-      </c>
+      <c r="I272" s="10"/>
       <c r="J272" s="10"/>
       <c r="K272" s="10"/>
       <c r="L272" s="10"/>
@@ -9697,74 +9715,105 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
-      <c r="B273" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C273" s="10"/>
-      <c r="D273" s="10"/>
-      <c r="E273" s="10"/>
-      <c r="F273" s="10"/>
-      <c r="G273" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H273" s="10"/>
-      <c r="I273" s="10"/>
-      <c r="J273" s="10"/>
-      <c r="K273" s="10"/>
-      <c r="L273" s="10"/>
-      <c r="M273" s="10"/>
-      <c r="N273" s="10"/>
-      <c r="O273" s="10"/>
-      <c r="P273" s="10"/>
-      <c r="Q273" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B273" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D273" s="22"/>
+      <c r="E273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F273" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G273" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H273" s="11"/>
+      <c r="I273" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J273" s="11"/>
+      <c r="K273" s="11"/>
+      <c r="L273" s="11"/>
+      <c r="M273" s="11">
+        <v>1</v>
+      </c>
+      <c r="N273" s="11"/>
+      <c r="O273" s="11"/>
+      <c r="P273" s="11"/>
+      <c r="Q273" s="11"/>
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B274" s="12" t="s">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A274" s="10"/>
+      <c r="B274" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C274" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D274" s="10"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="10"/>
+      <c r="G274" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H274" s="10"/>
+      <c r="I274" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="J274" s="10"/>
+      <c r="K274" s="10"/>
+      <c r="L274" s="10"/>
+      <c r="M274" s="10"/>
+      <c r="N274" s="10"/>
+      <c r="O274" s="10"/>
+      <c r="P274" s="10"/>
+      <c r="Q274" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R274" s="10"/>
+      <c r="S274" s="10"/>
+      <c r="T274" s="10"/>
+    </row>
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A275" s="10"/>
+      <c r="B275" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
+      <c r="G275" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H275" s="10"/>
+      <c r="I275" s="10"/>
+      <c r="J275" s="10"/>
+      <c r="K275" s="10"/>
+      <c r="L275" s="10"/>
+      <c r="M275" s="10"/>
+      <c r="N275" s="10"/>
+      <c r="O275" s="10"/>
+      <c r="P275" s="10"/>
+      <c r="Q275" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R275" s="10"/>
+      <c r="S275" s="10"/>
+      <c r="T275" s="10"/>
+    </row>
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B276" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="G274" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K274" s="13"/>
-      <c r="O274" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q274" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S274" s="13"/>
-      <c r="T274" s="10"/>
-    </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B275" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G275" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K275" s="13"/>
-      <c r="O275" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q275" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S275" s="13"/>
-      <c r="T275" s="10"/>
-    </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B276" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C276" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G276" s="12" t="s">
         <v>4</v>
@@ -9779,9 +9828,9 @@
       <c r="S276" s="13"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G277" s="12" t="s">
         <v>4</v>
@@ -9796,9 +9845,12 @@
       <c r="S277" s="13"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B278" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C278" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="G278" s="12" t="s">
         <v>4</v>
@@ -9813,9 +9865,9 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G279" s="12" t="s">
         <v>4</v>
@@ -9830,9 +9882,9 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B280" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>4</v>
@@ -9847,9 +9899,9 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>4</v>
@@ -9864,9 +9916,9 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>4</v>
@@ -9881,9 +9933,9 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>4</v>
@@ -9898,9 +9950,9 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>4</v>
@@ -9915,9 +9967,9 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>4</v>
@@ -9932,9 +9984,9 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>4</v>
@@ -9949,9 +10001,9 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>4</v>
@@ -9966,9 +10018,9 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>4</v>
@@ -9983,9 +10035,9 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>4</v>
@@ -10000,9 +10052,9 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>4</v>
@@ -10017,66 +10069,44 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="10"/>
-      <c r="B291" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C291" s="10"/>
-      <c r="D291" s="10"/>
-      <c r="E291" s="10"/>
-      <c r="F291" s="10"/>
-      <c r="G291" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H291" s="10"/>
-      <c r="I291" s="10"/>
-      <c r="J291" s="10"/>
-      <c r="K291" s="10"/>
-      <c r="L291" s="10"/>
-      <c r="M291" s="10"/>
-      <c r="N291" s="10"/>
-      <c r="O291" s="10"/>
-      <c r="P291" s="10"/>
-      <c r="Q291" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R291" s="10"/>
-      <c r="S291" s="10"/>
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B291" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G291" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K291" s="13"/>
+      <c r="O291" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q291" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S291" s="13"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A292" s="10"/>
-      <c r="B292" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C292" s="10"/>
-      <c r="D292" s="10"/>
-      <c r="E292" s="10"/>
-      <c r="F292" s="10"/>
-      <c r="G292" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H292" s="10"/>
-      <c r="I292" s="10"/>
-      <c r="J292" s="10"/>
-      <c r="K292" s="10"/>
-      <c r="L292" s="10"/>
-      <c r="M292" s="10"/>
-      <c r="N292" s="10"/>
-      <c r="O292" s="10"/>
-      <c r="P292" s="10"/>
-      <c r="Q292" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R292" s="10"/>
-      <c r="S292" s="10"/>
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B292" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G292" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K292" s="13"/>
+      <c r="O292" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q292" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S292" s="13"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A293" s="10"/>
       <c r="B293" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C293" s="10"/>
       <c r="D293" s="10"/>
@@ -10101,27 +10131,38 @@
       <c r="S293" s="10"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B294" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G294" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K294" s="13"/>
-      <c r="O294" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q294" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S294" s="13"/>
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A294" s="10"/>
+      <c r="B294" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C294" s="10"/>
+      <c r="D294" s="10"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="10"/>
+      <c r="G294" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H294" s="10"/>
+      <c r="I294" s="10"/>
+      <c r="J294" s="10"/>
+      <c r="K294" s="10"/>
+      <c r="L294" s="10"/>
+      <c r="M294" s="10"/>
+      <c r="N294" s="10"/>
+      <c r="O294" s="10"/>
+      <c r="P294" s="10"/>
+      <c r="Q294" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R294" s="10"/>
+      <c r="S294" s="10"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -10146,40 +10187,27 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A296" s="10"/>
-      <c r="B296" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C296" s="10"/>
-      <c r="D296" s="10"/>
-      <c r="E296" s="10"/>
-      <c r="F296" s="10"/>
-      <c r="G296" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H296" s="10"/>
-      <c r="I296" s="10"/>
-      <c r="J296" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K296" s="10"/>
-      <c r="L296" s="10"/>
-      <c r="M296" s="10"/>
-      <c r="N296" s="10"/>
-      <c r="O296" s="10"/>
-      <c r="P296" s="10"/>
-      <c r="Q296" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R296" s="10"/>
-      <c r="S296" s="10"/>
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B296" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G296" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K296" s="13"/>
+      <c r="O296" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q296" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S296" s="13"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -10204,10 +10232,10 @@
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="10"/>
       <c r="B298" s="10" t="s">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="C298" s="10"/>
       <c r="D298" s="10"/>
@@ -10218,7 +10246,9 @@
       </c>
       <c r="H298" s="10"/>
       <c r="I298" s="10"/>
-      <c r="J298" s="10"/>
+      <c r="J298" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="K298" s="10"/>
       <c r="L298" s="10"/>
       <c r="M298" s="10"/>
@@ -10232,100 +10262,100 @@
       <c r="S298" s="10"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B299" s="12" t="s">
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A299" s="10"/>
+      <c r="B299" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C299" s="10"/>
+      <c r="D299" s="10"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="10"/>
+      <c r="G299" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H299" s="10"/>
+      <c r="I299" s="10"/>
+      <c r="J299" s="10"/>
+      <c r="K299" s="10"/>
+      <c r="L299" s="10"/>
+      <c r="M299" s="10"/>
+      <c r="N299" s="10"/>
+      <c r="O299" s="10"/>
+      <c r="P299" s="10"/>
+      <c r="Q299" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R299" s="10"/>
+      <c r="S299" s="10"/>
+      <c r="T299" s="10"/>
+    </row>
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A300" s="10"/>
+      <c r="B300" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C300" s="10"/>
+      <c r="D300" s="10"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="10"/>
+      <c r="G300" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H300" s="10"/>
+      <c r="I300" s="10"/>
+      <c r="J300" s="10"/>
+      <c r="K300" s="10"/>
+      <c r="L300" s="10"/>
+      <c r="M300" s="10"/>
+      <c r="N300" s="10"/>
+      <c r="O300" s="10"/>
+      <c r="P300" s="10"/>
+      <c r="Q300" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R300" s="10"/>
+      <c r="S300" s="10"/>
+      <c r="T300" s="10"/>
+    </row>
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B301" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G299" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K299" s="13"/>
-      <c r="O299" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q299" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S299" s="13"/>
-      <c r="T299" s="10"/>
-    </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B300" s="12" t="s">
+      <c r="G301" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K301" s="13"/>
+      <c r="O301" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q301" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S301" s="13"/>
+      <c r="T301" s="10"/>
+    </row>
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B302" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G300" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K300" s="13"/>
-      <c r="O300" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q300" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S300" s="13"/>
-      <c r="T300" s="10"/>
-    </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A301" s="10"/>
-      <c r="B301" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C301" s="10"/>
-      <c r="D301" s="10"/>
-      <c r="E301" s="10"/>
-      <c r="F301" s="10"/>
-      <c r="G301" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H301" s="10"/>
-      <c r="I301" s="10"/>
-      <c r="J301" s="10"/>
-      <c r="K301" s="10"/>
-      <c r="L301" s="10"/>
-      <c r="M301" s="10"/>
-      <c r="N301" s="10"/>
-      <c r="O301" s="10"/>
-      <c r="P301" s="10"/>
-      <c r="Q301" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R301" s="10"/>
-      <c r="S301" s="10"/>
-      <c r="T301" s="10"/>
-    </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A302" s="10"/>
-      <c r="B302" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C302" s="10"/>
-      <c r="D302" s="10"/>
-      <c r="E302" s="10"/>
-      <c r="F302" s="10"/>
-      <c r="G302" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H302" s="10"/>
-      <c r="I302" s="10"/>
-      <c r="J302" s="10"/>
-      <c r="K302" s="10"/>
-      <c r="L302" s="10"/>
-      <c r="M302" s="10"/>
-      <c r="N302" s="10"/>
-      <c r="O302" s="10"/>
-      <c r="P302" s="10"/>
-      <c r="Q302" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R302" s="10"/>
-      <c r="S302" s="10"/>
+      <c r="G302" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K302" s="13"/>
+      <c r="O302" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q302" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S302" s="13"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="10"/>
       <c r="B303" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C303" s="10"/>
       <c r="D303" s="10"/>
@@ -10350,10 +10380,10 @@
       <c r="S303" s="10"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A304" s="10"/>
       <c r="B304" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C304" s="10"/>
       <c r="D304" s="10"/>
@@ -10378,10 +10408,10 @@
       <c r="S304" s="10"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10406,10 +10436,10 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10434,10 +10464,10 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10462,10 +10492,10 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10490,10 +10520,10 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10518,10 +10548,10 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10546,27 +10576,38 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B311" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G311" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K311" s="13"/>
-      <c r="O311" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q311" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S311" s="13"/>
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A311" s="10"/>
+      <c r="B311" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C311" s="10"/>
+      <c r="D311" s="10"/>
+      <c r="E311" s="10"/>
+      <c r="F311" s="10"/>
+      <c r="G311" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H311" s="10"/>
+      <c r="I311" s="10"/>
+      <c r="J311" s="10"/>
+      <c r="K311" s="10"/>
+      <c r="L311" s="10"/>
+      <c r="M311" s="10"/>
+      <c r="N311" s="10"/>
+      <c r="O311" s="10"/>
+      <c r="P311" s="10"/>
+      <c r="Q311" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R311" s="10"/>
+      <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10591,9 +10632,9 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G313" s="12" t="s">
         <v>4</v>
@@ -10608,10 +10649,10 @@
       <c r="S313" s="13"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -10636,38 +10677,27 @@
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="10"/>
-      <c r="B315" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C315" s="10"/>
-      <c r="D315" s="10"/>
-      <c r="E315" s="10"/>
-      <c r="F315" s="10"/>
-      <c r="G315" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H315" s="10"/>
-      <c r="I315" s="10"/>
-      <c r="J315" s="10"/>
-      <c r="K315" s="10"/>
-      <c r="L315" s="10"/>
-      <c r="M315" s="10"/>
-      <c r="N315" s="10"/>
-      <c r="O315" s="10"/>
-      <c r="P315" s="10"/>
-      <c r="Q315" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R315" s="10"/>
-      <c r="S315" s="10"/>
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B315" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G315" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K315" s="13"/>
+      <c r="O315" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q315" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S315" s="13"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10692,10 +10722,10 @@
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A317" s="10"/>
       <c r="B317" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C317" s="10"/>
       <c r="D317" s="10"/>
@@ -10720,10 +10750,10 @@
       <c r="S317" s="10"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10748,10 +10778,10 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10776,10 +10806,10 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10804,10 +10834,10 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10832,10 +10862,10 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10860,10 +10890,10 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10888,145 +10918,164 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B324" s="12" t="s">
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A324" s="10"/>
+      <c r="B324" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C324" s="10"/>
+      <c r="D324" s="10"/>
+      <c r="E324" s="10"/>
+      <c r="F324" s="10"/>
+      <c r="G324" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H324" s="10"/>
+      <c r="I324" s="10"/>
+      <c r="J324" s="10"/>
+      <c r="K324" s="10"/>
+      <c r="L324" s="10"/>
+      <c r="M324" s="10"/>
+      <c r="N324" s="10"/>
+      <c r="O324" s="10"/>
+      <c r="P324" s="10"/>
+      <c r="Q324" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R324" s="10"/>
+      <c r="S324" s="10"/>
+      <c r="T324" s="10"/>
+    </row>
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A325" s="10"/>
+      <c r="B325" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C325" s="10"/>
+      <c r="D325" s="10"/>
+      <c r="E325" s="10"/>
+      <c r="F325" s="10"/>
+      <c r="G325" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H325" s="10"/>
+      <c r="I325" s="10"/>
+      <c r="J325" s="10"/>
+      <c r="K325" s="10"/>
+      <c r="L325" s="10"/>
+      <c r="M325" s="10"/>
+      <c r="N325" s="10"/>
+      <c r="O325" s="10"/>
+      <c r="P325" s="10"/>
+      <c r="Q325" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R325" s="10"/>
+      <c r="S325" s="10"/>
+      <c r="T325" s="10"/>
+    </row>
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B326" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C324" s="12" t="s">
+      <c r="C326" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="G324" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K324" s="13"/>
-      <c r="O324" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q324" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S324" s="13"/>
-      <c r="T324" s="10"/>
-    </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B325" s="12" t="s">
+      <c r="G326" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K326" s="13"/>
+      <c r="O326" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q326" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S326" s="13"/>
+      <c r="T326" s="10"/>
+    </row>
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B327" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G325" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K325" s="13"/>
-      <c r="O325" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q325" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S325" s="13"/>
-      <c r="T325" s="10"/>
-    </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A326" s="10"/>
-      <c r="B326" s="10" t="s">
+      <c r="G327" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K327" s="13"/>
+      <c r="O327" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q327" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S327" s="13"/>
+      <c r="T327" s="10"/>
+    </row>
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A328" s="10"/>
+      <c r="B328" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C326" s="10"/>
-      <c r="D326" s="10"/>
-      <c r="E326" s="10"/>
-      <c r="F326" s="10"/>
-      <c r="G326" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H326" s="10"/>
-      <c r="I326" s="10"/>
-      <c r="J326" s="10"/>
-      <c r="K326" s="10"/>
-      <c r="L326" s="10"/>
-      <c r="M326" s="10"/>
-      <c r="N326" s="10"/>
-      <c r="O326" s="10"/>
-      <c r="P326" s="10"/>
-      <c r="Q326" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R326" s="10"/>
-      <c r="S326" s="10"/>
-      <c r="T326" s="10"/>
-    </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A327" s="10"/>
-      <c r="B327" s="10" t="s">
+      <c r="C328" s="10"/>
+      <c r="D328" s="10"/>
+      <c r="E328" s="10"/>
+      <c r="F328" s="10"/>
+      <c r="G328" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H328" s="10"/>
+      <c r="I328" s="10"/>
+      <c r="J328" s="10"/>
+      <c r="K328" s="10"/>
+      <c r="L328" s="10"/>
+      <c r="M328" s="10"/>
+      <c r="N328" s="10"/>
+      <c r="O328" s="10"/>
+      <c r="P328" s="10"/>
+      <c r="Q328" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R328" s="10"/>
+      <c r="S328" s="10"/>
+      <c r="T328" s="10"/>
+    </row>
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A329" s="10"/>
+      <c r="B329" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C327" s="10"/>
-      <c r="D327" s="10"/>
-      <c r="E327" s="10"/>
-      <c r="F327" s="10"/>
-      <c r="G327" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H327" s="10"/>
-      <c r="I327" s="10"/>
-      <c r="J327" s="10"/>
-      <c r="K327" s="10"/>
-      <c r="L327" s="10"/>
-      <c r="M327" s="10"/>
-      <c r="N327" s="10"/>
-      <c r="O327" s="10"/>
-      <c r="P327" s="10"/>
-      <c r="Q327" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R327" s="10"/>
-      <c r="S327" s="10"/>
-      <c r="T327" s="10"/>
-    </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B328" s="12" t="s">
+      <c r="C329" s="10"/>
+      <c r="D329" s="10"/>
+      <c r="E329" s="10"/>
+      <c r="F329" s="10"/>
+      <c r="G329" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H329" s="10"/>
+      <c r="I329" s="10"/>
+      <c r="J329" s="10"/>
+      <c r="K329" s="10"/>
+      <c r="L329" s="10"/>
+      <c r="M329" s="10"/>
+      <c r="N329" s="10"/>
+      <c r="O329" s="10"/>
+      <c r="P329" s="10"/>
+      <c r="Q329" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R329" s="10"/>
+      <c r="S329" s="10"/>
+      <c r="T329" s="10"/>
+    </row>
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B330" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="G328" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J328" s="12" t="s">
+      <c r="G330" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J330" s="12" t="s">
         <v>225</v>
-      </c>
-      <c r="K328" s="13"/>
-      <c r="O328" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q328" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S328" s="13"/>
-      <c r="T328" s="10"/>
-    </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B329" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G329" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J329" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K329" s="13"/>
-      <c r="O329" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q329" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S329" s="13"/>
-      <c r="T329" s="10"/>
-    </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B330" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="K330" s="13"/>
       <c r="O330" s="12">
@@ -11038,15 +11087,15 @@
       <c r="S330" s="13"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B331" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G331" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J331" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K331" s="13"/>
       <c r="O331" s="12">
@@ -11058,9 +11107,9 @@
       <c r="S331" s="13"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>4</v>
@@ -11075,12 +11124,15 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J333" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="K333" s="13"/>
       <c r="O333" s="12">
@@ -11092,9 +11144,9 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>4</v>
@@ -11109,9 +11161,9 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="12" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="G335" s="12" t="s">
         <v>4</v>
@@ -11126,9 +11178,9 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>4</v>
@@ -11143,9 +11195,9 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="12" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>4</v>
@@ -11160,66 +11212,44 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A338" s="10"/>
-      <c r="B338" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
-      <c r="G338" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H338" s="10"/>
-      <c r="I338" s="10"/>
-      <c r="J338" s="10"/>
-      <c r="K338" s="10"/>
-      <c r="L338" s="10"/>
-      <c r="M338" s="10"/>
-      <c r="N338" s="10"/>
-      <c r="O338" s="10"/>
-      <c r="P338" s="10"/>
-      <c r="Q338" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R338" s="10"/>
-      <c r="S338" s="10"/>
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B338" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K338" s="13"/>
+      <c r="O338" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q338" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S338" s="13"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A339" s="10"/>
-      <c r="B339" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C339" s="10"/>
-      <c r="D339" s="10"/>
-      <c r="E339" s="10"/>
-      <c r="F339" s="10"/>
-      <c r="G339" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H339" s="10"/>
-      <c r="I339" s="10"/>
-      <c r="J339" s="10"/>
-      <c r="K339" s="10"/>
-      <c r="L339" s="10"/>
-      <c r="M339" s="10"/>
-      <c r="N339" s="10"/>
-      <c r="O339" s="10"/>
-      <c r="P339" s="10"/>
-      <c r="Q339" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R339" s="10"/>
-      <c r="S339" s="10"/>
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B339" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G339" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K339" s="13"/>
+      <c r="O339" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q339" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S339" s="13"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A340" s="10"/>
       <c r="B340" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C340" s="10"/>
       <c r="D340" s="10"/>
@@ -11244,10 +11274,10 @@
       <c r="S340" s="10"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A341" s="10"/>
       <c r="B341" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C341" s="10"/>
       <c r="D341" s="10"/>
@@ -11272,10 +11302,10 @@
       <c r="S341" s="10"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11300,10 +11330,10 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11328,129 +11358,127 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A344" s="23"/>
-      <c r="B344" s="23" t="s">
+    <row r="344" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A344" s="10"/>
+      <c r="B344" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C344" s="10"/>
+      <c r="D344" s="10"/>
+      <c r="E344" s="10"/>
+      <c r="F344" s="10"/>
+      <c r="G344" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H344" s="10"/>
+      <c r="I344" s="10"/>
+      <c r="J344" s="10"/>
+      <c r="K344" s="10"/>
+      <c r="L344" s="10"/>
+      <c r="M344" s="10"/>
+      <c r="N344" s="10"/>
+      <c r="O344" s="10"/>
+      <c r="P344" s="10"/>
+      <c r="Q344" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R344" s="10"/>
+      <c r="S344" s="10"/>
+      <c r="T344" s="10"/>
+    </row>
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A345" s="10"/>
+      <c r="B345" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C345" s="10"/>
+      <c r="D345" s="10"/>
+      <c r="E345" s="10"/>
+      <c r="F345" s="10"/>
+      <c r="G345" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H345" s="10"/>
+      <c r="I345" s="10"/>
+      <c r="J345" s="10"/>
+      <c r="K345" s="10"/>
+      <c r="L345" s="10"/>
+      <c r="M345" s="10"/>
+      <c r="N345" s="10"/>
+      <c r="O345" s="10"/>
+      <c r="P345" s="10"/>
+      <c r="Q345" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R345" s="10"/>
+      <c r="S345" s="10"/>
+      <c r="T345" s="10"/>
+    </row>
+    <row r="346" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A346" s="23"/>
+      <c r="B346" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C344" s="26" t="s">
+      <c r="C346" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="D344" s="27"/>
-      <c r="E344" s="23"/>
-      <c r="F344" s="23"/>
-      <c r="G344" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H344" s="23"/>
-      <c r="I344" s="23"/>
-      <c r="K344" s="23" t="s">
+      <c r="D346" s="27"/>
+      <c r="E346" s="23"/>
+      <c r="F346" s="23"/>
+      <c r="G346" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H346" s="23"/>
+      <c r="I346" s="23"/>
+      <c r="K346" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="L344" s="23"/>
-      <c r="M344" s="23"/>
-      <c r="N344" s="23"/>
-      <c r="O344" s="23"/>
-      <c r="P344" s="23"/>
-      <c r="Q344" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R344" s="23"/>
-      <c r="S344" s="23"/>
-      <c r="T344" s="23"/>
-    </row>
-    <row r="345" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A345" s="23"/>
-      <c r="B345" s="23" t="s">
+      <c r="L346" s="23"/>
+      <c r="M346" s="23"/>
+      <c r="N346" s="23"/>
+      <c r="O346" s="23"/>
+      <c r="P346" s="23"/>
+      <c r="Q346" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R346" s="23"/>
+      <c r="S346" s="23"/>
+      <c r="T346" s="23"/>
+    </row>
+    <row r="347" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="23"/>
+      <c r="B347" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="C345" s="23" t="s">
+      <c r="C347" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="D345" s="23"/>
-      <c r="E345" s="23"/>
-      <c r="F345" s="23"/>
-      <c r="G345" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H345" s="23"/>
-      <c r="I345" s="23"/>
-      <c r="J345" s="23"/>
-      <c r="K345" s="23"/>
-      <c r="L345" s="23"/>
-      <c r="M345" s="23"/>
-      <c r="N345" s="23"/>
-      <c r="O345" s="23"/>
-      <c r="P345" s="23"/>
-      <c r="Q345" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R345" s="23"/>
-      <c r="S345" s="23"/>
-      <c r="T345" s="23"/>
-    </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A346" s="10"/>
-      <c r="B346" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C346" s="10"/>
-      <c r="D346" s="10"/>
-      <c r="E346" s="10"/>
-      <c r="F346" s="10"/>
-      <c r="G346" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H346" s="10"/>
-      <c r="I346" s="10"/>
-      <c r="J346" s="10"/>
-      <c r="K346" s="10"/>
-      <c r="L346" s="10"/>
-      <c r="M346" s="10"/>
-      <c r="N346" s="10"/>
-      <c r="O346" s="10"/>
-      <c r="P346" s="10"/>
-      <c r="Q346" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R346" s="10"/>
-      <c r="S346" s="10"/>
-      <c r="T346" s="10"/>
-    </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A347" s="10"/>
-      <c r="B347" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C347" s="10"/>
-      <c r="D347" s="10"/>
-      <c r="E347" s="10"/>
-      <c r="F347" s="10"/>
-      <c r="G347" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H347" s="10"/>
-      <c r="I347" s="10"/>
-      <c r="J347" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="K347" s="10"/>
-      <c r="L347" s="10"/>
-      <c r="M347" s="10"/>
-      <c r="N347" s="10"/>
-      <c r="O347" s="10"/>
-      <c r="P347" s="10"/>
-      <c r="Q347" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R347" s="10"/>
-      <c r="S347" s="10"/>
-      <c r="T347" s="10"/>
-    </row>
-    <row r="348" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="D347" s="23"/>
+      <c r="E347" s="23"/>
+      <c r="F347" s="23"/>
+      <c r="G347" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H347" s="23"/>
+      <c r="I347" s="23"/>
+      <c r="J347" s="23"/>
+      <c r="K347" s="23"/>
+      <c r="L347" s="23"/>
+      <c r="M347" s="23"/>
+      <c r="N347" s="23"/>
+      <c r="O347" s="23"/>
+      <c r="P347" s="23"/>
+      <c r="Q347" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R347" s="23"/>
+      <c r="S347" s="23"/>
+      <c r="T347" s="23"/>
+    </row>
+    <row r="348" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A348" s="10"/>
       <c r="B348" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C348" s="10"/>
       <c r="D348" s="10"/>
@@ -11475,10 +11503,10 @@
       <c r="S348" s="10"/>
       <c r="T348" s="10"/>
     </row>
-    <row r="349" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="10"/>
       <c r="B349" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C349" s="10"/>
       <c r="D349" s="10"/>
@@ -11489,7 +11517,9 @@
       </c>
       <c r="H349" s="10"/>
       <c r="I349" s="10"/>
-      <c r="J349" s="10"/>
+      <c r="J349" s="10" t="s">
+        <v>527</v>
+      </c>
       <c r="K349" s="10"/>
       <c r="L349" s="10"/>
       <c r="M349" s="10"/>
@@ -11503,14 +11533,12 @@
       <c r="S349" s="10"/>
       <c r="T349" s="10"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C350" s="10" t="s">
-        <v>531</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C350" s="10"/>
       <c r="D350" s="10"/>
       <c r="E350" s="10"/>
       <c r="F350" s="10"/>
@@ -11533,10 +11561,10 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11561,13 +11589,13 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C352" s="10" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
@@ -11591,10 +11619,10 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -11619,43 +11647,67 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B354" s="12" t="s">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A354" s="10"/>
+      <c r="B354" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C354" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D354" s="10"/>
+      <c r="E354" s="10"/>
+      <c r="F354" s="10"/>
+      <c r="G354" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H354" s="10"/>
+      <c r="I354" s="10"/>
+      <c r="J354" s="10"/>
+      <c r="K354" s="10"/>
+      <c r="L354" s="10"/>
+      <c r="M354" s="10"/>
+      <c r="N354" s="10"/>
+      <c r="O354" s="10"/>
+      <c r="P354" s="10"/>
+      <c r="Q354" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R354" s="10"/>
+      <c r="S354" s="10"/>
+      <c r="T354" s="10"/>
+    </row>
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A355" s="10"/>
+      <c r="B355" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="10"/>
+      <c r="F355" s="10"/>
+      <c r="G355" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H355" s="10"/>
+      <c r="I355" s="10"/>
+      <c r="J355" s="10"/>
+      <c r="K355" s="10"/>
+      <c r="L355" s="10"/>
+      <c r="M355" s="10"/>
+      <c r="N355" s="10"/>
+      <c r="O355" s="10"/>
+      <c r="P355" s="10"/>
+      <c r="Q355" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R355" s="10"/>
+      <c r="S355" s="10"/>
+      <c r="T355" s="10"/>
+    </row>
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B356" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="G354" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K354" s="13"/>
-      <c r="O354" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q354" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S354" s="13"/>
-      <c r="T354" s="10"/>
-    </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B355" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G355" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K355" s="13"/>
-      <c r="O355" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q355" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S355" s="13"/>
-      <c r="T355" s="10"/>
-    </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B356" s="12" t="s">
-        <v>236</v>
       </c>
       <c r="G356" s="12" t="s">
         <v>4</v>
@@ -11670,37 +11722,26 @@
       <c r="S356" s="13"/>
       <c r="T356" s="10"/>
     </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A357" s="10"/>
-      <c r="B357" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C357" s="10"/>
-      <c r="D357" s="10"/>
-      <c r="E357" s="10"/>
-      <c r="F357" s="10"/>
-      <c r="G357" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H357" s="10"/>
-      <c r="I357" s="10"/>
-      <c r="J357" s="10"/>
-      <c r="K357" s="10"/>
-      <c r="L357" s="10"/>
-      <c r="M357" s="10"/>
-      <c r="N357" s="10"/>
-      <c r="O357" s="10"/>
-      <c r="P357" s="10"/>
-      <c r="Q357" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R357" s="10"/>
-      <c r="S357" s="10"/>
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B357" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G357" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K357" s="13"/>
+      <c r="O357" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q357" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S357" s="13"/>
       <c r="T357" s="10"/>
     </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B358" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G358" s="12" t="s">
         <v>4</v>
@@ -11715,35 +11756,37 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B359" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G359" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K359" s="13"/>
-      <c r="O359" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q359" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S359" s="13"/>
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A359" s="10"/>
+      <c r="B359" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C359" s="10"/>
+      <c r="D359" s="10"/>
+      <c r="E359" s="10"/>
+      <c r="F359" s="10"/>
+      <c r="G359" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H359" s="10"/>
+      <c r="I359" s="10"/>
+      <c r="J359" s="10"/>
+      <c r="K359" s="10"/>
+      <c r="L359" s="10"/>
+      <c r="M359" s="10"/>
+      <c r="N359" s="10"/>
+      <c r="O359" s="10"/>
+      <c r="P359" s="10"/>
+      <c r="Q359" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R359" s="10"/>
+      <c r="S359" s="10"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C360" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E360" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F360" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G360" s="12" t="s">
         <v>4</v>
@@ -11758,41 +11801,35 @@
       <c r="S360" s="13"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A361" s="10"/>
-      <c r="B361" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C361" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="D361" s="10"/>
-      <c r="E361" s="10"/>
-      <c r="F361" s="10"/>
-      <c r="G361" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H361" s="10"/>
-      <c r="I361" s="10"/>
-      <c r="J361" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K361" s="10"/>
-      <c r="L361" s="10"/>
-      <c r="M361" s="10"/>
-      <c r="N361" s="10"/>
-      <c r="O361" s="10"/>
-      <c r="P361" s="10"/>
-      <c r="Q361" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R361" s="10"/>
-      <c r="S361" s="10"/>
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B361" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G361" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K361" s="13"/>
+      <c r="O361" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q361" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S361" s="13"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="G362" s="12" t="s">
         <v>4</v>
@@ -11807,29 +11844,41 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B363" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="C363" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="K363" s="13"/>
-      <c r="S363" s="13"/>
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A363" s="10"/>
+      <c r="B363" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C363" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D363" s="10"/>
+      <c r="E363" s="10"/>
+      <c r="F363" s="10"/>
+      <c r="G363" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H363" s="10"/>
+      <c r="I363" s="10"/>
+      <c r="J363" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K363" s="10"/>
+      <c r="L363" s="10"/>
+      <c r="M363" s="10"/>
+      <c r="N363" s="10"/>
+      <c r="O363" s="10"/>
+      <c r="P363" s="10"/>
+      <c r="Q363" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R363" s="10"/>
+      <c r="S363" s="10"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B364" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C364" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E364" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F364" s="12" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>4</v>
@@ -11844,32 +11893,29 @@
       <c r="S364" s="13"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B365" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G365" s="12" t="s">
-        <v>4</v>
+        <v>630</v>
+      </c>
+      <c r="C365" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="K365" s="13"/>
-      <c r="O365" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q365" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="S365" s="13"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C366" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E366" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G366" s="12" t="s">
         <v>4</v>
@@ -11884,9 +11930,9 @@
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G367" s="12" t="s">
         <v>4</v>
@@ -11901,37 +11947,32 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A368" s="10"/>
-      <c r="B368" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C368" s="10"/>
-      <c r="D368" s="10"/>
-      <c r="E368" s="10"/>
-      <c r="F368" s="10"/>
-      <c r="G368" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H368" s="10"/>
-      <c r="I368" s="10"/>
-      <c r="J368" s="10"/>
-      <c r="K368" s="10"/>
-      <c r="L368" s="10"/>
-      <c r="M368" s="10"/>
-      <c r="N368" s="10"/>
-      <c r="O368" s="10"/>
-      <c r="P368" s="10"/>
-      <c r="Q368" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R368" s="10"/>
-      <c r="S368" s="10"/>
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B368" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K368" s="13"/>
+      <c r="O368" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q368" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S368" s="13"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G369" s="12" t="s">
         <v>4</v>
@@ -11946,10 +11987,10 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A370" s="10"/>
       <c r="B370" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C370" s="10"/>
       <c r="D370" s="10"/>
@@ -11960,9 +12001,7 @@
       </c>
       <c r="H370" s="10"/>
       <c r="I370" s="10"/>
-      <c r="J370" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="J370" s="10"/>
       <c r="K370" s="10"/>
       <c r="L370" s="10"/>
       <c r="M370" s="10"/>
@@ -11976,38 +12015,27 @@
       <c r="S370" s="10"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A371" s="10"/>
-      <c r="B371" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C371" s="10"/>
-      <c r="D371" s="10"/>
-      <c r="E371" s="10"/>
-      <c r="F371" s="10"/>
-      <c r="G371" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H371" s="10"/>
-      <c r="I371" s="10"/>
-      <c r="J371" s="10"/>
-      <c r="K371" s="10"/>
-      <c r="L371" s="10"/>
-      <c r="M371" s="10"/>
-      <c r="N371" s="10"/>
-      <c r="O371" s="10"/>
-      <c r="P371" s="10"/>
-      <c r="Q371" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R371" s="10"/>
-      <c r="S371" s="10"/>
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B371" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G371" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K371" s="13"/>
+      <c r="O371" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q371" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S371" s="13"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -12018,7 +12046,9 @@
       </c>
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
-      <c r="J372" s="10"/>
+      <c r="J372" s="10" t="s">
+        <v>544</v>
+      </c>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
       <c r="M372" s="10"/>
@@ -12032,10 +12062,10 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A373" s="10"/>
       <c r="B373" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C373" s="10"/>
       <c r="D373" s="10"/>
@@ -12060,10 +12090,10 @@
       <c r="S373" s="10"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12088,10 +12118,10 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12116,10 +12146,10 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12144,10 +12174,10 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12172,10 +12202,10 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12200,10 +12230,10 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12228,10 +12258,10 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12256,10 +12286,10 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12284,10 +12314,10 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -12312,49 +12342,71 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B383" s="12" t="s">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A383" s="10"/>
+      <c r="B383" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C383" s="10"/>
+      <c r="D383" s="10"/>
+      <c r="E383" s="10"/>
+      <c r="F383" s="10"/>
+      <c r="G383" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H383" s="10"/>
+      <c r="I383" s="10"/>
+      <c r="J383" s="10"/>
+      <c r="K383" s="10"/>
+      <c r="L383" s="10"/>
+      <c r="M383" s="10"/>
+      <c r="N383" s="10"/>
+      <c r="O383" s="10"/>
+      <c r="P383" s="10"/>
+      <c r="Q383" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R383" s="10"/>
+      <c r="S383" s="10"/>
+      <c r="T383" s="10"/>
+    </row>
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A384" s="10"/>
+      <c r="B384" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C384" s="10"/>
+      <c r="D384" s="10"/>
+      <c r="E384" s="10"/>
+      <c r="F384" s="10"/>
+      <c r="G384" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H384" s="10"/>
+      <c r="I384" s="10"/>
+      <c r="J384" s="10"/>
+      <c r="K384" s="10"/>
+      <c r="L384" s="10"/>
+      <c r="M384" s="10"/>
+      <c r="N384" s="10"/>
+      <c r="O384" s="10"/>
+      <c r="P384" s="10"/>
+      <c r="Q384" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R384" s="10"/>
+      <c r="S384" s="10"/>
+      <c r="T384" s="10"/>
+    </row>
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B385" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="G383" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J383" s="12" t="s">
+      <c r="G385" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J385" s="12" t="s">
         <v>252</v>
-      </c>
-      <c r="K383" s="13"/>
-      <c r="O383" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q383" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S383" s="13"/>
-      <c r="T383" s="10"/>
-    </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B384" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G384" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K384" s="13"/>
-      <c r="O384" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q384" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S384" s="13"/>
-      <c r="T384" s="10"/>
-    </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B385" s="12" t="s">
-        <v>254</v>
-      </c>
-      <c r="G385" s="12" t="s">
-        <v>4</v>
       </c>
       <c r="K385" s="13"/>
       <c r="O385" s="12">
@@ -12366,9 +12418,9 @@
       <c r="S385" s="13"/>
       <c r="T385" s="10"/>
     </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B386" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G386" s="12" t="s">
         <v>4</v>
@@ -12383,9 +12435,9 @@
       <c r="S386" s="13"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
@@ -12400,9 +12452,9 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B388" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G388" s="12" t="s">
         <v>4</v>
@@ -12417,66 +12469,44 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A389" s="10"/>
-      <c r="B389" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C389" s="10"/>
-      <c r="D389" s="10"/>
-      <c r="E389" s="10"/>
-      <c r="F389" s="10"/>
-      <c r="G389" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H389" s="10"/>
-      <c r="I389" s="10"/>
-      <c r="J389" s="10"/>
-      <c r="K389" s="10"/>
-      <c r="L389" s="10"/>
-      <c r="M389" s="10"/>
-      <c r="N389" s="10"/>
-      <c r="O389" s="10"/>
-      <c r="P389" s="10"/>
-      <c r="Q389" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R389" s="10"/>
-      <c r="S389" s="10"/>
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B389" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G389" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K389" s="13"/>
+      <c r="O389" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q389" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S389" s="13"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A390" s="10"/>
-      <c r="B390" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C390" s="10"/>
-      <c r="D390" s="10"/>
-      <c r="E390" s="10"/>
-      <c r="F390" s="10"/>
-      <c r="G390" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H390" s="10"/>
-      <c r="I390" s="10"/>
-      <c r="J390" s="10"/>
-      <c r="K390" s="10"/>
-      <c r="L390" s="10"/>
-      <c r="M390" s="10"/>
-      <c r="N390" s="10"/>
-      <c r="O390" s="10"/>
-      <c r="P390" s="10"/>
-      <c r="Q390" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R390" s="10"/>
-      <c r="S390" s="10"/>
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B390" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K390" s="13"/>
+      <c r="O390" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q390" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S390" s="13"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A391" s="10"/>
       <c r="B391" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C391" s="10"/>
       <c r="D391" s="10"/>
@@ -12501,10 +12531,10 @@
       <c r="S391" s="10"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A392" s="10"/>
       <c r="B392" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C392" s="10"/>
       <c r="D392" s="10"/>
@@ -12529,202 +12559,234 @@
       <c r="S392" s="10"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B393" s="12" t="s">
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A393" s="10"/>
+      <c r="B393" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C393" s="10"/>
+      <c r="D393" s="10"/>
+      <c r="E393" s="10"/>
+      <c r="F393" s="10"/>
+      <c r="G393" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H393" s="10"/>
+      <c r="I393" s="10"/>
+      <c r="J393" s="10"/>
+      <c r="K393" s="10"/>
+      <c r="L393" s="10"/>
+      <c r="M393" s="10"/>
+      <c r="N393" s="10"/>
+      <c r="O393" s="10"/>
+      <c r="P393" s="10"/>
+      <c r="Q393" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R393" s="10"/>
+      <c r="S393" s="10"/>
+      <c r="T393" s="10"/>
+    </row>
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A394" s="10"/>
+      <c r="B394" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C394" s="10"/>
+      <c r="D394" s="10"/>
+      <c r="E394" s="10"/>
+      <c r="F394" s="10"/>
+      <c r="G394" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H394" s="10"/>
+      <c r="I394" s="10"/>
+      <c r="J394" s="10"/>
+      <c r="K394" s="10"/>
+      <c r="L394" s="10"/>
+      <c r="M394" s="10"/>
+      <c r="N394" s="10"/>
+      <c r="O394" s="10"/>
+      <c r="P394" s="10"/>
+      <c r="Q394" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R394" s="10"/>
+      <c r="S394" s="10"/>
+      <c r="T394" s="10"/>
+    </row>
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B395" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G393" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K393" s="13"/>
-      <c r="O393" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q393" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S393" s="13"/>
-      <c r="T393" s="10"/>
-    </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B394" s="12" t="s">
+      <c r="G395" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K395" s="13"/>
+      <c r="O395" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q395" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S395" s="13"/>
+      <c r="T395" s="10"/>
+    </row>
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B396" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G394" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K394" s="13"/>
-      <c r="O394" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q394" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S394" s="13"/>
-      <c r="T394" s="10"/>
-    </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A395" s="10"/>
-      <c r="B395" s="10" t="s">
+      <c r="G396" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K396" s="13"/>
+      <c r="O396" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q396" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S396" s="13"/>
+      <c r="T396" s="10"/>
+    </row>
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A397" s="10"/>
+      <c r="B397" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C395" s="10" t="s">
+      <c r="C397" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D395" s="10"/>
-      <c r="E395" s="10" t="s">
+      <c r="D397" s="10"/>
+      <c r="E397" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F395" s="10" t="s">
+      <c r="F397" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G395" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H395" s="10"/>
-      <c r="I395" s="10"/>
-      <c r="J395" s="10"/>
-      <c r="K395" s="10"/>
-      <c r="L395" s="10"/>
-      <c r="M395" s="10"/>
-      <c r="N395" s="10"/>
-      <c r="O395" s="10"/>
-      <c r="P395" s="10"/>
-      <c r="Q395" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R395" s="10"/>
-      <c r="S395" s="10"/>
-      <c r="T395" s="10"/>
-    </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A396" s="10"/>
-      <c r="B396" s="10" t="s">
+      <c r="G397" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H397" s="10"/>
+      <c r="I397" s="10"/>
+      <c r="J397" s="10"/>
+      <c r="K397" s="10"/>
+      <c r="L397" s="10"/>
+      <c r="M397" s="10"/>
+      <c r="N397" s="10"/>
+      <c r="O397" s="10"/>
+      <c r="P397" s="10"/>
+      <c r="Q397" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R397" s="10"/>
+      <c r="S397" s="10"/>
+      <c r="T397" s="10"/>
+    </row>
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A398" s="10"/>
+      <c r="B398" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C396" s="10"/>
-      <c r="D396" s="10"/>
-      <c r="E396" s="10"/>
-      <c r="F396" s="10"/>
-      <c r="G396" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H396" s="10"/>
-      <c r="I396" s="10"/>
-      <c r="J396" s="10"/>
-      <c r="K396" s="10"/>
-      <c r="L396" s="10"/>
-      <c r="M396" s="10"/>
-      <c r="N396" s="10"/>
-      <c r="O396" s="10"/>
-      <c r="P396" s="10"/>
-      <c r="Q396" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R396" s="10"/>
-      <c r="S396" s="10"/>
-      <c r="T396" s="10"/>
-    </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B397" s="12" t="s">
+      <c r="C398" s="10"/>
+      <c r="D398" s="10"/>
+      <c r="E398" s="10"/>
+      <c r="F398" s="10"/>
+      <c r="G398" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H398" s="10"/>
+      <c r="I398" s="10"/>
+      <c r="J398" s="10"/>
+      <c r="K398" s="10"/>
+      <c r="L398" s="10"/>
+      <c r="M398" s="10"/>
+      <c r="N398" s="10"/>
+      <c r="O398" s="10"/>
+      <c r="P398" s="10"/>
+      <c r="Q398" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R398" s="10"/>
+      <c r="S398" s="10"/>
+      <c r="T398" s="10"/>
+    </row>
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B399" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G397" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K397" s="13"/>
-      <c r="O397" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q397" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S397" s="13"/>
-      <c r="T397" s="10"/>
-    </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B398" s="12" t="s">
+      <c r="G399" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K399" s="13"/>
+      <c r="O399" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q399" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S399" s="13"/>
+      <c r="T399" s="10"/>
+    </row>
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B400" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G398" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K398" s="13"/>
-      <c r="O398" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q398" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S398" s="13"/>
-      <c r="T398" s="10"/>
-    </row>
-    <row r="399" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B399" s="13"/>
-      <c r="Q399" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="400" spans="1:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B400" s="13"/>
-      <c r="G400" s="11"/>
-      <c r="H400" s="11"/>
-      <c r="I400" s="13"/>
-      <c r="J400" s="11"/>
-      <c r="K400" s="11"/>
-      <c r="L400" s="11"/>
-      <c r="M400" s="11">
-        <v>1</v>
-      </c>
-      <c r="N400" s="11"/>
-      <c r="O400" s="11"/>
-      <c r="P400" s="11"/>
-      <c r="Q400" s="11"/>
-    </row>
-    <row r="401" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G400" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K400" s="13"/>
+      <c r="O400" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q400" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S400" s="13"/>
+      <c r="T400" s="10"/>
+    </row>
+    <row r="401" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B401" s="13"/>
       <c r="Q401" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B402" s="13"/>
-      <c r="Q402" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="403" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G402" s="11"/>
+      <c r="H402" s="11"/>
+      <c r="I402" s="13"/>
+      <c r="J402" s="11"/>
+      <c r="K402" s="11"/>
+      <c r="L402" s="11"/>
+      <c r="M402" s="11">
+        <v>1</v>
+      </c>
+      <c r="N402" s="11"/>
+      <c r="O402" s="11"/>
+      <c r="P402" s="11"/>
+      <c r="Q402" s="11"/>
+    </row>
+    <row r="403" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B404" s="13"/>
-      <c r="E404" s="11"/>
-      <c r="F404" s="11"/>
-      <c r="G404" s="11"/>
-      <c r="H404" s="11"/>
-      <c r="I404" s="11"/>
-      <c r="J404" s="11"/>
-      <c r="K404" s="11"/>
-      <c r="L404" s="11"/>
-      <c r="M404" s="11"/>
-      <c r="N404" s="11"/>
-      <c r="O404" s="11"/>
-      <c r="P404" s="11"/>
-      <c r="Q404" s="11"/>
-    </row>
-    <row r="405" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q404" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="405" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B406" s="13"/>
-      <c r="C406" s="11"/>
-      <c r="D406" s="21"/>
       <c r="E406" s="11"/>
       <c r="F406" s="11"/>
       <c r="G406" s="11"/>
@@ -12739,100 +12801,86 @@
       <c r="P406" s="11"/>
       <c r="Q406" s="11"/>
     </row>
-    <row r="407" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B407" s="13"/>
-      <c r="C407" s="11"/>
-      <c r="D407" s="21"/>
-      <c r="E407" s="11"/>
-      <c r="F407" s="11"/>
-      <c r="G407" s="11"/>
-      <c r="H407" s="11"/>
-      <c r="I407" s="11"/>
-      <c r="J407" s="11"/>
-      <c r="K407" s="11"/>
-      <c r="L407" s="11"/>
-      <c r="M407" s="11"/>
-      <c r="N407" s="11"/>
-      <c r="O407" s="11"/>
-      <c r="P407" s="11"/>
-      <c r="Q407" s="11"/>
-    </row>
-    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q407" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
-      <c r="R408" s="11"/>
-    </row>
-    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C408" s="11"/>
+      <c r="D408" s="21"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="11"/>
+      <c r="I408" s="11"/>
+      <c r="J408" s="11"/>
+      <c r="K408" s="11"/>
+      <c r="L408" s="11"/>
+      <c r="M408" s="11"/>
+      <c r="N408" s="11"/>
+      <c r="O408" s="11"/>
+      <c r="P408" s="11"/>
+      <c r="Q408" s="11"/>
+    </row>
+    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B409" s="13"/>
-    </row>
-    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C409" s="11"/>
+      <c r="D409" s="21"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="11"/>
+      <c r="I409" s="11"/>
+      <c r="J409" s="11"/>
+      <c r="K409" s="11"/>
+      <c r="L409" s="11"/>
+      <c r="M409" s="11"/>
+      <c r="N409" s="11"/>
+      <c r="O409" s="11"/>
+      <c r="P409" s="11"/>
+      <c r="Q409" s="11"/>
+    </row>
+    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="13"/>
-    </row>
-    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R410" s="11"/>
+    </row>
+    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="13"/>
     </row>
-    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="13"/>
     </row>
-    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="13"/>
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="13"/>
-      <c r="S417" s="11"/>
-    </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="13"/>
-      <c r="R418" s="11"/>
-    </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A419" s="13"/>
       <c r="B419" s="13"/>
-      <c r="C419" s="11"/>
-      <c r="D419" s="21"/>
-      <c r="E419" s="11"/>
-      <c r="F419" s="11"/>
-      <c r="G419" s="11"/>
-      <c r="H419" s="11"/>
-      <c r="I419" s="11"/>
-      <c r="J419" s="11"/>
-      <c r="K419" s="11"/>
-      <c r="L419" s="11"/>
-      <c r="M419" s="11"/>
-      <c r="N419" s="11"/>
-      <c r="O419" s="11"/>
-      <c r="P419" s="11"/>
-      <c r="Q419" s="11"/>
-    </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S419" s="11"/>
+    </row>
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="13"/>
-      <c r="C420" s="11"/>
-      <c r="D420" s="21"/>
-      <c r="E420" s="11"/>
-      <c r="F420" s="11"/>
-      <c r="G420" s="11"/>
-      <c r="H420" s="11"/>
-      <c r="I420" s="11"/>
-      <c r="J420" s="11"/>
-      <c r="K420" s="11"/>
-      <c r="L420" s="11"/>
-      <c r="M420" s="11"/>
-      <c r="N420" s="11"/>
-      <c r="O420" s="11"/>
-      <c r="P420" s="11"/>
-      <c r="Q420" s="11"/>
       <c r="R420" s="11"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A421" s="11"/>
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B421" s="13"/>
       <c r="C421" s="11"/>
       <c r="D421" s="21"/>
@@ -12849,10 +12897,8 @@
       <c r="O421" s="11"/>
       <c r="P421" s="11"/>
       <c r="Q421" s="11"/>
-      <c r="R421" s="11"/>
-      <c r="S421" s="11"/>
-    </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="13"/>
       <c r="C422" s="11"/>
       <c r="D422" s="21"/>
@@ -12871,12 +12917,52 @@
       <c r="Q422" s="11"/>
       <c r="R422" s="11"/>
     </row>
-    <row r="423" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A423" s="11"/>
       <c r="B423" s="13"/>
+      <c r="C423" s="11"/>
+      <c r="D423" s="21"/>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="11"/>
+      <c r="I423" s="11"/>
+      <c r="J423" s="11"/>
+      <c r="K423" s="11"/>
+      <c r="L423" s="11"/>
+      <c r="M423" s="11"/>
+      <c r="N423" s="11"/>
+      <c r="O423" s="11"/>
+      <c r="P423" s="11"/>
+      <c r="Q423" s="11"/>
+      <c r="R423" s="11"/>
+      <c r="S423" s="11"/>
+    </row>
+    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B424" s="13"/>
+      <c r="C424" s="11"/>
+      <c r="D424" s="21"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="11"/>
+      <c r="I424" s="11"/>
+      <c r="J424" s="11"/>
+      <c r="K424" s="11"/>
+      <c r="L424" s="11"/>
+      <c r="M424" s="11"/>
+      <c r="N424" s="11"/>
+      <c r="O424" s="11"/>
+      <c r="P424" s="11"/>
+      <c r="Q424" s="11"/>
+      <c r="R424" s="11"/>
+    </row>
+    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B425" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T421">
-    <sortCondition ref="B2:B421"/>
+  <sortState ref="A2:T423">
+    <sortCondition ref="B2:B423"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12884,23 +12970,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -12914,7 +13000,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -12925,7 +13011,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -12936,7 +13022,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -12950,7 +13036,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -12961,7 +13047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -12975,7 +13061,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -12986,7 +13072,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -12997,7 +13083,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13008,7 +13094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13019,7 +13105,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13030,7 +13116,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13041,7 +13127,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13052,7 +13138,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13063,7 +13149,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13074,7 +13160,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13085,7 +13171,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13096,7 +13182,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13107,7 +13193,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>580</v>
       </c>
@@ -13125,29 +13211,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13185,7 +13271,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13199,7 +13285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13213,7 +13299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13230,7 +13316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13241,7 +13327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13255,7 +13341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13272,7 +13358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13286,7 +13372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13303,7 +13389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13323,14 +13409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13338,19 +13424,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13385,7 +13471,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13396,7 +13482,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13413,7 +13499,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13430,7 +13516,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13447,7 +13533,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13464,7 +13550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13481,7 +13567,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13498,7 +13584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13515,7 +13601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13532,7 +13618,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13549,7 +13635,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13575,7 +13661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13601,7 +13687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13627,7 +13713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13653,7 +13739,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13679,7 +13765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13705,7 +13791,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13731,7 +13817,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13757,7 +13843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13783,7 +13869,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13809,7 +13895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -13835,7 +13921,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -13861,7 +13947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -13887,7 +13973,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -13913,7 +13999,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -13939,7 +14025,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -13965,7 +14051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -13991,7 +14077,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14017,7 +14103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A505BA-7244-2646-84AA-5C988F7449D3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23233BE-0E76-D447-9DB7-D6DB9CDB80EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1621" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="645">
   <si>
     <t>ID</t>
   </si>
@@ -1943,6 +1943,27 @@
   </si>
   <si>
     <t>A process in which an increase in prevalence of use of a product delivering a psychoactive substance leads to an increase in the prevalence of use of another product delivering a psychoactive substance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duration of e-cigarette use </t>
+  </si>
+  <si>
+    <t>A behaviour attribute that involves the length of time that e-cigarettes have been used for.</t>
+  </si>
+  <si>
+    <t>This refers to the aggregate of use episodes in a person's history not a single e-cigarette use episode. That is covered by 'Diration of e-cigarette use episode'.</t>
+  </si>
+  <si>
+    <t>A person uses e-cigarettes for 3 years.</t>
+  </si>
+  <si>
+    <t>Duration of e-cigarette use epidosde</t>
+  </si>
+  <si>
+    <t>This refers to the duration of a single episode of e-cigarette use by a person. This can be aggregated across episodes using statistics such as mea, median etc.</t>
+  </si>
+  <si>
+    <t>A behaviour attribute that involves the length of time that an episode of e-cigarette use lasts.</t>
   </si>
 </sst>
 </file>
@@ -2476,11 +2497,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T425"/>
+  <dimension ref="A1:T427"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A254" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q261" sqref="Q261"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5192,7 +5213,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>344</v>
@@ -5219,7 +5240,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>345</v>
@@ -5246,7 +5267,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>346</v>
@@ -5273,64 +5294,86 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10" t="s">
-        <v>347</v>
-      </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="G100" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10"/>
-      <c r="K100" s="10"/>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R100" s="10"/>
-      <c r="S100" s="10"/>
-    </row>
-    <row r="101" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A101" s="10"/>
-      <c r="B101" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="10"/>
-      <c r="G101" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="10"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="10"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R101" s="10"/>
-      <c r="S101" s="10"/>
-    </row>
-    <row r="102" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A100" s="31"/>
+      <c r="B100" s="29" t="s">
+        <v>638</v>
+      </c>
+      <c r="C100" s="31" t="s">
+        <v>639</v>
+      </c>
+      <c r="D100" s="31"/>
+      <c r="E100" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="31"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="31"/>
+      <c r="K100" s="29" t="s">
+        <v>640</v>
+      </c>
+      <c r="L100" s="31" t="s">
+        <v>641</v>
+      </c>
+      <c r="M100" s="31"/>
+      <c r="N100" s="31"/>
+      <c r="O100" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P100" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q100" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="R100" s="31"/>
+      <c r="S100" s="31"/>
+    </row>
+    <row r="101" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A101" s="31"/>
+      <c r="B101" s="29" t="s">
+        <v>642</v>
+      </c>
+      <c r="C101" s="31" t="s">
+        <v>644</v>
+      </c>
+      <c r="D101" s="31"/>
+      <c r="E101" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="31"/>
+      <c r="K101" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="L101" s="31"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="31"/>
+      <c r="O101" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="P101" s="31" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q101" s="31" t="s">
+        <v>594</v>
+      </c>
+      <c r="R101" s="31"/>
+      <c r="S101" s="31"/>
+    </row>
+    <row r="102" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C102" s="10"/>
       <c r="D102" s="10"/>
@@ -5354,10 +5397,10 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -5381,10 +5424,10 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C104" s="10"/>
       <c r="D104" s="10"/>
@@ -5408,10 +5451,10 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C105" s="10"/>
       <c r="D105" s="10"/>
@@ -5435,10 +5478,10 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C106" s="10"/>
       <c r="D106" s="10"/>
@@ -5462,14 +5505,12 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>355</v>
-      </c>
+        <v>352</v>
+      </c>
+      <c r="C107" s="10"/>
       <c r="D107" s="10"/>
       <c r="E107" s="10"/>
       <c r="F107" s="10"/>
@@ -5491,40 +5532,41 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:20" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A108" s="23"/>
-      <c r="B108" s="23" t="s">
-        <v>356</v>
-      </c>
-      <c r="C108" s="25" t="s">
-        <v>625</v>
-      </c>
-      <c r="E108" s="23"/>
-      <c r="F108" s="23"/>
-      <c r="G108" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H108" s="23"/>
-      <c r="I108" s="23"/>
-      <c r="J108" s="23"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="23"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R108" s="23"/>
-      <c r="S108" s="23"/>
-    </row>
-    <row r="109" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+    </row>
+    <row r="109" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>357</v>
-      </c>
-      <c r="C109" s="10"/>
+        <v>354</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="D109" s="10"/>
       <c r="E109" s="10"/>
       <c r="F109" s="10"/>
@@ -5533,9 +5575,7 @@
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
-      <c r="J109" s="10" t="s">
-        <v>358</v>
-      </c>
+      <c r="J109" s="10"/>
       <c r="K109" s="10"/>
       <c r="L109" s="10"/>
       <c r="M109" s="10"/>
@@ -5548,36 +5588,38 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="10"/>
-      <c r="B110" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="10"/>
-      <c r="G110" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H110" s="10"/>
-      <c r="I110" s="10"/>
-      <c r="K110" s="10"/>
-      <c r="L110" s="10"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="10"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R110" s="10"/>
-      <c r="S110" s="10"/>
-    </row>
-    <row r="111" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A110" s="23"/>
+      <c r="B110" s="23" t="s">
+        <v>356</v>
+      </c>
+      <c r="C110" s="25" t="s">
+        <v>625</v>
+      </c>
+      <c r="E110" s="23"/>
+      <c r="F110" s="23"/>
+      <c r="G110" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H110" s="23"/>
+      <c r="I110" s="23"/>
+      <c r="J110" s="23"/>
+      <c r="K110" s="23"/>
+      <c r="L110" s="23"/>
+      <c r="M110" s="23"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="23"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R110" s="23"/>
+      <c r="S110" s="23"/>
+    </row>
+    <row r="111" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C111" s="10"/>
       <c r="D111" s="10"/>
@@ -5588,7 +5630,9 @@
       </c>
       <c r="H111" s="10"/>
       <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
+      <c r="J111" s="10" t="s">
+        <v>358</v>
+      </c>
       <c r="K111" s="10"/>
       <c r="L111" s="10"/>
       <c r="M111" s="10"/>
@@ -5601,10 +5645,10 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
@@ -5615,7 +5659,6 @@
       </c>
       <c r="H112" s="10"/>
       <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
       <c r="K112" s="10"/>
       <c r="L112" s="10"/>
       <c r="M112" s="10"/>
@@ -5627,12 +5670,11 @@
       </c>
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
-      <c r="T112" s="10"/>
     </row>
     <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C113" s="10"/>
       <c r="D113" s="10"/>
@@ -5655,12 +5697,11 @@
       </c>
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
-      <c r="T113" s="10"/>
-    </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
-        <v>265</v>
+        <v>361</v>
       </c>
       <c r="C114" s="10"/>
       <c r="D114" s="10"/>
@@ -5688,15 +5729,11 @@
     <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>363</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="C115" s="10"/>
       <c r="D115" s="10"/>
-      <c r="E115" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="E115" s="10"/>
       <c r="F115" s="10"/>
       <c r="G115" s="10" t="s">
         <v>4</v>
@@ -5720,7 +5757,7 @@
     <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
-        <v>365</v>
+        <v>265</v>
       </c>
       <c r="C116" s="10"/>
       <c r="D116" s="10"/>
@@ -5748,11 +5785,15 @@
     <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="C117" s="10"/>
+        <v>364</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>363</v>
+      </c>
       <c r="D117" s="10"/>
-      <c r="E117" s="10"/>
+      <c r="E117" s="10" t="s">
+        <v>282</v>
+      </c>
       <c r="F117" s="10"/>
       <c r="G117" s="10" t="s">
         <v>4</v>
@@ -5776,7 +5817,7 @@
     <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C118" s="10"/>
       <c r="D118" s="10"/>
@@ -5804,7 +5845,7 @@
     <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
@@ -5829,10 +5870,10 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
-      <c r="B120" s="12" t="s">
-        <v>151</v>
+      <c r="B120" s="10" t="s">
+        <v>367</v>
       </c>
       <c r="C120" s="10"/>
       <c r="D120" s="10"/>
@@ -5858,58 +5899,70 @@
       <c r="T120" s="10"/>
     </row>
     <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B121" s="12" t="s">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="10"/>
+      <c r="D121" s="10"/>
+      <c r="E121" s="10"/>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+    </row>
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A122" s="10"/>
+      <c r="B122" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C122" s="10"/>
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+    </row>
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B123" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C123" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="G121" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K121" s="13"/>
-      <c r="O121" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q121" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S121" s="13"/>
-      <c r="T121" s="10"/>
-    </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B122" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="G122" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K122" s="13"/>
-      <c r="O122" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S122" s="13"/>
-      <c r="T122" s="10"/>
-    </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B123" s="10" t="s">
-        <v>369</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>577</v>
-      </c>
-      <c r="D123" s="10"/>
       <c r="G123" s="12" t="s">
         <v>4</v>
-      </c>
-      <c r="J123" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="K123" s="13"/>
       <c r="O123" s="12">
@@ -5922,75 +5975,63 @@
       <c r="T123" s="10"/>
     </row>
     <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A124" s="10"/>
-      <c r="B124" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="E124" s="10"/>
-      <c r="F124" s="10"/>
-      <c r="G124" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H124" s="10"/>
-      <c r="I124" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="10"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="10"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R124" s="10"/>
-      <c r="S124" s="10"/>
+      <c r="B124" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K124" s="13"/>
+      <c r="O124" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S124" s="13"/>
       <c r="T124" s="10"/>
     </row>
     <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="C125" s="10"/>
+        <v>369</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>577</v>
+      </c>
       <c r="D125" s="10"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10"/>
-      <c r="G125" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H125" s="10"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="10"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="10"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R125" s="10"/>
-      <c r="S125" s="10"/>
+      <c r="G125" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J125" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="K125" s="13"/>
+      <c r="O125" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S125" s="13"/>
       <c r="T125" s="10"/>
     </row>
     <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
-      <c r="B126" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
+      <c r="B126" s="10" t="s">
+        <v>371</v>
+      </c>
       <c r="E126" s="10"/>
       <c r="F126" s="10"/>
       <c r="G126" s="10" t="s">
         <v>4</v>
       </c>
       <c r="H126" s="10"/>
-      <c r="I126" s="10"/>
+      <c r="I126" s="10" t="s">
+        <v>370</v>
+      </c>
       <c r="J126" s="10"/>
       <c r="K126" s="10"/>
       <c r="L126" s="10"/>
@@ -6006,45 +6047,64 @@
       <c r="T126" s="10"/>
     </row>
     <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B127" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G127" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K127" s="13"/>
-      <c r="O127" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q127" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S127" s="13"/>
+      <c r="A127" s="10"/>
+      <c r="B127" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
     <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="10"/>
       <c r="B128" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="G128" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J128" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="K128" s="13"/>
-      <c r="O128" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q128" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S128" s="13"/>
+        <v>157</v>
+      </c>
+      <c r="C128" s="10"/>
+      <c r="D128" s="10"/>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
       <c r="T128" s="10"/>
     </row>
     <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G129" s="12" t="s">
         <v>4</v>
@@ -6061,10 +6121,13 @@
     </row>
     <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G130" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J130" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="K130" s="13"/>
       <c r="O130" s="12">
@@ -6078,7 +6141,7 @@
     </row>
     <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G131" s="12" t="s">
         <v>4</v>
@@ -6095,7 +6158,7 @@
     </row>
     <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G132" s="12" t="s">
         <v>4</v>
@@ -6112,7 +6175,7 @@
     </row>
     <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G133" s="12" t="s">
         <v>4</v>
@@ -6129,7 +6192,7 @@
     </row>
     <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G134" s="12" t="s">
         <v>4</v>
@@ -6146,7 +6209,7 @@
     </row>
     <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G135" s="12" t="s">
         <v>4</v>
@@ -6161,9 +6224,9 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G136" s="12" t="s">
         <v>4</v>
@@ -6180,7 +6243,7 @@
     </row>
     <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G137" s="12" t="s">
         <v>4</v>
@@ -6195,9 +6258,9 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G138" s="12" t="s">
         <v>4</v>
@@ -6214,7 +6277,7 @@
     </row>
     <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G139" s="12" t="s">
         <v>4</v>
@@ -6230,8 +6293,8 @@
       <c r="T139" s="10"/>
     </row>
     <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B140" s="10" t="s">
-        <v>373</v>
+      <c r="B140" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="G140" s="12" t="s">
         <v>4</v>
@@ -6247,65 +6310,43 @@
       <c r="T140" s="10"/>
     </row>
     <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A141" s="10"/>
-      <c r="B141" s="10" t="s">
-        <v>374</v>
-      </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10"/>
-      <c r="G141" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H141" s="10"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="10"/>
-      <c r="K141" s="10"/>
-      <c r="L141" s="10"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="10"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R141" s="10"/>
-      <c r="S141" s="10"/>
+      <c r="B141" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K141" s="13"/>
+      <c r="O141" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q141" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S141" s="13"/>
       <c r="T141" s="10"/>
     </row>
     <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A142" s="10"/>
       <c r="B142" s="10" t="s">
-        <v>375</v>
-      </c>
-      <c r="C142" s="10"/>
-      <c r="D142" s="10"/>
-      <c r="E142" s="10"/>
-      <c r="F142" s="10"/>
-      <c r="G142" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H142" s="10"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="10"/>
-      <c r="K142" s="10"/>
-      <c r="L142" s="10"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="10"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R142" s="10"/>
-      <c r="S142" s="10"/>
+        <v>373</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K142" s="13"/>
+      <c r="O142" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q142" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S142" s="13"/>
       <c r="T142" s="10"/>
     </row>
     <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
-      <c r="B143" s="12" t="s">
-        <v>172</v>
+      <c r="B143" s="10" t="s">
+        <v>374</v>
       </c>
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
@@ -6331,26 +6372,37 @@
       <c r="T143" s="10"/>
     </row>
     <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="G144" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K144" s="13"/>
-      <c r="O144" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q144" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S144" s="13"/>
+        <v>375</v>
+      </c>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R144" s="10"/>
+      <c r="S144" s="10"/>
       <c r="T144" s="10"/>
     </row>
     <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
-      <c r="B145" s="10" t="s">
-        <v>377</v>
+      <c r="B145" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="C145" s="10"/>
       <c r="D145" s="10"/>
@@ -6376,50 +6428,35 @@
       <c r="T145" s="10"/>
     </row>
     <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="C146" s="10"/>
-      <c r="D146" s="10"/>
-      <c r="E146" s="10"/>
-      <c r="F146" s="10"/>
-      <c r="G146" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H146" s="10"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="10"/>
-      <c r="K146" s="10"/>
-      <c r="L146" s="10"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="10"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
+        <v>376</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K146" s="13"/>
+      <c r="O146" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q146" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S146" s="13"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>380</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="C147" s="10"/>
       <c r="D147" s="10"/>
       <c r="E147" s="10"/>
       <c r="F147" s="10"/>
       <c r="G147" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H147" s="10" t="s">
-        <v>381</v>
-      </c>
+      <c r="H147" s="10"/>
       <c r="I147" s="10"/>
       <c r="J147" s="10"/>
       <c r="K147" s="10"/>
@@ -6438,8 +6475,10 @@
     <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
-        <v>382</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="C148" s="10"/>
+      <c r="D148" s="10"/>
       <c r="E148" s="10"/>
       <c r="F148" s="10"/>
       <c r="G148" s="10" t="s">
@@ -6461,19 +6500,23 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
-        <v>383</v>
-      </c>
-      <c r="C149" s="10"/>
+        <v>379</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>380</v>
+      </c>
       <c r="D149" s="10"/>
       <c r="E149" s="10"/>
       <c r="F149" s="10"/>
       <c r="G149" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H149" s="10"/>
+      <c r="H149" s="10" t="s">
+        <v>381</v>
+      </c>
       <c r="I149" s="10"/>
       <c r="J149" s="10"/>
       <c r="K149" s="10"/>
@@ -6492,10 +6535,8 @@
     <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
-        <v>384</v>
-      </c>
-      <c r="C150" s="10"/>
-      <c r="D150" s="10"/>
+        <v>382</v>
+      </c>
       <c r="E150" s="10"/>
       <c r="F150" s="10"/>
       <c r="G150" s="10" t="s">
@@ -6517,46 +6558,38 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A151" s="16"/>
-      <c r="B151" s="16" t="s">
-        <v>633</v>
-      </c>
-      <c r="C151" s="29" t="s">
-        <v>634</v>
-      </c>
-      <c r="D151" s="16"/>
-      <c r="E151" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="F151" s="16"/>
-      <c r="G151" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="H151" s="16"/>
-      <c r="I151" s="16"/>
-      <c r="J151" s="16"/>
-      <c r="K151" s="16"/>
-      <c r="L151" s="16"/>
-      <c r="M151" s="16"/>
-      <c r="N151" s="16"/>
-      <c r="O151" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="P151" s="16" t="s">
-        <v>635</v>
-      </c>
-      <c r="Q151" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="R151" s="16"/>
-      <c r="S151" s="16"/>
-      <c r="T151" s="16"/>
+    <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10" t="s">
+        <v>383</v>
+      </c>
+      <c r="C151" s="10"/>
+      <c r="D151" s="10"/>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10"/>
     </row>
     <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C152" s="10"/>
       <c r="D152" s="10"/>
@@ -6581,38 +6614,46 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A153" s="10"/>
-      <c r="B153" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="C153" s="10"/>
-      <c r="D153" s="10"/>
-      <c r="E153" s="10"/>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="10"/>
-      <c r="K153" s="10"/>
-      <c r="L153" s="10"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
-      <c r="Q153" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R153" s="10"/>
-      <c r="S153" s="10"/>
-      <c r="T153" s="10"/>
+    <row r="153" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A153" s="16"/>
+      <c r="B153" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="C153" s="29" t="s">
+        <v>634</v>
+      </c>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="16"/>
+      <c r="L153" s="16"/>
+      <c r="M153" s="16"/>
+      <c r="N153" s="16"/>
+      <c r="O153" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="P153" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="Q153" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="R153" s="16"/>
+      <c r="S153" s="16"/>
+      <c r="T153" s="16"/>
     </row>
     <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C154" s="10"/>
       <c r="D154" s="10"/>
@@ -6639,8 +6680,8 @@
     </row>
     <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
-      <c r="B155" s="12" t="s">
-        <v>173</v>
+      <c r="B155" s="10" t="s">
+        <v>386</v>
       </c>
       <c r="C155" s="10"/>
       <c r="D155" s="10"/>
@@ -6666,34 +6707,41 @@
       <c r="T155" s="10"/>
     </row>
     <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
-        <v>388</v>
-      </c>
-      <c r="G156" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K156" s="13"/>
-      <c r="O156" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q156" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S156" s="13"/>
+        <v>387</v>
+      </c>
+      <c r="C156" s="10"/>
+      <c r="D156" s="10"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
     <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
-      <c r="B157" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>390</v>
-      </c>
+      <c r="B157" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C157" s="10"/>
       <c r="D157" s="10"/>
-      <c r="E157" s="10" t="s">
-        <v>282</v>
-      </c>
+      <c r="E157" s="10"/>
       <c r="F157" s="10"/>
       <c r="G157" s="10" t="s">
         <v>4</v>
@@ -6704,9 +6752,7 @@
       <c r="K157" s="10"/>
       <c r="L157" s="10"/>
       <c r="M157" s="10"/>
-      <c r="N157" s="10">
-        <v>1</v>
-      </c>
+      <c r="N157" s="10"/>
       <c r="O157" s="10"/>
       <c r="P157" s="10"/>
       <c r="Q157" s="10" t="s">
@@ -6717,58 +6763,61 @@
       <c r="T157" s="10"/>
     </row>
     <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A158" s="10"/>
-      <c r="B158" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="E158" s="10"/>
-      <c r="F158" s="10"/>
-      <c r="G158" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="10"/>
-      <c r="K158" s="10"/>
-      <c r="L158" s="10"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
-      <c r="Q158" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R158" s="10"/>
-      <c r="S158" s="10"/>
+      <c r="B158" s="10" t="s">
+        <v>388</v>
+      </c>
+      <c r="G158" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K158" s="13"/>
+      <c r="O158" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S158" s="13"/>
       <c r="T158" s="10"/>
     </row>
     <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="G159" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K159" s="13"/>
-      <c r="N159" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O159" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q159" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S159" s="13"/>
+        <v>389</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D159" s="10"/>
+      <c r="E159" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10">
+        <v>1</v>
+      </c>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R159" s="10"/>
+      <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
     <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
-      <c r="B160" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="C160" s="10"/>
-      <c r="D160" s="10"/>
+      <c r="B160" s="12" t="s">
+        <v>174</v>
+      </c>
       <c r="E160" s="10"/>
       <c r="F160" s="10"/>
       <c r="G160" s="10" t="s">
@@ -6791,39 +6840,29 @@
       <c r="T160" s="10"/>
     </row>
     <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A161" s="10"/>
       <c r="B161" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="C161" s="10"/>
-      <c r="D161" s="10"/>
-      <c r="E161" s="10"/>
-      <c r="F161" s="10"/>
-      <c r="G161" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H161" s="10"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="K161" s="10"/>
-      <c r="L161" s="10"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="10"/>
-      <c r="O161" s="10"/>
-      <c r="P161" s="10"/>
-      <c r="Q161" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R161" s="10"/>
-      <c r="S161" s="10"/>
+        <v>391</v>
+      </c>
+      <c r="G161" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K161" s="13"/>
+      <c r="N161" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O161" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q161" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S161" s="13"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C162" s="10"/>
       <c r="D162" s="10"/>
@@ -6851,7 +6890,7 @@
     <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C163" s="10"/>
       <c r="D163" s="10"/>
@@ -6862,7 +6901,9 @@
       </c>
       <c r="H163" s="10"/>
       <c r="I163" s="10"/>
-      <c r="J163" s="10"/>
+      <c r="J163" s="10" t="s">
+        <v>393</v>
+      </c>
       <c r="K163" s="10"/>
       <c r="L163" s="10"/>
       <c r="M163" s="10"/>
@@ -6876,10 +6917,10 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C164" s="10"/>
       <c r="D164" s="10"/>
@@ -6907,7 +6948,7 @@
     <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C165" s="10"/>
       <c r="D165" s="10"/>
@@ -6935,7 +6976,7 @@
     <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10"/>
@@ -6963,7 +7004,7 @@
     <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10"/>
@@ -6991,7 +7032,7 @@
     <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10"/>
@@ -7019,7 +7060,7 @@
     <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10"/>
@@ -7047,7 +7088,7 @@
     <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C170" s="10"/>
       <c r="D170" s="10"/>
@@ -7075,7 +7116,7 @@
     <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C171" s="10"/>
       <c r="D171" s="10"/>
@@ -7103,7 +7144,7 @@
     <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C172" s="10"/>
       <c r="D172" s="10"/>
@@ -7131,7 +7172,7 @@
     <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C173" s="10"/>
       <c r="D173" s="10"/>
@@ -7158,8 +7199,8 @@
     </row>
     <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
-      <c r="B174" s="12" t="s">
-        <v>175</v>
+      <c r="B174" s="10" t="s">
+        <v>405</v>
       </c>
       <c r="C174" s="10"/>
       <c r="D174" s="10"/>
@@ -7170,9 +7211,7 @@
       </c>
       <c r="H174" s="10"/>
       <c r="I174" s="10"/>
-      <c r="J174" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="J174" s="10"/>
       <c r="K174" s="10"/>
       <c r="L174" s="10"/>
       <c r="M174" s="10"/>
@@ -7189,11 +7228,9 @@
     <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
-        <v>407</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>408</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C175" s="10"/>
       <c r="D175" s="10"/>
       <c r="E175" s="10"/>
       <c r="F175" s="10"/>
@@ -7201,9 +7238,7 @@
         <v>4</v>
       </c>
       <c r="H175" s="10"/>
-      <c r="I175" s="10" t="s">
-        <v>409</v>
-      </c>
+      <c r="I175" s="10"/>
       <c r="J175" s="10"/>
       <c r="K175" s="10"/>
       <c r="L175" s="10"/>
@@ -7220,8 +7255,8 @@
     </row>
     <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
-      <c r="B176" s="10" t="s">
-        <v>410</v>
+      <c r="B176" s="12" t="s">
+        <v>175</v>
       </c>
       <c r="C176" s="10"/>
       <c r="D176" s="10"/>
@@ -7232,7 +7267,9 @@
       </c>
       <c r="H176" s="10"/>
       <c r="I176" s="10"/>
-      <c r="J176" s="10"/>
+      <c r="J176" s="10" t="s">
+        <v>265</v>
+      </c>
       <c r="K176" s="10"/>
       <c r="L176" s="10"/>
       <c r="M176" s="10"/>
@@ -7249,9 +7286,11 @@
     <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="C177" s="10"/>
+        <v>407</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>408</v>
+      </c>
       <c r="D177" s="10"/>
       <c r="E177" s="10"/>
       <c r="F177" s="10"/>
@@ -7259,7 +7298,9 @@
         <v>4</v>
       </c>
       <c r="H177" s="10"/>
-      <c r="I177" s="10"/>
+      <c r="I177" s="10" t="s">
+        <v>409</v>
+      </c>
       <c r="J177" s="10"/>
       <c r="K177" s="10"/>
       <c r="L177" s="10"/>
@@ -7277,18 +7318,12 @@
     <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="C178" s="10" t="s">
-        <v>413</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="C178" s="10"/>
       <c r="D178" s="10"/>
-      <c r="E178" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F178" s="10" t="s">
-        <v>127</v>
-      </c>
+      <c r="E178" s="10"/>
+      <c r="F178" s="10"/>
       <c r="G178" s="10" t="s">
         <v>4</v>
       </c>
@@ -7309,102 +7344,119 @@
       <c r="T178" s="10"/>
     </row>
     <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A179" s="11"/>
-      <c r="B179" s="11" t="s">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10" t="s">
+        <v>411</v>
+      </c>
+      <c r="C179" s="10"/>
+      <c r="D179" s="10"/>
+      <c r="E179" s="10"/>
+      <c r="F179" s="10"/>
+      <c r="G179" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
+    </row>
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>413</v>
+      </c>
+      <c r="D180" s="10"/>
+      <c r="E180" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G180" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
+      <c r="T180" s="10"/>
+    </row>
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C179" s="11" t="s">
+      <c r="C181" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D179" s="21"/>
-      <c r="E179" s="11" t="s">
+      <c r="D181" s="21"/>
+      <c r="E181" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F179" s="11" t="s">
+      <c r="F181" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G179" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="11"/>
-      <c r="L179" s="11"/>
-      <c r="M179" s="11"/>
-      <c r="N179" s="11"/>
-      <c r="O179" s="11"/>
-      <c r="P179" s="11"/>
-      <c r="Q179" s="11"/>
-      <c r="R179" s="11"/>
-      <c r="S179" s="11"/>
-      <c r="T179" s="10"/>
-    </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B180" s="12" t="s">
+      <c r="G181" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="11"/>
+      <c r="L181" s="11"/>
+      <c r="M181" s="11"/>
+      <c r="N181" s="11"/>
+      <c r="O181" s="11"/>
+      <c r="P181" s="11"/>
+      <c r="Q181" s="11"/>
+      <c r="R181" s="11"/>
+      <c r="S181" s="11"/>
+      <c r="T181" s="10"/>
+    </row>
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B182" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="G180" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K180" s="13"/>
-      <c r="O180" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q180" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S180" s="13"/>
-      <c r="T180" s="10"/>
-    </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B181" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="G181" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K181" s="13"/>
-      <c r="O181" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q181" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S181" s="13"/>
-      <c r="T181" s="10"/>
-    </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A182" s="10"/>
-      <c r="B182" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="C182" s="10"/>
-      <c r="D182" s="10"/>
-      <c r="E182" s="10"/>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="10"/>
-      <c r="K182" s="10"/>
-      <c r="L182" s="10"/>
-      <c r="M182" s="10"/>
-      <c r="N182" s="10"/>
-      <c r="O182" s="10"/>
-      <c r="P182" s="10"/>
-      <c r="Q182" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R182" s="10"/>
-      <c r="S182" s="10"/>
+      <c r="G182" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K182" s="13"/>
+      <c r="O182" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q182" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S182" s="13"/>
       <c r="T182" s="10"/>
     </row>
     <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G183" s="12" t="s">
         <v>4</v>
@@ -7422,7 +7474,7 @@
     <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C184" s="10"/>
       <c r="D184" s="10"/>
@@ -7448,37 +7500,26 @@
       <c r="T184" s="10"/>
     </row>
     <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A185" s="10"/>
-      <c r="B185" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="C185" s="10"/>
-      <c r="D185" s="10"/>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10"/>
-      <c r="G185" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10"/>
-      <c r="K185" s="10"/>
-      <c r="L185" s="10"/>
-      <c r="M185" s="10"/>
-      <c r="N185" s="10"/>
-      <c r="O185" s="10"/>
-      <c r="P185" s="10"/>
-      <c r="Q185" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R185" s="10"/>
-      <c r="S185" s="10"/>
+      <c r="B185" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G185" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K185" s="13"/>
+      <c r="O185" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q185" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S185" s="13"/>
       <c r="T185" s="10"/>
     </row>
     <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C186" s="10"/>
       <c r="D186" s="10"/>
@@ -7506,7 +7547,7 @@
     <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C187" s="10"/>
       <c r="D187" s="10"/>
@@ -7532,26 +7573,37 @@
       <c r="T187" s="10"/>
     </row>
     <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B188" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="G188" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K188" s="13"/>
-      <c r="O188" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q188" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S188" s="13"/>
+      <c r="A188" s="10"/>
+      <c r="B188" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="C188" s="10"/>
+      <c r="D188" s="10"/>
+      <c r="E188" s="10"/>
+      <c r="F188" s="10"/>
+      <c r="G188" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R188" s="10"/>
+      <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
     <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C189" s="10"/>
       <c r="D189" s="10"/>
@@ -7576,38 +7628,27 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A190" s="10"/>
-      <c r="B190" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="C190" s="10"/>
-      <c r="D190" s="10"/>
-      <c r="E190" s="10"/>
-      <c r="F190" s="10"/>
-      <c r="G190" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H190" s="10"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="10"/>
-      <c r="K190" s="10"/>
-      <c r="L190" s="10"/>
-      <c r="M190" s="10"/>
-      <c r="N190" s="10"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="10"/>
-      <c r="Q190" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R190" s="10"/>
-      <c r="S190" s="10"/>
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B190" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="G190" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K190" s="13"/>
+      <c r="O190" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S190" s="13"/>
       <c r="T190" s="10"/>
     </row>
     <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C191" s="10"/>
       <c r="D191" s="10"/>
@@ -7632,10 +7673,10 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C192" s="10"/>
       <c r="D192" s="10"/>
@@ -7663,7 +7704,7 @@
     <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C193" s="10"/>
       <c r="D193" s="10"/>
@@ -7691,7 +7732,7 @@
     <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C194" s="10"/>
       <c r="D194" s="10"/>
@@ -7717,26 +7758,37 @@
       <c r="T194" s="10"/>
     </row>
     <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B195" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G195" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K195" s="13"/>
-      <c r="O195" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q195" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S195" s="13"/>
+      <c r="A195" s="10"/>
+      <c r="B195" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
     <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C196" s="10"/>
       <c r="D196" s="10"/>
@@ -7763,7 +7815,7 @@
     </row>
     <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G197" s="12" t="s">
         <v>4</v>
@@ -7779,25 +7831,36 @@
       <c r="T197" s="10"/>
     </row>
     <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B198" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="G198" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K198" s="13"/>
-      <c r="O198" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q198" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S198" s="13"/>
+      <c r="A198" s="10"/>
+      <c r="B198" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="C198" s="10"/>
+      <c r="D198" s="10"/>
+      <c r="E198" s="10"/>
+      <c r="F198" s="10"/>
+      <c r="G198" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
       <c r="T198" s="10"/>
     </row>
     <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G199" s="12" t="s">
         <v>4</v>
@@ -7814,7 +7877,7 @@
     </row>
     <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G200" s="12" t="s">
         <v>4</v>
@@ -7831,7 +7894,7 @@
     </row>
     <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G201" s="12" t="s">
         <v>4</v>
@@ -7848,7 +7911,7 @@
     </row>
     <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B202" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G202" s="12" t="s">
         <v>4</v>
@@ -7864,36 +7927,25 @@
       <c r="T202" s="10"/>
     </row>
     <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A203" s="10"/>
-      <c r="B203" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="C203" s="10"/>
-      <c r="D203" s="10"/>
-      <c r="E203" s="10"/>
-      <c r="F203" s="10"/>
-      <c r="G203" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H203" s="10"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="10"/>
-      <c r="K203" s="10"/>
-      <c r="L203" s="10"/>
-      <c r="M203" s="10"/>
-      <c r="N203" s="10"/>
-      <c r="O203" s="10"/>
-      <c r="P203" s="10"/>
-      <c r="Q203" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R203" s="10"/>
-      <c r="S203" s="10"/>
+      <c r="B203" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G203" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K203" s="13"/>
+      <c r="O203" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q203" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S203" s="13"/>
       <c r="T203" s="10"/>
     </row>
     <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B204" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G204" s="12" t="s">
         <v>4</v>
@@ -7911,7 +7963,7 @@
     <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C205" s="10"/>
       <c r="D205" s="10"/>
@@ -7937,37 +7989,26 @@
       <c r="T205" s="10"/>
     </row>
     <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A206" s="10"/>
-      <c r="B206" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H206" s="10"/>
-      <c r="I206" s="10"/>
-      <c r="J206" s="10"/>
-      <c r="K206" s="10"/>
-      <c r="L206" s="10"/>
-      <c r="M206" s="10"/>
-      <c r="N206" s="10"/>
-      <c r="O206" s="10"/>
-      <c r="P206" s="10"/>
-      <c r="Q206" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R206" s="10"/>
-      <c r="S206" s="10"/>
+      <c r="B206" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="G206" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K206" s="13"/>
+      <c r="O206" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q206" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S206" s="13"/>
       <c r="T206" s="10"/>
     </row>
     <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C207" s="10"/>
       <c r="D207" s="10"/>
@@ -7995,7 +8036,7 @@
     <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C208" s="10"/>
       <c r="D208" s="10"/>
@@ -8021,102 +8062,102 @@
       <c r="T208" s="10"/>
     </row>
     <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B209" s="12" t="s">
+      <c r="A209" s="10"/>
+      <c r="B209" s="10" t="s">
+        <v>429</v>
+      </c>
+      <c r="C209" s="10"/>
+      <c r="D209" s="10"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="10"/>
+      <c r="G209" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+    </row>
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A210" s="10"/>
+      <c r="B210" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="C210" s="10"/>
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+      <c r="P210" s="10"/>
+      <c r="Q210" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R210" s="10"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="10"/>
+    </row>
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B211" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="G209" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K209" s="13"/>
-      <c r="O209" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q209" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S209" s="13"/>
-      <c r="T209" s="10"/>
-    </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B210" s="12" t="s">
+      <c r="G211" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K211" s="13"/>
+      <c r="O211" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q211" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S211" s="13"/>
+      <c r="T211" s="10"/>
+    </row>
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B212" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="G210" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J210" s="12" t="s">
+      <c r="G212" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J212" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="K210" s="13"/>
-      <c r="O210" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q210" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S210" s="13"/>
-      <c r="T210" s="10"/>
-    </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A211" s="10"/>
-      <c r="B211" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H211" s="10"/>
-      <c r="I211" s="10"/>
-      <c r="J211" s="10"/>
-      <c r="K211" s="10"/>
-      <c r="L211" s="10"/>
-      <c r="M211" s="10"/>
-      <c r="N211" s="10"/>
-      <c r="O211" s="10"/>
-      <c r="P211" s="10"/>
-      <c r="Q211" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R211" s="10"/>
-      <c r="S211" s="10"/>
-      <c r="T211" s="10"/>
-    </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A212" s="10"/>
-      <c r="B212" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H212" s="10"/>
-      <c r="I212" s="10"/>
-      <c r="J212" s="10"/>
-      <c r="K212" s="10"/>
-      <c r="L212" s="10"/>
-      <c r="M212" s="10"/>
-      <c r="N212" s="10"/>
-      <c r="O212" s="10"/>
-      <c r="P212" s="10"/>
-      <c r="Q212" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R212" s="10"/>
-      <c r="S212" s="10"/>
+      <c r="K212" s="13"/>
+      <c r="O212" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q212" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S212" s="13"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C213" s="10"/>
       <c r="D213" s="10"/>
@@ -8141,10 +8182,10 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C214" s="10"/>
       <c r="D214" s="10"/>
@@ -8169,10 +8210,10 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C215" s="10"/>
       <c r="D215" s="10"/>
@@ -8200,7 +8241,7 @@
     <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C216" s="10"/>
       <c r="D216" s="10"/>
@@ -8226,26 +8267,37 @@
       <c r="T216" s="10"/>
     </row>
     <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B217" s="12" t="s">
-        <v>191</v>
-      </c>
-      <c r="G217" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K217" s="13"/>
-      <c r="O217" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q217" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S217" s="13"/>
+      <c r="A217" s="10"/>
+      <c r="B217" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="C217" s="10"/>
+      <c r="D217" s="10"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="10"/>
+      <c r="G217" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C218" s="10"/>
       <c r="D218" s="10"/>
@@ -8270,38 +8322,27 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A219" s="10"/>
-      <c r="B219" s="10" t="s">
-        <v>438</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10"/>
-      <c r="J219" s="10"/>
-      <c r="K219" s="10"/>
-      <c r="L219" s="10"/>
-      <c r="M219" s="10"/>
-      <c r="N219" s="10"/>
-      <c r="O219" s="10"/>
-      <c r="P219" s="10"/>
-      <c r="Q219" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R219" s="10"/>
-      <c r="S219" s="10"/>
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B219" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="G219" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K219" s="13"/>
+      <c r="O219" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q219" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S219" s="13"/>
       <c r="T219" s="10"/>
     </row>
     <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C220" s="10"/>
       <c r="D220" s="10"/>
@@ -8312,9 +8353,7 @@
       </c>
       <c r="H220" s="10"/>
       <c r="I220" s="10"/>
-      <c r="J220" s="10" t="s">
-        <v>440</v>
-      </c>
+      <c r="J220" s="10"/>
       <c r="K220" s="10"/>
       <c r="L220" s="10"/>
       <c r="M220" s="10"/>
@@ -8331,7 +8370,7 @@
     <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C221" s="10"/>
       <c r="D221" s="10"/>
@@ -8356,27 +8395,40 @@
       <c r="S221" s="10"/>
       <c r="T221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B222" s="12" t="s">
-        <v>192</v>
-      </c>
-      <c r="G222" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K222" s="13"/>
-      <c r="O222" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q222" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S222" s="13"/>
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A222" s="10"/>
+      <c r="B222" s="10" t="s">
+        <v>439</v>
+      </c>
+      <c r="C222" s="10"/>
+      <c r="D222" s="10"/>
+      <c r="E222" s="10"/>
+      <c r="F222" s="10"/>
+      <c r="G222" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C223" s="10"/>
       <c r="D223" s="10"/>
@@ -8402,37 +8454,26 @@
       <c r="T223" s="10"/>
     </row>
     <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A224" s="10"/>
-      <c r="B224" s="10" t="s">
-        <v>443</v>
-      </c>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10"/>
-      <c r="K224" s="10"/>
-      <c r="L224" s="10"/>
-      <c r="M224" s="10"/>
-      <c r="N224" s="10"/>
-      <c r="O224" s="10"/>
-      <c r="P224" s="10"/>
-      <c r="Q224" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R224" s="10"/>
-      <c r="S224" s="10"/>
+      <c r="B224" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G224" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K224" s="13"/>
+      <c r="O224" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q224" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S224" s="13"/>
       <c r="T224" s="10"/>
     </row>
     <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C225" s="10"/>
       <c r="D225" s="10"/>
@@ -8460,7 +8501,7 @@
     <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C226" s="10"/>
       <c r="D226" s="10"/>
@@ -8488,7 +8529,7 @@
     <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
-        <v>113</v>
+        <v>444</v>
       </c>
       <c r="C227" s="10"/>
       <c r="D227" s="10"/>
@@ -8516,7 +8557,7 @@
     <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C228" s="10"/>
       <c r="D228" s="10"/>
@@ -8544,7 +8585,7 @@
     <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
-        <v>447</v>
+        <v>113</v>
       </c>
       <c r="C229" s="10"/>
       <c r="D229" s="10"/>
@@ -8572,7 +8613,7 @@
     <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C230" s="10"/>
       <c r="D230" s="10"/>
@@ -8600,7 +8641,7 @@
     <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C231" s="10"/>
       <c r="D231" s="10"/>
@@ -8625,10 +8666,10 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C232" s="10"/>
       <c r="D232" s="10"/>
@@ -8656,7 +8697,7 @@
     <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C233" s="10"/>
       <c r="D233" s="10"/>
@@ -8681,46 +8722,65 @@
       <c r="S233" s="10"/>
       <c r="T233" s="10"/>
     </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B234" s="12" t="s">
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A234" s="10"/>
+      <c r="B234" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C234" s="10"/>
+      <c r="D234" s="10"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="10"/>
+      <c r="G234" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+    </row>
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A235" s="10"/>
+      <c r="B235" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C235" s="10"/>
+      <c r="D235" s="10"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="10"/>
+      <c r="G235" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R235" s="10"/>
+      <c r="S235" s="10"/>
+      <c r="T235" s="10"/>
+    </row>
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B236" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="G234" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K234" s="13"/>
-      <c r="O234" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q234" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S234" s="13"/>
-      <c r="T234" s="10"/>
-    </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B235" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G235" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K235" s="13"/>
-      <c r="O235" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q235" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S235" s="13"/>
-      <c r="T235" s="10"/>
-    </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B236" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="G236" s="12" t="s">
         <v>4</v>
@@ -8737,7 +8797,7 @@
     </row>
     <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B237" s="12" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G237" s="12" t="s">
         <v>4</v>
@@ -8752,66 +8812,47 @@
       <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A238" s="10"/>
-      <c r="B238" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="C238" s="10"/>
-      <c r="D238" s="10"/>
-      <c r="E238" s="10"/>
-      <c r="F238" s="10"/>
-      <c r="G238" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H238" s="10"/>
-      <c r="I238" s="10"/>
-      <c r="J238" s="10"/>
-      <c r="K238" s="10"/>
-      <c r="L238" s="10"/>
-      <c r="M238" s="10"/>
-      <c r="N238" s="10"/>
-      <c r="O238" s="10"/>
-      <c r="P238" s="10"/>
-      <c r="Q238" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R238" s="10"/>
-      <c r="S238" s="10"/>
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B238" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G238" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K238" s="13"/>
+      <c r="O238" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q238" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S238" s="13"/>
       <c r="T238" s="10"/>
     </row>
     <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A239" s="10"/>
-      <c r="B239" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="C239" s="10"/>
-      <c r="D239" s="10"/>
-      <c r="E239" s="10"/>
-      <c r="F239" s="10"/>
-      <c r="G239" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H239" s="10"/>
-      <c r="I239" s="10"/>
-      <c r="J239" s="10"/>
-      <c r="K239" s="10"/>
-      <c r="L239" s="10"/>
-      <c r="M239" s="10"/>
-      <c r="N239" s="10"/>
-      <c r="O239" s="10"/>
-      <c r="P239" s="10"/>
-      <c r="Q239" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R239" s="10"/>
-      <c r="S239" s="10"/>
+      <c r="B239" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G239" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K239" s="13"/>
+      <c r="O239" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q239" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S239" s="13"/>
       <c r="T239" s="10"/>
     </row>
     <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C240" s="10"/>
       <c r="D240" s="10"/>
@@ -8839,7 +8880,7 @@
     <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C241" s="10"/>
       <c r="D241" s="10"/>
@@ -8867,7 +8908,7 @@
     <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C242" s="10"/>
       <c r="D242" s="10"/>
@@ -8895,7 +8936,7 @@
     <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C243" s="10"/>
       <c r="D243" s="10"/>
@@ -8923,7 +8964,7 @@
     <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C244" s="10"/>
       <c r="D244" s="10"/>
@@ -8951,7 +8992,7 @@
     <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C245" s="10"/>
       <c r="D245" s="10"/>
@@ -8979,7 +9020,7 @@
     <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C246" s="10"/>
       <c r="D246" s="10"/>
@@ -9007,7 +9048,7 @@
     <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C247" s="10"/>
       <c r="D247" s="10"/>
@@ -9018,9 +9059,7 @@
       </c>
       <c r="H247" s="10"/>
       <c r="I247" s="10"/>
-      <c r="J247" s="10" t="s">
-        <v>462</v>
-      </c>
+      <c r="J247" s="10"/>
       <c r="K247" s="10"/>
       <c r="L247" s="10"/>
       <c r="M247" s="10"/>
@@ -9037,7 +9076,7 @@
     <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="C248" s="10"/>
       <c r="D248" s="10"/>
@@ -9065,7 +9104,7 @@
     <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C249" s="10"/>
       <c r="D249" s="10"/>
@@ -9076,7 +9115,9 @@
       </c>
       <c r="H249" s="10"/>
       <c r="I249" s="10"/>
-      <c r="J249" s="10"/>
+      <c r="J249" s="10" t="s">
+        <v>462</v>
+      </c>
       <c r="K249" s="10"/>
       <c r="L249" s="10"/>
       <c r="M249" s="10"/>
@@ -9093,7 +9134,7 @@
     <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C250" s="10"/>
       <c r="D250" s="10"/>
@@ -9121,7 +9162,7 @@
     <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="C251" s="10"/>
       <c r="D251" s="10"/>
@@ -9146,14 +9187,12 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
-        <v>467</v>
-      </c>
-      <c r="C252" s="10" t="s">
-        <v>468</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="C252" s="10"/>
       <c r="D252" s="10"/>
       <c r="E252" s="10"/>
       <c r="F252" s="10"/>
@@ -9179,7 +9218,7 @@
     <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C253" s="10"/>
       <c r="D253" s="10"/>
@@ -9204,12 +9243,14 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="C254" s="10"/>
+        <v>467</v>
+      </c>
+      <c r="C254" s="10" t="s">
+        <v>468</v>
+      </c>
       <c r="D254" s="10"/>
       <c r="E254" s="10"/>
       <c r="F254" s="10"/>
@@ -9235,7 +9276,7 @@
     <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C255" s="10"/>
       <c r="D255" s="10"/>
@@ -9263,7 +9304,7 @@
     <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C256" s="10"/>
       <c r="D256" s="10"/>
@@ -9291,7 +9332,7 @@
     <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C257" s="10"/>
       <c r="D257" s="10"/>
@@ -9319,15 +9360,11 @@
     <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="C258" s="10" t="s">
-        <v>536</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="C258" s="10"/>
       <c r="D258" s="10"/>
-      <c r="E258" s="10" t="s">
-        <v>69</v>
-      </c>
+      <c r="E258" s="10"/>
       <c r="F258" s="10"/>
       <c r="G258" s="10" t="s">
         <v>4</v>
@@ -9341,134 +9378,138 @@
       <c r="N258" s="10"/>
       <c r="O258" s="10"/>
       <c r="P258" s="10"/>
-      <c r="Q258" s="10"/>
+      <c r="Q258" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R258" s="10"/>
       <c r="S258" s="10"/>
       <c r="T258" s="10"/>
     </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B259" s="12" t="s">
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A259" s="10"/>
+      <c r="B259" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="C259" s="10"/>
+      <c r="D259" s="10"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="10"/>
+      <c r="G259" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H259" s="10"/>
+      <c r="I259" s="10"/>
+      <c r="J259" s="10"/>
+      <c r="K259" s="10"/>
+      <c r="L259" s="10"/>
+      <c r="M259" s="10"/>
+      <c r="N259" s="10"/>
+      <c r="O259" s="10"/>
+      <c r="P259" s="10"/>
+      <c r="Q259" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R259" s="10"/>
+      <c r="S259" s="10"/>
+      <c r="T259" s="10"/>
+    </row>
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A260" s="10"/>
+      <c r="B260" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="C260" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="D260" s="10"/>
+      <c r="E260" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F260" s="10"/>
+      <c r="G260" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H260" s="10"/>
+      <c r="I260" s="10"/>
+      <c r="J260" s="10"/>
+      <c r="K260" s="10"/>
+      <c r="L260" s="10"/>
+      <c r="M260" s="10"/>
+      <c r="N260" s="10"/>
+      <c r="O260" s="10"/>
+      <c r="P260" s="10"/>
+      <c r="Q260" s="10"/>
+      <c r="R260" s="10"/>
+      <c r="S260" s="10"/>
+      <c r="T260" s="10"/>
+    </row>
+    <row r="261" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B261" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="C259" s="12" t="s">
+      <c r="C261" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="G259" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K259" s="13"/>
-      <c r="O259" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q259" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S259" s="13"/>
-      <c r="T259" s="10"/>
-    </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B260" s="12" t="s">
+      <c r="G261" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K261" s="13"/>
+      <c r="O261" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q261" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S261" s="13"/>
+      <c r="T261" s="10"/>
+    </row>
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B262" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="G260" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K260" s="13"/>
-      <c r="O260" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q260" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S260" s="13"/>
-      <c r="T260" s="10"/>
-    </row>
-    <row r="261" spans="1:20" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="B261" s="30" t="s">
+      <c r="G262" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K262" s="13"/>
+      <c r="O262" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q262" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S262" s="13"/>
+      <c r="T262" s="10"/>
+    </row>
+    <row r="263" spans="1:20" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="B263" s="30" t="s">
         <v>636</v>
       </c>
-      <c r="C261" s="29" t="s">
+      <c r="C263" s="29" t="s">
         <v>637</v>
       </c>
-      <c r="E261" s="30" t="s">
+      <c r="E263" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="G261" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="K261" s="29"/>
-      <c r="O261" s="30" t="s">
+      <c r="G263" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="K263" s="29"/>
+      <c r="O263" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="P261" s="30" t="s">
+      <c r="P263" s="30" t="s">
         <v>635</v>
       </c>
-      <c r="Q261" s="30" t="s">
+      <c r="Q263" s="30" t="s">
         <v>594</v>
       </c>
-      <c r="S261" s="29"/>
-      <c r="T261" s="31"/>
-    </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A262" s="10"/>
-      <c r="B262" s="10" t="s">
-        <v>474</v>
-      </c>
-      <c r="C262" s="10"/>
-      <c r="D262" s="10"/>
-      <c r="E262" s="10"/>
-      <c r="F262" s="10"/>
-      <c r="G262" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H262" s="10"/>
-      <c r="I262" s="10"/>
-      <c r="J262" s="10"/>
-      <c r="K262" s="10"/>
-      <c r="L262" s="10"/>
-      <c r="M262" s="10"/>
-      <c r="N262" s="10"/>
-      <c r="O262" s="10"/>
-      <c r="P262" s="10"/>
-      <c r="Q262" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R262" s="10"/>
-      <c r="S262" s="10"/>
-      <c r="T262" s="10"/>
-    </row>
-    <row r="263" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A263" s="10"/>
-      <c r="B263" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="C263" s="10"/>
-      <c r="D263" s="10"/>
-      <c r="E263" s="10"/>
-      <c r="F263" s="10"/>
-      <c r="G263" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H263" s="10"/>
-      <c r="I263" s="10"/>
-      <c r="J263" s="10"/>
-      <c r="K263" s="10"/>
-      <c r="L263" s="10"/>
-      <c r="M263" s="10"/>
-      <c r="N263" s="10"/>
-      <c r="O263" s="10"/>
-      <c r="P263" s="10"/>
-      <c r="Q263" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R263" s="10"/>
-      <c r="S263" s="10"/>
-      <c r="T263" s="10"/>
+      <c r="S263" s="29"/>
+      <c r="T263" s="31"/>
     </row>
     <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="C264" s="10"/>
       <c r="D264" s="10"/>
@@ -9496,7 +9537,7 @@
     <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C265" s="10"/>
       <c r="D265" s="10"/>
@@ -9524,7 +9565,7 @@
     <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C266" s="10"/>
       <c r="D266" s="10"/>
@@ -9550,35 +9591,37 @@
       <c r="T266" s="10"/>
     </row>
     <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A267" s="11"/>
-      <c r="B267" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C267" s="11"/>
-      <c r="D267" s="21"/>
-      <c r="E267" s="11"/>
-      <c r="F267" s="11"/>
-      <c r="G267" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H267" s="11"/>
-      <c r="I267" s="11"/>
-      <c r="J267" s="11"/>
-      <c r="K267" s="11"/>
-      <c r="L267" s="11"/>
-      <c r="M267" s="11"/>
-      <c r="N267" s="11"/>
-      <c r="O267" s="11"/>
-      <c r="P267" s="11"/>
-      <c r="Q267" s="11"/>
-      <c r="R267" s="11"/>
-      <c r="S267" s="11"/>
+      <c r="A267" s="10"/>
+      <c r="B267" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="C267" s="10"/>
+      <c r="D267" s="10"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="10"/>
+      <c r="G267" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H267" s="10"/>
+      <c r="I267" s="10"/>
+      <c r="J267" s="10"/>
+      <c r="K267" s="10"/>
+      <c r="L267" s="10"/>
+      <c r="M267" s="10"/>
+      <c r="N267" s="10"/>
+      <c r="O267" s="10"/>
+      <c r="P267" s="10"/>
+      <c r="Q267" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R267" s="10"/>
+      <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
     <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C268" s="10"/>
       <c r="D268" s="10"/>
@@ -9604,37 +9647,35 @@
       <c r="T268" s="10"/>
     </row>
     <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10" t="s">
-        <v>480</v>
-      </c>
-      <c r="C269" s="10"/>
-      <c r="D269" s="10"/>
-      <c r="E269" s="10"/>
-      <c r="F269" s="10"/>
-      <c r="G269" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H269" s="10"/>
-      <c r="I269" s="10"/>
-      <c r="J269" s="10"/>
-      <c r="K269" s="10"/>
-      <c r="L269" s="10"/>
-      <c r="M269" s="10"/>
-      <c r="N269" s="10"/>
-      <c r="O269" s="10"/>
-      <c r="P269" s="10"/>
-      <c r="Q269" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R269" s="10"/>
-      <c r="S269" s="10"/>
+      <c r="A269" s="11"/>
+      <c r="B269" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C269" s="11"/>
+      <c r="D269" s="21"/>
+      <c r="E269" s="11"/>
+      <c r="F269" s="11"/>
+      <c r="G269" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H269" s="11"/>
+      <c r="I269" s="11"/>
+      <c r="J269" s="11"/>
+      <c r="K269" s="11"/>
+      <c r="L269" s="11"/>
+      <c r="M269" s="11"/>
+      <c r="N269" s="11"/>
+      <c r="O269" s="11"/>
+      <c r="P269" s="11"/>
+      <c r="Q269" s="11"/>
+      <c r="R269" s="11"/>
+      <c r="S269" s="11"/>
       <c r="T269" s="10"/>
     </row>
     <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="C270" s="10"/>
       <c r="D270" s="10"/>
@@ -9662,7 +9703,7 @@
     <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C271" s="10"/>
       <c r="D271" s="10"/>
@@ -9690,7 +9731,7 @@
     <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C272" s="10"/>
       <c r="D272" s="10"/>
@@ -9715,50 +9756,40 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
-      <c r="B273" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D273" s="22"/>
-      <c r="E273" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F273" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="G273" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H273" s="11"/>
-      <c r="I273" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="J273" s="11"/>
-      <c r="K273" s="11"/>
-      <c r="L273" s="11"/>
-      <c r="M273" s="11">
-        <v>1</v>
-      </c>
-      <c r="N273" s="11"/>
-      <c r="O273" s="11"/>
-      <c r="P273" s="11"/>
-      <c r="Q273" s="11"/>
+      <c r="B273" s="10" t="s">
+        <v>482</v>
+      </c>
+      <c r="C273" s="10"/>
+      <c r="D273" s="10"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="10"/>
+      <c r="G273" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H273" s="10"/>
+      <c r="I273" s="10"/>
+      <c r="J273" s="10"/>
+      <c r="K273" s="10"/>
+      <c r="L273" s="10"/>
+      <c r="M273" s="10"/>
+      <c r="N273" s="10"/>
+      <c r="O273" s="10"/>
+      <c r="P273" s="10"/>
+      <c r="Q273" s="10" t="s">
+        <v>123</v>
+      </c>
       <c r="R273" s="10"/>
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="C274" s="10" t="s">
-        <v>485</v>
-      </c>
+        <v>483</v>
+      </c>
+      <c r="C274" s="10"/>
       <c r="D274" s="10"/>
       <c r="E274" s="10"/>
       <c r="F274" s="10"/>
@@ -9766,9 +9797,7 @@
         <v>4</v>
       </c>
       <c r="H274" s="10"/>
-      <c r="I274" s="10" t="s">
-        <v>486</v>
-      </c>
+      <c r="I274" s="10"/>
       <c r="J274" s="10"/>
       <c r="K274" s="10"/>
       <c r="L274" s="10"/>
@@ -9783,74 +9812,105 @@
       <c r="S274" s="10"/>
       <c r="T274" s="10"/>
     </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
-      <c r="B275" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
-      <c r="G275" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H275" s="10"/>
-      <c r="I275" s="10"/>
-      <c r="J275" s="10"/>
-      <c r="K275" s="10"/>
-      <c r="L275" s="10"/>
-      <c r="M275" s="10"/>
-      <c r="N275" s="10"/>
-      <c r="O275" s="10"/>
-      <c r="P275" s="10"/>
-      <c r="Q275" s="10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B275" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D275" s="22"/>
+      <c r="E275" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F275" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G275" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="H275" s="11"/>
+      <c r="I275" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="J275" s="11"/>
+      <c r="K275" s="11"/>
+      <c r="L275" s="11"/>
+      <c r="M275" s="11">
+        <v>1</v>
+      </c>
+      <c r="N275" s="11"/>
+      <c r="O275" s="11"/>
+      <c r="P275" s="11"/>
+      <c r="Q275" s="11"/>
       <c r="R275" s="10"/>
       <c r="S275" s="10"/>
       <c r="T275" s="10"/>
     </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B276" s="12" t="s">
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A276" s="10"/>
+      <c r="B276" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="C276" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D276" s="10"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="10"/>
+      <c r="G276" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H276" s="10"/>
+      <c r="I276" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="J276" s="10"/>
+      <c r="K276" s="10"/>
+      <c r="L276" s="10"/>
+      <c r="M276" s="10"/>
+      <c r="N276" s="10"/>
+      <c r="O276" s="10"/>
+      <c r="P276" s="10"/>
+      <c r="Q276" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R276" s="10"/>
+      <c r="S276" s="10"/>
+      <c r="T276" s="10"/>
+    </row>
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A277" s="10"/>
+      <c r="B277" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="C277" s="10"/>
+      <c r="D277" s="10"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="10"/>
+      <c r="G277" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H277" s="10"/>
+      <c r="I277" s="10"/>
+      <c r="J277" s="10"/>
+      <c r="K277" s="10"/>
+      <c r="L277" s="10"/>
+      <c r="M277" s="10"/>
+      <c r="N277" s="10"/>
+      <c r="O277" s="10"/>
+      <c r="P277" s="10"/>
+      <c r="Q277" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R277" s="10"/>
+      <c r="S277" s="10"/>
+      <c r="T277" s="10"/>
+    </row>
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B278" s="12" t="s">
         <v>200</v>
-      </c>
-      <c r="G276" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K276" s="13"/>
-      <c r="O276" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q276" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S276" s="13"/>
-      <c r="T276" s="10"/>
-    </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B277" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="G277" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K277" s="13"/>
-      <c r="O277" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q277" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S277" s="13"/>
-      <c r="T277" s="10"/>
-    </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B278" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C278" s="12" t="s">
-        <v>203</v>
       </c>
       <c r="G278" s="12" t="s">
         <v>4</v>
@@ -9867,7 +9927,7 @@
     </row>
     <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G279" s="12" t="s">
         <v>4</v>
@@ -9882,9 +9942,12 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B280" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
+      </c>
+      <c r="C280" s="12" t="s">
+        <v>203</v>
       </c>
       <c r="G280" s="12" t="s">
         <v>4</v>
@@ -9901,7 +9964,7 @@
     </row>
     <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="12" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G281" s="12" t="s">
         <v>4</v>
@@ -9918,7 +9981,7 @@
     </row>
     <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G282" s="12" t="s">
         <v>4</v>
@@ -9935,7 +9998,7 @@
     </row>
     <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G283" s="12" t="s">
         <v>4</v>
@@ -9952,7 +10015,7 @@
     </row>
     <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="12" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G284" s="12" t="s">
         <v>4</v>
@@ -9969,7 +10032,7 @@
     </row>
     <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G285" s="12" t="s">
         <v>4</v>
@@ -9986,7 +10049,7 @@
     </row>
     <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G286" s="12" t="s">
         <v>4</v>
@@ -10003,7 +10066,7 @@
     </row>
     <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G287" s="12" t="s">
         <v>4</v>
@@ -10020,7 +10083,7 @@
     </row>
     <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G288" s="12" t="s">
         <v>4</v>
@@ -10037,7 +10100,7 @@
     </row>
     <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G289" s="12" t="s">
         <v>4</v>
@@ -10054,7 +10117,7 @@
     </row>
     <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G290" s="12" t="s">
         <v>4</v>
@@ -10071,7 +10134,7 @@
     </row>
     <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="12" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G291" s="12" t="s">
         <v>4</v>
@@ -10088,7 +10151,7 @@
     </row>
     <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B292" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G292" s="12" t="s">
         <v>4</v>
@@ -10104,65 +10167,43 @@
       <c r="T292" s="10"/>
     </row>
     <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A293" s="10"/>
-      <c r="B293" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
-      <c r="G293" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H293" s="10"/>
-      <c r="I293" s="10"/>
-      <c r="J293" s="10"/>
-      <c r="K293" s="10"/>
-      <c r="L293" s="10"/>
-      <c r="M293" s="10"/>
-      <c r="N293" s="10"/>
-      <c r="O293" s="10"/>
-      <c r="P293" s="10"/>
-      <c r="Q293" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R293" s="10"/>
-      <c r="S293" s="10"/>
+      <c r="B293" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="G293" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K293" s="13"/>
+      <c r="O293" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q293" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S293" s="13"/>
       <c r="T293" s="10"/>
     </row>
     <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A294" s="10"/>
-      <c r="B294" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="C294" s="10"/>
-      <c r="D294" s="10"/>
-      <c r="E294" s="10"/>
-      <c r="F294" s="10"/>
-      <c r="G294" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H294" s="10"/>
-      <c r="I294" s="10"/>
-      <c r="J294" s="10"/>
-      <c r="K294" s="10"/>
-      <c r="L294" s="10"/>
-      <c r="M294" s="10"/>
-      <c r="N294" s="10"/>
-      <c r="O294" s="10"/>
-      <c r="P294" s="10"/>
-      <c r="Q294" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R294" s="10"/>
-      <c r="S294" s="10"/>
+      <c r="B294" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="G294" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K294" s="13"/>
+      <c r="O294" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q294" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S294" s="13"/>
       <c r="T294" s="10"/>
     </row>
     <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C295" s="10"/>
       <c r="D295" s="10"/>
@@ -10188,26 +10229,37 @@
       <c r="T295" s="10"/>
     </row>
     <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B296" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="G296" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K296" s="13"/>
-      <c r="O296" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q296" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S296" s="13"/>
+      <c r="A296" s="10"/>
+      <c r="B296" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="C296" s="10"/>
+      <c r="D296" s="10"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="10"/>
+      <c r="G296" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H296" s="10"/>
+      <c r="I296" s="10"/>
+      <c r="J296" s="10"/>
+      <c r="K296" s="10"/>
+      <c r="L296" s="10"/>
+      <c r="M296" s="10"/>
+      <c r="N296" s="10"/>
+      <c r="O296" s="10"/>
+      <c r="P296" s="10"/>
+      <c r="Q296" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R296" s="10"/>
+      <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
     <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C297" s="10"/>
       <c r="D297" s="10"/>
@@ -10233,39 +10285,26 @@
       <c r="T297" s="10"/>
     </row>
     <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A298" s="10"/>
-      <c r="B298" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="C298" s="10"/>
-      <c r="D298" s="10"/>
-      <c r="E298" s="10"/>
-      <c r="F298" s="10"/>
-      <c r="G298" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H298" s="10"/>
-      <c r="I298" s="10"/>
-      <c r="J298" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="K298" s="10"/>
-      <c r="L298" s="10"/>
-      <c r="M298" s="10"/>
-      <c r="N298" s="10"/>
-      <c r="O298" s="10"/>
-      <c r="P298" s="10"/>
-      <c r="Q298" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R298" s="10"/>
-      <c r="S298" s="10"/>
+      <c r="B298" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="G298" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K298" s="13"/>
+      <c r="O298" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q298" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S298" s="13"/>
       <c r="T298" s="10"/>
     </row>
     <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C299" s="10"/>
       <c r="D299" s="10"/>
@@ -10293,7 +10332,7 @@
     <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
-        <v>338</v>
+        <v>492</v>
       </c>
       <c r="C300" s="10"/>
       <c r="D300" s="10"/>
@@ -10304,7 +10343,9 @@
       </c>
       <c r="H300" s="10"/>
       <c r="I300" s="10"/>
-      <c r="J300" s="10"/>
+      <c r="J300" s="10" t="s">
+        <v>493</v>
+      </c>
       <c r="K300" s="10"/>
       <c r="L300" s="10"/>
       <c r="M300" s="10"/>
@@ -10319,99 +10360,99 @@
       <c r="T300" s="10"/>
     </row>
     <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B301" s="12" t="s">
+      <c r="A301" s="10"/>
+      <c r="B301" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="C301" s="10"/>
+      <c r="D301" s="10"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="10"/>
+      <c r="G301" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H301" s="10"/>
+      <c r="I301" s="10"/>
+      <c r="J301" s="10"/>
+      <c r="K301" s="10"/>
+      <c r="L301" s="10"/>
+      <c r="M301" s="10"/>
+      <c r="N301" s="10"/>
+      <c r="O301" s="10"/>
+      <c r="P301" s="10"/>
+      <c r="Q301" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R301" s="10"/>
+      <c r="S301" s="10"/>
+      <c r="T301" s="10"/>
+    </row>
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A302" s="10"/>
+      <c r="B302" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C302" s="10"/>
+      <c r="D302" s="10"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="10"/>
+      <c r="G302" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H302" s="10"/>
+      <c r="I302" s="10"/>
+      <c r="J302" s="10"/>
+      <c r="K302" s="10"/>
+      <c r="L302" s="10"/>
+      <c r="M302" s="10"/>
+      <c r="N302" s="10"/>
+      <c r="O302" s="10"/>
+      <c r="P302" s="10"/>
+      <c r="Q302" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R302" s="10"/>
+      <c r="S302" s="10"/>
+      <c r="T302" s="10"/>
+    </row>
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B303" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="G301" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K301" s="13"/>
-      <c r="O301" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q301" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S301" s="13"/>
-      <c r="T301" s="10"/>
-    </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B302" s="12" t="s">
+      <c r="G303" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K303" s="13"/>
+      <c r="O303" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q303" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S303" s="13"/>
+      <c r="T303" s="10"/>
+    </row>
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B304" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="G302" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K302" s="13"/>
-      <c r="O302" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q302" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S302" s="13"/>
-      <c r="T302" s="10"/>
-    </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A303" s="10"/>
-      <c r="B303" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="C303" s="10"/>
-      <c r="D303" s="10"/>
-      <c r="E303" s="10"/>
-      <c r="F303" s="10"/>
-      <c r="G303" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H303" s="10"/>
-      <c r="I303" s="10"/>
-      <c r="J303" s="10"/>
-      <c r="K303" s="10"/>
-      <c r="L303" s="10"/>
-      <c r="M303" s="10"/>
-      <c r="N303" s="10"/>
-      <c r="O303" s="10"/>
-      <c r="P303" s="10"/>
-      <c r="Q303" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R303" s="10"/>
-      <c r="S303" s="10"/>
-      <c r="T303" s="10"/>
-    </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A304" s="10"/>
-      <c r="B304" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="C304" s="10"/>
-      <c r="D304" s="10"/>
-      <c r="E304" s="10"/>
-      <c r="F304" s="10"/>
-      <c r="G304" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H304" s="10"/>
-      <c r="I304" s="10"/>
-      <c r="J304" s="10"/>
-      <c r="K304" s="10"/>
-      <c r="L304" s="10"/>
-      <c r="M304" s="10"/>
-      <c r="N304" s="10"/>
-      <c r="O304" s="10"/>
-      <c r="P304" s="10"/>
-      <c r="Q304" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R304" s="10"/>
-      <c r="S304" s="10"/>
+      <c r="G304" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K304" s="13"/>
+      <c r="O304" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q304" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S304" s="13"/>
       <c r="T304" s="10"/>
     </row>
     <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C305" s="10"/>
       <c r="D305" s="10"/>
@@ -10439,7 +10480,7 @@
     <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C306" s="10"/>
       <c r="D306" s="10"/>
@@ -10467,7 +10508,7 @@
     <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C307" s="10"/>
       <c r="D307" s="10"/>
@@ -10495,7 +10536,7 @@
     <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C308" s="10"/>
       <c r="D308" s="10"/>
@@ -10523,7 +10564,7 @@
     <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C309" s="10"/>
       <c r="D309" s="10"/>
@@ -10551,7 +10592,7 @@
     <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C310" s="10"/>
       <c r="D310" s="10"/>
@@ -10579,7 +10620,7 @@
     <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C311" s="10"/>
       <c r="D311" s="10"/>
@@ -10607,7 +10648,7 @@
     <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C312" s="10"/>
       <c r="D312" s="10"/>
@@ -10633,26 +10674,37 @@
       <c r="T312" s="10"/>
     </row>
     <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B313" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="G313" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K313" s="13"/>
-      <c r="O313" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q313" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S313" s="13"/>
+      <c r="A313" s="10"/>
+      <c r="B313" s="10" t="s">
+        <v>503</v>
+      </c>
+      <c r="C313" s="10"/>
+      <c r="D313" s="10"/>
+      <c r="E313" s="10"/>
+      <c r="F313" s="10"/>
+      <c r="G313" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H313" s="10"/>
+      <c r="I313" s="10"/>
+      <c r="J313" s="10"/>
+      <c r="K313" s="10"/>
+      <c r="L313" s="10"/>
+      <c r="M313" s="10"/>
+      <c r="N313" s="10"/>
+      <c r="O313" s="10"/>
+      <c r="P313" s="10"/>
+      <c r="Q313" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R313" s="10"/>
+      <c r="S313" s="10"/>
       <c r="T313" s="10"/>
     </row>
     <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C314" s="10"/>
       <c r="D314" s="10"/>
@@ -10679,7 +10731,7 @@
     </row>
     <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B315" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G315" s="12" t="s">
         <v>4</v>
@@ -10697,7 +10749,7 @@
     <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C316" s="10"/>
       <c r="D316" s="10"/>
@@ -10723,37 +10775,26 @@
       <c r="T316" s="10"/>
     </row>
     <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A317" s="10"/>
-      <c r="B317" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="C317" s="10"/>
-      <c r="D317" s="10"/>
-      <c r="E317" s="10"/>
-      <c r="F317" s="10"/>
-      <c r="G317" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H317" s="10"/>
-      <c r="I317" s="10"/>
-      <c r="J317" s="10"/>
-      <c r="K317" s="10"/>
-      <c r="L317" s="10"/>
-      <c r="M317" s="10"/>
-      <c r="N317" s="10"/>
-      <c r="O317" s="10"/>
-      <c r="P317" s="10"/>
-      <c r="Q317" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R317" s="10"/>
-      <c r="S317" s="10"/>
+      <c r="B317" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="G317" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K317" s="13"/>
+      <c r="O317" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q317" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S317" s="13"/>
       <c r="T317" s="10"/>
     </row>
     <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C318" s="10"/>
       <c r="D318" s="10"/>
@@ -10781,7 +10822,7 @@
     <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C319" s="10"/>
       <c r="D319" s="10"/>
@@ -10809,7 +10850,7 @@
     <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C320" s="10"/>
       <c r="D320" s="10"/>
@@ -10837,7 +10878,7 @@
     <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C321" s="10"/>
       <c r="D321" s="10"/>
@@ -10865,7 +10906,7 @@
     <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C322" s="10"/>
       <c r="D322" s="10"/>
@@ -10893,7 +10934,7 @@
     <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C323" s="10"/>
       <c r="D323" s="10"/>
@@ -10921,7 +10962,7 @@
     <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="10"/>
       <c r="B324" s="10" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C324" s="10"/>
       <c r="D324" s="10"/>
@@ -10949,7 +10990,7 @@
     <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="10"/>
       <c r="B325" s="10" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C325" s="10"/>
       <c r="D325" s="10"/>
@@ -10975,144 +11016,163 @@
       <c r="T325" s="10"/>
     </row>
     <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B326" s="12" t="s">
+      <c r="A326" s="10"/>
+      <c r="B326" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C326" s="10"/>
+      <c r="D326" s="10"/>
+      <c r="E326" s="10"/>
+      <c r="F326" s="10"/>
+      <c r="G326" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H326" s="10"/>
+      <c r="I326" s="10"/>
+      <c r="J326" s="10"/>
+      <c r="K326" s="10"/>
+      <c r="L326" s="10"/>
+      <c r="M326" s="10"/>
+      <c r="N326" s="10"/>
+      <c r="O326" s="10"/>
+      <c r="P326" s="10"/>
+      <c r="Q326" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R326" s="10"/>
+      <c r="S326" s="10"/>
+      <c r="T326" s="10"/>
+    </row>
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A327" s="10"/>
+      <c r="B327" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="C327" s="10"/>
+      <c r="D327" s="10"/>
+      <c r="E327" s="10"/>
+      <c r="F327" s="10"/>
+      <c r="G327" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H327" s="10"/>
+      <c r="I327" s="10"/>
+      <c r="J327" s="10"/>
+      <c r="K327" s="10"/>
+      <c r="L327" s="10"/>
+      <c r="M327" s="10"/>
+      <c r="N327" s="10"/>
+      <c r="O327" s="10"/>
+      <c r="P327" s="10"/>
+      <c r="Q327" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R327" s="10"/>
+      <c r="S327" s="10"/>
+      <c r="T327" s="10"/>
+    </row>
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B328" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="C326" s="12" t="s">
+      <c r="C328" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="G326" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K326" s="13"/>
-      <c r="O326" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q326" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S326" s="13"/>
-      <c r="T326" s="10"/>
-    </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B327" s="12" t="s">
+      <c r="G328" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K328" s="13"/>
+      <c r="O328" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q328" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S328" s="13"/>
+      <c r="T328" s="10"/>
+    </row>
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B329" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="G327" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K327" s="13"/>
-      <c r="O327" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q327" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S327" s="13"/>
-      <c r="T327" s="10"/>
-    </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A328" s="10"/>
-      <c r="B328" s="10" t="s">
+      <c r="G329" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K329" s="13"/>
+      <c r="O329" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q329" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S329" s="13"/>
+      <c r="T329" s="10"/>
+    </row>
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A330" s="10"/>
+      <c r="B330" s="10" t="s">
         <v>516</v>
       </c>
-      <c r="C328" s="10"/>
-      <c r="D328" s="10"/>
-      <c r="E328" s="10"/>
-      <c r="F328" s="10"/>
-      <c r="G328" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H328" s="10"/>
-      <c r="I328" s="10"/>
-      <c r="J328" s="10"/>
-      <c r="K328" s="10"/>
-      <c r="L328" s="10"/>
-      <c r="M328" s="10"/>
-      <c r="N328" s="10"/>
-      <c r="O328" s="10"/>
-      <c r="P328" s="10"/>
-      <c r="Q328" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R328" s="10"/>
-      <c r="S328" s="10"/>
-      <c r="T328" s="10"/>
-    </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A329" s="10"/>
-      <c r="B329" s="10" t="s">
+      <c r="C330" s="10"/>
+      <c r="D330" s="10"/>
+      <c r="E330" s="10"/>
+      <c r="F330" s="10"/>
+      <c r="G330" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H330" s="10"/>
+      <c r="I330" s="10"/>
+      <c r="J330" s="10"/>
+      <c r="K330" s="10"/>
+      <c r="L330" s="10"/>
+      <c r="M330" s="10"/>
+      <c r="N330" s="10"/>
+      <c r="O330" s="10"/>
+      <c r="P330" s="10"/>
+      <c r="Q330" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R330" s="10"/>
+      <c r="S330" s="10"/>
+      <c r="T330" s="10"/>
+    </row>
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A331" s="10"/>
+      <c r="B331" s="10" t="s">
         <v>517</v>
       </c>
-      <c r="C329" s="10"/>
-      <c r="D329" s="10"/>
-      <c r="E329" s="10"/>
-      <c r="F329" s="10"/>
-      <c r="G329" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H329" s="10"/>
-      <c r="I329" s="10"/>
-      <c r="J329" s="10"/>
-      <c r="K329" s="10"/>
-      <c r="L329" s="10"/>
-      <c r="M329" s="10"/>
-      <c r="N329" s="10"/>
-      <c r="O329" s="10"/>
-      <c r="P329" s="10"/>
-      <c r="Q329" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R329" s="10"/>
-      <c r="S329" s="10"/>
-      <c r="T329" s="10"/>
-    </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B330" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G330" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J330" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="K330" s="13"/>
-      <c r="O330" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q330" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S330" s="13"/>
-      <c r="T330" s="10"/>
-    </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B331" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G331" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J331" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="K331" s="13"/>
-      <c r="O331" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q331" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S331" s="13"/>
+      <c r="C331" s="10"/>
+      <c r="D331" s="10"/>
+      <c r="E331" s="10"/>
+      <c r="F331" s="10"/>
+      <c r="G331" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H331" s="10"/>
+      <c r="I331" s="10"/>
+      <c r="J331" s="10"/>
+      <c r="K331" s="10"/>
+      <c r="L331" s="10"/>
+      <c r="M331" s="10"/>
+      <c r="N331" s="10"/>
+      <c r="O331" s="10"/>
+      <c r="P331" s="10"/>
+      <c r="Q331" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R331" s="10"/>
+      <c r="S331" s="10"/>
       <c r="T331" s="10"/>
     </row>
     <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="12" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="G332" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J332" s="12" t="s">
+        <v>225</v>
       </c>
       <c r="K332" s="13"/>
       <c r="O332" s="12">
@@ -11126,13 +11186,13 @@
     </row>
     <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G333" s="12" t="s">
         <v>4</v>
       </c>
       <c r="J333" s="12" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K333" s="13"/>
       <c r="O333" s="12">
@@ -11146,7 +11206,7 @@
     </row>
     <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="G334" s="12" t="s">
         <v>4</v>
@@ -11163,10 +11223,13 @@
     </row>
     <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G335" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J335" s="12" t="s">
+        <v>216</v>
       </c>
       <c r="K335" s="13"/>
       <c r="O335" s="12">
@@ -11180,7 +11243,7 @@
     </row>
     <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="12" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G336" s="12" t="s">
         <v>4</v>
@@ -11197,7 +11260,7 @@
     </row>
     <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="12" t="s">
-        <v>131</v>
+        <v>230</v>
       </c>
       <c r="G337" s="12" t="s">
         <v>4</v>
@@ -11214,7 +11277,7 @@
     </row>
     <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B338" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G338" s="12" t="s">
         <v>4</v>
@@ -11231,7 +11294,7 @@
     </row>
     <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B339" s="12" t="s">
-        <v>233</v>
+        <v>131</v>
       </c>
       <c r="G339" s="12" t="s">
         <v>4</v>
@@ -11247,65 +11310,43 @@
       <c r="T339" s="10"/>
     </row>
     <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A340" s="10"/>
-      <c r="B340" s="10" t="s">
-        <v>518</v>
-      </c>
-      <c r="C340" s="10"/>
-      <c r="D340" s="10"/>
-      <c r="E340" s="10"/>
-      <c r="F340" s="10"/>
-      <c r="G340" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H340" s="10"/>
-      <c r="I340" s="10"/>
-      <c r="J340" s="10"/>
-      <c r="K340" s="10"/>
-      <c r="L340" s="10"/>
-      <c r="M340" s="10"/>
-      <c r="N340" s="10"/>
-      <c r="O340" s="10"/>
-      <c r="P340" s="10"/>
-      <c r="Q340" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R340" s="10"/>
-      <c r="S340" s="10"/>
+      <c r="B340" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="G340" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K340" s="13"/>
+      <c r="O340" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q340" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S340" s="13"/>
       <c r="T340" s="10"/>
     </row>
     <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A341" s="10"/>
-      <c r="B341" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="C341" s="10"/>
-      <c r="D341" s="10"/>
-      <c r="E341" s="10"/>
-      <c r="F341" s="10"/>
-      <c r="G341" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H341" s="10"/>
-      <c r="I341" s="10"/>
-      <c r="J341" s="10"/>
-      <c r="K341" s="10"/>
-      <c r="L341" s="10"/>
-      <c r="M341" s="10"/>
-      <c r="N341" s="10"/>
-      <c r="O341" s="10"/>
-      <c r="P341" s="10"/>
-      <c r="Q341" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R341" s="10"/>
-      <c r="S341" s="10"/>
+      <c r="B341" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="G341" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K341" s="13"/>
+      <c r="O341" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q341" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S341" s="13"/>
       <c r="T341" s="10"/>
     </row>
     <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C342" s="10"/>
       <c r="D342" s="10"/>
@@ -11330,10 +11371,10 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C343" s="10"/>
       <c r="D343" s="10"/>
@@ -11361,7 +11402,7 @@
     <row r="344" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="10"/>
       <c r="B344" s="10" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C344" s="10"/>
       <c r="D344" s="10"/>
@@ -11386,10 +11427,10 @@
       <c r="S344" s="10"/>
       <c r="T344" s="10"/>
     </row>
-    <row r="345" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" s="10"/>
       <c r="B345" s="10" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C345" s="10"/>
       <c r="D345" s="10"/>
@@ -11414,129 +11455,127 @@
       <c r="S345" s="10"/>
       <c r="T345" s="10"/>
     </row>
-    <row r="346" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A346" s="23"/>
-      <c r="B346" s="23" t="s">
+    <row r="346" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A346" s="10"/>
+      <c r="B346" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C346" s="10"/>
+      <c r="D346" s="10"/>
+      <c r="E346" s="10"/>
+      <c r="F346" s="10"/>
+      <c r="G346" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H346" s="10"/>
+      <c r="I346" s="10"/>
+      <c r="J346" s="10"/>
+      <c r="K346" s="10"/>
+      <c r="L346" s="10"/>
+      <c r="M346" s="10"/>
+      <c r="N346" s="10"/>
+      <c r="O346" s="10"/>
+      <c r="P346" s="10"/>
+      <c r="Q346" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R346" s="10"/>
+      <c r="S346" s="10"/>
+      <c r="T346" s="10"/>
+    </row>
+    <row r="347" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A347" s="10"/>
+      <c r="B347" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C347" s="10"/>
+      <c r="D347" s="10"/>
+      <c r="E347" s="10"/>
+      <c r="F347" s="10"/>
+      <c r="G347" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H347" s="10"/>
+      <c r="I347" s="10"/>
+      <c r="J347" s="10"/>
+      <c r="K347" s="10"/>
+      <c r="L347" s="10"/>
+      <c r="M347" s="10"/>
+      <c r="N347" s="10"/>
+      <c r="O347" s="10"/>
+      <c r="P347" s="10"/>
+      <c r="Q347" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R347" s="10"/>
+      <c r="S347" s="10"/>
+      <c r="T347" s="10"/>
+    </row>
+    <row r="348" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A348" s="23"/>
+      <c r="B348" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C346" s="26" t="s">
+      <c r="C348" s="26" t="s">
         <v>619</v>
       </c>
-      <c r="D346" s="27"/>
-      <c r="E346" s="23"/>
-      <c r="F346" s="23"/>
-      <c r="G346" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H346" s="23"/>
-      <c r="I346" s="23"/>
-      <c r="K346" s="23" t="s">
+      <c r="D348" s="27"/>
+      <c r="E348" s="23"/>
+      <c r="F348" s="23"/>
+      <c r="G348" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H348" s="23"/>
+      <c r="I348" s="23"/>
+      <c r="K348" s="23" t="s">
         <v>620</v>
       </c>
-      <c r="L346" s="23"/>
-      <c r="M346" s="23"/>
-      <c r="N346" s="23"/>
-      <c r="O346" s="23"/>
-      <c r="P346" s="23"/>
-      <c r="Q346" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R346" s="23"/>
-      <c r="S346" s="23"/>
-      <c r="T346" s="23"/>
-    </row>
-    <row r="347" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A347" s="23"/>
-      <c r="B347" s="23" t="s">
+      <c r="L348" s="23"/>
+      <c r="M348" s="23"/>
+      <c r="N348" s="23"/>
+      <c r="O348" s="23"/>
+      <c r="P348" s="23"/>
+      <c r="Q348" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R348" s="23"/>
+      <c r="S348" s="23"/>
+      <c r="T348" s="23"/>
+    </row>
+    <row r="349" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A349" s="23"/>
+      <c r="B349" s="23" t="s">
         <v>524</v>
       </c>
-      <c r="C347" s="23" t="s">
+      <c r="C349" s="23" t="s">
         <v>618</v>
       </c>
-      <c r="D347" s="23"/>
-      <c r="E347" s="23"/>
-      <c r="F347" s="23"/>
-      <c r="G347" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H347" s="23"/>
-      <c r="I347" s="23"/>
-      <c r="J347" s="23"/>
-      <c r="K347" s="23"/>
-      <c r="L347" s="23"/>
-      <c r="M347" s="23"/>
-      <c r="N347" s="23"/>
-      <c r="O347" s="23"/>
-      <c r="P347" s="23"/>
-      <c r="Q347" s="23" t="s">
-        <v>123</v>
-      </c>
-      <c r="R347" s="23"/>
-      <c r="S347" s="23"/>
-      <c r="T347" s="23"/>
-    </row>
-    <row r="348" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A348" s="10"/>
-      <c r="B348" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="C348" s="10"/>
-      <c r="D348" s="10"/>
-      <c r="E348" s="10"/>
-      <c r="F348" s="10"/>
-      <c r="G348" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H348" s="10"/>
-      <c r="I348" s="10"/>
-      <c r="J348" s="10"/>
-      <c r="K348" s="10"/>
-      <c r="L348" s="10"/>
-      <c r="M348" s="10"/>
-      <c r="N348" s="10"/>
-      <c r="O348" s="10"/>
-      <c r="P348" s="10"/>
-      <c r="Q348" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R348" s="10"/>
-      <c r="S348" s="10"/>
-      <c r="T348" s="10"/>
-    </row>
-    <row r="349" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A349" s="10"/>
-      <c r="B349" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="C349" s="10"/>
-      <c r="D349" s="10"/>
-      <c r="E349" s="10"/>
-      <c r="F349" s="10"/>
-      <c r="G349" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H349" s="10"/>
-      <c r="I349" s="10"/>
-      <c r="J349" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="K349" s="10"/>
-      <c r="L349" s="10"/>
-      <c r="M349" s="10"/>
-      <c r="N349" s="10"/>
-      <c r="O349" s="10"/>
-      <c r="P349" s="10"/>
-      <c r="Q349" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R349" s="10"/>
-      <c r="S349" s="10"/>
-      <c r="T349" s="10"/>
+      <c r="D349" s="23"/>
+      <c r="E349" s="23"/>
+      <c r="F349" s="23"/>
+      <c r="G349" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H349" s="23"/>
+      <c r="I349" s="23"/>
+      <c r="J349" s="23"/>
+      <c r="K349" s="23"/>
+      <c r="L349" s="23"/>
+      <c r="M349" s="23"/>
+      <c r="N349" s="23"/>
+      <c r="O349" s="23"/>
+      <c r="P349" s="23"/>
+      <c r="Q349" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="R349" s="23"/>
+      <c r="S349" s="23"/>
+      <c r="T349" s="23"/>
     </row>
     <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="C350" s="10"/>
       <c r="D350" s="10"/>
@@ -11564,7 +11603,7 @@
     <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="C351" s="10"/>
       <c r="D351" s="10"/>
@@ -11575,7 +11614,9 @@
       </c>
       <c r="H351" s="10"/>
       <c r="I351" s="10"/>
-      <c r="J351" s="10"/>
+      <c r="J351" s="10" t="s">
+        <v>527</v>
+      </c>
       <c r="K351" s="10"/>
       <c r="L351" s="10"/>
       <c r="M351" s="10"/>
@@ -11592,11 +11633,9 @@
     <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
-        <v>530</v>
-      </c>
-      <c r="C352" s="10" t="s">
-        <v>531</v>
-      </c>
+        <v>528</v>
+      </c>
+      <c r="C352" s="10"/>
       <c r="D352" s="10"/>
       <c r="E352" s="10"/>
       <c r="F352" s="10"/>
@@ -11622,7 +11661,7 @@
     <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="C353" s="10"/>
       <c r="D353" s="10"/>
@@ -11647,13 +11686,13 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="10"/>
       <c r="B354" s="10" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C354" s="10" t="s">
-        <v>579</v>
+        <v>531</v>
       </c>
       <c r="D354" s="10"/>
       <c r="E354" s="10"/>
@@ -11680,7 +11719,7 @@
     <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="10"/>
       <c r="B355" s="10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C355" s="10"/>
       <c r="D355" s="10"/>
@@ -11705,43 +11744,67 @@
       <c r="S355" s="10"/>
       <c r="T355" s="10"/>
     </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B356" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="G356" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K356" s="13"/>
-      <c r="O356" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q356" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S356" s="13"/>
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A356" s="10"/>
+      <c r="B356" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C356" s="10" t="s">
+        <v>579</v>
+      </c>
+      <c r="D356" s="10"/>
+      <c r="E356" s="10"/>
+      <c r="F356" s="10"/>
+      <c r="G356" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H356" s="10"/>
+      <c r="I356" s="10"/>
+      <c r="J356" s="10"/>
+      <c r="K356" s="10"/>
+      <c r="L356" s="10"/>
+      <c r="M356" s="10"/>
+      <c r="N356" s="10"/>
+      <c r="O356" s="10"/>
+      <c r="P356" s="10"/>
+      <c r="Q356" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R356" s="10"/>
+      <c r="S356" s="10"/>
       <c r="T356" s="10"/>
     </row>
     <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B357" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="G357" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K357" s="13"/>
-      <c r="O357" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q357" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S357" s="13"/>
+      <c r="A357" s="10"/>
+      <c r="B357" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C357" s="10"/>
+      <c r="D357" s="10"/>
+      <c r="E357" s="10"/>
+      <c r="F357" s="10"/>
+      <c r="G357" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H357" s="10"/>
+      <c r="I357" s="10"/>
+      <c r="J357" s="10"/>
+      <c r="K357" s="10"/>
+      <c r="L357" s="10"/>
+      <c r="M357" s="10"/>
+      <c r="N357" s="10"/>
+      <c r="O357" s="10"/>
+      <c r="P357" s="10"/>
+      <c r="Q357" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R357" s="10"/>
+      <c r="S357" s="10"/>
       <c r="T357" s="10"/>
     </row>
     <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B358" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G358" s="12" t="s">
         <v>4</v>
@@ -11757,36 +11820,25 @@
       <c r="T358" s="10"/>
     </row>
     <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A359" s="10"/>
-      <c r="B359" s="10" t="s">
-        <v>535</v>
-      </c>
-      <c r="C359" s="10"/>
-      <c r="D359" s="10"/>
-      <c r="E359" s="10"/>
-      <c r="F359" s="10"/>
-      <c r="G359" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H359" s="10"/>
-      <c r="I359" s="10"/>
-      <c r="J359" s="10"/>
-      <c r="K359" s="10"/>
-      <c r="L359" s="10"/>
-      <c r="M359" s="10"/>
-      <c r="N359" s="10"/>
-      <c r="O359" s="10"/>
-      <c r="P359" s="10"/>
-      <c r="Q359" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R359" s="10"/>
-      <c r="S359" s="10"/>
+      <c r="B359" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="G359" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K359" s="13"/>
+      <c r="O359" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q359" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S359" s="13"/>
       <c r="T359" s="10"/>
     </row>
     <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G360" s="12" t="s">
         <v>4</v>
@@ -11802,34 +11854,36 @@
       <c r="T360" s="10"/>
     </row>
     <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B361" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="G361" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K361" s="13"/>
-      <c r="O361" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q361" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S361" s="13"/>
+      <c r="A361" s="10"/>
+      <c r="B361" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C361" s="10"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="10"/>
+      <c r="F361" s="10"/>
+      <c r="G361" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H361" s="10"/>
+      <c r="I361" s="10"/>
+      <c r="J361" s="10"/>
+      <c r="K361" s="10"/>
+      <c r="L361" s="10"/>
+      <c r="M361" s="10"/>
+      <c r="N361" s="10"/>
+      <c r="O361" s="10"/>
+      <c r="P361" s="10"/>
+      <c r="Q361" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R361" s="10"/>
+      <c r="S361" s="10"/>
       <c r="T361" s="10"/>
     </row>
     <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C362" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E362" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F362" s="12" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G362" s="12" t="s">
         <v>4</v>
@@ -11845,40 +11899,34 @@
       <c r="T362" s="10"/>
     </row>
     <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A363" s="10"/>
-      <c r="B363" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="C363" s="10" t="s">
-        <v>632</v>
-      </c>
-      <c r="D363" s="10"/>
-      <c r="E363" s="10"/>
-      <c r="F363" s="10"/>
-      <c r="G363" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H363" s="10"/>
-      <c r="I363" s="10"/>
-      <c r="J363" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="K363" s="10"/>
-      <c r="L363" s="10"/>
-      <c r="M363" s="10"/>
-      <c r="N363" s="10"/>
-      <c r="O363" s="10"/>
-      <c r="P363" s="10"/>
-      <c r="Q363" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R363" s="10"/>
-      <c r="S363" s="10"/>
+      <c r="B363" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="G363" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K363" s="13"/>
+      <c r="O363" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q363" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
     <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B364" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>241</v>
       </c>
       <c r="G364" s="12" t="s">
         <v>4</v>
@@ -11894,28 +11942,40 @@
       <c r="T364" s="10"/>
     </row>
     <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B365" s="12" t="s">
-        <v>630</v>
-      </c>
-      <c r="C365" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="K365" s="13"/>
-      <c r="S365" s="13"/>
+      <c r="A365" s="10"/>
+      <c r="B365" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C365" s="10" t="s">
+        <v>632</v>
+      </c>
+      <c r="D365" s="10"/>
+      <c r="E365" s="10"/>
+      <c r="F365" s="10"/>
+      <c r="G365" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H365" s="10"/>
+      <c r="I365" s="10"/>
+      <c r="J365" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="K365" s="10"/>
+      <c r="L365" s="10"/>
+      <c r="M365" s="10"/>
+      <c r="N365" s="10"/>
+      <c r="O365" s="10"/>
+      <c r="P365" s="10"/>
+      <c r="Q365" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R365" s="10"/>
+      <c r="S365" s="10"/>
       <c r="T365" s="10"/>
     </row>
     <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C366" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="E366" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="F366" s="12" t="s">
-        <v>69</v>
+        <v>242</v>
       </c>
       <c r="G366" s="12" t="s">
         <v>4</v>
@@ -11932,30 +11992,27 @@
     </row>
     <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="G367" s="12" t="s">
-        <v>4</v>
+        <v>630</v>
+      </c>
+      <c r="C367" s="12" t="s">
+        <v>631</v>
       </c>
       <c r="K367" s="13"/>
-      <c r="O367" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q367" s="12" t="s">
-        <v>123</v>
-      </c>
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
     <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B368" s="12" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C368" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E368" s="12" t="s">
-        <v>249</v>
+        <v>245</v>
+      </c>
+      <c r="F368" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="G368" s="12" t="s">
         <v>4</v>
@@ -11972,7 +12029,7 @@
     </row>
     <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="12" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G369" s="12" t="s">
         <v>4</v>
@@ -11988,36 +12045,31 @@
       <c r="T369" s="10"/>
     </row>
     <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A370" s="10"/>
-      <c r="B370" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="C370" s="10"/>
-      <c r="D370" s="10"/>
-      <c r="E370" s="10"/>
-      <c r="F370" s="10"/>
-      <c r="G370" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H370" s="10"/>
-      <c r="I370" s="10"/>
-      <c r="J370" s="10"/>
-      <c r="K370" s="10"/>
-      <c r="L370" s="10"/>
-      <c r="M370" s="10"/>
-      <c r="N370" s="10"/>
-      <c r="O370" s="10"/>
-      <c r="P370" s="10"/>
-      <c r="Q370" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R370" s="10"/>
-      <c r="S370" s="10"/>
+      <c r="B370" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K370" s="13"/>
+      <c r="O370" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q370" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S370" s="13"/>
       <c r="T370" s="10"/>
     </row>
     <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B371" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G371" s="12" t="s">
         <v>4</v>
@@ -12032,10 +12084,10 @@
       <c r="S371" s="13"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C372" s="10"/>
       <c r="D372" s="10"/>
@@ -12046,9 +12098,7 @@
       </c>
       <c r="H372" s="10"/>
       <c r="I372" s="10"/>
-      <c r="J372" s="10" t="s">
-        <v>544</v>
-      </c>
+      <c r="J372" s="10"/>
       <c r="K372" s="10"/>
       <c r="L372" s="10"/>
       <c r="M372" s="10"/>
@@ -12063,37 +12113,26 @@
       <c r="T372" s="10"/>
     </row>
     <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A373" s="10"/>
-      <c r="B373" s="10" t="s">
-        <v>545</v>
-      </c>
-      <c r="C373" s="10"/>
-      <c r="D373" s="10"/>
-      <c r="E373" s="10"/>
-      <c r="F373" s="10"/>
-      <c r="G373" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H373" s="10"/>
-      <c r="I373" s="10"/>
-      <c r="J373" s="10"/>
-      <c r="K373" s="10"/>
-      <c r="L373" s="10"/>
-      <c r="M373" s="10"/>
-      <c r="N373" s="10"/>
-      <c r="O373" s="10"/>
-      <c r="P373" s="10"/>
-      <c r="Q373" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R373" s="10"/>
-      <c r="S373" s="10"/>
+      <c r="B373" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="G373" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K373" s="13"/>
+      <c r="O373" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q373" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S373" s="13"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="C374" s="10"/>
       <c r="D374" s="10"/>
@@ -12104,7 +12143,9 @@
       </c>
       <c r="H374" s="10"/>
       <c r="I374" s="10"/>
-      <c r="J374" s="10"/>
+      <c r="J374" s="10" t="s">
+        <v>544</v>
+      </c>
       <c r="K374" s="10"/>
       <c r="L374" s="10"/>
       <c r="M374" s="10"/>
@@ -12121,7 +12162,7 @@
     <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C375" s="10"/>
       <c r="D375" s="10"/>
@@ -12146,10 +12187,10 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C376" s="10"/>
       <c r="D376" s="10"/>
@@ -12177,7 +12218,7 @@
     <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C377" s="10"/>
       <c r="D377" s="10"/>
@@ -12202,10 +12243,10 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C378" s="10"/>
       <c r="D378" s="10"/>
@@ -12233,7 +12274,7 @@
     <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C379" s="10"/>
       <c r="D379" s="10"/>
@@ -12261,7 +12302,7 @@
     <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C380" s="10"/>
       <c r="D380" s="10"/>
@@ -12289,7 +12330,7 @@
     <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C381" s="10"/>
       <c r="D381" s="10"/>
@@ -12317,7 +12358,7 @@
     <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C382" s="10"/>
       <c r="D382" s="10"/>
@@ -12345,7 +12386,7 @@
     <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="10"/>
       <c r="B383" s="10" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C383" s="10"/>
       <c r="D383" s="10"/>
@@ -12373,7 +12414,7 @@
     <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="10"/>
       <c r="B384" s="10" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C384" s="10"/>
       <c r="D384" s="10"/>
@@ -12399,48 +12440,70 @@
       <c r="T384" s="10"/>
     </row>
     <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B385" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="G385" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="J385" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K385" s="13"/>
-      <c r="O385" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q385" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S385" s="13"/>
+      <c r="A385" s="10"/>
+      <c r="B385" s="10" t="s">
+        <v>555</v>
+      </c>
+      <c r="C385" s="10"/>
+      <c r="D385" s="10"/>
+      <c r="E385" s="10"/>
+      <c r="F385" s="10"/>
+      <c r="G385" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H385" s="10"/>
+      <c r="I385" s="10"/>
+      <c r="J385" s="10"/>
+      <c r="K385" s="10"/>
+      <c r="L385" s="10"/>
+      <c r="M385" s="10"/>
+      <c r="N385" s="10"/>
+      <c r="O385" s="10"/>
+      <c r="P385" s="10"/>
+      <c r="Q385" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R385" s="10"/>
+      <c r="S385" s="10"/>
       <c r="T385" s="10"/>
     </row>
     <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B386" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="G386" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K386" s="13"/>
-      <c r="O386" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q386" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S386" s="13"/>
+      <c r="A386" s="10"/>
+      <c r="B386" s="10" t="s">
+        <v>556</v>
+      </c>
+      <c r="C386" s="10"/>
+      <c r="D386" s="10"/>
+      <c r="E386" s="10"/>
+      <c r="F386" s="10"/>
+      <c r="G386" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H386" s="10"/>
+      <c r="I386" s="10"/>
+      <c r="J386" s="10"/>
+      <c r="K386" s="10"/>
+      <c r="L386" s="10"/>
+      <c r="M386" s="10"/>
+      <c r="N386" s="10"/>
+      <c r="O386" s="10"/>
+      <c r="P386" s="10"/>
+      <c r="Q386" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R386" s="10"/>
+      <c r="S386" s="10"/>
       <c r="T386" s="10"/>
     </row>
     <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
-        <v>254</v>
+        <v>136</v>
       </c>
       <c r="G387" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="J387" s="12" t="s">
+        <v>252</v>
       </c>
       <c r="K387" s="13"/>
       <c r="O387" s="12">
@@ -12454,7 +12517,7 @@
     </row>
     <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B388" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G388" s="12" t="s">
         <v>4</v>
@@ -12471,7 +12534,7 @@
     </row>
     <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B389" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G389" s="12" t="s">
         <v>4</v>
@@ -12488,7 +12551,7 @@
     </row>
     <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B390" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G390" s="12" t="s">
         <v>4</v>
@@ -12504,65 +12567,43 @@
       <c r="T390" s="10"/>
     </row>
     <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A391" s="10"/>
-      <c r="B391" s="10" t="s">
-        <v>557</v>
-      </c>
-      <c r="C391" s="10"/>
-      <c r="D391" s="10"/>
-      <c r="E391" s="10"/>
-      <c r="F391" s="10"/>
-      <c r="G391" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H391" s="10"/>
-      <c r="I391" s="10"/>
-      <c r="J391" s="10"/>
-      <c r="K391" s="10"/>
-      <c r="L391" s="10"/>
-      <c r="M391" s="10"/>
-      <c r="N391" s="10"/>
-      <c r="O391" s="10"/>
-      <c r="P391" s="10"/>
-      <c r="Q391" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R391" s="10"/>
-      <c r="S391" s="10"/>
+      <c r="B391" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="G391" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K391" s="13"/>
+      <c r="O391" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q391" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S391" s="13"/>
       <c r="T391" s="10"/>
     </row>
     <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A392" s="10"/>
-      <c r="B392" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="C392" s="10"/>
-      <c r="D392" s="10"/>
-      <c r="E392" s="10"/>
-      <c r="F392" s="10"/>
-      <c r="G392" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H392" s="10"/>
-      <c r="I392" s="10"/>
-      <c r="J392" s="10"/>
-      <c r="K392" s="10"/>
-      <c r="L392" s="10"/>
-      <c r="M392" s="10"/>
-      <c r="N392" s="10"/>
-      <c r="O392" s="10"/>
-      <c r="P392" s="10"/>
-      <c r="Q392" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R392" s="10"/>
-      <c r="S392" s="10"/>
+      <c r="B392" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K392" s="13"/>
+      <c r="O392" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q392" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S392" s="13"/>
       <c r="T392" s="10"/>
     </row>
     <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="10"/>
       <c r="B393" s="10" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="C393" s="10"/>
       <c r="D393" s="10"/>
@@ -12590,7 +12631,7 @@
     <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="10"/>
       <c r="B394" s="10" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C394" s="10"/>
       <c r="D394" s="10"/>
@@ -12616,201 +12657,233 @@
       <c r="T394" s="10"/>
     </row>
     <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B395" s="12" t="s">
+      <c r="A395" s="10"/>
+      <c r="B395" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="C395" s="10"/>
+      <c r="D395" s="10"/>
+      <c r="E395" s="10"/>
+      <c r="F395" s="10"/>
+      <c r="G395" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H395" s="10"/>
+      <c r="I395" s="10"/>
+      <c r="J395" s="10"/>
+      <c r="K395" s="10"/>
+      <c r="L395" s="10"/>
+      <c r="M395" s="10"/>
+      <c r="N395" s="10"/>
+      <c r="O395" s="10"/>
+      <c r="P395" s="10"/>
+      <c r="Q395" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R395" s="10"/>
+      <c r="S395" s="10"/>
+      <c r="T395" s="10"/>
+    </row>
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A396" s="10"/>
+      <c r="B396" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C396" s="10"/>
+      <c r="D396" s="10"/>
+      <c r="E396" s="10"/>
+      <c r="F396" s="10"/>
+      <c r="G396" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H396" s="10"/>
+      <c r="I396" s="10"/>
+      <c r="J396" s="10"/>
+      <c r="K396" s="10"/>
+      <c r="L396" s="10"/>
+      <c r="M396" s="10"/>
+      <c r="N396" s="10"/>
+      <c r="O396" s="10"/>
+      <c r="P396" s="10"/>
+      <c r="Q396" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R396" s="10"/>
+      <c r="S396" s="10"/>
+      <c r="T396" s="10"/>
+    </row>
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B397" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G395" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K395" s="13"/>
-      <c r="O395" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q395" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S395" s="13"/>
-      <c r="T395" s="10"/>
-    </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B396" s="12" t="s">
+      <c r="G397" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K397" s="13"/>
+      <c r="O397" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q397" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S397" s="13"/>
+      <c r="T397" s="10"/>
+    </row>
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B398" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G396" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K396" s="13"/>
-      <c r="O396" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q396" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S396" s="13"/>
-      <c r="T396" s="10"/>
-    </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A397" s="10"/>
-      <c r="B397" s="10" t="s">
+      <c r="G398" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K398" s="13"/>
+      <c r="O398" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q398" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S398" s="13"/>
+      <c r="T398" s="10"/>
+    </row>
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A399" s="10"/>
+      <c r="B399" s="10" t="s">
         <v>561</v>
       </c>
-      <c r="C397" s="10" t="s">
+      <c r="C399" s="10" t="s">
         <v>562</v>
       </c>
-      <c r="D397" s="10"/>
-      <c r="E397" s="10" t="s">
+      <c r="D399" s="10"/>
+      <c r="E399" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F397" s="10" t="s">
+      <c r="F399" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G397" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H397" s="10"/>
-      <c r="I397" s="10"/>
-      <c r="J397" s="10"/>
-      <c r="K397" s="10"/>
-      <c r="L397" s="10"/>
-      <c r="M397" s="10"/>
-      <c r="N397" s="10"/>
-      <c r="O397" s="10"/>
-      <c r="P397" s="10"/>
-      <c r="Q397" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R397" s="10"/>
-      <c r="S397" s="10"/>
-      <c r="T397" s="10"/>
-    </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A398" s="10"/>
-      <c r="B398" s="10" t="s">
+      <c r="G399" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H399" s="10"/>
+      <c r="I399" s="10"/>
+      <c r="J399" s="10"/>
+      <c r="K399" s="10"/>
+      <c r="L399" s="10"/>
+      <c r="M399" s="10"/>
+      <c r="N399" s="10"/>
+      <c r="O399" s="10"/>
+      <c r="P399" s="10"/>
+      <c r="Q399" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R399" s="10"/>
+      <c r="S399" s="10"/>
+      <c r="T399" s="10"/>
+    </row>
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A400" s="10"/>
+      <c r="B400" s="10" t="s">
         <v>563</v>
       </c>
-      <c r="C398" s="10"/>
-      <c r="D398" s="10"/>
-      <c r="E398" s="10"/>
-      <c r="F398" s="10"/>
-      <c r="G398" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="H398" s="10"/>
-      <c r="I398" s="10"/>
-      <c r="J398" s="10"/>
-      <c r="K398" s="10"/>
-      <c r="L398" s="10"/>
-      <c r="M398" s="10"/>
-      <c r="N398" s="10"/>
-      <c r="O398" s="10"/>
-      <c r="P398" s="10"/>
-      <c r="Q398" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="R398" s="10"/>
-      <c r="S398" s="10"/>
-      <c r="T398" s="10"/>
-    </row>
-    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B399" s="12" t="s">
+      <c r="C400" s="10"/>
+      <c r="D400" s="10"/>
+      <c r="E400" s="10"/>
+      <c r="F400" s="10"/>
+      <c r="G400" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H400" s="10"/>
+      <c r="I400" s="10"/>
+      <c r="J400" s="10"/>
+      <c r="K400" s="10"/>
+      <c r="L400" s="10"/>
+      <c r="M400" s="10"/>
+      <c r="N400" s="10"/>
+      <c r="O400" s="10"/>
+      <c r="P400" s="10"/>
+      <c r="Q400" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="R400" s="10"/>
+      <c r="S400" s="10"/>
+      <c r="T400" s="10"/>
+    </row>
+    <row r="401" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B401" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="G399" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K399" s="13"/>
-      <c r="O399" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q399" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S399" s="13"/>
-      <c r="T399" s="10"/>
-    </row>
-    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B400" s="12" t="s">
+      <c r="G401" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K401" s="13"/>
+      <c r="O401" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q401" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S401" s="13"/>
+      <c r="T401" s="10"/>
+    </row>
+    <row r="402" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B402" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="G400" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K400" s="13"/>
-      <c r="O400" s="12">
-        <v>1</v>
-      </c>
-      <c r="Q400" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="S400" s="13"/>
-      <c r="T400" s="10"/>
-    </row>
-    <row r="401" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B401" s="13"/>
-      <c r="Q401" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="402" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B402" s="13"/>
-      <c r="G402" s="11"/>
-      <c r="H402" s="11"/>
-      <c r="I402" s="13"/>
-      <c r="J402" s="11"/>
-      <c r="K402" s="11"/>
-      <c r="L402" s="11"/>
-      <c r="M402" s="11">
-        <v>1</v>
-      </c>
-      <c r="N402" s="11"/>
-      <c r="O402" s="11"/>
-      <c r="P402" s="11"/>
-      <c r="Q402" s="11"/>
-    </row>
-    <row r="403" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="G402" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K402" s="13"/>
+      <c r="O402" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q402" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="S402" s="13"/>
+      <c r="T402" s="10"/>
+    </row>
+    <row r="403" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="13"/>
-      <c r="Q404" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="405" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="G404" s="11"/>
+      <c r="H404" s="11"/>
+      <c r="I404" s="13"/>
+      <c r="J404" s="11"/>
+      <c r="K404" s="11"/>
+      <c r="L404" s="11"/>
+      <c r="M404" s="11">
+        <v>1</v>
+      </c>
+      <c r="N404" s="11"/>
+      <c r="O404" s="11"/>
+      <c r="P404" s="11"/>
+      <c r="Q404" s="11"/>
+    </row>
+    <row r="405" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B406" s="13"/>
-      <c r="E406" s="11"/>
-      <c r="F406" s="11"/>
-      <c r="G406" s="11"/>
-      <c r="H406" s="11"/>
-      <c r="I406" s="11"/>
-      <c r="J406" s="11"/>
-      <c r="K406" s="11"/>
-      <c r="L406" s="11"/>
-      <c r="M406" s="11"/>
-      <c r="N406" s="11"/>
-      <c r="O406" s="11"/>
-      <c r="P406" s="11"/>
-      <c r="Q406" s="11"/>
-    </row>
-    <row r="407" spans="2:18" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="Q406" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="407" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B407" s="13"/>
       <c r="Q407" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
-      <c r="C408" s="11"/>
-      <c r="D408" s="21"/>
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
       <c r="G408" s="11"/>
@@ -12825,44 +12898,62 @@
       <c r="P408" s="11"/>
       <c r="Q408" s="11"/>
     </row>
-    <row r="409" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B409" s="13"/>
-      <c r="C409" s="11"/>
-      <c r="D409" s="21"/>
-      <c r="E409" s="11"/>
-      <c r="F409" s="11"/>
-      <c r="G409" s="11"/>
-      <c r="H409" s="11"/>
-      <c r="I409" s="11"/>
-      <c r="J409" s="11"/>
-      <c r="K409" s="11"/>
-      <c r="L409" s="11"/>
-      <c r="M409" s="11"/>
-      <c r="N409" s="11"/>
-      <c r="O409" s="11"/>
-      <c r="P409" s="11"/>
-      <c r="Q409" s="11"/>
-    </row>
-    <row r="410" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q409" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="13"/>
-      <c r="R410" s="11"/>
-    </row>
-    <row r="411" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C410" s="11"/>
+      <c r="D410" s="21"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="11"/>
+      <c r="I410" s="11"/>
+      <c r="J410" s="11"/>
+      <c r="K410" s="11"/>
+      <c r="L410" s="11"/>
+      <c r="M410" s="11"/>
+      <c r="N410" s="11"/>
+      <c r="O410" s="11"/>
+      <c r="P410" s="11"/>
+      <c r="Q410" s="11"/>
+    </row>
+    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="13"/>
-    </row>
-    <row r="412" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C411" s="11"/>
+      <c r="D411" s="21"/>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="11"/>
+      <c r="I411" s="11"/>
+      <c r="J411" s="11"/>
+      <c r="K411" s="11"/>
+      <c r="L411" s="11"/>
+      <c r="M411" s="11"/>
+      <c r="N411" s="11"/>
+      <c r="O411" s="11"/>
+      <c r="P411" s="11"/>
+      <c r="Q411" s="11"/>
+    </row>
+    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="13"/>
-    </row>
-    <row r="413" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="R412" s="11"/>
+    </row>
+    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:18" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="13"/>
     </row>
     <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
@@ -12872,53 +12963,21 @@
       <c r="B418" s="13"/>
     </row>
     <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A419" s="13"/>
       <c r="B419" s="13"/>
-      <c r="S419" s="11"/>
     </row>
     <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="13"/>
-      <c r="R420" s="11"/>
     </row>
     <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A421" s="13"/>
       <c r="B421" s="13"/>
-      <c r="C421" s="11"/>
-      <c r="D421" s="21"/>
-      <c r="E421" s="11"/>
-      <c r="F421" s="11"/>
-      <c r="G421" s="11"/>
-      <c r="H421" s="11"/>
-      <c r="I421" s="11"/>
-      <c r="J421" s="11"/>
-      <c r="K421" s="11"/>
-      <c r="L421" s="11"/>
-      <c r="M421" s="11"/>
-      <c r="N421" s="11"/>
-      <c r="O421" s="11"/>
-      <c r="P421" s="11"/>
-      <c r="Q421" s="11"/>
+      <c r="S421" s="11"/>
     </row>
     <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="13"/>
-      <c r="C422" s="11"/>
-      <c r="D422" s="21"/>
-      <c r="E422" s="11"/>
-      <c r="F422" s="11"/>
-      <c r="G422" s="11"/>
-      <c r="H422" s="11"/>
-      <c r="I422" s="11"/>
-      <c r="J422" s="11"/>
-      <c r="K422" s="11"/>
-      <c r="L422" s="11"/>
-      <c r="M422" s="11"/>
-      <c r="N422" s="11"/>
-      <c r="O422" s="11"/>
-      <c r="P422" s="11"/>
-      <c r="Q422" s="11"/>
       <c r="R422" s="11"/>
     </row>
     <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A423" s="11"/>
       <c r="B423" s="13"/>
       <c r="C423" s="11"/>
       <c r="D423" s="21"/>
@@ -12935,8 +12994,6 @@
       <c r="O423" s="11"/>
       <c r="P423" s="11"/>
       <c r="Q423" s="11"/>
-      <c r="R423" s="11"/>
-      <c r="S423" s="11"/>
     </row>
     <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="13"/>
@@ -12957,12 +13014,52 @@
       <c r="Q424" s="11"/>
       <c r="R424" s="11"/>
     </row>
-    <row r="425" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A425" s="11"/>
       <c r="B425" s="13"/>
+      <c r="C425" s="11"/>
+      <c r="D425" s="21"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="11"/>
+      <c r="I425" s="11"/>
+      <c r="J425" s="11"/>
+      <c r="K425" s="11"/>
+      <c r="L425" s="11"/>
+      <c r="M425" s="11"/>
+      <c r="N425" s="11"/>
+      <c r="O425" s="11"/>
+      <c r="P425" s="11"/>
+      <c r="Q425" s="11"/>
+      <c r="R425" s="11"/>
+      <c r="S425" s="11"/>
+    </row>
+    <row r="426" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B426" s="13"/>
+      <c r="C426" s="11"/>
+      <c r="D426" s="21"/>
+      <c r="E426" s="11"/>
+      <c r="F426" s="11"/>
+      <c r="G426" s="11"/>
+      <c r="H426" s="11"/>
+      <c r="I426" s="11"/>
+      <c r="J426" s="11"/>
+      <c r="K426" s="11"/>
+      <c r="L426" s="11"/>
+      <c r="M426" s="11"/>
+      <c r="N426" s="11"/>
+      <c r="O426" s="11"/>
+      <c r="P426" s="11"/>
+      <c r="Q426" s="11"/>
+      <c r="R426" s="11"/>
+    </row>
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B427" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:T423">
-    <sortCondition ref="B2:B423"/>
+  <sortState ref="A2:T425">
+    <sortCondition ref="B2:B425"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E23233BE-0E76-D447-9DB7-D6DB9CDB80EB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Upper level diagram" sheetId="6" r:id="rId4"/>
     <sheet name="Links" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1637" uniqueCount="645">
   <si>
     <t>ID</t>
   </si>
@@ -1969,7 +1968,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2199,7 +2198,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2496,39 +2495,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A101" sqref="A101"/>
+      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.5" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.42578125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.33203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.1640625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" style="11"/>
-    <col min="14" max="14" width="18.5" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.1640625" style="11"/>
-    <col min="17" max="17" width="13.5" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.1640625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.6640625" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.6640625" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.1640625" style="11"/>
+    <col min="8" max="8" width="35.42578125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.28515625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="11"/>
+    <col min="14" max="14" width="18.42578125" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.140625" style="11"/>
+    <col min="17" max="17" width="13.42578125" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.140625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.7109375" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.7109375" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2587,7 +2586,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2616,7 +2615,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2642,7 +2641,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2668,7 +2667,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2694,7 +2693,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2722,7 +2721,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2756,7 +2755,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2782,7 +2781,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2816,7 +2815,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2842,7 +2841,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2871,7 +2870,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>605</v>
@@ -2913,7 +2912,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2951,7 +2950,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2989,7 +2988,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -3022,7 +3021,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3055,7 +3054,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3086,7 +3085,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3117,7 +3116,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3148,7 +3147,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3179,7 +3178,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3210,7 +3209,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3241,7 +3240,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3268,7 +3267,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3303,7 +3302,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3332,7 +3331,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3359,7 +3358,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3386,7 +3385,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3417,7 +3416,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3444,7 +3443,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3471,7 +3470,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3498,7 +3497,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3525,7 +3524,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3552,7 +3551,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3579,7 +3578,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>593</v>
       </c>
@@ -3614,7 +3613,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>595</v>
       </c>
@@ -3636,7 +3635,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>597</v>
       </c>
@@ -3658,7 +3657,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="15" t="s">
         <v>600</v>
       </c>
@@ -3680,7 +3679,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3709,7 +3708,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3740,7 +3739,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3769,7 +3768,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3800,7 +3799,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3827,7 +3826,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>539</v>
@@ -3860,7 +3859,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3893,7 +3892,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3920,7 +3919,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3947,7 +3946,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3974,7 +3973,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -4001,7 +4000,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -4028,7 +4027,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4055,7 +4054,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4082,7 +4081,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4109,7 +4108,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4136,7 +4135,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4163,7 +4162,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4190,7 +4189,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4217,7 +4216,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4244,7 +4243,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4273,7 +4272,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4300,7 +4299,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4327,7 +4326,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4354,7 +4353,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4381,7 +4380,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4408,7 +4407,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4435,7 +4434,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4462,7 +4461,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4478,7 +4477,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4494,7 +4493,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4521,7 +4520,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4537,7 +4536,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4564,7 +4563,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4591,7 +4590,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4618,7 +4617,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4645,7 +4644,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4676,7 +4675,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4707,7 +4706,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4734,7 +4733,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4750,7 +4749,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4777,7 +4776,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4804,7 +4803,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4835,7 +4834,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4866,7 +4865,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>334</v>
@@ -4891,7 +4890,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>335</v>
@@ -4918,7 +4917,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>336</v>
@@ -4945,7 +4944,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>337</v>
@@ -4972,16 +4971,14 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
       </c>
       <c r="C87" s="10"/>
       <c r="D87" s="10"/>
-      <c r="E87" s="10" t="s">
-        <v>338</v>
-      </c>
+      <c r="E87" s="10"/>
       <c r="F87" s="10"/>
       <c r="G87" s="10" t="s">
         <v>4</v>
@@ -5001,7 +4998,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>339</v>
@@ -5026,7 +5023,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>340</v>
@@ -5053,7 +5050,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5078,7 +5075,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5095,7 +5092,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
         <v>341</v>
       </c>
@@ -5111,7 +5108,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>342</v>
@@ -5138,7 +5135,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5164,7 +5161,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5186,7 +5183,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>343</v>
@@ -5213,7 +5210,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>344</v>
@@ -5240,7 +5237,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>345</v>
@@ -5267,7 +5264,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>346</v>
@@ -5294,7 +5291,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A100" s="31"/>
       <c r="B100" s="29" t="s">
         <v>638</v>
@@ -5333,7 +5330,7 @@
       <c r="R100" s="31"/>
       <c r="S100" s="31"/>
     </row>
-    <row r="101" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A101" s="31"/>
       <c r="B101" s="29" t="s">
         <v>642</v>
@@ -5370,7 +5367,7 @@
       <c r="R101" s="31"/>
       <c r="S101" s="31"/>
     </row>
-    <row r="102" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>347</v>
@@ -5397,7 +5394,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>348</v>
@@ -5424,7 +5421,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>349</v>
@@ -5451,7 +5448,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>350</v>
@@ -5478,7 +5475,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>351</v>
@@ -5505,7 +5502,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>352</v>
@@ -5532,7 +5529,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>353</v>
@@ -5559,7 +5556,7 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>354</v>
@@ -5588,7 +5585,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:19" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="23"/>
       <c r="B110" s="23" t="s">
         <v>356</v>
@@ -5616,7 +5613,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>357</v>
@@ -5645,7 +5642,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>359</v>
@@ -5671,7 +5668,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>360</v>
@@ -5698,7 +5695,7 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>361</v>
@@ -5726,7 +5723,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>362</v>
@@ -5754,7 +5751,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>265</v>
@@ -5782,7 +5779,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>364</v>
@@ -5814,7 +5811,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>365</v>
@@ -5842,7 +5839,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>366</v>
@@ -5870,7 +5867,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>367</v>
@@ -5898,7 +5895,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>368</v>
@@ -5926,7 +5923,7 @@
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="10"/>
       <c r="B122" s="12" t="s">
         <v>151</v>
@@ -5954,7 +5951,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
         <v>152</v>
       </c>
@@ -5974,7 +5971,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>154</v>
       </c>
@@ -5994,7 +5991,7 @@
       <c r="S124" s="13"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>369</v>
       </c>
@@ -6018,7 +6015,7 @@
       <c r="S125" s="13"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="10"/>
       <c r="B126" s="10" t="s">
         <v>371</v>
@@ -6046,7 +6043,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>372</v>
@@ -6074,7 +6071,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="10"/>
       <c r="B128" s="12" t="s">
         <v>157</v>
@@ -6102,7 +6099,7 @@
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>158</v>
       </c>
@@ -6119,7 +6116,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B130" s="12" t="s">
         <v>160</v>
       </c>
@@ -6139,7 +6136,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>161</v>
       </c>
@@ -6156,7 +6153,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B132" s="12" t="s">
         <v>162</v>
       </c>
@@ -6173,7 +6170,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>163</v>
       </c>
@@ -6190,7 +6187,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B134" s="12" t="s">
         <v>164</v>
       </c>
@@ -6207,7 +6204,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B135" s="12" t="s">
         <v>165</v>
       </c>
@@ -6224,7 +6221,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B136" s="12" t="s">
         <v>166</v>
       </c>
@@ -6241,7 +6238,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B137" s="12" t="s">
         <v>167</v>
       </c>
@@ -6258,7 +6255,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B138" s="12" t="s">
         <v>168</v>
       </c>
@@ -6275,7 +6272,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B139" s="12" t="s">
         <v>169</v>
       </c>
@@ -6292,7 +6289,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B140" s="12" t="s">
         <v>170</v>
       </c>
@@ -6309,7 +6306,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B141" s="12" t="s">
         <v>171</v>
       </c>
@@ -6326,7 +6323,7 @@
       <c r="S141" s="13"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
         <v>373</v>
       </c>
@@ -6343,7 +6340,7 @@
       <c r="S142" s="13"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>374</v>
@@ -6371,7 +6368,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>375</v>
@@ -6399,7 +6396,7 @@
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="10"/>
       <c r="B145" s="12" t="s">
         <v>172</v>
@@ -6427,7 +6424,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
         <v>376</v>
       </c>
@@ -6444,7 +6441,7 @@
       <c r="S146" s="13"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>377</v>
@@ -6472,7 +6469,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>378</v>
@@ -6500,7 +6497,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>379</v>
@@ -6532,7 +6529,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>382</v>
@@ -6558,7 +6555,7 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
         <v>383</v>
@@ -6586,7 +6583,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
     </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>384</v>
@@ -6614,7 +6611,7 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A153" s="16"/>
       <c r="B153" s="16" t="s">
         <v>633</v>
@@ -6650,7 +6647,7 @@
       <c r="S153" s="16"/>
       <c r="T153" s="16"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>385</v>
@@ -6678,7 +6675,7 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>386</v>
@@ -6706,7 +6703,7 @@
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
     </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
         <v>387</v>
@@ -6734,7 +6731,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="10"/>
       <c r="B157" s="12" t="s">
         <v>173</v>
@@ -6762,7 +6759,7 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
         <v>388</v>
       </c>
@@ -6779,7 +6776,7 @@
       <c r="S158" s="13"/>
       <c r="T158" s="10"/>
     </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>389</v>
@@ -6813,7 +6810,7 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="10"/>
       <c r="B160" s="12" t="s">
         <v>174</v>
@@ -6839,7 +6836,7 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B161" s="10" t="s">
         <v>391</v>
       </c>
@@ -6859,7 +6856,7 @@
       <c r="S161" s="13"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>392</v>
@@ -6887,7 +6884,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>394</v>
@@ -6917,7 +6914,7 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>395</v>
@@ -6945,7 +6942,7 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>396</v>
@@ -6973,7 +6970,7 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>397</v>
@@ -7001,7 +6998,7 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
         <v>398</v>
@@ -7029,7 +7026,7 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>399</v>
@@ -7057,7 +7054,7 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>400</v>
@@ -7085,7 +7082,7 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>401</v>
@@ -7113,7 +7110,7 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>402</v>
@@ -7141,7 +7138,7 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>403</v>
@@ -7169,7 +7166,7 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>404</v>
@@ -7197,7 +7194,7 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>405</v>
@@ -7225,7 +7222,7 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>406</v>
@@ -7253,7 +7250,7 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="10"/>
       <c r="B176" s="12" t="s">
         <v>175</v>
@@ -7283,7 +7280,7 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>407</v>
@@ -7315,7 +7312,7 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="10"/>
       <c r="B178" s="10" t="s">
         <v>410</v>
@@ -7343,7 +7340,7 @@
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
     </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>411</v>
@@ -7371,7 +7368,7 @@
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
     </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>412</v>
@@ -7405,7 +7402,7 @@
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="11"/>
       <c r="B181" s="11" t="s">
         <v>66</v>
@@ -7437,7 +7434,7 @@
       <c r="S181" s="11"/>
       <c r="T181" s="10"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>176</v>
       </c>
@@ -7454,7 +7451,7 @@
       <c r="S182" s="13"/>
       <c r="T182" s="10"/>
     </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B183" s="12" t="s">
         <v>177</v>
       </c>
@@ -7471,7 +7468,7 @@
       <c r="S183" s="13"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>414</v>
@@ -7499,7 +7496,7 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>178</v>
       </c>
@@ -7516,7 +7513,7 @@
       <c r="S185" s="13"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>415</v>
@@ -7544,7 +7541,7 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>416</v>
@@ -7572,7 +7569,7 @@
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
     </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="s">
         <v>417</v>
@@ -7600,7 +7597,7 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>418</v>
@@ -7628,7 +7625,7 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B190" s="12" t="s">
         <v>179</v>
       </c>
@@ -7645,7 +7642,7 @@
       <c r="S190" s="13"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
         <v>419</v>
@@ -7673,7 +7670,7 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>420</v>
@@ -7701,7 +7698,7 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>421</v>
@@ -7729,7 +7726,7 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>422</v>
@@ -7757,7 +7754,7 @@
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
     </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>423</v>
@@ -7785,7 +7782,7 @@
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>424</v>
@@ -7813,7 +7810,7 @@
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
     </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B197" s="12" t="s">
         <v>180</v>
       </c>
@@ -7830,7 +7827,7 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>425</v>
@@ -7858,7 +7855,7 @@
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B199" s="12" t="s">
         <v>181</v>
       </c>
@@ -7875,7 +7872,7 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B200" s="12" t="s">
         <v>182</v>
       </c>
@@ -7892,7 +7889,7 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B201" s="12" t="s">
         <v>183</v>
       </c>
@@ -7909,7 +7906,7 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B202" s="12" t="s">
         <v>184</v>
       </c>
@@ -7926,7 +7923,7 @@
       <c r="S202" s="13"/>
       <c r="T202" s="10"/>
     </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B203" s="12" t="s">
         <v>185</v>
       </c>
@@ -7943,7 +7940,7 @@
       <c r="S203" s="13"/>
       <c r="T203" s="10"/>
     </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B204" s="12" t="s">
         <v>186</v>
       </c>
@@ -7960,7 +7957,7 @@
       <c r="S204" s="13"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>426</v>
@@ -7988,7 +7985,7 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B206" s="12" t="s">
         <v>187</v>
       </c>
@@ -8005,7 +8002,7 @@
       <c r="S206" s="13"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
         <v>427</v>
@@ -8033,7 +8030,7 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>428</v>
@@ -8061,7 +8058,7 @@
       <c r="S208" s="10"/>
       <c r="T208" s="10"/>
     </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>429</v>
@@ -8089,7 +8086,7 @@
       <c r="S209" s="10"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>430</v>
@@ -8117,7 +8114,7 @@
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B211" s="12" t="s">
         <v>188</v>
       </c>
@@ -8134,7 +8131,7 @@
       <c r="S211" s="13"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B212" s="12" t="s">
         <v>189</v>
       </c>
@@ -8154,7 +8151,7 @@
       <c r="S212" s="13"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>431</v>
@@ -8182,7 +8179,7 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>432</v>
@@ -8210,7 +8207,7 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>433</v>
@@ -8238,7 +8235,7 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>434</v>
@@ -8266,7 +8263,7 @@
       <c r="S216" s="10"/>
       <c r="T216" s="10"/>
     </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="s">
         <v>435</v>
@@ -8294,7 +8291,7 @@
       <c r="S217" s="10"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>436</v>
@@ -8322,7 +8319,7 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="12" t="s">
         <v>191</v>
       </c>
@@ -8339,7 +8336,7 @@
       <c r="S219" s="13"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>437</v>
@@ -8367,7 +8364,7 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>438</v>
@@ -8395,7 +8392,7 @@
       <c r="S221" s="10"/>
       <c r="T221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>439</v>
@@ -8425,7 +8422,7 @@
       <c r="S222" s="10"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>441</v>
@@ -8453,7 +8450,7 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B224" s="12" t="s">
         <v>192</v>
       </c>
@@ -8470,7 +8467,7 @@
       <c r="S224" s="13"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>442</v>
@@ -8498,7 +8495,7 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>443</v>
@@ -8526,7 +8523,7 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>444</v>
@@ -8554,7 +8551,7 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>445</v>
@@ -8582,7 +8579,7 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>113</v>
@@ -8610,7 +8607,7 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>446</v>
@@ -8638,7 +8635,7 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>447</v>
@@ -8666,7 +8663,7 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>448</v>
@@ -8694,7 +8691,7 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>449</v>
@@ -8722,7 +8719,7 @@
       <c r="S233" s="10"/>
       <c r="T233" s="10"/>
     </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="10"/>
       <c r="B234" s="10" t="s">
         <v>450</v>
@@ -8750,7 +8747,7 @@
       <c r="S234" s="10"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>451</v>
@@ -8778,7 +8775,7 @@
       <c r="S235" s="10"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="12" t="s">
         <v>193</v>
       </c>
@@ -8795,7 +8792,7 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="12" t="s">
         <v>194</v>
       </c>
@@ -8812,7 +8809,7 @@
       <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B238" s="12" t="s">
         <v>195</v>
       </c>
@@ -8832,7 +8829,7 @@
       <c r="S238" s="13"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B239" s="12" t="s">
         <v>197</v>
       </c>
@@ -8849,7 +8846,7 @@
       <c r="S239" s="13"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>452</v>
@@ -8877,7 +8874,7 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>453</v>
@@ -8905,7 +8902,7 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>454</v>
@@ -8933,7 +8930,7 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>455</v>
@@ -8961,7 +8958,7 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>456</v>
@@ -8989,7 +8986,7 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>457</v>
@@ -9017,7 +9014,7 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>458</v>
@@ -9045,7 +9042,7 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>459</v>
@@ -9073,7 +9070,7 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>460</v>
@@ -9101,7 +9098,7 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>461</v>
@@ -9131,7 +9128,7 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>463</v>
@@ -9159,7 +9156,7 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
         <v>464</v>
@@ -9187,7 +9184,7 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>465</v>
@@ -9215,7 +9212,7 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>466</v>
@@ -9243,7 +9240,7 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>467</v>
@@ -9273,7 +9270,7 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>469</v>
@@ -9301,7 +9298,7 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>470</v>
@@ -9329,7 +9326,7 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
         <v>471</v>
@@ -9357,7 +9354,7 @@
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>472</v>
@@ -9385,7 +9382,7 @@
       <c r="S258" s="10"/>
       <c r="T258" s="10"/>
     </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>473</v>
@@ -9413,7 +9410,7 @@
       <c r="S259" s="10"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="s">
         <v>245</v>
@@ -9443,7 +9440,7 @@
       <c r="S260" s="10"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B261" s="12" t="s">
         <v>126</v>
       </c>
@@ -9463,7 +9460,7 @@
       <c r="S261" s="13"/>
       <c r="T261" s="10"/>
     </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B262" s="12" t="s">
         <v>199</v>
       </c>
@@ -9480,7 +9477,7 @@
       <c r="S262" s="13"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:20" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B263" s="30" t="s">
         <v>636</v>
       </c>
@@ -9506,7 +9503,7 @@
       <c r="S263" s="29"/>
       <c r="T263" s="31"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>474</v>
@@ -9534,7 +9531,7 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>475</v>
@@ -9562,7 +9559,7 @@
       <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>476</v>
@@ -9590,7 +9587,7 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>477</v>
@@ -9618,7 +9615,7 @@
       <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>478</v>
@@ -9646,7 +9643,7 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="11"/>
       <c r="B269" s="11" t="s">
         <v>65</v>
@@ -9672,7 +9669,7 @@
       <c r="S269" s="11"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>479</v>
@@ -9700,7 +9697,7 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>480</v>
@@ -9728,7 +9725,7 @@
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>481</v>
@@ -9756,7 +9753,7 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>482</v>
@@ -9784,7 +9781,7 @@
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="10"/>
       <c r="B274" s="10" t="s">
         <v>483</v>
@@ -9812,7 +9809,7 @@
       <c r="S274" s="10"/>
       <c r="T274" s="10"/>
     </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="10"/>
       <c r="B275" s="13" t="s">
         <v>6</v>
@@ -9848,7 +9845,7 @@
       <c r="S275" s="10"/>
       <c r="T275" s="10"/>
     </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="10"/>
       <c r="B276" s="10" t="s">
         <v>484</v>
@@ -9880,7 +9877,7 @@
       <c r="S276" s="10"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>487</v>
@@ -9908,7 +9905,7 @@
       <c r="S277" s="10"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B278" s="12" t="s">
         <v>200</v>
       </c>
@@ -9925,7 +9922,7 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B279" s="12" t="s">
         <v>201</v>
       </c>
@@ -9942,7 +9939,7 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B280" s="12" t="s">
         <v>202</v>
       </c>
@@ -9962,7 +9959,7 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B281" s="12" t="s">
         <v>204</v>
       </c>
@@ -9979,7 +9976,7 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B282" s="12" t="s">
         <v>205</v>
       </c>
@@ -9996,7 +9993,7 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B283" s="12" t="s">
         <v>206</v>
       </c>
@@ -10013,7 +10010,7 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B284" s="12" t="s">
         <v>207</v>
       </c>
@@ -10030,7 +10027,7 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B285" s="12" t="s">
         <v>208</v>
       </c>
@@ -10047,7 +10044,7 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B286" s="12" t="s">
         <v>209</v>
       </c>
@@ -10064,7 +10061,7 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B287" s="12" t="s">
         <v>210</v>
       </c>
@@ -10081,7 +10078,7 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B288" s="12" t="s">
         <v>211</v>
       </c>
@@ -10098,7 +10095,7 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B289" s="12" t="s">
         <v>212</v>
       </c>
@@ -10115,7 +10112,7 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="12" t="s">
         <v>213</v>
       </c>
@@ -10132,7 +10129,7 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="12" t="s">
         <v>214</v>
       </c>
@@ -10149,7 +10146,7 @@
       <c r="S291" s="13"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="12" t="s">
         <v>215</v>
       </c>
@@ -10166,7 +10163,7 @@
       <c r="S292" s="13"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B293" s="12" t="s">
         <v>216</v>
       </c>
@@ -10183,7 +10180,7 @@
       <c r="S293" s="13"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B294" s="12" t="s">
         <v>217</v>
       </c>
@@ -10200,7 +10197,7 @@
       <c r="S294" s="13"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>488</v>
@@ -10228,7 +10225,7 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
         <v>489</v>
@@ -10256,7 +10253,7 @@
       <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>490</v>
@@ -10284,7 +10281,7 @@
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B298" s="12" t="s">
         <v>218</v>
       </c>
@@ -10301,7 +10298,7 @@
       <c r="S298" s="13"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>491</v>
@@ -10329,7 +10326,7 @@
       <c r="S299" s="10"/>
       <c r="T299" s="10"/>
     </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>492</v>
@@ -10359,7 +10356,7 @@
       <c r="S300" s="10"/>
       <c r="T300" s="10"/>
     </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>494</v>
@@ -10387,7 +10384,7 @@
       <c r="S301" s="10"/>
       <c r="T301" s="10"/>
     </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>338</v>
@@ -10415,7 +10412,7 @@
       <c r="S302" s="10"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B303" s="12" t="s">
         <v>219</v>
       </c>
@@ -10432,7 +10429,7 @@
       <c r="S303" s="13"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B304" s="12" t="s">
         <v>220</v>
       </c>
@@ -10449,7 +10446,7 @@
       <c r="S304" s="13"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>495</v>
@@ -10477,7 +10474,7 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>496</v>
@@ -10505,7 +10502,7 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>497</v>
@@ -10533,7 +10530,7 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
         <v>498</v>
@@ -10561,7 +10558,7 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>499</v>
@@ -10589,7 +10586,7 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>500</v>
@@ -10617,7 +10614,7 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>501</v>
@@ -10645,7 +10642,7 @@
       <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>502</v>
@@ -10673,7 +10670,7 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="10"/>
       <c r="B313" s="10" t="s">
         <v>503</v>
@@ -10701,7 +10698,7 @@
       <c r="S313" s="10"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>504</v>
@@ -10729,7 +10726,7 @@
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B315" s="12" t="s">
         <v>221</v>
       </c>
@@ -10746,7 +10743,7 @@
       <c r="S315" s="13"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>505</v>
@@ -10774,7 +10771,7 @@
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B317" s="12" t="s">
         <v>222</v>
       </c>
@@ -10791,7 +10788,7 @@
       <c r="S317" s="13"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>506</v>
@@ -10819,7 +10816,7 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>507</v>
@@ -10847,7 +10844,7 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
         <v>508</v>
@@ -10875,7 +10872,7 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>509</v>
@@ -10903,7 +10900,7 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>510</v>
@@ -10931,7 +10928,7 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>511</v>
@@ -10959,7 +10956,7 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A324" s="10"/>
       <c r="B324" s="10" t="s">
         <v>512</v>
@@ -10987,7 +10984,7 @@
       <c r="S324" s="10"/>
       <c r="T324" s="10"/>
     </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="10"/>
       <c r="B325" s="10" t="s">
         <v>513</v>
@@ -11015,7 +11012,7 @@
       <c r="S325" s="10"/>
       <c r="T325" s="10"/>
     </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>514</v>
@@ -11043,7 +11040,7 @@
       <c r="S326" s="10"/>
       <c r="T326" s="10"/>
     </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>515</v>
@@ -11071,7 +11068,7 @@
       <c r="S327" s="10"/>
       <c r="T327" s="10"/>
     </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B328" s="12" t="s">
         <v>223</v>
       </c>
@@ -11091,7 +11088,7 @@
       <c r="S328" s="13"/>
       <c r="T328" s="10"/>
     </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B329" s="12" t="s">
         <v>224</v>
       </c>
@@ -11108,7 +11105,7 @@
       <c r="S329" s="13"/>
       <c r="T329" s="10"/>
     </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="10"/>
       <c r="B330" s="10" t="s">
         <v>516</v>
@@ -11136,7 +11133,7 @@
       <c r="S330" s="10"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="10"/>
       <c r="B331" s="10" t="s">
         <v>517</v>
@@ -11164,7 +11161,7 @@
       <c r="S331" s="10"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B332" s="12" t="s">
         <v>129</v>
       </c>
@@ -11184,7 +11181,7 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B333" s="12" t="s">
         <v>226</v>
       </c>
@@ -11204,7 +11201,7 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B334" s="12" t="s">
         <v>227</v>
       </c>
@@ -11221,7 +11218,7 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B335" s="12" t="s">
         <v>228</v>
       </c>
@@ -11241,7 +11238,7 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B336" s="12" t="s">
         <v>229</v>
       </c>
@@ -11258,7 +11255,7 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B337" s="12" t="s">
         <v>230</v>
       </c>
@@ -11275,7 +11272,7 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B338" s="12" t="s">
         <v>231</v>
       </c>
@@ -11292,7 +11289,7 @@
       <c r="S338" s="13"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B339" s="12" t="s">
         <v>131</v>
       </c>
@@ -11309,7 +11306,7 @@
       <c r="S339" s="13"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B340" s="12" t="s">
         <v>232</v>
       </c>
@@ -11326,7 +11323,7 @@
       <c r="S340" s="13"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B341" s="12" t="s">
         <v>233</v>
       </c>
@@ -11343,7 +11340,7 @@
       <c r="S341" s="13"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
         <v>518</v>
@@ -11371,7 +11368,7 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
         <v>519</v>
@@ -11399,7 +11396,7 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A344" s="10"/>
       <c r="B344" s="10" t="s">
         <v>520</v>
@@ -11427,7 +11424,7 @@
       <c r="S344" s="10"/>
       <c r="T344" s="10"/>
     </row>
-    <row r="345" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A345" s="10"/>
       <c r="B345" s="10" t="s">
         <v>521</v>
@@ -11455,7 +11452,7 @@
       <c r="S345" s="10"/>
       <c r="T345" s="10"/>
     </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
         <v>522</v>
@@ -11483,7 +11480,7 @@
       <c r="S346" s="10"/>
       <c r="T346" s="10"/>
     </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
         <v>523</v>
@@ -11511,7 +11508,7 @@
       <c r="S347" s="10"/>
       <c r="T347" s="10"/>
     </row>
-    <row r="348" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:20" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A348" s="23"/>
       <c r="B348" s="23" t="s">
         <v>71</v>
@@ -11542,7 +11539,7 @@
       <c r="S348" s="23"/>
       <c r="T348" s="23"/>
     </row>
-    <row r="349" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="23" t="s">
         <v>524</v>
@@ -11572,7 +11569,7 @@
       <c r="S349" s="23"/>
       <c r="T349" s="23"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
         <v>525</v>
@@ -11600,7 +11597,7 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
         <v>526</v>
@@ -11630,7 +11627,7 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
         <v>528</v>
@@ -11658,7 +11655,7 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
         <v>529</v>
@@ -11686,7 +11683,7 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="10"/>
       <c r="B354" s="10" t="s">
         <v>530</v>
@@ -11716,7 +11713,7 @@
       <c r="S354" s="10"/>
       <c r="T354" s="10"/>
     </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A355" s="10"/>
       <c r="B355" s="10" t="s">
         <v>532</v>
@@ -11744,7 +11741,7 @@
       <c r="S355" s="10"/>
       <c r="T355" s="10"/>
     </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A356" s="10"/>
       <c r="B356" s="10" t="s">
         <v>533</v>
@@ -11774,7 +11771,7 @@
       <c r="S356" s="10"/>
       <c r="T356" s="10"/>
     </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="10"/>
       <c r="B357" s="10" t="s">
         <v>534</v>
@@ -11802,7 +11799,7 @@
       <c r="S357" s="10"/>
       <c r="T357" s="10"/>
     </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B358" s="12" t="s">
         <v>234</v>
       </c>
@@ -11819,7 +11816,7 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B359" s="12" t="s">
         <v>235</v>
       </c>
@@ -11836,7 +11833,7 @@
       <c r="S359" s="13"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B360" s="12" t="s">
         <v>236</v>
       </c>
@@ -11853,7 +11850,7 @@
       <c r="S360" s="13"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="10"/>
       <c r="B361" s="10" t="s">
         <v>535</v>
@@ -11881,7 +11878,7 @@
       <c r="S361" s="10"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B362" s="12" t="s">
         <v>237</v>
       </c>
@@ -11898,7 +11895,7 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B363" s="12" t="s">
         <v>238</v>
       </c>
@@ -11915,7 +11912,7 @@
       <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B364" s="12" t="s">
         <v>239</v>
       </c>
@@ -11941,7 +11938,7 @@
       <c r="S364" s="13"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A365" s="10"/>
       <c r="B365" s="10" t="s">
         <v>537</v>
@@ -11973,7 +11970,7 @@
       <c r="S365" s="10"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B366" s="12" t="s">
         <v>242</v>
       </c>
@@ -11990,7 +11987,7 @@
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B367" s="12" t="s">
         <v>630</v>
       </c>
@@ -12001,7 +11998,7 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B368" s="12" t="s">
         <v>243</v>
       </c>
@@ -12027,7 +12024,7 @@
       <c r="S368" s="13"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B369" s="12" t="s">
         <v>246</v>
       </c>
@@ -12044,7 +12041,7 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B370" s="12" t="s">
         <v>247</v>
       </c>
@@ -12067,7 +12064,7 @@
       <c r="S370" s="13"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B371" s="12" t="s">
         <v>250</v>
       </c>
@@ -12084,7 +12081,7 @@
       <c r="S371" s="13"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
         <v>542</v>
@@ -12112,7 +12109,7 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B373" s="12" t="s">
         <v>251</v>
       </c>
@@ -12129,7 +12126,7 @@
       <c r="S373" s="13"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
         <v>543</v>
@@ -12159,7 +12156,7 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
         <v>545</v>
@@ -12187,7 +12184,7 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
         <v>546</v>
@@ -12215,7 +12212,7 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
         <v>547</v>
@@ -12243,7 +12240,7 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
         <v>548</v>
@@ -12271,7 +12268,7 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
         <v>549</v>
@@ -12299,7 +12296,7 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
         <v>550</v>
@@ -12327,7 +12324,7 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
         <v>551</v>
@@ -12355,7 +12352,7 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
         <v>552</v>
@@ -12383,7 +12380,7 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A383" s="10"/>
       <c r="B383" s="10" t="s">
         <v>553</v>
@@ -12411,7 +12408,7 @@
       <c r="S383" s="10"/>
       <c r="T383" s="10"/>
     </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="10"/>
       <c r="B384" s="10" t="s">
         <v>554</v>
@@ -12439,7 +12436,7 @@
       <c r="S384" s="10"/>
       <c r="T384" s="10"/>
     </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A385" s="10"/>
       <c r="B385" s="10" t="s">
         <v>555</v>
@@ -12467,7 +12464,7 @@
       <c r="S385" s="10"/>
       <c r="T385" s="10"/>
     </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A386" s="10"/>
       <c r="B386" s="10" t="s">
         <v>556</v>
@@ -12495,7 +12492,7 @@
       <c r="S386" s="10"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B387" s="12" t="s">
         <v>136</v>
       </c>
@@ -12515,7 +12512,7 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B388" s="12" t="s">
         <v>253</v>
       </c>
@@ -12532,7 +12529,7 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B389" s="12" t="s">
         <v>254</v>
       </c>
@@ -12549,7 +12546,7 @@
       <c r="S389" s="13"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B390" s="12" t="s">
         <v>255</v>
       </c>
@@ -12566,7 +12563,7 @@
       <c r="S390" s="13"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B391" s="12" t="s">
         <v>256</v>
       </c>
@@ -12583,7 +12580,7 @@
       <c r="S391" s="13"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B392" s="12" t="s">
         <v>257</v>
       </c>
@@ -12600,7 +12597,7 @@
       <c r="S392" s="13"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="10"/>
       <c r="B393" s="10" t="s">
         <v>557</v>
@@ -12628,7 +12625,7 @@
       <c r="S393" s="10"/>
       <c r="T393" s="10"/>
     </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="10"/>
       <c r="B394" s="10" t="s">
         <v>558</v>
@@ -12656,7 +12653,7 @@
       <c r="S394" s="10"/>
       <c r="T394" s="10"/>
     </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
         <v>559</v>
@@ -12684,7 +12681,7 @@
       <c r="S395" s="10"/>
       <c r="T395" s="10"/>
     </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A396" s="10"/>
       <c r="B396" s="10" t="s">
         <v>560</v>
@@ -12712,7 +12709,7 @@
       <c r="S396" s="10"/>
       <c r="T396" s="10"/>
     </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B397" s="12" t="s">
         <v>258</v>
       </c>
@@ -12729,7 +12726,7 @@
       <c r="S397" s="13"/>
       <c r="T397" s="10"/>
     </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B398" s="12" t="s">
         <v>259</v>
       </c>
@@ -12746,7 +12743,7 @@
       <c r="S398" s="13"/>
       <c r="T398" s="10"/>
     </row>
-    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="10"/>
       <c r="B399" s="10" t="s">
         <v>561</v>
@@ -12780,7 +12777,7 @@
       <c r="S399" s="10"/>
       <c r="T399" s="10"/>
     </row>
-    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="10"/>
       <c r="B400" s="10" t="s">
         <v>563</v>
@@ -12808,7 +12805,7 @@
       <c r="S400" s="10"/>
       <c r="T400" s="10"/>
     </row>
-    <row r="401" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B401" s="12" t="s">
         <v>260</v>
       </c>
@@ -12825,7 +12822,7 @@
       <c r="S401" s="13"/>
       <c r="T401" s="10"/>
     </row>
-    <row r="402" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B402" s="12" t="s">
         <v>261</v>
       </c>
@@ -12842,13 +12839,13 @@
       <c r="S402" s="13"/>
       <c r="T402" s="10"/>
     </row>
-    <row r="403" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B404" s="13"/>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
@@ -12864,25 +12861,25 @@
       <c r="P404" s="11"/>
       <c r="Q404" s="11"/>
     </row>
-    <row r="405" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B406" s="13"/>
       <c r="Q406" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="407" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B407" s="13"/>
       <c r="Q407" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B408" s="13"/>
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
@@ -12898,13 +12895,13 @@
       <c r="P408" s="11"/>
       <c r="Q408" s="11"/>
     </row>
-    <row r="409" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B409" s="13"/>
       <c r="Q409" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B410" s="13"/>
       <c r="C410" s="11"/>
       <c r="D410" s="21"/>
@@ -12922,7 +12919,7 @@
       <c r="P410" s="11"/>
       <c r="Q410" s="11"/>
     </row>
-    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B411" s="13"/>
       <c r="C411" s="11"/>
       <c r="D411" s="21"/>
@@ -12940,44 +12937,44 @@
       <c r="P411" s="11"/>
       <c r="Q411" s="11"/>
     </row>
-    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B412" s="13"/>
       <c r="R412" s="11"/>
     </row>
-    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B417" s="13"/>
     </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B418" s="13"/>
     </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B419" s="13"/>
     </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B420" s="13"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="S421" s="11"/>
     </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B422" s="13"/>
       <c r="R422" s="11"/>
     </row>
-    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B423" s="13"/>
       <c r="C423" s="11"/>
       <c r="D423" s="21"/>
@@ -12995,7 +12992,7 @@
       <c r="P423" s="11"/>
       <c r="Q423" s="11"/>
     </row>
-    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B424" s="13"/>
       <c r="C424" s="11"/>
       <c r="D424" s="21"/>
@@ -13014,7 +13011,7 @@
       <c r="Q424" s="11"/>
       <c r="R424" s="11"/>
     </row>
-    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="11"/>
       <c r="B425" s="13"/>
       <c r="C425" s="11"/>
@@ -13035,7 +13032,7 @@
       <c r="R425" s="11"/>
       <c r="S425" s="11"/>
     </row>
-    <row r="426" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B426" s="13"/>
       <c r="C426" s="11"/>
       <c r="D426" s="21"/>
@@ -13054,7 +13051,7 @@
       <c r="Q426" s="11"/>
       <c r="R426" s="11"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B427" s="13"/>
     </row>
   </sheetData>
@@ -13067,23 +13064,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -13097,7 +13094,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -13108,7 +13105,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -13119,7 +13116,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -13133,7 +13130,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -13144,7 +13141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -13158,7 +13155,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -13169,7 +13166,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -13180,7 +13177,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13191,7 +13188,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13202,7 +13199,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13213,7 +13210,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13224,7 +13221,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13235,7 +13232,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13246,7 +13243,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13257,7 +13254,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13268,7 +13265,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13279,7 +13276,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13290,7 +13287,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>580</v>
       </c>
@@ -13308,29 +13305,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13368,7 +13365,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13382,7 +13379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13396,7 +13393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13413,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13424,7 +13421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13438,7 +13435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13455,7 +13452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13469,7 +13466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13486,7 +13483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13506,14 +13503,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13521,19 +13518,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13568,7 +13565,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13579,7 +13576,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13596,7 +13593,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13613,7 +13610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13630,7 +13627,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13647,7 +13644,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13664,7 +13661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13681,7 +13678,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13698,7 +13695,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13715,7 +13712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13732,7 +13729,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13758,7 +13755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13784,7 +13781,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13810,7 +13807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13836,7 +13833,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13862,7 +13859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13888,7 +13885,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13914,7 +13911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13940,7 +13937,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13966,7 +13963,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13992,7 +13989,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14018,7 +14015,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14044,7 +14041,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14070,7 +14067,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14096,7 +14093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14122,7 +14119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14148,7 +14145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14174,7 +14171,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14200,7 +14197,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_HUman_behaviour_Defs.xlsx
+++ b/inputs/AddictO_HUman_behaviour_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7038E1FC-4EB6-EF4B-BFB3-69DC157609DA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Upper level diagram" sheetId="6" r:id="rId4"/>
     <sheet name="Links" sheetId="3" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1968,7 +1969,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2198,7 +2199,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,39 +2496,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T427"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A155" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
+      <pane ySplit="1" topLeftCell="A249" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B263" sqref="B263"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.42578125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="21" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="11" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" style="11" customWidth="1"/>
     <col min="7" max="7" width="16" style="11" customWidth="1"/>
-    <col min="8" max="8" width="35.42578125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="48.28515625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="29.7109375" style="11" customWidth="1"/>
-    <col min="12" max="12" width="44.140625" style="11" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="11"/>
-    <col min="14" max="14" width="18.42578125" style="11" customWidth="1"/>
-    <col min="15" max="16" width="9.140625" style="11"/>
-    <col min="17" max="17" width="13.42578125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="37.140625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="48.7109375" style="11" customWidth="1"/>
-    <col min="20" max="20" width="24.7109375" style="11" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="11"/>
+    <col min="8" max="8" width="35.5" style="11" customWidth="1"/>
+    <col min="9" max="9" width="48.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="23.5" style="11" customWidth="1"/>
+    <col min="11" max="11" width="29.6640625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="44.1640625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" style="11"/>
+    <col min="14" max="14" width="18.5" style="11" customWidth="1"/>
+    <col min="15" max="16" width="9.1640625" style="11"/>
+    <col min="17" max="17" width="13.5" style="11" customWidth="1"/>
+    <col min="18" max="18" width="37.1640625" style="11" customWidth="1"/>
+    <col min="19" max="19" width="48.6640625" style="11" customWidth="1"/>
+    <col min="20" max="20" width="24.6640625" style="11" customWidth="1"/>
+    <col min="21" max="16384" width="9.1640625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="8" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" s="8" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2586,7 +2587,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="12" t="s">
         <v>118</v>
       </c>
@@ -2615,7 +2616,7 @@
       <c r="S2" s="13"/>
       <c r="T2" s="11"/>
     </row>
-    <row r="3" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B3" s="12" t="s">
         <v>124</v>
       </c>
@@ -2641,7 +2642,7 @@
       <c r="S3" s="13"/>
       <c r="T3" s="11"/>
     </row>
-    <row r="4" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
         <v>128</v>
       </c>
@@ -2667,7 +2668,7 @@
       <c r="S4" s="13"/>
       <c r="T4" s="11"/>
     </row>
-    <row r="5" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>130</v>
       </c>
@@ -2693,7 +2694,7 @@
       <c r="S5" s="13"/>
       <c r="T5" s="11"/>
     </row>
-    <row r="6" spans="1:20" s="25" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" s="25" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="25" t="s">
         <v>132</v>
       </c>
@@ -2721,7 +2722,7 @@
       <c r="S6" s="28"/>
       <c r="T6" s="26"/>
     </row>
-    <row r="7" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
         <v>262</v>
@@ -2755,7 +2756,7 @@
       <c r="S7" s="10"/>
       <c r="T7" s="11"/>
     </row>
-    <row r="8" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>134</v>
       </c>
@@ -2781,7 +2782,7 @@
       <c r="S8" s="13"/>
       <c r="T8" s="11"/>
     </row>
-    <row r="9" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
         <v>264</v>
@@ -2815,7 +2816,7 @@
       <c r="S9" s="10"/>
       <c r="T9" s="11"/>
     </row>
-    <row r="10" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
         <v>135</v>
       </c>
@@ -2841,7 +2842,7 @@
       <c r="S10" s="13"/>
       <c r="T10" s="11"/>
     </row>
-    <row r="11" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="12" t="s">
         <v>137</v>
       </c>
@@ -2870,7 +2871,7 @@
       <c r="S11" s="13"/>
       <c r="T11" s="11"/>
     </row>
-    <row r="12" spans="1:20" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="16"/>
       <c r="B12" s="16" t="s">
         <v>605</v>
@@ -2912,7 +2913,7 @@
       <c r="S12" s="16"/>
       <c r="T12" s="15"/>
     </row>
-    <row r="13" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>268</v>
@@ -2950,7 +2951,7 @@
       <c r="S13" s="10"/>
       <c r="T13" s="11"/>
     </row>
-    <row r="14" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="10"/>
       <c r="B14" s="10" t="s">
         <v>269</v>
@@ -2988,7 +2989,7 @@
       <c r="S14" s="10"/>
       <c r="T14" s="11"/>
     </row>
-    <row r="15" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
       <c r="B15" s="10" t="s">
         <v>270</v>
@@ -3021,7 +3022,7 @@
       <c r="R15" s="10"/>
       <c r="S15" s="10"/>
     </row>
-    <row r="16" spans="1:20" s="12" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>271</v>
@@ -3054,7 +3055,7 @@
       <c r="R16" s="10"/>
       <c r="S16" s="10"/>
     </row>
-    <row r="17" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="10"/>
       <c r="B17" s="10" t="s">
         <v>273</v>
@@ -3085,7 +3086,7 @@
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
     </row>
-    <row r="18" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>274</v>
@@ -3116,7 +3117,7 @@
       <c r="R18" s="10"/>
       <c r="S18" s="10"/>
     </row>
-    <row r="19" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="10"/>
       <c r="B19" s="10" t="s">
         <v>275</v>
@@ -3147,7 +3148,7 @@
       <c r="R19" s="10"/>
       <c r="S19" s="10"/>
     </row>
-    <row r="20" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>276</v>
@@ -3178,7 +3179,7 @@
       <c r="R20" s="10"/>
       <c r="S20" s="10"/>
     </row>
-    <row r="21" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
         <v>277</v>
@@ -3209,7 +3210,7 @@
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
     </row>
-    <row r="22" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
         <v>278</v>
@@ -3240,7 +3241,7 @@
       <c r="R22" s="10"/>
       <c r="S22" s="10"/>
     </row>
-    <row r="23" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>279</v>
@@ -3267,7 +3268,7 @@
       <c r="R23" s="10"/>
       <c r="S23" s="10"/>
     </row>
-    <row r="24" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="16"/>
       <c r="B24" s="16" t="s">
         <v>272</v>
@@ -3302,7 +3303,7 @@
       <c r="R24" s="16"/>
       <c r="S24" s="16"/>
     </row>
-    <row r="25" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>283</v>
@@ -3331,7 +3332,7 @@
       <c r="R25" s="10"/>
       <c r="S25" s="10"/>
     </row>
-    <row r="26" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>284</v>
@@ -3358,7 +3359,7 @@
       <c r="R26" s="10"/>
       <c r="S26" s="10"/>
     </row>
-    <row r="27" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
         <v>285</v>
@@ -3385,7 +3386,7 @@
       <c r="R27" s="10"/>
       <c r="S27" s="10"/>
     </row>
-    <row r="28" spans="1:19" s="12" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" s="12" customFormat="1" ht="112" x14ac:dyDescent="0.2">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
         <v>286</v>
@@ -3416,7 +3417,7 @@
       <c r="R28" s="10"/>
       <c r="S28" s="10"/>
     </row>
-    <row r="29" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>288</v>
@@ -3443,7 +3444,7 @@
       <c r="R29" s="10"/>
       <c r="S29" s="10"/>
     </row>
-    <row r="30" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
         <v>289</v>
@@ -3470,7 +3471,7 @@
       <c r="R30" s="10"/>
       <c r="S30" s="10"/>
     </row>
-    <row r="31" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
         <v>290</v>
@@ -3497,7 +3498,7 @@
       <c r="R31" s="10"/>
       <c r="S31" s="10"/>
     </row>
-    <row r="32" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
         <v>291</v>
@@ -3524,7 +3525,7 @@
       <c r="R32" s="10"/>
       <c r="S32" s="10"/>
     </row>
-    <row r="33" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
         <v>292</v>
@@ -3551,7 +3552,7 @@
       <c r="R33" s="10"/>
       <c r="S33" s="10"/>
     </row>
-    <row r="34" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
         <v>293</v>
@@ -3578,7 +3579,7 @@
       <c r="R34" s="10"/>
       <c r="S34" s="10"/>
     </row>
-    <row r="35" spans="1:19" s="17" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:19" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
         <v>593</v>
       </c>
@@ -3613,7 +3614,7 @@
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
     </row>
-    <row r="36" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>595</v>
       </c>
@@ -3635,7 +3636,7 @@
       </c>
       <c r="N36" s="18"/>
     </row>
-    <row r="37" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
         <v>597</v>
       </c>
@@ -3657,7 +3658,7 @@
       </c>
       <c r="N37" s="18"/>
     </row>
-    <row r="38" spans="1:19" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:19" s="15" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
         <v>600</v>
       </c>
@@ -3679,7 +3680,7 @@
       </c>
       <c r="N38" s="18"/>
     </row>
-    <row r="39" spans="1:19" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:19" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>295</v>
@@ -3708,7 +3709,7 @@
       <c r="R39" s="10"/>
       <c r="S39" s="10"/>
     </row>
-    <row r="40" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>139</v>
@@ -3739,7 +3740,7 @@
       <c r="R40" s="10"/>
       <c r="S40" s="10"/>
     </row>
-    <row r="41" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>299</v>
@@ -3768,7 +3769,7 @@
       <c r="R41" s="10"/>
       <c r="S41" s="10"/>
     </row>
-    <row r="42" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>282</v>
@@ -3799,7 +3800,7 @@
       <c r="R42" s="10"/>
       <c r="S42" s="10"/>
     </row>
-    <row r="43" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>301</v>
@@ -3826,7 +3827,7 @@
       <c r="R43" s="10"/>
       <c r="S43" s="10"/>
     </row>
-    <row r="44" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
         <v>539</v>
@@ -3859,7 +3860,7 @@
       <c r="R44" s="10"/>
       <c r="S44" s="10"/>
     </row>
-    <row r="45" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
         <v>249</v>
@@ -3892,7 +3893,7 @@
       <c r="R45" s="10"/>
       <c r="S45" s="10"/>
     </row>
-    <row r="46" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
         <v>302</v>
@@ -3919,7 +3920,7 @@
       <c r="R46" s="10"/>
       <c r="S46" s="10"/>
     </row>
-    <row r="47" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>303</v>
@@ -3946,7 +3947,7 @@
       <c r="R47" s="10"/>
       <c r="S47" s="10"/>
     </row>
-    <row r="48" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
         <v>304</v>
@@ -3973,7 +3974,7 @@
       <c r="R48" s="10"/>
       <c r="S48" s="10"/>
     </row>
-    <row r="49" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
         <v>305</v>
@@ -4000,7 +4001,7 @@
       <c r="R49" s="10"/>
       <c r="S49" s="10"/>
     </row>
-    <row r="50" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
         <v>306</v>
@@ -4027,7 +4028,7 @@
       <c r="R50" s="10"/>
       <c r="S50" s="10"/>
     </row>
-    <row r="51" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
         <v>307</v>
@@ -4054,7 +4055,7 @@
       <c r="R51" s="10"/>
       <c r="S51" s="10"/>
     </row>
-    <row r="52" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
         <v>308</v>
@@ -4081,7 +4082,7 @@
       <c r="R52" s="10"/>
       <c r="S52" s="10"/>
     </row>
-    <row r="53" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>309</v>
@@ -4108,7 +4109,7 @@
       <c r="R53" s="10"/>
       <c r="S53" s="10"/>
     </row>
-    <row r="54" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
         <v>310</v>
@@ -4135,7 +4136,7 @@
       <c r="R54" s="10"/>
       <c r="S54" s="10"/>
     </row>
-    <row r="55" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
         <v>311</v>
@@ -4162,7 +4163,7 @@
       <c r="R55" s="10"/>
       <c r="S55" s="10"/>
     </row>
-    <row r="56" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
         <v>312</v>
@@ -4189,7 +4190,7 @@
       <c r="R56" s="10"/>
       <c r="S56" s="10"/>
     </row>
-    <row r="57" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
         <v>313</v>
@@ -4216,7 +4217,7 @@
       <c r="R57" s="10"/>
       <c r="S57" s="10"/>
     </row>
-    <row r="58" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="10"/>
       <c r="B58" s="10" t="s">
         <v>314</v>
@@ -4243,7 +4244,7 @@
       <c r="R58" s="10"/>
       <c r="S58" s="10"/>
     </row>
-    <row r="59" spans="1:19" s="12" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:19" s="12" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A59" s="10"/>
       <c r="B59" s="10" t="s">
         <v>315</v>
@@ -4272,7 +4273,7 @@
       <c r="R59" s="10"/>
       <c r="S59" s="10"/>
     </row>
-    <row r="60" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>317</v>
@@ -4299,7 +4300,7 @@
       <c r="R60" s="10"/>
       <c r="S60" s="10"/>
     </row>
-    <row r="61" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="10"/>
       <c r="B61" s="10" t="s">
         <v>318</v>
@@ -4326,7 +4327,7 @@
       <c r="R61" s="10"/>
       <c r="S61" s="10"/>
     </row>
-    <row r="62" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="10"/>
       <c r="B62" s="10" t="s">
         <v>319</v>
@@ -4353,7 +4354,7 @@
       <c r="R62" s="10"/>
       <c r="S62" s="10"/>
     </row>
-    <row r="63" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="10"/>
       <c r="B63" s="10" t="s">
         <v>320</v>
@@ -4380,7 +4381,7 @@
       <c r="R63" s="10"/>
       <c r="S63" s="10"/>
     </row>
-    <row r="64" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="10"/>
       <c r="B64" s="10" t="s">
         <v>321</v>
@@ -4407,7 +4408,7 @@
       <c r="R64" s="10"/>
       <c r="S64" s="10"/>
     </row>
-    <row r="65" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="10"/>
       <c r="B65" s="10" t="s">
         <v>322</v>
@@ -4434,7 +4435,7 @@
       <c r="R65" s="10"/>
       <c r="S65" s="10"/>
     </row>
-    <row r="66" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="10"/>
       <c r="B66" s="10" t="s">
         <v>323</v>
@@ -4461,7 +4462,7 @@
       <c r="R66" s="10"/>
       <c r="S66" s="10"/>
     </row>
-    <row r="67" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="12" t="s">
         <v>140</v>
       </c>
@@ -4477,7 +4478,7 @@
       </c>
       <c r="S67" s="13"/>
     </row>
-    <row r="68" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B68" s="12" t="s">
         <v>141</v>
       </c>
@@ -4493,7 +4494,7 @@
       </c>
       <c r="S68" s="13"/>
     </row>
-    <row r="69" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="10"/>
       <c r="B69" s="10" t="s">
         <v>324</v>
@@ -4520,7 +4521,7 @@
       <c r="R69" s="10"/>
       <c r="S69" s="10"/>
     </row>
-    <row r="70" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B70" s="12" t="s">
         <v>142</v>
       </c>
@@ -4536,7 +4537,7 @@
       </c>
       <c r="S70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>325</v>
@@ -4563,7 +4564,7 @@
       <c r="R71" s="10"/>
       <c r="S71" s="10"/>
     </row>
-    <row r="72" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>326</v>
@@ -4590,7 +4591,7 @@
       <c r="R72" s="10"/>
       <c r="S72" s="10"/>
     </row>
-    <row r="73" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="10"/>
       <c r="B73" s="10" t="s">
         <v>327</v>
@@ -4617,7 +4618,7 @@
       <c r="R73" s="10"/>
       <c r="S73" s="10"/>
     </row>
-    <row r="74" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="10"/>
       <c r="B74" s="10" t="s">
         <v>328</v>
@@ -4644,7 +4645,7 @@
       <c r="R74" s="10"/>
       <c r="S74" s="10"/>
     </row>
-    <row r="75" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="11"/>
       <c r="B75" s="11" t="s">
         <v>63</v>
@@ -4675,7 +4676,7 @@
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="11"/>
       <c r="B76" s="11" t="s">
         <v>64</v>
@@ -4706,7 +4707,7 @@
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
     </row>
-    <row r="77" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="10"/>
       <c r="B77" s="10" t="s">
         <v>329</v>
@@ -4733,7 +4734,7 @@
       <c r="R77" s="10"/>
       <c r="S77" s="10"/>
     </row>
-    <row r="78" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="12" t="s">
         <v>143</v>
       </c>
@@ -4749,7 +4750,7 @@
       </c>
       <c r="S78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="10"/>
       <c r="B79" s="10" t="s">
         <v>330</v>
@@ -4776,7 +4777,7 @@
       <c r="R79" s="10"/>
       <c r="S79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="10"/>
       <c r="B80" s="10" t="s">
         <v>331</v>
@@ -4803,7 +4804,7 @@
       <c r="R80" s="10"/>
       <c r="S80" s="10"/>
     </row>
-    <row r="81" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="11"/>
       <c r="B81" s="11" t="s">
         <v>111</v>
@@ -4834,7 +4835,7 @@
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
     </row>
-    <row r="82" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="10"/>
       <c r="B82" s="10" t="s">
         <v>280</v>
@@ -4865,7 +4866,7 @@
       <c r="R82" s="10"/>
       <c r="S82" s="10"/>
     </row>
-    <row r="83" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>334</v>
@@ -4890,7 +4891,7 @@
       <c r="R83" s="10"/>
       <c r="S83" s="10"/>
     </row>
-    <row r="84" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>335</v>
@@ -4917,7 +4918,7 @@
       <c r="R84" s="10"/>
       <c r="S84" s="10"/>
     </row>
-    <row r="85" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="10"/>
       <c r="B85" s="10" t="s">
         <v>336</v>
@@ -4944,7 +4945,7 @@
       <c r="R85" s="10"/>
       <c r="S85" s="10"/>
     </row>
-    <row r="86" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="10"/>
       <c r="B86" s="10" t="s">
         <v>337</v>
@@ -4971,7 +4972,7 @@
       <c r="R86" s="10"/>
       <c r="S86" s="10"/>
     </row>
-    <row r="87" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="10"/>
       <c r="B87" s="10" t="s">
         <v>144</v>
@@ -4998,7 +4999,7 @@
       <c r="R87" s="10"/>
       <c r="S87" s="10"/>
     </row>
-    <row r="88" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="10"/>
       <c r="B88" s="10" t="s">
         <v>339</v>
@@ -5023,7 +5024,7 @@
       <c r="R88" s="10"/>
       <c r="S88" s="10"/>
     </row>
-    <row r="89" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A89" s="10"/>
       <c r="B89" s="10" t="s">
         <v>340</v>
@@ -5050,7 +5051,7 @@
       <c r="R89" s="10"/>
       <c r="S89" s="10"/>
     </row>
-    <row r="90" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A90" s="10"/>
       <c r="B90" s="12" t="s">
         <v>120</v>
@@ -5075,7 +5076,7 @@
       <c r="R90" s="10"/>
       <c r="S90" s="10"/>
     </row>
-    <row r="91" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="12" t="s">
         <v>145</v>
       </c>
@@ -5092,7 +5093,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="92" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="10" t="s">
         <v>341</v>
       </c>
@@ -5108,7 +5109,7 @@
       </c>
       <c r="S92" s="13"/>
     </row>
-    <row r="93" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="10"/>
       <c r="B93" s="10" t="s">
         <v>342</v>
@@ -5135,7 +5136,7 @@
       <c r="R93" s="10"/>
       <c r="S93" s="10"/>
     </row>
-    <row r="94" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A94" s="10"/>
       <c r="B94" s="12" t="s">
         <v>146</v>
@@ -5161,7 +5162,7 @@
       </c>
       <c r="S94" s="10"/>
     </row>
-    <row r="95" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B95" s="12" t="s">
         <v>149</v>
       </c>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="S95" s="13"/>
     </row>
-    <row r="96" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="10"/>
       <c r="B96" s="10" t="s">
         <v>343</v>
@@ -5210,7 +5211,7 @@
       <c r="R96" s="10"/>
       <c r="S96" s="10"/>
     </row>
-    <row r="97" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="10"/>
       <c r="B97" s="10" t="s">
         <v>344</v>
@@ -5237,7 +5238,7 @@
       <c r="R97" s="10"/>
       <c r="S97" s="10"/>
     </row>
-    <row r="98" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="10"/>
       <c r="B98" s="10" t="s">
         <v>345</v>
@@ -5264,7 +5265,7 @@
       <c r="R98" s="10"/>
       <c r="S98" s="10"/>
     </row>
-    <row r="99" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="10"/>
       <c r="B99" s="10" t="s">
         <v>346</v>
@@ -5291,7 +5292,7 @@
       <c r="R99" s="10"/>
       <c r="S99" s="10"/>
     </row>
-    <row r="100" spans="1:19" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A100" s="31"/>
       <c r="B100" s="29" t="s">
         <v>638</v>
@@ -5330,7 +5331,7 @@
       <c r="R100" s="31"/>
       <c r="S100" s="31"/>
     </row>
-    <row r="101" spans="1:19" s="30" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="30" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A101" s="31"/>
       <c r="B101" s="29" t="s">
         <v>642</v>
@@ -5367,7 +5368,7 @@
       <c r="R101" s="31"/>
       <c r="S101" s="31"/>
     </row>
-    <row r="102" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="10"/>
       <c r="B102" s="10" t="s">
         <v>347</v>
@@ -5394,7 +5395,7 @@
       <c r="R102" s="10"/>
       <c r="S102" s="10"/>
     </row>
-    <row r="103" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="10"/>
       <c r="B103" s="10" t="s">
         <v>348</v>
@@ -5421,7 +5422,7 @@
       <c r="R103" s="10"/>
       <c r="S103" s="10"/>
     </row>
-    <row r="104" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>349</v>
@@ -5448,7 +5449,7 @@
       <c r="R104" s="10"/>
       <c r="S104" s="10"/>
     </row>
-    <row r="105" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>350</v>
@@ -5475,7 +5476,7 @@
       <c r="R105" s="10"/>
       <c r="S105" s="10"/>
     </row>
-    <row r="106" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>351</v>
@@ -5502,7 +5503,7 @@
       <c r="R106" s="10"/>
       <c r="S106" s="10"/>
     </row>
-    <row r="107" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="10"/>
       <c r="B107" s="10" t="s">
         <v>352</v>
@@ -5529,7 +5530,7 @@
       <c r="R107" s="10"/>
       <c r="S107" s="10"/>
     </row>
-    <row r="108" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
         <v>353</v>
@@ -5556,7 +5557,7 @@
       <c r="R108" s="10"/>
       <c r="S108" s="10"/>
     </row>
-    <row r="109" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
         <v>354</v>
@@ -5585,7 +5586,7 @@
       <c r="R109" s="10"/>
       <c r="S109" s="10"/>
     </row>
-    <row r="110" spans="1:19" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:19" s="25" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="23"/>
       <c r="B110" s="23" t="s">
         <v>356</v>
@@ -5613,7 +5614,7 @@
       <c r="R110" s="23"/>
       <c r="S110" s="23"/>
     </row>
-    <row r="111" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
         <v>357</v>
@@ -5642,7 +5643,7 @@
       <c r="R111" s="10"/>
       <c r="S111" s="10"/>
     </row>
-    <row r="112" spans="1:19" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
         <v>359</v>
@@ -5668,7 +5669,7 @@
       <c r="R112" s="10"/>
       <c r="S112" s="10"/>
     </row>
-    <row r="113" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
         <v>360</v>
@@ -5695,7 +5696,7 @@
       <c r="R113" s="10"/>
       <c r="S113" s="10"/>
     </row>
-    <row r="114" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
         <v>361</v>
@@ -5723,7 +5724,7 @@
       <c r="S114" s="10"/>
       <c r="T114" s="10"/>
     </row>
-    <row r="115" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="10" t="s">
         <v>362</v>
@@ -5751,7 +5752,7 @@
       <c r="S115" s="10"/>
       <c r="T115" s="10"/>
     </row>
-    <row r="116" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
         <v>265</v>
@@ -5779,7 +5780,7 @@
       <c r="S116" s="10"/>
       <c r="T116" s="10"/>
     </row>
-    <row r="117" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="10"/>
       <c r="B117" s="10" t="s">
         <v>364</v>
@@ -5811,7 +5812,7 @@
       <c r="S117" s="10"/>
       <c r="T117" s="10"/>
     </row>
-    <row r="118" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="10"/>
       <c r="B118" s="10" t="s">
         <v>365</v>
@@ -5839,7 +5840,7 @@
       <c r="S118" s="10"/>
       <c r="T118" s="10"/>
     </row>
-    <row r="119" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="10"/>
       <c r="B119" s="10" t="s">
         <v>366</v>
@@ -5867,7 +5868,7 @@
       <c r="S119" s="10"/>
       <c r="T119" s="10"/>
     </row>
-    <row r="120" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
         <v>367</v>
@@ -5895,7 +5896,7 @@
       <c r="S120" s="10"/>
       <c r="T120" s="10"/>
     </row>
-    <row r="121" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
         <v>368</v>
@@ -5923,7 +5924,7 @@
       <c r="S121" s="10"/>
       <c r="T121" s="10"/>
     </row>
-    <row r="122" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A122" s="10"/>
       <c r="B122" s="12" t="s">
         <v>151</v>
@@ -5951,7 +5952,7 @@
       <c r="S122" s="10"/>
       <c r="T122" s="10"/>
     </row>
-    <row r="123" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B123" s="12" t="s">
         <v>152</v>
       </c>
@@ -5971,7 +5972,7 @@
       <c r="S123" s="13"/>
       <c r="T123" s="10"/>
     </row>
-    <row r="124" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="12" t="s">
         <v>154</v>
       </c>
@@ -5991,7 +5992,7 @@
       <c r="S124" s="13"/>
       <c r="T124" s="10"/>
     </row>
-    <row r="125" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B125" s="10" t="s">
         <v>369</v>
       </c>
@@ -6015,7 +6016,7 @@
       <c r="S125" s="13"/>
       <c r="T125" s="10"/>
     </row>
-    <row r="126" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="10"/>
       <c r="B126" s="10" t="s">
         <v>371</v>
@@ -6043,7 +6044,7 @@
       <c r="S126" s="10"/>
       <c r="T126" s="10"/>
     </row>
-    <row r="127" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
         <v>372</v>
@@ -6071,7 +6072,7 @@
       <c r="S127" s="10"/>
       <c r="T127" s="10"/>
     </row>
-    <row r="128" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="10"/>
       <c r="B128" s="12" t="s">
         <v>157</v>
@@ -6099,7 +6100,7 @@
       <c r="S128" s="10"/>
       <c r="T128" s="10"/>
     </row>
-    <row r="129" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="12" t="s">
         <v>158</v>
       </c>
@@ -6116,7 +6117,7 @@
       <c r="S129" s="13"/>
       <c r="T129" s="10"/>
     </row>
-    <row r="130" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="12" t="s">
         <v>160</v>
       </c>
@@ -6136,7 +6137,7 @@
       <c r="S130" s="13"/>
       <c r="T130" s="10"/>
     </row>
-    <row r="131" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B131" s="12" t="s">
         <v>161</v>
       </c>
@@ -6153,7 +6154,7 @@
       <c r="S131" s="13"/>
       <c r="T131" s="10"/>
     </row>
-    <row r="132" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="12" t="s">
         <v>162</v>
       </c>
@@ -6170,7 +6171,7 @@
       <c r="S132" s="13"/>
       <c r="T132" s="10"/>
     </row>
-    <row r="133" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="12" t="s">
         <v>163</v>
       </c>
@@ -6187,7 +6188,7 @@
       <c r="S133" s="13"/>
       <c r="T133" s="10"/>
     </row>
-    <row r="134" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="12" t="s">
         <v>164</v>
       </c>
@@ -6204,7 +6205,7 @@
       <c r="S134" s="13"/>
       <c r="T134" s="10"/>
     </row>
-    <row r="135" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="12" t="s">
         <v>165</v>
       </c>
@@ -6221,7 +6222,7 @@
       <c r="S135" s="13"/>
       <c r="T135" s="10"/>
     </row>
-    <row r="136" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="12" t="s">
         <v>166</v>
       </c>
@@ -6238,7 +6239,7 @@
       <c r="S136" s="13"/>
       <c r="T136" s="10"/>
     </row>
-    <row r="137" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="12" t="s">
         <v>167</v>
       </c>
@@ -6255,7 +6256,7 @@
       <c r="S137" s="13"/>
       <c r="T137" s="10"/>
     </row>
-    <row r="138" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B138" s="12" t="s">
         <v>168</v>
       </c>
@@ -6272,7 +6273,7 @@
       <c r="S138" s="13"/>
       <c r="T138" s="10"/>
     </row>
-    <row r="139" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="12" t="s">
         <v>169</v>
       </c>
@@ -6289,7 +6290,7 @@
       <c r="S139" s="13"/>
       <c r="T139" s="10"/>
     </row>
-    <row r="140" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="12" t="s">
         <v>170</v>
       </c>
@@ -6306,7 +6307,7 @@
       <c r="S140" s="13"/>
       <c r="T140" s="10"/>
     </row>
-    <row r="141" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" s="12" t="s">
         <v>171</v>
       </c>
@@ -6323,7 +6324,7 @@
       <c r="S141" s="13"/>
       <c r="T141" s="10"/>
     </row>
-    <row r="142" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" s="10" t="s">
         <v>373</v>
       </c>
@@ -6340,7 +6341,7 @@
       <c r="S142" s="13"/>
       <c r="T142" s="10"/>
     </row>
-    <row r="143" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
         <v>374</v>
@@ -6368,7 +6369,7 @@
       <c r="S143" s="10"/>
       <c r="T143" s="10"/>
     </row>
-    <row r="144" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="10"/>
       <c r="B144" s="10" t="s">
         <v>375</v>
@@ -6396,7 +6397,7 @@
       <c r="S144" s="10"/>
       <c r="T144" s="10"/>
     </row>
-    <row r="145" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="10"/>
       <c r="B145" s="12" t="s">
         <v>172</v>
@@ -6424,7 +6425,7 @@
       <c r="S145" s="10"/>
       <c r="T145" s="10"/>
     </row>
-    <row r="146" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" s="10" t="s">
         <v>376</v>
       </c>
@@ -6441,7 +6442,7 @@
       <c r="S146" s="13"/>
       <c r="T146" s="10"/>
     </row>
-    <row r="147" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="10"/>
       <c r="B147" s="10" t="s">
         <v>377</v>
@@ -6469,7 +6470,7 @@
       <c r="S147" s="10"/>
       <c r="T147" s="10"/>
     </row>
-    <row r="148" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
         <v>378</v>
@@ -6497,7 +6498,7 @@
       <c r="S148" s="10"/>
       <c r="T148" s="10"/>
     </row>
-    <row r="149" spans="1:20" s="12" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:20" s="12" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A149" s="10"/>
       <c r="B149" s="10" t="s">
         <v>379</v>
@@ -6529,7 +6530,7 @@
       <c r="S149" s="10"/>
       <c r="T149" s="10"/>
     </row>
-    <row r="150" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="10"/>
       <c r="B150" s="10" t="s">
         <v>382</v>
@@ -6555,7 +6556,7 @@
       <c r="S150" s="10"/>
       <c r="T150" s="10"/>
     </row>
-    <row r="151" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="10"/>
       <c r="B151" s="10" t="s">
         <v>383</v>
@@ -6583,7 +6584,7 @@
       <c r="S151" s="10"/>
       <c r="T151" s="10"/>
     </row>
-    <row r="152" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="10"/>
       <c r="B152" s="10" t="s">
         <v>384</v>
@@ -6611,7 +6612,7 @@
       <c r="S152" s="10"/>
       <c r="T152" s="10"/>
     </row>
-    <row r="153" spans="1:20" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:20" s="17" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A153" s="16"/>
       <c r="B153" s="16" t="s">
         <v>633</v>
@@ -6647,7 +6648,7 @@
       <c r="S153" s="16"/>
       <c r="T153" s="16"/>
     </row>
-    <row r="154" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="10"/>
       <c r="B154" s="10" t="s">
         <v>385</v>
@@ -6675,7 +6676,7 @@
       <c r="S154" s="10"/>
       <c r="T154" s="10"/>
     </row>
-    <row r="155" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="10"/>
       <c r="B155" s="10" t="s">
         <v>386</v>
@@ -6703,7 +6704,7 @@
       <c r="S155" s="10"/>
       <c r="T155" s="10"/>
     </row>
-    <row r="156" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="10"/>
       <c r="B156" s="10" t="s">
         <v>387</v>
@@ -6731,7 +6732,7 @@
       <c r="S156" s="10"/>
       <c r="T156" s="10"/>
     </row>
-    <row r="157" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="10"/>
       <c r="B157" s="12" t="s">
         <v>173</v>
@@ -6759,7 +6760,7 @@
       <c r="S157" s="10"/>
       <c r="T157" s="10"/>
     </row>
-    <row r="158" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B158" s="10" t="s">
         <v>388</v>
       </c>
@@ -6776,7 +6777,7 @@
       <c r="S158" s="13"/>
       <c r="T158" s="10"/>
     </row>
-    <row r="159" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="10"/>
       <c r="B159" s="10" t="s">
         <v>389</v>
@@ -6810,7 +6811,7 @@
       <c r="S159" s="10"/>
       <c r="T159" s="10"/>
     </row>
-    <row r="160" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="10"/>
       <c r="B160" s="12" t="s">
         <v>174</v>
@@ -6836,7 +6837,7 @@
       <c r="S160" s="10"/>
       <c r="T160" s="10"/>
     </row>
-    <row r="161" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="10" t="s">
         <v>391</v>
       </c>
@@ -6856,7 +6857,7 @@
       <c r="S161" s="13"/>
       <c r="T161" s="10"/>
     </row>
-    <row r="162" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="10"/>
       <c r="B162" s="10" t="s">
         <v>392</v>
@@ -6884,7 +6885,7 @@
       <c r="S162" s="10"/>
       <c r="T162" s="10"/>
     </row>
-    <row r="163" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="10"/>
       <c r="B163" s="10" t="s">
         <v>394</v>
@@ -6914,7 +6915,7 @@
       <c r="S163" s="10"/>
       <c r="T163" s="10"/>
     </row>
-    <row r="164" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A164" s="10"/>
       <c r="B164" s="10" t="s">
         <v>395</v>
@@ -6942,7 +6943,7 @@
       <c r="S164" s="10"/>
       <c r="T164" s="10"/>
     </row>
-    <row r="165" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="10"/>
       <c r="B165" s="10" t="s">
         <v>396</v>
@@ -6970,7 +6971,7 @@
       <c r="S165" s="10"/>
       <c r="T165" s="10"/>
     </row>
-    <row r="166" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="10"/>
       <c r="B166" s="10" t="s">
         <v>397</v>
@@ -6998,7 +6999,7 @@
       <c r="S166" s="10"/>
       <c r="T166" s="10"/>
     </row>
-    <row r="167" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="10"/>
       <c r="B167" s="10" t="s">
         <v>398</v>
@@ -7026,7 +7027,7 @@
       <c r="S167" s="10"/>
       <c r="T167" s="10"/>
     </row>
-    <row r="168" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="10"/>
       <c r="B168" s="10" t="s">
         <v>399</v>
@@ -7054,7 +7055,7 @@
       <c r="S168" s="10"/>
       <c r="T168" s="10"/>
     </row>
-    <row r="169" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="10"/>
       <c r="B169" s="10" t="s">
         <v>400</v>
@@ -7082,7 +7083,7 @@
       <c r="S169" s="10"/>
       <c r="T169" s="10"/>
     </row>
-    <row r="170" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="10"/>
       <c r="B170" s="10" t="s">
         <v>401</v>
@@ -7110,7 +7111,7 @@
       <c r="S170" s="10"/>
       <c r="T170" s="10"/>
     </row>
-    <row r="171" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="10"/>
       <c r="B171" s="10" t="s">
         <v>402</v>
@@ -7138,7 +7139,7 @@
       <c r="S171" s="10"/>
       <c r="T171" s="10"/>
     </row>
-    <row r="172" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="10"/>
       <c r="B172" s="10" t="s">
         <v>403</v>
@@ -7166,7 +7167,7 @@
       <c r="S172" s="10"/>
       <c r="T172" s="10"/>
     </row>
-    <row r="173" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="10"/>
       <c r="B173" s="10" t="s">
         <v>404</v>
@@ -7194,7 +7195,7 @@
       <c r="S173" s="10"/>
       <c r="T173" s="10"/>
     </row>
-    <row r="174" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="10"/>
       <c r="B174" s="10" t="s">
         <v>405</v>
@@ -7222,7 +7223,7 @@
       <c r="S174" s="10"/>
       <c r="T174" s="10"/>
     </row>
-    <row r="175" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="10"/>
       <c r="B175" s="10" t="s">
         <v>406</v>
@@ -7250,7 +7251,7 @@
       <c r="S175" s="10"/>
       <c r="T175" s="10"/>
     </row>
-    <row r="176" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="10"/>
       <c r="B176" s="12" t="s">
         <v>175</v>
@@ -7280,7 +7281,7 @@
       <c r="S176" s="10"/>
       <c r="T176" s="10"/>
     </row>
-    <row r="177" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="10"/>
       <c r="B177" s="10" t="s">
         <v>407</v>
@@ -7312,7 +7313,7 @@
       <c r="S177" s="10"/>
       <c r="T177" s="10"/>
     </row>
-    <row r="178" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="10"/>
       <c r="B178" s="10" t="s">
         <v>410</v>
@@ -7340,7 +7341,7 @@
       <c r="S178" s="10"/>
       <c r="T178" s="10"/>
     </row>
-    <row r="179" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="10"/>
       <c r="B179" s="10" t="s">
         <v>411</v>
@@ -7368,7 +7369,7 @@
       <c r="S179" s="10"/>
       <c r="T179" s="10"/>
     </row>
-    <row r="180" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="10"/>
       <c r="B180" s="10" t="s">
         <v>412</v>
@@ -7402,7 +7403,7 @@
       <c r="S180" s="10"/>
       <c r="T180" s="10"/>
     </row>
-    <row r="181" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="11"/>
       <c r="B181" s="11" t="s">
         <v>66</v>
@@ -7434,7 +7435,7 @@
       <c r="S181" s="11"/>
       <c r="T181" s="10"/>
     </row>
-    <row r="182" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B182" s="12" t="s">
         <v>176</v>
       </c>
@@ -7451,7 +7452,7 @@
       <c r="S182" s="13"/>
       <c r="T182" s="10"/>
     </row>
-    <row r="183" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B183" s="12" t="s">
         <v>177</v>
       </c>
@@ -7468,7 +7469,7 @@
       <c r="S183" s="13"/>
       <c r="T183" s="10"/>
     </row>
-    <row r="184" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A184" s="10"/>
       <c r="B184" s="10" t="s">
         <v>414</v>
@@ -7496,7 +7497,7 @@
       <c r="S184" s="10"/>
       <c r="T184" s="10"/>
     </row>
-    <row r="185" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B185" s="12" t="s">
         <v>178</v>
       </c>
@@ -7513,7 +7514,7 @@
       <c r="S185" s="13"/>
       <c r="T185" s="10"/>
     </row>
-    <row r="186" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="10"/>
       <c r="B186" s="10" t="s">
         <v>415</v>
@@ -7541,7 +7542,7 @@
       <c r="S186" s="10"/>
       <c r="T186" s="10"/>
     </row>
-    <row r="187" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="10"/>
       <c r="B187" s="10" t="s">
         <v>416</v>
@@ -7569,7 +7570,7 @@
       <c r="S187" s="10"/>
       <c r="T187" s="10"/>
     </row>
-    <row r="188" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="10"/>
       <c r="B188" s="10" t="s">
         <v>417</v>
@@ -7597,7 +7598,7 @@
       <c r="S188" s="10"/>
       <c r="T188" s="10"/>
     </row>
-    <row r="189" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A189" s="10"/>
       <c r="B189" s="10" t="s">
         <v>418</v>
@@ -7625,7 +7626,7 @@
       <c r="S189" s="10"/>
       <c r="T189" s="10"/>
     </row>
-    <row r="190" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B190" s="12" t="s">
         <v>179</v>
       </c>
@@ -7642,7 +7643,7 @@
       <c r="S190" s="13"/>
       <c r="T190" s="10"/>
     </row>
-    <row r="191" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A191" s="10"/>
       <c r="B191" s="10" t="s">
         <v>419</v>
@@ -7670,7 +7671,7 @@
       <c r="S191" s="10"/>
       <c r="T191" s="10"/>
     </row>
-    <row r="192" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A192" s="10"/>
       <c r="B192" s="10" t="s">
         <v>420</v>
@@ -7698,7 +7699,7 @@
       <c r="S192" s="10"/>
       <c r="T192" s="10"/>
     </row>
-    <row r="193" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A193" s="10"/>
       <c r="B193" s="10" t="s">
         <v>421</v>
@@ -7726,7 +7727,7 @@
       <c r="S193" s="10"/>
       <c r="T193" s="10"/>
     </row>
-    <row r="194" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A194" s="10"/>
       <c r="B194" s="10" t="s">
         <v>422</v>
@@ -7754,7 +7755,7 @@
       <c r="S194" s="10"/>
       <c r="T194" s="10"/>
     </row>
-    <row r="195" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="10"/>
       <c r="B195" s="10" t="s">
         <v>423</v>
@@ -7782,7 +7783,7 @@
       <c r="S195" s="10"/>
       <c r="T195" s="10"/>
     </row>
-    <row r="196" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="10"/>
       <c r="B196" s="10" t="s">
         <v>424</v>
@@ -7810,7 +7811,7 @@
       <c r="S196" s="10"/>
       <c r="T196" s="10"/>
     </row>
-    <row r="197" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B197" s="12" t="s">
         <v>180</v>
       </c>
@@ -7827,7 +7828,7 @@
       <c r="S197" s="13"/>
       <c r="T197" s="10"/>
     </row>
-    <row r="198" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A198" s="10"/>
       <c r="B198" s="10" t="s">
         <v>425</v>
@@ -7855,7 +7856,7 @@
       <c r="S198" s="10"/>
       <c r="T198" s="10"/>
     </row>
-    <row r="199" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B199" s="12" t="s">
         <v>181</v>
       </c>
@@ -7872,7 +7873,7 @@
       <c r="S199" s="13"/>
       <c r="T199" s="10"/>
     </row>
-    <row r="200" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="12" t="s">
         <v>182</v>
       </c>
@@ -7889,7 +7890,7 @@
       <c r="S200" s="13"/>
       <c r="T200" s="10"/>
     </row>
-    <row r="201" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="12" t="s">
         <v>183</v>
       </c>
@@ -7906,7 +7907,7 @@
       <c r="S201" s="13"/>
       <c r="T201" s="10"/>
     </row>
-    <row r="202" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B202" s="12" t="s">
         <v>184</v>
       </c>
@@ -7923,7 +7924,7 @@
       <c r="S202" s="13"/>
       <c r="T202" s="10"/>
     </row>
-    <row r="203" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B203" s="12" t="s">
         <v>185</v>
       </c>
@@ -7940,7 +7941,7 @@
       <c r="S203" s="13"/>
       <c r="T203" s="10"/>
     </row>
-    <row r="204" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B204" s="12" t="s">
         <v>186</v>
       </c>
@@ -7957,7 +7958,7 @@
       <c r="S204" s="13"/>
       <c r="T204" s="10"/>
     </row>
-    <row r="205" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A205" s="10"/>
       <c r="B205" s="10" t="s">
         <v>426</v>
@@ -7985,7 +7986,7 @@
       <c r="S205" s="10"/>
       <c r="T205" s="10"/>
     </row>
-    <row r="206" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B206" s="12" t="s">
         <v>187</v>
       </c>
@@ -8002,7 +8003,7 @@
       <c r="S206" s="13"/>
       <c r="T206" s="10"/>
     </row>
-    <row r="207" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="10"/>
       <c r="B207" s="10" t="s">
         <v>427</v>
@@ -8030,7 +8031,7 @@
       <c r="S207" s="10"/>
       <c r="T207" s="10"/>
     </row>
-    <row r="208" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A208" s="10"/>
       <c r="B208" s="10" t="s">
         <v>428</v>
@@ -8058,7 +8059,7 @@
       <c r="S208" s="10"/>
       <c r="T208" s="10"/>
     </row>
-    <row r="209" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="10"/>
       <c r="B209" s="10" t="s">
         <v>429</v>
@@ -8086,7 +8087,7 @@
       <c r="S209" s="10"/>
       <c r="T209" s="10"/>
     </row>
-    <row r="210" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="10"/>
       <c r="B210" s="10" t="s">
         <v>430</v>
@@ -8114,7 +8115,7 @@
       <c r="S210" s="10"/>
       <c r="T210" s="10"/>
     </row>
-    <row r="211" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B211" s="12" t="s">
         <v>188</v>
       </c>
@@ -8131,7 +8132,7 @@
       <c r="S211" s="13"/>
       <c r="T211" s="10"/>
     </row>
-    <row r="212" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B212" s="12" t="s">
         <v>189</v>
       </c>
@@ -8151,7 +8152,7 @@
       <c r="S212" s="13"/>
       <c r="T212" s="10"/>
     </row>
-    <row r="213" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="10"/>
       <c r="B213" s="10" t="s">
         <v>431</v>
@@ -8179,7 +8180,7 @@
       <c r="S213" s="10"/>
       <c r="T213" s="10"/>
     </row>
-    <row r="214" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A214" s="10"/>
       <c r="B214" s="10" t="s">
         <v>432</v>
@@ -8207,7 +8208,7 @@
       <c r="S214" s="10"/>
       <c r="T214" s="10"/>
     </row>
-    <row r="215" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A215" s="10"/>
       <c r="B215" s="10" t="s">
         <v>433</v>
@@ -8235,7 +8236,7 @@
       <c r="S215" s="10"/>
       <c r="T215" s="10"/>
     </row>
-    <row r="216" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="10"/>
       <c r="B216" s="10" t="s">
         <v>434</v>
@@ -8263,7 +8264,7 @@
       <c r="S216" s="10"/>
       <c r="T216" s="10"/>
     </row>
-    <row r="217" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A217" s="10"/>
       <c r="B217" s="10" t="s">
         <v>435</v>
@@ -8291,7 +8292,7 @@
       <c r="S217" s="10"/>
       <c r="T217" s="10"/>
     </row>
-    <row r="218" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A218" s="10"/>
       <c r="B218" s="10" t="s">
         <v>436</v>
@@ -8319,7 +8320,7 @@
       <c r="S218" s="10"/>
       <c r="T218" s="10"/>
     </row>
-    <row r="219" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B219" s="12" t="s">
         <v>191</v>
       </c>
@@ -8336,7 +8337,7 @@
       <c r="S219" s="13"/>
       <c r="T219" s="10"/>
     </row>
-    <row r="220" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A220" s="10"/>
       <c r="B220" s="10" t="s">
         <v>437</v>
@@ -8364,7 +8365,7 @@
       <c r="S220" s="10"/>
       <c r="T220" s="10"/>
     </row>
-    <row r="221" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A221" s="10"/>
       <c r="B221" s="10" t="s">
         <v>438</v>
@@ -8392,7 +8393,7 @@
       <c r="S221" s="10"/>
       <c r="T221" s="10"/>
     </row>
-    <row r="222" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A222" s="10"/>
       <c r="B222" s="10" t="s">
         <v>439</v>
@@ -8422,7 +8423,7 @@
       <c r="S222" s="10"/>
       <c r="T222" s="10"/>
     </row>
-    <row r="223" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A223" s="10"/>
       <c r="B223" s="10" t="s">
         <v>441</v>
@@ -8450,7 +8451,7 @@
       <c r="S223" s="10"/>
       <c r="T223" s="10"/>
     </row>
-    <row r="224" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B224" s="12" t="s">
         <v>192</v>
       </c>
@@ -8467,7 +8468,7 @@
       <c r="S224" s="13"/>
       <c r="T224" s="10"/>
     </row>
-    <row r="225" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A225" s="10"/>
       <c r="B225" s="10" t="s">
         <v>442</v>
@@ -8495,7 +8496,7 @@
       <c r="S225" s="10"/>
       <c r="T225" s="10"/>
     </row>
-    <row r="226" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A226" s="10"/>
       <c r="B226" s="10" t="s">
         <v>443</v>
@@ -8523,7 +8524,7 @@
       <c r="S226" s="10"/>
       <c r="T226" s="10"/>
     </row>
-    <row r="227" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="10"/>
       <c r="B227" s="10" t="s">
         <v>444</v>
@@ -8551,7 +8552,7 @@
       <c r="S227" s="10"/>
       <c r="T227" s="10"/>
     </row>
-    <row r="228" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A228" s="10"/>
       <c r="B228" s="10" t="s">
         <v>445</v>
@@ -8579,7 +8580,7 @@
       <c r="S228" s="10"/>
       <c r="T228" s="10"/>
     </row>
-    <row r="229" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="10"/>
       <c r="B229" s="10" t="s">
         <v>113</v>
@@ -8607,7 +8608,7 @@
       <c r="S229" s="10"/>
       <c r="T229" s="10"/>
     </row>
-    <row r="230" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A230" s="10"/>
       <c r="B230" s="10" t="s">
         <v>446</v>
@@ -8635,7 +8636,7 @@
       <c r="S230" s="10"/>
       <c r="T230" s="10"/>
     </row>
-    <row r="231" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="10"/>
       <c r="B231" s="10" t="s">
         <v>447</v>
@@ -8663,7 +8664,7 @@
       <c r="S231" s="10"/>
       <c r="T231" s="10"/>
     </row>
-    <row r="232" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A232" s="10"/>
       <c r="B232" s="10" t="s">
         <v>448</v>
@@ -8691,7 +8692,7 @@
       <c r="S232" s="10"/>
       <c r="T232" s="10"/>
     </row>
-    <row r="233" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A233" s="10"/>
       <c r="B233" s="10" t="s">
         <v>449</v>
@@ -8719,7 +8720,7 @@
       <c r="S233" s="10"/>
       <c r="T233" s="10"/>
     </row>
-    <row r="234" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A234" s="10"/>
       <c r="B234" s="10" t="s">
         <v>450</v>
@@ -8747,7 +8748,7 @@
       <c r="S234" s="10"/>
       <c r="T234" s="10"/>
     </row>
-    <row r="235" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A235" s="10"/>
       <c r="B235" s="10" t="s">
         <v>451</v>
@@ -8775,7 +8776,7 @@
       <c r="S235" s="10"/>
       <c r="T235" s="10"/>
     </row>
-    <row r="236" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B236" s="12" t="s">
         <v>193</v>
       </c>
@@ -8792,7 +8793,7 @@
       <c r="S236" s="13"/>
       <c r="T236" s="10"/>
     </row>
-    <row r="237" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B237" s="12" t="s">
         <v>194</v>
       </c>
@@ -8809,7 +8810,7 @@
       <c r="S237" s="13"/>
       <c r="T237" s="10"/>
     </row>
-    <row r="238" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B238" s="12" t="s">
         <v>195</v>
       </c>
@@ -8829,7 +8830,7 @@
       <c r="S238" s="13"/>
       <c r="T238" s="10"/>
     </row>
-    <row r="239" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B239" s="12" t="s">
         <v>197</v>
       </c>
@@ -8846,7 +8847,7 @@
       <c r="S239" s="13"/>
       <c r="T239" s="10"/>
     </row>
-    <row r="240" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A240" s="10"/>
       <c r="B240" s="10" t="s">
         <v>452</v>
@@ -8874,7 +8875,7 @@
       <c r="S240" s="10"/>
       <c r="T240" s="10"/>
     </row>
-    <row r="241" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A241" s="10"/>
       <c r="B241" s="10" t="s">
         <v>453</v>
@@ -8902,7 +8903,7 @@
       <c r="S241" s="10"/>
       <c r="T241" s="10"/>
     </row>
-    <row r="242" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A242" s="10"/>
       <c r="B242" s="10" t="s">
         <v>454</v>
@@ -8930,7 +8931,7 @@
       <c r="S242" s="10"/>
       <c r="T242" s="10"/>
     </row>
-    <row r="243" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A243" s="10"/>
       <c r="B243" s="10" t="s">
         <v>455</v>
@@ -8958,7 +8959,7 @@
       <c r="S243" s="10"/>
       <c r="T243" s="10"/>
     </row>
-    <row r="244" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A244" s="10"/>
       <c r="B244" s="10" t="s">
         <v>456</v>
@@ -8986,7 +8987,7 @@
       <c r="S244" s="10"/>
       <c r="T244" s="10"/>
     </row>
-    <row r="245" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A245" s="10"/>
       <c r="B245" s="10" t="s">
         <v>457</v>
@@ -9014,7 +9015,7 @@
       <c r="S245" s="10"/>
       <c r="T245" s="10"/>
     </row>
-    <row r="246" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="10"/>
       <c r="B246" s="10" t="s">
         <v>458</v>
@@ -9042,7 +9043,7 @@
       <c r="S246" s="10"/>
       <c r="T246" s="10"/>
     </row>
-    <row r="247" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="10"/>
       <c r="B247" s="10" t="s">
         <v>459</v>
@@ -9070,7 +9071,7 @@
       <c r="S247" s="10"/>
       <c r="T247" s="10"/>
     </row>
-    <row r="248" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="10"/>
       <c r="B248" s="10" t="s">
         <v>460</v>
@@ -9098,7 +9099,7 @@
       <c r="S248" s="10"/>
       <c r="T248" s="10"/>
     </row>
-    <row r="249" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="10"/>
       <c r="B249" s="10" t="s">
         <v>461</v>
@@ -9128,7 +9129,7 @@
       <c r="S249" s="10"/>
       <c r="T249" s="10"/>
     </row>
-    <row r="250" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A250" s="10"/>
       <c r="B250" s="10" t="s">
         <v>463</v>
@@ -9156,7 +9157,7 @@
       <c r="S250" s="10"/>
       <c r="T250" s="10"/>
     </row>
-    <row r="251" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A251" s="10"/>
       <c r="B251" s="10" t="s">
         <v>464</v>
@@ -9184,7 +9185,7 @@
       <c r="S251" s="10"/>
       <c r="T251" s="10"/>
     </row>
-    <row r="252" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A252" s="10"/>
       <c r="B252" s="10" t="s">
         <v>465</v>
@@ -9212,7 +9213,7 @@
       <c r="S252" s="10"/>
       <c r="T252" s="10"/>
     </row>
-    <row r="253" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A253" s="10"/>
       <c r="B253" s="10" t="s">
         <v>466</v>
@@ -9240,7 +9241,7 @@
       <c r="S253" s="10"/>
       <c r="T253" s="10"/>
     </row>
-    <row r="254" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="10"/>
       <c r="B254" s="10" t="s">
         <v>467</v>
@@ -9270,7 +9271,7 @@
       <c r="S254" s="10"/>
       <c r="T254" s="10"/>
     </row>
-    <row r="255" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A255" s="10"/>
       <c r="B255" s="10" t="s">
         <v>469</v>
@@ -9298,7 +9299,7 @@
       <c r="S255" s="10"/>
       <c r="T255" s="10"/>
     </row>
-    <row r="256" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="10"/>
       <c r="B256" s="10" t="s">
         <v>470</v>
@@ -9326,7 +9327,7 @@
       <c r="S256" s="10"/>
       <c r="T256" s="10"/>
     </row>
-    <row r="257" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="10"/>
       <c r="B257" s="10" t="s">
         <v>471</v>
@@ -9354,7 +9355,7 @@
       <c r="S257" s="10"/>
       <c r="T257" s="10"/>
     </row>
-    <row r="258" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A258" s="10"/>
       <c r="B258" s="10" t="s">
         <v>472</v>
@@ -9382,7 +9383,7 @@
       <c r="S258" s="10"/>
       <c r="T258" s="10"/>
     </row>
-    <row r="259" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="10"/>
       <c r="B259" s="10" t="s">
         <v>473</v>
@@ -9410,7 +9411,7 @@
       <c r="S259" s="10"/>
       <c r="T259" s="10"/>
     </row>
-    <row r="260" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="10"/>
       <c r="B260" s="10" t="s">
         <v>245</v>
@@ -9440,7 +9441,7 @@
       <c r="S260" s="10"/>
       <c r="T260" s="10"/>
     </row>
-    <row r="261" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B261" s="12" t="s">
         <v>126</v>
       </c>
@@ -9460,7 +9461,7 @@
       <c r="S261" s="13"/>
       <c r="T261" s="10"/>
     </row>
-    <row r="262" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B262" s="12" t="s">
         <v>199</v>
       </c>
@@ -9477,7 +9478,7 @@
       <c r="S262" s="13"/>
       <c r="T262" s="10"/>
     </row>
-    <row r="263" spans="1:20" s="30" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:20" s="30" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B263" s="30" t="s">
         <v>636</v>
       </c>
@@ -9503,7 +9504,7 @@
       <c r="S263" s="29"/>
       <c r="T263" s="31"/>
     </row>
-    <row r="264" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="10"/>
       <c r="B264" s="10" t="s">
         <v>474</v>
@@ -9531,7 +9532,7 @@
       <c r="S264" s="10"/>
       <c r="T264" s="10"/>
     </row>
-    <row r="265" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A265" s="10"/>
       <c r="B265" s="10" t="s">
         <v>475</v>
@@ -9559,7 +9560,7 @@
       <c r="S265" s="10"/>
       <c r="T265" s="10"/>
     </row>
-    <row r="266" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A266" s="10"/>
       <c r="B266" s="10" t="s">
         <v>476</v>
@@ -9587,7 +9588,7 @@
       <c r="S266" s="10"/>
       <c r="T266" s="10"/>
     </row>
-    <row r="267" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A267" s="10"/>
       <c r="B267" s="10" t="s">
         <v>477</v>
@@ -9615,7 +9616,7 @@
       <c r="S267" s="10"/>
       <c r="T267" s="10"/>
     </row>
-    <row r="268" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A268" s="10"/>
       <c r="B268" s="10" t="s">
         <v>478</v>
@@ -9643,7 +9644,7 @@
       <c r="S268" s="10"/>
       <c r="T268" s="10"/>
     </row>
-    <row r="269" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A269" s="11"/>
       <c r="B269" s="11" t="s">
         <v>65</v>
@@ -9669,7 +9670,7 @@
       <c r="S269" s="11"/>
       <c r="T269" s="10"/>
     </row>
-    <row r="270" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A270" s="10"/>
       <c r="B270" s="10" t="s">
         <v>479</v>
@@ -9697,7 +9698,7 @@
       <c r="S270" s="10"/>
       <c r="T270" s="10"/>
     </row>
-    <row r="271" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A271" s="10"/>
       <c r="B271" s="10" t="s">
         <v>480</v>
@@ -9725,7 +9726,7 @@
       <c r="S271" s="10"/>
       <c r="T271" s="10"/>
     </row>
-    <row r="272" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A272" s="10"/>
       <c r="B272" s="10" t="s">
         <v>481</v>
@@ -9753,7 +9754,7 @@
       <c r="S272" s="10"/>
       <c r="T272" s="10"/>
     </row>
-    <row r="273" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A273" s="10"/>
       <c r="B273" s="10" t="s">
         <v>482</v>
@@ -9781,7 +9782,7 @@
       <c r="S273" s="10"/>
       <c r="T273" s="10"/>
     </row>
-    <row r="274" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="10"/>
       <c r="B274" s="10" t="s">
         <v>483</v>
@@ -9809,7 +9810,7 @@
       <c r="S274" s="10"/>
       <c r="T274" s="10"/>
     </row>
-    <row r="275" spans="1:20" s="12" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:20" s="12" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A275" s="10"/>
       <c r="B275" s="13" t="s">
         <v>6</v>
@@ -9845,7 +9846,7 @@
       <c r="S275" s="10"/>
       <c r="T275" s="10"/>
     </row>
-    <row r="276" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="10"/>
       <c r="B276" s="10" t="s">
         <v>484</v>
@@ -9877,7 +9878,7 @@
       <c r="S276" s="10"/>
       <c r="T276" s="10"/>
     </row>
-    <row r="277" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A277" s="10"/>
       <c r="B277" s="10" t="s">
         <v>487</v>
@@ -9905,7 +9906,7 @@
       <c r="S277" s="10"/>
       <c r="T277" s="10"/>
     </row>
-    <row r="278" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B278" s="12" t="s">
         <v>200</v>
       </c>
@@ -9922,7 +9923,7 @@
       <c r="S278" s="13"/>
       <c r="T278" s="10"/>
     </row>
-    <row r="279" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="12" t="s">
         <v>201</v>
       </c>
@@ -9939,7 +9940,7 @@
       <c r="S279" s="13"/>
       <c r="T279" s="10"/>
     </row>
-    <row r="280" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B280" s="12" t="s">
         <v>202</v>
       </c>
@@ -9959,7 +9960,7 @@
       <c r="S280" s="13"/>
       <c r="T280" s="10"/>
     </row>
-    <row r="281" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B281" s="12" t="s">
         <v>204</v>
       </c>
@@ -9976,7 +9977,7 @@
       <c r="S281" s="13"/>
       <c r="T281" s="10"/>
     </row>
-    <row r="282" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B282" s="12" t="s">
         <v>205</v>
       </c>
@@ -9993,7 +9994,7 @@
       <c r="S282" s="13"/>
       <c r="T282" s="10"/>
     </row>
-    <row r="283" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B283" s="12" t="s">
         <v>206</v>
       </c>
@@ -10010,7 +10011,7 @@
       <c r="S283" s="13"/>
       <c r="T283" s="10"/>
     </row>
-    <row r="284" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="12" t="s">
         <v>207</v>
       </c>
@@ -10027,7 +10028,7 @@
       <c r="S284" s="13"/>
       <c r="T284" s="10"/>
     </row>
-    <row r="285" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="12" t="s">
         <v>208</v>
       </c>
@@ -10044,7 +10045,7 @@
       <c r="S285" s="13"/>
       <c r="T285" s="10"/>
     </row>
-    <row r="286" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B286" s="12" t="s">
         <v>209</v>
       </c>
@@ -10061,7 +10062,7 @@
       <c r="S286" s="13"/>
       <c r="T286" s="10"/>
     </row>
-    <row r="287" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="12" t="s">
         <v>210</v>
       </c>
@@ -10078,7 +10079,7 @@
       <c r="S287" s="13"/>
       <c r="T287" s="10"/>
     </row>
-    <row r="288" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="12" t="s">
         <v>211</v>
       </c>
@@ -10095,7 +10096,7 @@
       <c r="S288" s="13"/>
       <c r="T288" s="10"/>
     </row>
-    <row r="289" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="12" t="s">
         <v>212</v>
       </c>
@@ -10112,7 +10113,7 @@
       <c r="S289" s="13"/>
       <c r="T289" s="10"/>
     </row>
-    <row r="290" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="12" t="s">
         <v>213</v>
       </c>
@@ -10129,7 +10130,7 @@
       <c r="S290" s="13"/>
       <c r="T290" s="10"/>
     </row>
-    <row r="291" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="12" t="s">
         <v>214</v>
       </c>
@@ -10146,7 +10147,7 @@
       <c r="S291" s="13"/>
       <c r="T291" s="10"/>
     </row>
-    <row r="292" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B292" s="12" t="s">
         <v>215</v>
       </c>
@@ -10163,7 +10164,7 @@
       <c r="S292" s="13"/>
       <c r="T292" s="10"/>
     </row>
-    <row r="293" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B293" s="12" t="s">
         <v>216</v>
       </c>
@@ -10180,7 +10181,7 @@
       <c r="S293" s="13"/>
       <c r="T293" s="10"/>
     </row>
-    <row r="294" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B294" s="12" t="s">
         <v>217</v>
       </c>
@@ -10197,7 +10198,7 @@
       <c r="S294" s="13"/>
       <c r="T294" s="10"/>
     </row>
-    <row r="295" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A295" s="10"/>
       <c r="B295" s="10" t="s">
         <v>488</v>
@@ -10225,7 +10226,7 @@
       <c r="S295" s="10"/>
       <c r="T295" s="10"/>
     </row>
-    <row r="296" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A296" s="10"/>
       <c r="B296" s="10" t="s">
         <v>489</v>
@@ -10253,7 +10254,7 @@
       <c r="S296" s="10"/>
       <c r="T296" s="10"/>
     </row>
-    <row r="297" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A297" s="10"/>
       <c r="B297" s="10" t="s">
         <v>490</v>
@@ -10281,7 +10282,7 @@
       <c r="S297" s="10"/>
       <c r="T297" s="10"/>
     </row>
-    <row r="298" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B298" s="12" t="s">
         <v>218</v>
       </c>
@@ -10298,7 +10299,7 @@
       <c r="S298" s="13"/>
       <c r="T298" s="10"/>
     </row>
-    <row r="299" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="10"/>
       <c r="B299" s="10" t="s">
         <v>491</v>
@@ -10326,7 +10327,7 @@
       <c r="S299" s="10"/>
       <c r="T299" s="10"/>
     </row>
-    <row r="300" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="10"/>
       <c r="B300" s="10" t="s">
         <v>492</v>
@@ -10356,7 +10357,7 @@
       <c r="S300" s="10"/>
       <c r="T300" s="10"/>
     </row>
-    <row r="301" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="10"/>
       <c r="B301" s="10" t="s">
         <v>494</v>
@@ -10384,7 +10385,7 @@
       <c r="S301" s="10"/>
       <c r="T301" s="10"/>
     </row>
-    <row r="302" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="10"/>
       <c r="B302" s="10" t="s">
         <v>338</v>
@@ -10412,7 +10413,7 @@
       <c r="S302" s="10"/>
       <c r="T302" s="10"/>
     </row>
-    <row r="303" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B303" s="12" t="s">
         <v>219</v>
       </c>
@@ -10429,7 +10430,7 @@
       <c r="S303" s="13"/>
       <c r="T303" s="10"/>
     </row>
-    <row r="304" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B304" s="12" t="s">
         <v>220</v>
       </c>
@@ -10446,7 +10447,7 @@
       <c r="S304" s="13"/>
       <c r="T304" s="10"/>
     </row>
-    <row r="305" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A305" s="10"/>
       <c r="B305" s="10" t="s">
         <v>495</v>
@@ -10474,7 +10475,7 @@
       <c r="S305" s="10"/>
       <c r="T305" s="10"/>
     </row>
-    <row r="306" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A306" s="10"/>
       <c r="B306" s="10" t="s">
         <v>496</v>
@@ -10502,7 +10503,7 @@
       <c r="S306" s="10"/>
       <c r="T306" s="10"/>
     </row>
-    <row r="307" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="10"/>
       <c r="B307" s="10" t="s">
         <v>497</v>
@@ -10530,7 +10531,7 @@
       <c r="S307" s="10"/>
       <c r="T307" s="10"/>
     </row>
-    <row r="308" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="10"/>
       <c r="B308" s="10" t="s">
         <v>498</v>
@@ -10558,7 +10559,7 @@
       <c r="S308" s="10"/>
       <c r="T308" s="10"/>
     </row>
-    <row r="309" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A309" s="10"/>
       <c r="B309" s="10" t="s">
         <v>499</v>
@@ -10586,7 +10587,7 @@
       <c r="S309" s="10"/>
       <c r="T309" s="10"/>
     </row>
-    <row r="310" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A310" s="10"/>
       <c r="B310" s="10" t="s">
         <v>500</v>
@@ -10614,7 +10615,7 @@
       <c r="S310" s="10"/>
       <c r="T310" s="10"/>
     </row>
-    <row r="311" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A311" s="10"/>
       <c r="B311" s="10" t="s">
         <v>501</v>
@@ -10642,7 +10643,7 @@
       <c r="S311" s="10"/>
       <c r="T311" s="10"/>
     </row>
-    <row r="312" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A312" s="10"/>
       <c r="B312" s="10" t="s">
         <v>502</v>
@@ -10670,7 +10671,7 @@
       <c r="S312" s="10"/>
       <c r="T312" s="10"/>
     </row>
-    <row r="313" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A313" s="10"/>
       <c r="B313" s="10" t="s">
         <v>503</v>
@@ -10698,7 +10699,7 @@
       <c r="S313" s="10"/>
       <c r="T313" s="10"/>
     </row>
-    <row r="314" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A314" s="10"/>
       <c r="B314" s="10" t="s">
         <v>504</v>
@@ -10726,7 +10727,7 @@
       <c r="S314" s="10"/>
       <c r="T314" s="10"/>
     </row>
-    <row r="315" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B315" s="12" t="s">
         <v>221</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="S315" s="13"/>
       <c r="T315" s="10"/>
     </row>
-    <row r="316" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A316" s="10"/>
       <c r="B316" s="10" t="s">
         <v>505</v>
@@ -10771,7 +10772,7 @@
       <c r="S316" s="10"/>
       <c r="T316" s="10"/>
     </row>
-    <row r="317" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B317" s="12" t="s">
         <v>222</v>
       </c>
@@ -10788,7 +10789,7 @@
       <c r="S317" s="13"/>
       <c r="T317" s="10"/>
     </row>
-    <row r="318" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A318" s="10"/>
       <c r="B318" s="10" t="s">
         <v>506</v>
@@ -10816,7 +10817,7 @@
       <c r="S318" s="10"/>
       <c r="T318" s="10"/>
     </row>
-    <row r="319" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A319" s="10"/>
       <c r="B319" s="10" t="s">
         <v>507</v>
@@ -10844,7 +10845,7 @@
       <c r="S319" s="10"/>
       <c r="T319" s="10"/>
     </row>
-    <row r="320" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A320" s="10"/>
       <c r="B320" s="10" t="s">
         <v>508</v>
@@ -10872,7 +10873,7 @@
       <c r="S320" s="10"/>
       <c r="T320" s="10"/>
     </row>
-    <row r="321" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A321" s="10"/>
       <c r="B321" s="10" t="s">
         <v>509</v>
@@ -10900,7 +10901,7 @@
       <c r="S321" s="10"/>
       <c r="T321" s="10"/>
     </row>
-    <row r="322" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A322" s="10"/>
       <c r="B322" s="10" t="s">
         <v>510</v>
@@ -10928,7 +10929,7 @@
       <c r="S322" s="10"/>
       <c r="T322" s="10"/>
     </row>
-    <row r="323" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A323" s="10"/>
       <c r="B323" s="10" t="s">
         <v>511</v>
@@ -10956,7 +10957,7 @@
       <c r="S323" s="10"/>
       <c r="T323" s="10"/>
     </row>
-    <row r="324" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A324" s="10"/>
       <c r="B324" s="10" t="s">
         <v>512</v>
@@ -10984,7 +10985,7 @@
       <c r="S324" s="10"/>
       <c r="T324" s="10"/>
     </row>
-    <row r="325" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A325" s="10"/>
       <c r="B325" s="10" t="s">
         <v>513</v>
@@ -11012,7 +11013,7 @@
       <c r="S325" s="10"/>
       <c r="T325" s="10"/>
     </row>
-    <row r="326" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A326" s="10"/>
       <c r="B326" s="10" t="s">
         <v>514</v>
@@ -11040,7 +11041,7 @@
       <c r="S326" s="10"/>
       <c r="T326" s="10"/>
     </row>
-    <row r="327" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A327" s="10"/>
       <c r="B327" s="10" t="s">
         <v>515</v>
@@ -11068,7 +11069,7 @@
       <c r="S327" s="10"/>
       <c r="T327" s="10"/>
     </row>
-    <row r="328" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B328" s="12" t="s">
         <v>223</v>
       </c>
@@ -11088,7 +11089,7 @@
       <c r="S328" s="13"/>
       <c r="T328" s="10"/>
     </row>
-    <row r="329" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B329" s="12" t="s">
         <v>224</v>
       </c>
@@ -11105,7 +11106,7 @@
       <c r="S329" s="13"/>
       <c r="T329" s="10"/>
     </row>
-    <row r="330" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A330" s="10"/>
       <c r="B330" s="10" t="s">
         <v>516</v>
@@ -11133,7 +11134,7 @@
       <c r="S330" s="10"/>
       <c r="T330" s="10"/>
     </row>
-    <row r="331" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A331" s="10"/>
       <c r="B331" s="10" t="s">
         <v>517</v>
@@ -11161,7 +11162,7 @@
       <c r="S331" s="10"/>
       <c r="T331" s="10"/>
     </row>
-    <row r="332" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B332" s="12" t="s">
         <v>129</v>
       </c>
@@ -11181,7 +11182,7 @@
       <c r="S332" s="13"/>
       <c r="T332" s="10"/>
     </row>
-    <row r="333" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B333" s="12" t="s">
         <v>226</v>
       </c>
@@ -11201,7 +11202,7 @@
       <c r="S333" s="13"/>
       <c r="T333" s="10"/>
     </row>
-    <row r="334" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B334" s="12" t="s">
         <v>227</v>
       </c>
@@ -11218,7 +11219,7 @@
       <c r="S334" s="13"/>
       <c r="T334" s="10"/>
     </row>
-    <row r="335" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B335" s="12" t="s">
         <v>228</v>
       </c>
@@ -11238,7 +11239,7 @@
       <c r="S335" s="13"/>
       <c r="T335" s="10"/>
     </row>
-    <row r="336" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B336" s="12" t="s">
         <v>229</v>
       </c>
@@ -11255,7 +11256,7 @@
       <c r="S336" s="13"/>
       <c r="T336" s="10"/>
     </row>
-    <row r="337" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B337" s="12" t="s">
         <v>230</v>
       </c>
@@ -11272,7 +11273,7 @@
       <c r="S337" s="13"/>
       <c r="T337" s="10"/>
     </row>
-    <row r="338" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B338" s="12" t="s">
         <v>231</v>
       </c>
@@ -11289,7 +11290,7 @@
       <c r="S338" s="13"/>
       <c r="T338" s="10"/>
     </row>
-    <row r="339" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B339" s="12" t="s">
         <v>131</v>
       </c>
@@ -11306,7 +11307,7 @@
       <c r="S339" s="13"/>
       <c r="T339" s="10"/>
     </row>
-    <row r="340" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B340" s="12" t="s">
         <v>232</v>
       </c>
@@ -11323,7 +11324,7 @@
       <c r="S340" s="13"/>
       <c r="T340" s="10"/>
     </row>
-    <row r="341" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B341" s="12" t="s">
         <v>233</v>
       </c>
@@ -11340,7 +11341,7 @@
       <c r="S341" s="13"/>
       <c r="T341" s="10"/>
     </row>
-    <row r="342" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A342" s="10"/>
       <c r="B342" s="10" t="s">
         <v>518</v>
@@ -11368,7 +11369,7 @@
       <c r="S342" s="10"/>
       <c r="T342" s="10"/>
     </row>
-    <row r="343" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A343" s="10"/>
       <c r="B343" s="10" t="s">
         <v>519</v>
@@ -11396,7 +11397,7 @@
       <c r="S343" s="10"/>
       <c r="T343" s="10"/>
     </row>
-    <row r="344" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A344" s="10"/>
       <c r="B344" s="10" t="s">
         <v>520</v>
@@ -11424,7 +11425,7 @@
       <c r="S344" s="10"/>
       <c r="T344" s="10"/>
     </row>
-    <row r="345" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A345" s="10"/>
       <c r="B345" s="10" t="s">
         <v>521</v>
@@ -11452,7 +11453,7 @@
       <c r="S345" s="10"/>
       <c r="T345" s="10"/>
     </row>
-    <row r="346" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A346" s="10"/>
       <c r="B346" s="10" t="s">
         <v>522</v>
@@ -11480,7 +11481,7 @@
       <c r="S346" s="10"/>
       <c r="T346" s="10"/>
     </row>
-    <row r="347" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A347" s="10"/>
       <c r="B347" s="10" t="s">
         <v>523</v>
@@ -11508,7 +11509,7 @@
       <c r="S347" s="10"/>
       <c r="T347" s="10"/>
     </row>
-    <row r="348" spans="1:20" s="25" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:20" s="25" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="A348" s="23"/>
       <c r="B348" s="23" t="s">
         <v>71</v>
@@ -11539,7 +11540,7 @@
       <c r="S348" s="23"/>
       <c r="T348" s="23"/>
     </row>
-    <row r="349" spans="1:20" s="25" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:20" s="25" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A349" s="23"/>
       <c r="B349" s="23" t="s">
         <v>524</v>
@@ -11569,7 +11570,7 @@
       <c r="S349" s="23"/>
       <c r="T349" s="23"/>
     </row>
-    <row r="350" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A350" s="10"/>
       <c r="B350" s="10" t="s">
         <v>525</v>
@@ -11597,7 +11598,7 @@
       <c r="S350" s="10"/>
       <c r="T350" s="10"/>
     </row>
-    <row r="351" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A351" s="10"/>
       <c r="B351" s="10" t="s">
         <v>526</v>
@@ -11627,7 +11628,7 @@
       <c r="S351" s="10"/>
       <c r="T351" s="10"/>
     </row>
-    <row r="352" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A352" s="10"/>
       <c r="B352" s="10" t="s">
         <v>528</v>
@@ -11655,7 +11656,7 @@
       <c r="S352" s="10"/>
       <c r="T352" s="10"/>
     </row>
-    <row r="353" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A353" s="10"/>
       <c r="B353" s="10" t="s">
         <v>529</v>
@@ -11683,7 +11684,7 @@
       <c r="S353" s="10"/>
       <c r="T353" s="10"/>
     </row>
-    <row r="354" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A354" s="10"/>
       <c r="B354" s="10" t="s">
         <v>530</v>
@@ -11713,7 +11714,7 @@
       <c r="S354" s="10"/>
       <c r="T354" s="10"/>
     </row>
-    <row r="355" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A355" s="10"/>
       <c r="B355" s="10" t="s">
         <v>532</v>
@@ -11741,7 +11742,7 @@
       <c r="S355" s="10"/>
       <c r="T355" s="10"/>
     </row>
-    <row r="356" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A356" s="10"/>
       <c r="B356" s="10" t="s">
         <v>533</v>
@@ -11771,7 +11772,7 @@
       <c r="S356" s="10"/>
       <c r="T356" s="10"/>
     </row>
-    <row r="357" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A357" s="10"/>
       <c r="B357" s="10" t="s">
         <v>534</v>
@@ -11799,7 +11800,7 @@
       <c r="S357" s="10"/>
       <c r="T357" s="10"/>
     </row>
-    <row r="358" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B358" s="12" t="s">
         <v>234</v>
       </c>
@@ -11816,7 +11817,7 @@
       <c r="S358" s="13"/>
       <c r="T358" s="10"/>
     </row>
-    <row r="359" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B359" s="12" t="s">
         <v>235</v>
       </c>
@@ -11833,7 +11834,7 @@
       <c r="S359" s="13"/>
       <c r="T359" s="10"/>
     </row>
-    <row r="360" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B360" s="12" t="s">
         <v>236</v>
       </c>
@@ -11850,7 +11851,7 @@
       <c r="S360" s="13"/>
       <c r="T360" s="10"/>
     </row>
-    <row r="361" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A361" s="10"/>
       <c r="B361" s="10" t="s">
         <v>535</v>
@@ -11878,7 +11879,7 @@
       <c r="S361" s="10"/>
       <c r="T361" s="10"/>
     </row>
-    <row r="362" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B362" s="12" t="s">
         <v>237</v>
       </c>
@@ -11895,7 +11896,7 @@
       <c r="S362" s="13"/>
       <c r="T362" s="10"/>
     </row>
-    <row r="363" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B363" s="12" t="s">
         <v>238</v>
       </c>
@@ -11912,7 +11913,7 @@
       <c r="S363" s="13"/>
       <c r="T363" s="10"/>
     </row>
-    <row r="364" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B364" s="12" t="s">
         <v>239</v>
       </c>
@@ -11938,7 +11939,7 @@
       <c r="S364" s="13"/>
       <c r="T364" s="10"/>
     </row>
-    <row r="365" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A365" s="10"/>
       <c r="B365" s="10" t="s">
         <v>537</v>
@@ -11970,7 +11971,7 @@
       <c r="S365" s="10"/>
       <c r="T365" s="10"/>
     </row>
-    <row r="366" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B366" s="12" t="s">
         <v>242</v>
       </c>
@@ -11987,7 +11988,7 @@
       <c r="S366" s="13"/>
       <c r="T366" s="10"/>
     </row>
-    <row r="367" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
         <v>630</v>
       </c>
@@ -11998,7 +11999,7 @@
       <c r="S367" s="13"/>
       <c r="T367" s="10"/>
     </row>
-    <row r="368" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B368" s="12" t="s">
         <v>243</v>
       </c>
@@ -12024,7 +12025,7 @@
       <c r="S368" s="13"/>
       <c r="T368" s="10"/>
     </row>
-    <row r="369" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B369" s="12" t="s">
         <v>246</v>
       </c>
@@ -12041,7 +12042,7 @@
       <c r="S369" s="13"/>
       <c r="T369" s="10"/>
     </row>
-    <row r="370" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B370" s="12" t="s">
         <v>247</v>
       </c>
@@ -12064,7 +12065,7 @@
       <c r="S370" s="13"/>
       <c r="T370" s="10"/>
     </row>
-    <row r="371" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B371" s="12" t="s">
         <v>250</v>
       </c>
@@ -12081,7 +12082,7 @@
       <c r="S371" s="13"/>
       <c r="T371" s="10"/>
     </row>
-    <row r="372" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A372" s="10"/>
       <c r="B372" s="10" t="s">
         <v>542</v>
@@ -12109,7 +12110,7 @@
       <c r="S372" s="10"/>
       <c r="T372" s="10"/>
     </row>
-    <row r="373" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B373" s="12" t="s">
         <v>251</v>
       </c>
@@ -12126,7 +12127,7 @@
       <c r="S373" s="13"/>
       <c r="T373" s="10"/>
     </row>
-    <row r="374" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A374" s="10"/>
       <c r="B374" s="10" t="s">
         <v>543</v>
@@ -12156,7 +12157,7 @@
       <c r="S374" s="10"/>
       <c r="T374" s="10"/>
     </row>
-    <row r="375" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A375" s="10"/>
       <c r="B375" s="10" t="s">
         <v>545</v>
@@ -12184,7 +12185,7 @@
       <c r="S375" s="10"/>
       <c r="T375" s="10"/>
     </row>
-    <row r="376" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A376" s="10"/>
       <c r="B376" s="10" t="s">
         <v>546</v>
@@ -12212,7 +12213,7 @@
       <c r="S376" s="10"/>
       <c r="T376" s="10"/>
     </row>
-    <row r="377" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A377" s="10"/>
       <c r="B377" s="10" t="s">
         <v>547</v>
@@ -12240,7 +12241,7 @@
       <c r="S377" s="10"/>
       <c r="T377" s="10"/>
     </row>
-    <row r="378" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:20" s="12" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A378" s="10"/>
       <c r="B378" s="10" t="s">
         <v>548</v>
@@ -12268,7 +12269,7 @@
       <c r="S378" s="10"/>
       <c r="T378" s="10"/>
     </row>
-    <row r="379" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A379" s="10"/>
       <c r="B379" s="10" t="s">
         <v>549</v>
@@ -12296,7 +12297,7 @@
       <c r="S379" s="10"/>
       <c r="T379" s="10"/>
     </row>
-    <row r="380" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A380" s="10"/>
       <c r="B380" s="10" t="s">
         <v>550</v>
@@ -12324,7 +12325,7 @@
       <c r="S380" s="10"/>
       <c r="T380" s="10"/>
     </row>
-    <row r="381" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A381" s="10"/>
       <c r="B381" s="10" t="s">
         <v>551</v>
@@ -12352,7 +12353,7 @@
       <c r="S381" s="10"/>
       <c r="T381" s="10"/>
     </row>
-    <row r="382" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A382" s="10"/>
       <c r="B382" s="10" t="s">
         <v>552</v>
@@ -12380,7 +12381,7 @@
       <c r="S382" s="10"/>
       <c r="T382" s="10"/>
     </row>
-    <row r="383" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A383" s="10"/>
       <c r="B383" s="10" t="s">
         <v>553</v>
@@ -12408,7 +12409,7 @@
       <c r="S383" s="10"/>
       <c r="T383" s="10"/>
     </row>
-    <row r="384" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A384" s="10"/>
       <c r="B384" s="10" t="s">
         <v>554</v>
@@ -12436,7 +12437,7 @@
       <c r="S384" s="10"/>
       <c r="T384" s="10"/>
     </row>
-    <row r="385" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A385" s="10"/>
       <c r="B385" s="10" t="s">
         <v>555</v>
@@ -12464,7 +12465,7 @@
       <c r="S385" s="10"/>
       <c r="T385" s="10"/>
     </row>
-    <row r="386" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A386" s="10"/>
       <c r="B386" s="10" t="s">
         <v>556</v>
@@ -12492,7 +12493,7 @@
       <c r="S386" s="10"/>
       <c r="T386" s="10"/>
     </row>
-    <row r="387" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
         <v>136</v>
       </c>
@@ -12512,7 +12513,7 @@
       <c r="S387" s="13"/>
       <c r="T387" s="10"/>
     </row>
-    <row r="388" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B388" s="12" t="s">
         <v>253</v>
       </c>
@@ -12529,7 +12530,7 @@
       <c r="S388" s="13"/>
       <c r="T388" s="10"/>
     </row>
-    <row r="389" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B389" s="12" t="s">
         <v>254</v>
       </c>
@@ -12546,7 +12547,7 @@
       <c r="S389" s="13"/>
       <c r="T389" s="10"/>
     </row>
-    <row r="390" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B390" s="12" t="s">
         <v>255</v>
       </c>
@@ -12563,7 +12564,7 @@
       <c r="S390" s="13"/>
       <c r="T390" s="10"/>
     </row>
-    <row r="391" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B391" s="12" t="s">
         <v>256</v>
       </c>
@@ -12580,7 +12581,7 @@
       <c r="S391" s="13"/>
       <c r="T391" s="10"/>
     </row>
-    <row r="392" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B392" s="12" t="s">
         <v>257</v>
       </c>
@@ -12597,7 +12598,7 @@
       <c r="S392" s="13"/>
       <c r="T392" s="10"/>
     </row>
-    <row r="393" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A393" s="10"/>
       <c r="B393" s="10" t="s">
         <v>557</v>
@@ -12625,7 +12626,7 @@
       <c r="S393" s="10"/>
       <c r="T393" s="10"/>
     </row>
-    <row r="394" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A394" s="10"/>
       <c r="B394" s="10" t="s">
         <v>558</v>
@@ -12653,7 +12654,7 @@
       <c r="S394" s="10"/>
       <c r="T394" s="10"/>
     </row>
-    <row r="395" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A395" s="10"/>
       <c r="B395" s="10" t="s">
         <v>559</v>
@@ -12681,7 +12682,7 @@
       <c r="S395" s="10"/>
       <c r="T395" s="10"/>
     </row>
-    <row r="396" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A396" s="10"/>
       <c r="B396" s="10" t="s">
         <v>560</v>
@@ -12709,7 +12710,7 @@
       <c r="S396" s="10"/>
       <c r="T396" s="10"/>
     </row>
-    <row r="397" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B397" s="12" t="s">
         <v>258</v>
       </c>
@@ -12726,7 +12727,7 @@
       <c r="S397" s="13"/>
       <c r="T397" s="10"/>
     </row>
-    <row r="398" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B398" s="12" t="s">
         <v>259</v>
       </c>
@@ -12743,7 +12744,7 @@
       <c r="S398" s="13"/>
       <c r="T398" s="10"/>
     </row>
-    <row r="399" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A399" s="10"/>
       <c r="B399" s="10" t="s">
         <v>561</v>
@@ -12777,7 +12778,7 @@
       <c r="S399" s="10"/>
       <c r="T399" s="10"/>
     </row>
-    <row r="400" spans="1:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A400" s="10"/>
       <c r="B400" s="10" t="s">
         <v>563</v>
@@ -12805,7 +12806,7 @@
       <c r="S400" s="10"/>
       <c r="T400" s="10"/>
     </row>
-    <row r="401" spans="2:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="401" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B401" s="12" t="s">
         <v>260</v>
       </c>
@@ -12822,7 +12823,7 @@
       <c r="S401" s="13"/>
       <c r="T401" s="10"/>
     </row>
-    <row r="402" spans="2:20" s="12" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="402" spans="2:20" s="12" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B402" s="12" t="s">
         <v>261</v>
       </c>
@@ -12839,13 +12840,13 @@
       <c r="S402" s="13"/>
       <c r="T402" s="10"/>
     </row>
-    <row r="403" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B403" s="13"/>
       <c r="Q403" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="404" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B404" s="13"/>
       <c r="G404" s="11"/>
       <c r="H404" s="11"/>
@@ -12861,25 +12862,25 @@
       <c r="P404" s="11"/>
       <c r="Q404" s="11"/>
     </row>
-    <row r="405" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B405" s="13"/>
       <c r="Q405" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="406" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B406" s="13"/>
       <c r="Q406" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="407" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B407" s="13"/>
       <c r="Q407" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="408" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
       <c r="E408" s="11"/>
       <c r="F408" s="11"/>
@@ -12895,13 +12896,13 @@
       <c r="P408" s="11"/>
       <c r="Q408" s="11"/>
     </row>
-    <row r="409" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="2:20" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B409" s="13"/>
       <c r="Q409" s="10" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B410" s="13"/>
       <c r="C410" s="11"/>
       <c r="D410" s="21"/>
@@ -12919,7 +12920,7 @@
       <c r="P410" s="11"/>
       <c r="Q410" s="11"/>
     </row>
-    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B411" s="13"/>
       <c r="C411" s="11"/>
       <c r="D411" s="21"/>
@@ -12937,44 +12938,44 @@
       <c r="P411" s="11"/>
       <c r="Q411" s="11"/>
     </row>
-    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B412" s="13"/>
       <c r="R412" s="11"/>
     </row>
-    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B413" s="13"/>
     </row>
-    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B414" s="13"/>
     </row>
-    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B415" s="13"/>
     </row>
-    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="2:20" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B416" s="13"/>
     </row>
-    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B417" s="13"/>
     </row>
-    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B418" s="13"/>
     </row>
-    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B419" s="13"/>
     </row>
-    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B420" s="13"/>
     </row>
-    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A421" s="13"/>
       <c r="B421" s="13"/>
       <c r="S421" s="11"/>
     </row>
-    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B422" s="13"/>
       <c r="R422" s="11"/>
     </row>
-    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B423" s="13"/>
       <c r="C423" s="11"/>
       <c r="D423" s="21"/>
@@ -12992,7 +12993,7 @@
       <c r="P423" s="11"/>
       <c r="Q423" s="11"/>
     </row>
-    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B424" s="13"/>
       <c r="C424" s="11"/>
       <c r="D424" s="21"/>
@@ -13011,7 +13012,7 @@
       <c r="Q424" s="11"/>
       <c r="R424" s="11"/>
     </row>
-    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A425" s="11"/>
       <c r="B425" s="13"/>
       <c r="C425" s="11"/>
@@ -13032,7 +13033,7 @@
       <c r="R425" s="11"/>
       <c r="S425" s="11"/>
     </row>
-    <row r="426" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:19" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B426" s="13"/>
       <c r="C426" s="11"/>
       <c r="D426" s="21"/>
@@ -13051,7 +13052,7 @@
       <c r="Q426" s="11"/>
       <c r="R426" s="11"/>
     </row>
-    <row r="427" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B427" s="13"/>
     </row>
   </sheetData>
@@ -13064,23 +13065,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>83</v>
       </c>
@@ -13094,7 +13095,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -13105,7 +13106,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -13116,7 +13117,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -13130,7 +13131,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
@@ -13141,7 +13142,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>60</v>
       </c>
@@ -13155,7 +13156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>82</v>
       </c>
@@ -13166,7 +13167,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>74</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>73</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>67</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>75</v>
       </c>
@@ -13210,7 +13211,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>72</v>
       </c>
@@ -13221,7 +13222,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>44</v>
       </c>
@@ -13232,7 +13233,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>79</v>
       </c>
@@ -13243,7 +13244,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>114</v>
       </c>
@@ -13254,7 +13255,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>115</v>
       </c>
@@ -13265,7 +13266,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>116</v>
       </c>
@@ -13276,7 +13277,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>117</v>
       </c>
@@ -13287,7 +13288,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>580</v>
       </c>
@@ -13305,29 +13306,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -13365,7 +13366,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
@@ -13393,7 +13394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>17</v>
       </c>
@@ -13410,7 +13411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
@@ -13421,7 +13422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
@@ -13435,7 +13436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>26</v>
       </c>
@@ -13466,7 +13467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -13483,7 +13484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>30</v>
       </c>
@@ -13503,14 +13504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -13518,19 +13519,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>32</v>
       </c>
@@ -13565,7 +13566,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -13576,7 +13577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -13593,7 +13594,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -13610,7 +13611,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -13644,7 +13645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -13661,7 +13662,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -13678,7 +13679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -13695,7 +13696,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -13712,7 +13713,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -13729,7 +13730,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -13755,7 +13756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -13807,7 +13808,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -13833,7 +13834,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -13885,7 +13886,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -13911,7 +13912,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -13937,7 +13938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -13963,7 +13964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -13989,7 +13990,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -14015,7 +14016,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -14041,7 +14042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -14067,7 +14068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -14093,7 +14094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -14119,7 +14120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -14145,7 +14146,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -14171,7 +14172,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -14197,7 +14198,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
